--- a/CaseEfinal/files/FormatDepA.xlsx
+++ b/CaseEfinal/files/FormatDepA.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FITNESS = 133777.0" r:id="rId3" sheetId="1"/>
+    <sheet name="FITNESS = 92421.0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -72,10 +72,10 @@
         <v>0.0</v>
       </c>
       <c r="D1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F1" t="n">
         <v>0.0</v>
@@ -87,13 +87,13 @@
         <v>0.0</v>
       </c>
       <c r="I1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L1" t="n">
         <v>0.0</v>
@@ -105,7 +105,7 @@
         <v>0.0</v>
       </c>
       <c r="O1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P1" t="n">
         <v>1.0</v>
@@ -138,7 +138,7 @@
         <v>0.0</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA1" t="n">
         <v>0.0</v>
@@ -150,7 +150,7 @@
         <v>0.0</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE1" t="n">
         <v>0.0</v>
@@ -162,10 +162,10 @@
         <v>0.0</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ1" t="n">
         <v>0.0</v>
@@ -183,7 +183,7 @@
         <v>1.0</v>
       </c>
       <c r="AO1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP1" t="n">
         <v>0.0</v>
@@ -192,19 +192,19 @@
         <v>0.0</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS1" t="n">
         <v>0.0</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU1" t="n">
         <v>0.0</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW1" t="n">
         <v>0.0</v>
@@ -213,13 +213,13 @@
         <v>0.0</v>
       </c>
       <c r="AY1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ1" t="n">
         <v>0.0</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB1" t="n">
         <v>0.0</v>
@@ -267,10 +267,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS1" t="n">
         <v>0.0</v>
@@ -279,16 +279,16 @@
         <v>0.0</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV1" t="n">
         <v>0.0</v>
       </c>
       <c r="BW1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY1" t="n">
         <v>0.0</v>
@@ -300,16 +300,16 @@
         <v>0.0</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD1" t="n">
         <v>0.0</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF1" t="n">
         <v>0.0</v>
@@ -348,13 +348,13 @@
         <v>0.0</v>
       </c>
       <c r="CR1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS1" t="n">
         <v>0.0</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU1" t="n">
         <v>0.0</v>
@@ -363,7 +363,7 @@
         <v>0.0</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX1" t="n">
         <v>0.0</v>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="DA1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB1" t="n">
         <v>0.0</v>
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="DL1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM1" t="n">
         <v>0.0</v>
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP1" t="n">
         <v>0.0</v>
@@ -438,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="DV1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW1" t="n">
         <v>0.0</v>
@@ -447,13 +447,13 @@
         <v>0.0</v>
       </c>
       <c r="DY1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ1" t="n">
         <v>0.0</v>
       </c>
       <c r="EA1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB1" t="n">
         <v>0.0</v>
@@ -465,7 +465,7 @@
         <v>0.0</v>
       </c>
       <c r="EE1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF1" t="n">
         <v>0.0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -494,13 +494,13 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -512,16 +512,16 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -530,13 +530,13 @@
         <v>0.0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
@@ -551,16 +551,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X2" t="n">
         <v>0.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0</v>
@@ -572,7 +572,7 @@
         <v>0.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE2" t="n">
         <v>1.0</v>
@@ -620,7 +620,7 @@
         <v>0.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU2" t="n">
         <v>0.0</v>
@@ -632,7 +632,7 @@
         <v>0.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY2" t="n">
         <v>1.0</v>
@@ -656,13 +656,13 @@
         <v>0.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG2" t="n">
         <v>0.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI2" t="n">
         <v>0.0</v>
@@ -671,16 +671,16 @@
         <v>0.0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL2" t="n">
         <v>0.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO2" t="n">
         <v>0.0</v>
@@ -689,13 +689,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR2" t="n">
         <v>0.0</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT2" t="n">
         <v>0.0</v>
@@ -704,13 +704,13 @@
         <v>0.0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW2" t="n">
         <v>0.0</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY2" t="n">
         <v>0.0</v>
@@ -719,13 +719,13 @@
         <v>0.0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB2" t="n">
         <v>0.0</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD2" t="n">
         <v>0.0</v>
@@ -737,10 +737,10 @@
         <v>0.0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI2" t="n">
         <v>0.0</v>
@@ -752,10 +752,10 @@
         <v>0.0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN2" t="n">
         <v>0.0</v>
@@ -767,7 +767,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR2" t="n">
         <v>0.0</v>
@@ -776,16 +776,16 @@
         <v>0.0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU2" t="n">
         <v>0.0</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX2" t="n">
         <v>0.0</v>
@@ -794,13 +794,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA2" t="n">
         <v>0.0</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC2" t="n">
         <v>0.0</v>
@@ -812,10 +812,10 @@
         <v>0.0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH2" t="n">
         <v>0.0</v>
@@ -824,13 +824,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK2" t="n">
         <v>0.0</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM2" t="n">
         <v>0.0</v>
@@ -842,10 +842,10 @@
         <v>0.0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR2" t="n">
         <v>0.0</v>
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV2" t="n">
         <v>0.0</v>
@@ -875,7 +875,7 @@
         <v>1.0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB2" t="n">
         <v>0.0</v>
@@ -887,7 +887,7 @@
         <v>0.0</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF2" t="n">
         <v>1.0</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -919,7 +919,7 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -943,13 +943,13 @@
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P3" t="n">
         <v>0.0</v>
@@ -997,7 +997,7 @@
         <v>0.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF3" t="n">
         <v>0.0</v>
@@ -1009,10 +1009,10 @@
         <v>0.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK3" t="n">
         <v>0.0</v>
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO3" t="n">
         <v>0.0</v>
@@ -1042,13 +1042,13 @@
         <v>0.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU3" t="n">
         <v>0.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW3" t="n">
         <v>0.0</v>
@@ -1063,13 +1063,13 @@
         <v>0.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB3" t="n">
         <v>0.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD3" t="n">
         <v>0.0</v>
@@ -1078,10 +1078,10 @@
         <v>0.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH3" t="n">
         <v>0.0</v>
@@ -1093,16 +1093,16 @@
         <v>0.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM3" t="n">
         <v>0.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO3" t="n">
         <v>0.0</v>
@@ -1114,7 +1114,7 @@
         <v>0.0</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS3" t="n">
         <v>0.0</v>
@@ -1138,10 +1138,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB3" t="n">
         <v>0.0</v>
@@ -1243,22 +1243,22 @@
         <v>0.0</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ3" t="n">
         <v>0.0</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM3" t="n">
         <v>0.0</v>
       </c>
       <c r="DN3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO3" t="n">
         <v>0.0</v>
@@ -1267,13 +1267,13 @@
         <v>0.0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR3" t="n">
         <v>0.0</v>
       </c>
       <c r="DS3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT3" t="n">
         <v>0.0</v>
@@ -1303,13 +1303,13 @@
         <v>0.0</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED3" t="n">
         <v>0.0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF3" t="n">
         <v>0.0</v>
@@ -1335,22 +1335,22 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1365,22 +1365,22 @@
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S4" t="n">
         <v>0.0</v>
@@ -1389,7 +1389,7 @@
         <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V4" t="n">
         <v>0.0</v>
@@ -1401,7 +1401,7 @@
         <v>0.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z4" t="n">
         <v>0.0</v>
@@ -1410,13 +1410,13 @@
         <v>0.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE4" t="n">
         <v>0.0</v>
@@ -1425,10 +1425,10 @@
         <v>0.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI4" t="n">
         <v>0.0</v>
@@ -1440,13 +1440,13 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM4" t="n">
         <v>0.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO4" t="n">
         <v>0.0</v>
@@ -1455,13 +1455,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR4" t="n">
         <v>0.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT4" t="n">
         <v>0.0</v>
@@ -1485,13 +1485,13 @@
         <v>0.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB4" t="n">
         <v>0.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD4" t="n">
         <v>0.0</v>
@@ -1518,19 +1518,19 @@
         <v>0.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO4" t="n">
         <v>0.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ4" t="n">
         <v>0.0</v>
@@ -1539,13 +1539,13 @@
         <v>0.0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT4" t="n">
         <v>0.0</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV4" t="n">
         <v>0.0</v>
@@ -1575,13 +1575,13 @@
         <v>0.0</v>
       </c>
       <c r="CE4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF4" t="n">
         <v>0.0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH4" t="n">
         <v>0.0</v>
@@ -1608,10 +1608,10 @@
         <v>0.0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR4" t="n">
         <v>0.0</v>
@@ -1623,19 +1623,19 @@
         <v>0.0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX4" t="n">
         <v>0.0</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ4" t="n">
         <v>0.0</v>
@@ -1680,13 +1680,13 @@
         <v>0.0</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO4" t="n">
         <v>0.0</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0.0</v>
@@ -1695,13 +1695,13 @@
         <v>0.0</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT4" t="n">
         <v>0.0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV4" t="n">
         <v>0.0</v>
@@ -1713,13 +1713,13 @@
         <v>0.0</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB4" t="n">
         <v>0.0</v>
@@ -1731,16 +1731,16 @@
         <v>0.0</v>
       </c>
       <c r="EE4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG4" t="n">
         <v>0.0</v>
       </c>
       <c r="EH4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI4" t="n">
         <v>0.0</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1760,7 +1760,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -1772,10 +1772,10 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
@@ -1790,10 +1790,10 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P5" t="n">
         <v>0.0</v>
@@ -1802,10 +1802,10 @@
         <v>0.0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -1847,13 +1847,13 @@
         <v>0.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH5" t="n">
         <v>0.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.0</v>
@@ -1862,10 +1862,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN5" t="n">
         <v>0.0</v>
@@ -1880,10 +1880,10 @@
         <v>0.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT5" t="n">
         <v>0.0</v>
@@ -1895,10 +1895,10 @@
         <v>0.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY5" t="n">
         <v>0.0</v>
@@ -1916,7 +1916,7 @@
         <v>0.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE5" t="n">
         <v>0.0</v>
@@ -1925,7 +1925,7 @@
         <v>0.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH5" t="n">
         <v>0.0</v>
@@ -1937,13 +1937,13 @@
         <v>0.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL5" t="n">
         <v>0.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN5" t="n">
         <v>0.0</v>
@@ -1955,13 +1955,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT5" t="n">
         <v>0.0</v>
@@ -1970,7 +1970,7 @@
         <v>0.0</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW5" t="n">
         <v>0.0</v>
@@ -1985,10 +1985,10 @@
         <v>0.0</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC5" t="n">
         <v>0.0</v>
@@ -2012,10 +2012,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL5" t="n">
         <v>0.0</v>
@@ -2057,16 +2057,16 @@
         <v>0.0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ5" t="n">
         <v>0.0</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC5" t="n">
         <v>0.0</v>
@@ -2075,7 +2075,7 @@
         <v>0.0</v>
       </c>
       <c r="DE5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF5" t="n">
         <v>0.0</v>
@@ -2105,10 +2105,10 @@
         <v>0.0</v>
       </c>
       <c r="DO5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ5" t="n">
         <v>0.0</v>
@@ -2120,10 +2120,10 @@
         <v>0.0</v>
       </c>
       <c r="DT5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV5" t="n">
         <v>0.0</v>
@@ -2132,16 +2132,16 @@
         <v>0.0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0.0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB5" t="n">
         <v>0.0</v>
@@ -2153,10 +2153,10 @@
         <v>0.0</v>
       </c>
       <c r="EE5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG5" t="n">
         <v>0.0</v>
@@ -2168,7 +2168,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -2194,10 +2194,10 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
         <v>0.0</v>
@@ -2224,13 +2224,13 @@
         <v>0.0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
@@ -2257,13 +2257,13 @@
         <v>0.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF6" t="n">
         <v>0.0</v>
@@ -2272,7 +2272,7 @@
         <v>0.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI6" t="n">
         <v>0.0</v>
@@ -2302,13 +2302,13 @@
         <v>0.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU6" t="n">
         <v>0.0</v>
@@ -2320,7 +2320,7 @@
         <v>0.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY6" t="n">
         <v>0.0</v>
@@ -2329,13 +2329,13 @@
         <v>0.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB6" t="n">
         <v>0.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD6" t="n">
         <v>0.0</v>
@@ -2347,10 +2347,10 @@
         <v>0.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI6" t="n">
         <v>0.0</v>
@@ -2359,16 +2359,16 @@
         <v>0.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM6" t="n">
         <v>0.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO6" t="n">
         <v>0.0</v>
@@ -2377,7 +2377,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR6" t="n">
         <v>0.0</v>
@@ -2392,13 +2392,13 @@
         <v>0.0</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY6" t="n">
         <v>0.0</v>
@@ -2407,7 +2407,7 @@
         <v>0.0</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB6" t="n">
         <v>0.0</v>
@@ -2422,10 +2422,10 @@
         <v>0.0</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH6" t="n">
         <v>0.0</v>
@@ -2437,10 +2437,10 @@
         <v>0.0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM6" t="n">
         <v>0.0</v>
@@ -2458,7 +2458,7 @@
         <v>0.0</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS6" t="n">
         <v>0.0</v>
@@ -2467,7 +2467,7 @@
         <v>0.0</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV6" t="n">
         <v>0.0</v>
@@ -2503,7 +2503,7 @@
         <v>0.0</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH6" t="n">
         <v>0.0</v>
@@ -2512,7 +2512,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK6" t="n">
         <v>0.0</v>
@@ -2539,13 +2539,13 @@
         <v>0.0</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT6" t="n">
         <v>0.0</v>
       </c>
       <c r="DU6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV6" t="n">
         <v>0.0</v>
@@ -2557,10 +2557,10 @@
         <v>0.0</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA6" t="n">
         <v>0.0</v>
@@ -2572,10 +2572,10 @@
         <v>0.0</v>
       </c>
       <c r="ED6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF6" t="n">
         <v>0.0</v>
@@ -2584,10 +2584,10 @@
         <v>0.0</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ6" t="n">
         <v>0.0</v>
@@ -2610,13 +2610,13 @@
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2625,7 +2625,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
@@ -2634,19 +2634,19 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O7" t="n">
         <v>0.0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S7" t="n">
         <v>0.0</v>
@@ -2655,7 +2655,7 @@
         <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V7" t="n">
         <v>0.0</v>
@@ -2664,13 +2664,13 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y7" t="n">
         <v>0.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA7" t="n">
         <v>0.0</v>
@@ -2682,10 +2682,10 @@
         <v>0.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF7" t="n">
         <v>0.0</v>
@@ -2697,7 +2697,7 @@
         <v>0.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0.0</v>
@@ -2709,13 +2709,13 @@
         <v>0.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP7" t="n">
         <v>0.0</v>
@@ -2727,7 +2727,7 @@
         <v>0.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT7" t="n">
         <v>1.0</v>
@@ -2745,7 +2745,7 @@
         <v>0.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0.0</v>
@@ -2754,7 +2754,7 @@
         <v>0.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC7" t="n">
         <v>0.0</v>
@@ -2796,13 +2796,13 @@
         <v>0.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ7" t="n">
         <v>0.0</v>
       </c>
       <c r="BR7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS7" t="n">
         <v>0.0</v>
@@ -2811,22 +2811,22 @@
         <v>0.0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV7" t="n">
         <v>0.0</v>
       </c>
       <c r="BW7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY7" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA7" t="n">
         <v>0.0</v>
@@ -2835,7 +2835,7 @@
         <v>0.0</v>
       </c>
       <c r="CC7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD7" t="n">
         <v>0.0</v>
@@ -2844,19 +2844,19 @@
         <v>0.0</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG7" t="n">
         <v>0.0</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI7" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK7" t="n">
         <v>0.0</v>
@@ -2865,7 +2865,7 @@
         <v>0.0</v>
       </c>
       <c r="CM7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN7" t="n">
         <v>0.0</v>
@@ -2877,10 +2877,10 @@
         <v>0.0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS7" t="n">
         <v>0.0</v>
@@ -2892,7 +2892,7 @@
         <v>0.0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW7" t="n">
         <v>0.0</v>
@@ -2901,13 +2901,13 @@
         <v>0.0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ7" t="n">
         <v>0.0</v>
       </c>
       <c r="DA7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB7" t="n">
         <v>0.0</v>
@@ -2916,16 +2916,16 @@
         <v>0.0</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE7" t="n">
         <v>0.0</v>
       </c>
       <c r="DF7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH7" t="n">
         <v>0.0</v>
@@ -2937,10 +2937,10 @@
         <v>0.0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM7" t="n">
         <v>0.0</v>
@@ -2952,10 +2952,10 @@
         <v>0.0</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR7" t="n">
         <v>0.0</v>
@@ -2967,16 +2967,16 @@
         <v>0.0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW7" t="n">
         <v>0.0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY7" t="n">
         <v>0.0</v>
@@ -2985,13 +2985,13 @@
         <v>0.0</v>
       </c>
       <c r="EA7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB7" t="n">
         <v>0.0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED7" t="n">
         <v>0.0</v>
@@ -3006,13 +3006,13 @@
         <v>0.0</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI7" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -3023,16 +3023,16 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -3041,19 +3041,19 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J8" t="n">
         <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -3077,7 +3077,7 @@
         <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" t="n">
         <v>0.0</v>
@@ -3086,7 +3086,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y8" t="n">
         <v>0.0</v>
@@ -3137,7 +3137,7 @@
         <v>1.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
         <v>0.0</v>
@@ -3149,16 +3149,16 @@
         <v>0.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8" t="n">
         <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW8" t="n">
         <v>0.0</v>
@@ -3167,7 +3167,7 @@
         <v>0.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8" t="n">
         <v>0.0</v>
@@ -3179,10 +3179,10 @@
         <v>0.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
         <v>0.0</v>
@@ -3191,13 +3191,13 @@
         <v>0.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH8" t="n">
         <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0.0</v>
@@ -3206,7 +3206,7 @@
         <v>0.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM8" t="n">
         <v>0.0</v>
@@ -3233,13 +3233,13 @@
         <v>0.0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV8" t="n">
         <v>0.0</v>
       </c>
       <c r="BW8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX8" t="n">
         <v>1.0</v>
@@ -3257,7 +3257,7 @@
         <v>0.0</v>
       </c>
       <c r="CC8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD8" t="n">
         <v>0.0</v>
@@ -3266,13 +3266,13 @@
         <v>0.0</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG8" t="n">
         <v>0.0</v>
       </c>
       <c r="CH8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI8" t="n">
         <v>0.0</v>
@@ -3284,10 +3284,10 @@
         <v>0.0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN8" t="n">
         <v>0.0</v>
@@ -3296,13 +3296,13 @@
         <v>0.0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ8" t="n">
         <v>0.0</v>
       </c>
       <c r="CR8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS8" t="n">
         <v>0.0</v>
@@ -3314,10 +3314,10 @@
         <v>0.0</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX8" t="n">
         <v>0.0</v>
@@ -3329,7 +3329,7 @@
         <v>0.0</v>
       </c>
       <c r="DA8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB8" t="n">
         <v>0.0</v>
@@ -3362,13 +3362,13 @@
         <v>0.0</v>
       </c>
       <c r="DL8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM8" t="n">
         <v>0.0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO8" t="n">
         <v>0.0</v>
@@ -3377,7 +3377,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR8" t="n">
         <v>0.0</v>
@@ -3386,19 +3386,19 @@
         <v>0.0</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU8" t="n">
         <v>0.0</v>
       </c>
       <c r="DV8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW8" t="n">
         <v>0.0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY8" t="n">
         <v>0.0</v>
@@ -3431,10 +3431,10 @@
         <v>0.0</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -3448,10 +3448,10 @@
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" t="n">
         <v>1.0</v>
@@ -3469,7 +3469,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
@@ -3481,7 +3481,7 @@
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P9" t="n">
         <v>1.0</v>
@@ -3499,7 +3499,7 @@
         <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V9" t="n">
         <v>0.0</v>
@@ -3508,7 +3508,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0</v>
@@ -3550,16 +3550,16 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM9" t="n">
         <v>0.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP9" t="n">
         <v>0.0</v>
@@ -3571,10 +3571,10 @@
         <v>0.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU9" t="n">
         <v>0.0</v>
@@ -3586,16 +3586,16 @@
         <v>0.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ9" t="n">
         <v>0.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB9" t="n">
         <v>0.0</v>
@@ -3604,13 +3604,13 @@
         <v>0.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE9" t="n">
         <v>0.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG9" t="n">
         <v>0.0</v>
@@ -3619,7 +3619,7 @@
         <v>0.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0.0</v>
@@ -3631,7 +3631,7 @@
         <v>0.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN9" t="n">
         <v>0.0</v>
@@ -3640,13 +3640,13 @@
         <v>0.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ9" t="n">
         <v>0.0</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS9" t="n">
         <v>0.0</v>
@@ -3664,13 +3664,13 @@
         <v>1.0</v>
       </c>
       <c r="BX9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY9" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA9" t="n">
         <v>0.0</v>
@@ -3679,13 +3679,13 @@
         <v>0.0</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD9" t="n">
         <v>0.0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF9" t="n">
         <v>0.0</v>
@@ -3694,7 +3694,7 @@
         <v>0.0</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI9" t="n">
         <v>0.0</v>
@@ -3703,19 +3703,19 @@
         <v>0.0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL9" t="n">
         <v>0.0</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN9" t="n">
         <v>0.0</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP9" t="n">
         <v>0.0</v>
@@ -3763,13 +3763,13 @@
         <v>0.0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH9" t="n">
         <v>0.0</v>
@@ -3778,19 +3778,19 @@
         <v>0.0</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK9" t="n">
         <v>0.0</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM9" t="n">
         <v>0.0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO9" t="n">
         <v>0.0</v>
@@ -3799,7 +3799,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR9" t="n">
         <v>0.0</v>
@@ -3811,7 +3811,7 @@
         <v>0.0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV9" t="n">
         <v>1.0</v>
@@ -3829,13 +3829,13 @@
         <v>0.0</v>
       </c>
       <c r="EA9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB9" t="n">
         <v>0.0</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED9" t="n">
         <v>0.0</v>
@@ -3853,21 +3853,21 @@
         <v>0.0</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -3912,16 +3912,16 @@
         <v>0.0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S10" t="n">
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
         <v>0.0</v>
@@ -3933,16 +3933,16 @@
         <v>0.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA10" t="n">
         <v>0.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC10" t="n">
         <v>0.0</v>
@@ -3951,13 +3951,13 @@
         <v>0.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF10" t="n">
         <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH10" t="n">
         <v>0.0</v>
@@ -3981,7 +3981,7 @@
         <v>0.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP10" t="n">
         <v>0.0</v>
@@ -3993,10 +3993,10 @@
         <v>0.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU10" t="n">
         <v>0.0</v>
@@ -4008,7 +4008,7 @@
         <v>0.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY10" t="n">
         <v>0.0</v>
@@ -4020,10 +4020,10 @@
         <v>0.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD10" t="n">
         <v>1.0</v>
@@ -4071,13 +4071,13 @@
         <v>0.0</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT10" t="n">
         <v>0.0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV10" t="n">
         <v>0.0</v>
@@ -4086,7 +4086,7 @@
         <v>0.0</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY10" t="n">
         <v>0.0</v>
@@ -4098,7 +4098,7 @@
         <v>0.0</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC10" t="n">
         <v>0.0</v>
@@ -4107,13 +4107,13 @@
         <v>0.0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF10" t="n">
         <v>0.0</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH10" t="n">
         <v>0.0</v>
@@ -4125,19 +4125,19 @@
         <v>0.0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN10" t="n">
         <v>0.0</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP10" t="n">
         <v>0.0</v>
@@ -4146,7 +4146,7 @@
         <v>0.0</v>
       </c>
       <c r="CR10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS10" t="n">
         <v>0.0</v>
@@ -4155,13 +4155,13 @@
         <v>0.0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV10" t="n">
         <v>0.0</v>
       </c>
       <c r="CW10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX10" t="n">
         <v>0.0</v>
@@ -4170,13 +4170,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA10" t="n">
         <v>0.0</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC10" t="n">
         <v>0.0</v>
@@ -4188,16 +4188,16 @@
         <v>0.0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH10" t="n">
         <v>0.0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ10" t="n">
         <v>0.0</v>
@@ -4212,13 +4212,13 @@
         <v>0.0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO10" t="n">
         <v>0.0</v>
       </c>
       <c r="DP10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0.0</v>
@@ -4236,13 +4236,13 @@
         <v>1.0</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW10" t="n">
         <v>0.0</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY10" t="n">
         <v>0.0</v>
@@ -4251,7 +4251,7 @@
         <v>0.0</v>
       </c>
       <c r="EA10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB10" t="n">
         <v>0.0</v>
@@ -4263,10 +4263,10 @@
         <v>0.0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG10" t="n">
         <v>0.0</v>
@@ -4278,7 +4278,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -4298,7 +4298,7 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -4310,7 +4310,7 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
@@ -4319,13 +4319,13 @@
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P11" t="n">
         <v>0.0</v>
@@ -4334,16 +4334,16 @@
         <v>0.0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S11" t="n">
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V11" t="n">
         <v>0.0</v>
@@ -4352,13 +4352,13 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y11" t="n">
         <v>0.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA11" t="n">
         <v>0.0</v>
@@ -4370,16 +4370,16 @@
         <v>0.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF11" t="n">
         <v>0.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH11" t="n">
         <v>0.0</v>
@@ -4403,13 +4403,13 @@
         <v>0.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP11" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR11" t="n">
         <v>0.0</v>
@@ -4439,22 +4439,22 @@
         <v>0.0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB11" t="n">
         <v>0.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE11" t="n">
         <v>0.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG11" t="n">
         <v>0.0</v>
@@ -4463,7 +4463,7 @@
         <v>0.0</v>
       </c>
       <c r="BI11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ11" t="n">
         <v>0.0</v>
@@ -4475,10 +4475,10 @@
         <v>0.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO11" t="n">
         <v>0.0</v>
@@ -4487,19 +4487,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR11" t="n">
         <v>0.0</v>
       </c>
       <c r="BS11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT11" t="n">
         <v>0.0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV11" t="n">
         <v>0.0</v>
@@ -4508,13 +4508,13 @@
         <v>0.0</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY11" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA11" t="n">
         <v>0.0</v>
@@ -4538,7 +4538,7 @@
         <v>1.0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI11" t="n">
         <v>0.0</v>
@@ -4550,10 +4550,10 @@
         <v>0.0</v>
       </c>
       <c r="CL11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN11" t="n">
         <v>0.0</v>
@@ -4565,16 +4565,16 @@
         <v>0.0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS11" t="n">
         <v>0.0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU11" t="n">
         <v>0.0</v>
@@ -4613,13 +4613,13 @@
         <v>0.0</v>
       </c>
       <c r="DG11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH11" t="n">
         <v>0.0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ11" t="n">
         <v>0.0</v>
@@ -4628,7 +4628,7 @@
         <v>0.0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM11" t="n">
         <v>0.0</v>
@@ -4640,7 +4640,7 @@
         <v>0.0</v>
       </c>
       <c r="DP11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ11" t="n">
         <v>0.0</v>
@@ -4673,7 +4673,7 @@
         <v>0.0</v>
       </c>
       <c r="EA11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB11" t="n">
         <v>0.0</v>
@@ -4685,16 +4685,16 @@
         <v>0.0</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG11" t="n">
         <v>0.0</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI11" t="n">
         <v>0.0</v>
@@ -4720,7 +4720,7 @@
         <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -4732,10 +4732,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
@@ -4747,7 +4747,7 @@
         <v>0.0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P12" t="n">
         <v>0.0</v>
@@ -4759,19 +4759,19 @@
         <v>0.0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V12" t="n">
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X12" t="n">
         <v>0.0</v>
@@ -4780,7 +4780,7 @@
         <v>0.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA12" t="n">
         <v>0.0</v>
@@ -4789,13 +4789,13 @@
         <v>0.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD12" t="n">
         <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF12" t="n">
         <v>0.0</v>
@@ -4807,10 +4807,10 @@
         <v>0.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK12" t="n">
         <v>0.0</v>
@@ -4819,13 +4819,13 @@
         <v>0.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN12" t="n">
         <v>0.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP12" t="n">
         <v>0.0</v>
@@ -4834,7 +4834,7 @@
         <v>0.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS12" t="n">
         <v>0.0</v>
@@ -4849,10 +4849,10 @@
         <v>0.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY12" t="n">
         <v>0.0</v>
@@ -4861,16 +4861,16 @@
         <v>0.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB12" t="n">
         <v>0.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE12" t="n">
         <v>0.0</v>
@@ -4879,13 +4879,13 @@
         <v>0.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH12" t="n">
         <v>0.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0.0</v>
@@ -4897,10 +4897,10 @@
         <v>0.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO12" t="n">
         <v>0.0</v>
@@ -4912,7 +4912,7 @@
         <v>0.0</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS12" t="n">
         <v>1.0</v>
@@ -4930,7 +4930,7 @@
         <v>0.0</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY12" t="n">
         <v>0.0</v>
@@ -4942,7 +4942,7 @@
         <v>0.0</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC12" t="n">
         <v>0.0</v>
@@ -4954,10 +4954,10 @@
         <v>0.0</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH12" t="n">
         <v>0.0</v>
@@ -4966,13 +4966,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK12" t="n">
         <v>0.0</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM12" t="n">
         <v>1.0</v>
@@ -4990,13 +4990,13 @@
         <v>0.0</v>
       </c>
       <c r="CR12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS12" t="n">
         <v>0.0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU12" t="n">
         <v>0.0</v>
@@ -5080,7 +5080,7 @@
         <v>1.0</v>
       </c>
       <c r="DV12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW12" t="n">
         <v>0.0</v>
@@ -5089,13 +5089,13 @@
         <v>0.0</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ12" t="n">
         <v>0.0</v>
       </c>
       <c r="EA12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB12" t="n">
         <v>0.0</v>
@@ -5107,7 +5107,7 @@
         <v>0.0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF12" t="n">
         <v>1.0</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5139,16 +5139,16 @@
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -5157,7 +5157,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
@@ -5169,10 +5169,10 @@
         <v>0.0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q13" t="n">
         <v>0.0</v>
@@ -5184,10 +5184,10 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V13" t="n">
         <v>0.0</v>
@@ -5199,10 +5199,10 @@
         <v>0.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA13" t="n">
         <v>0.0</v>
@@ -5214,10 +5214,10 @@
         <v>0.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF13" t="n">
         <v>0.0</v>
@@ -5226,7 +5226,7 @@
         <v>0.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI13" t="n">
         <v>0.0</v>
@@ -5247,13 +5247,13 @@
         <v>0.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP13" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR13" t="n">
         <v>0.0</v>
@@ -5271,10 +5271,10 @@
         <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY13" t="n">
         <v>0.0</v>
@@ -5286,13 +5286,13 @@
         <v>0.0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE13" t="n">
         <v>0.0</v>
@@ -5304,7 +5304,7 @@
         <v>0.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI13" t="n">
         <v>1.0</v>
@@ -5337,7 +5337,7 @@
         <v>0.0</v>
       </c>
       <c r="BS13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT13" t="n">
         <v>0.0</v>
@@ -5346,13 +5346,13 @@
         <v>0.0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW13" t="n">
         <v>0.0</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY13" t="n">
         <v>0.0</v>
@@ -5361,7 +5361,7 @@
         <v>0.0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB13" t="n">
         <v>0.0</v>
@@ -5376,10 +5376,10 @@
         <v>0.0</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH13" t="n">
         <v>0.0</v>
@@ -5391,13 +5391,13 @@
         <v>0.0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN13" t="n">
         <v>0.0</v>
@@ -5409,16 +5409,16 @@
         <v>0.0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS13" t="n">
         <v>0.0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU13" t="n">
         <v>0.0</v>
@@ -5427,13 +5427,13 @@
         <v>0.0</v>
       </c>
       <c r="CW13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX13" t="n">
         <v>0.0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ13" t="n">
         <v>0.0</v>
@@ -5442,13 +5442,13 @@
         <v>0.0</v>
       </c>
       <c r="DB13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC13" t="n">
         <v>0.0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE13" t="n">
         <v>0.0</v>
@@ -5487,7 +5487,7 @@
         <v>1.0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR13" t="n">
         <v>0.0</v>
@@ -5499,10 +5499,10 @@
         <v>0.0</v>
       </c>
       <c r="DU13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW13" t="n">
         <v>0.0</v>
@@ -5514,10 +5514,10 @@
         <v>0.0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB13" t="n">
         <v>0.0</v>
@@ -5529,10 +5529,10 @@
         <v>0.0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG13" t="n">
         <v>0.0</v>
@@ -5541,7 +5541,7 @@
         <v>0.0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ13" t="n">
         <v>0.0</v>
@@ -5549,13 +5549,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
@@ -5564,7 +5564,7 @@
         <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -5576,16 +5576,16 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -5594,13 +5594,13 @@
         <v>0.0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" t="n">
         <v>0.0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S14" t="n">
         <v>0.0</v>
@@ -5615,16 +5615,16 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA14" t="n">
         <v>0.0</v>
@@ -5636,16 +5636,16 @@
         <v>0.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF14" t="n">
         <v>0.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH14" t="n">
         <v>0.0</v>
@@ -5669,7 +5669,7 @@
         <v>0.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP14" t="n">
         <v>0.0</v>
@@ -5681,10 +5681,10 @@
         <v>0.0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU14" t="n">
         <v>0.0</v>
@@ -5696,16 +5696,16 @@
         <v>0.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ14" t="n">
         <v>0.0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB14" t="n">
         <v>0.0</v>
@@ -5714,7 +5714,7 @@
         <v>0.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE14" t="n">
         <v>0.0</v>
@@ -5726,7 +5726,7 @@
         <v>0.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI14" t="n">
         <v>0.0</v>
@@ -5735,13 +5735,13 @@
         <v>0.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL14" t="n">
         <v>0.0</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN14" t="n">
         <v>1.0</v>
@@ -5759,7 +5759,7 @@
         <v>0.0</v>
       </c>
       <c r="BS14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT14" t="n">
         <v>0.0</v>
@@ -5768,13 +5768,13 @@
         <v>0.0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW14" t="n">
         <v>0.0</v>
       </c>
       <c r="BX14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY14" t="n">
         <v>0.0</v>
@@ -5783,7 +5783,7 @@
         <v>0.0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB14" t="n">
         <v>0.0</v>
@@ -5834,7 +5834,7 @@
         <v>1.0</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS14" t="n">
         <v>0.0</v>
@@ -5846,10 +5846,10 @@
         <v>0.0</v>
       </c>
       <c r="CV14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX14" t="n">
         <v>0.0</v>
@@ -5861,10 +5861,10 @@
         <v>0.0</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC14" t="n">
         <v>0.0</v>
@@ -5873,7 +5873,7 @@
         <v>0.0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF14" t="n">
         <v>0.0</v>
@@ -5894,7 +5894,7 @@
         <v>0.0</v>
       </c>
       <c r="DL14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM14" t="n">
         <v>0.0</v>
@@ -5903,13 +5903,13 @@
         <v>0.0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP14" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR14" t="n">
         <v>0.0</v>
@@ -5921,7 +5921,7 @@
         <v>0.0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV14" t="n">
         <v>0.0</v>
@@ -5933,10 +5933,10 @@
         <v>0.0</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA14" t="n">
         <v>0.0</v>
@@ -5954,7 +5954,7 @@
         <v>1.0</v>
       </c>
       <c r="EF14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG14" t="n">
         <v>0.0</v>
@@ -5966,18 +5966,18 @@
         <v>0.0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
@@ -5986,7 +5986,7 @@
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -5998,16 +5998,16 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -6037,13 +6037,13 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X15" t="n">
         <v>0.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15" t="n">
         <v>0.0</v>
@@ -6052,16 +6052,16 @@
         <v>0.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC15" t="n">
         <v>0.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF15" t="n">
         <v>0.0</v>
@@ -6073,10 +6073,10 @@
         <v>0.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK15" t="n">
         <v>0.0</v>
@@ -6088,16 +6088,16 @@
         <v>0.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP15" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR15" t="n">
         <v>0.0</v>
@@ -6106,7 +6106,7 @@
         <v>0.0</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU15" t="n">
         <v>0.0</v>
@@ -6115,7 +6115,7 @@
         <v>0.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX15" t="n">
         <v>0.0</v>
@@ -6142,13 +6142,13 @@
         <v>0.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG15" t="n">
         <v>0.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI15" t="n">
         <v>0.0</v>
@@ -6160,13 +6160,13 @@
         <v>0.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO15" t="n">
         <v>0.0</v>
@@ -6178,7 +6178,7 @@
         <v>0.0</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS15" t="n">
         <v>1.0</v>
@@ -6196,7 +6196,7 @@
         <v>0.0</v>
       </c>
       <c r="BX15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY15" t="n">
         <v>0.0</v>
@@ -6208,10 +6208,10 @@
         <v>0.0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD15" t="n">
         <v>0.0</v>
@@ -6223,10 +6223,10 @@
         <v>0.0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI15" t="n">
         <v>0.0</v>
@@ -6238,7 +6238,7 @@
         <v>0.0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM15" t="n">
         <v>0.0</v>
@@ -6247,13 +6247,13 @@
         <v>0.0</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP15" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR15" t="n">
         <v>0.0</v>
@@ -6265,13 +6265,13 @@
         <v>0.0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX15" t="n">
         <v>0.0</v>
@@ -6280,7 +6280,7 @@
         <v>0.0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA15" t="n">
         <v>0.0</v>
@@ -6355,10 +6355,10 @@
         <v>0.0</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA15" t="n">
         <v>0.0</v>
@@ -6367,16 +6367,16 @@
         <v>0.0</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED15" t="n">
         <v>0.0</v>
       </c>
       <c r="EE15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG15" t="n">
         <v>0.0</v>
@@ -6388,12 +6388,12 @@
         <v>0.0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6405,7 +6405,7 @@
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F16" t="n">
         <v>1.0</v>
@@ -6438,13 +6438,13 @@
         <v>0.0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S16" t="n">
         <v>0.0</v>
@@ -6474,16 +6474,16 @@
         <v>0.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC16" t="n">
         <v>0.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF16" t="n">
         <v>0.0</v>
@@ -6495,10 +6495,10 @@
         <v>0.0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK16" t="n">
         <v>0.0</v>
@@ -6507,7 +6507,7 @@
         <v>0.0</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN16" t="n">
         <v>0.0</v>
@@ -6567,13 +6567,13 @@
         <v>0.0</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ16" t="n">
         <v>0.0</v>
@@ -6585,10 +6585,10 @@
         <v>0.0</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO16" t="n">
         <v>0.0</v>
@@ -6600,16 +6600,16 @@
         <v>0.0</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT16" t="n">
         <v>0.0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV16" t="n">
         <v>0.0</v>
@@ -6618,7 +6618,7 @@
         <v>0.0</v>
       </c>
       <c r="BX16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY16" t="n">
         <v>0.0</v>
@@ -6630,16 +6630,16 @@
         <v>0.0</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD16" t="n">
         <v>0.0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF16" t="n">
         <v>0.0</v>
@@ -6648,7 +6648,7 @@
         <v>0.0</v>
       </c>
       <c r="CH16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI16" t="n">
         <v>0.0</v>
@@ -6660,7 +6660,7 @@
         <v>0.0</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM16" t="n">
         <v>0.0</v>
@@ -6669,13 +6669,13 @@
         <v>0.0</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP16" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR16" t="n">
         <v>0.0</v>
@@ -6687,13 +6687,13 @@
         <v>0.0</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX16" t="n">
         <v>0.0</v>
@@ -6705,10 +6705,10 @@
         <v>0.0</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC16" t="n">
         <v>0.0</v>
@@ -6720,16 +6720,16 @@
         <v>0.0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH16" t="n">
         <v>0.0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ16" t="n">
         <v>0.0</v>
@@ -6738,7 +6738,7 @@
         <v>0.0</v>
       </c>
       <c r="DL16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM16" t="n">
         <v>0.0</v>
@@ -6747,7 +6747,7 @@
         <v>0.0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP16" t="n">
         <v>0.0</v>
@@ -6768,7 +6768,7 @@
         <v>0.0</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW16" t="n">
         <v>0.0</v>
@@ -6780,7 +6780,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA16" t="n">
         <v>0.0</v>
@@ -6792,13 +6792,13 @@
         <v>0.0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG16" t="n">
         <v>0.0</v>
@@ -6807,7 +6807,7 @@
         <v>0.0</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ16" t="n">
         <v>0.0</v>
@@ -6821,13 +6821,13 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -6836,10 +6836,10 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
@@ -6881,13 +6881,13 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X17" t="n">
         <v>0.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z17" t="n">
         <v>0.0</v>
@@ -6899,13 +6899,13 @@
         <v>0.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF17" t="n">
         <v>0.0</v>
@@ -6917,7 +6917,7 @@
         <v>0.0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -6941,10 +6941,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS17" t="n">
         <v>0.0</v>
@@ -6956,22 +6956,22 @@
         <v>0.0</v>
       </c>
       <c r="AV17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX17" t="n">
         <v>0.0</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ17" t="n">
         <v>0.0</v>
       </c>
       <c r="BA17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB17" t="n">
         <v>0.0</v>
@@ -6986,13 +6986,13 @@
         <v>0.0</v>
       </c>
       <c r="BF17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG17" t="n">
         <v>0.0</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI17" t="n">
         <v>0.0</v>
@@ -7016,22 +7016,22 @@
         <v>0.0</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ17" t="n">
         <v>0.0</v>
       </c>
       <c r="BR17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT17" t="n">
         <v>0.0</v>
       </c>
       <c r="BU17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV17" t="n">
         <v>0.0</v>
@@ -7055,13 +7055,13 @@
         <v>0.0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD17" t="n">
         <v>0.0</v>
       </c>
       <c r="CE17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF17" t="n">
         <v>0.0</v>
@@ -7070,13 +7070,13 @@
         <v>0.0</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI17" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK17" t="n">
         <v>0.0</v>
@@ -7085,13 +7085,13 @@
         <v>0.0</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN17" t="n">
         <v>0.0</v>
       </c>
       <c r="CO17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP17" t="n">
         <v>0.0</v>
@@ -7124,10 +7124,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB17" t="n">
         <v>0.0</v>
@@ -7136,13 +7136,13 @@
         <v>0.0</v>
       </c>
       <c r="DD17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE17" t="n">
         <v>0.0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG17" t="n">
         <v>0.0</v>
@@ -7160,13 +7160,13 @@
         <v>0.0</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM17" t="n">
         <v>0.0</v>
       </c>
       <c r="DN17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO17" t="n">
         <v>0.0</v>
@@ -7196,10 +7196,10 @@
         <v>0.0</v>
       </c>
       <c r="DX17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ17" t="n">
         <v>0.0</v>
@@ -7243,22 +7243,22 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -7267,13 +7267,13 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -7288,13 +7288,13 @@
         <v>0.0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S18" t="n">
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
@@ -7321,10 +7321,10 @@
         <v>0.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE18" t="n">
         <v>0.0</v>
@@ -7348,13 +7348,13 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM18" t="n">
         <v>0.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO18" t="n">
         <v>0.0</v>
@@ -7378,22 +7378,22 @@
         <v>0.0</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW18" t="n">
         <v>0.0</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ18" t="n">
         <v>0.0</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB18" t="n">
         <v>0.0</v>
@@ -7408,10 +7408,10 @@
         <v>0.0</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH18" t="n">
         <v>0.0</v>
@@ -7426,13 +7426,13 @@
         <v>0.0</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO18" t="n">
         <v>0.0</v>
@@ -7444,7 +7444,7 @@
         <v>0.0</v>
       </c>
       <c r="BR18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS18" t="n">
         <v>0.0</v>
@@ -7462,13 +7462,13 @@
         <v>0.0</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY18" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA18" t="n">
         <v>0.0</v>
@@ -7507,13 +7507,13 @@
         <v>0.0</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN18" t="n">
         <v>0.0</v>
       </c>
       <c r="CO18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP18" t="n">
         <v>0.0</v>
@@ -7543,13 +7543,13 @@
         <v>0.0</v>
       </c>
       <c r="CY18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ18" t="n">
         <v>0.0</v>
       </c>
       <c r="DA18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB18" t="n">
         <v>0.0</v>
@@ -7558,13 +7558,13 @@
         <v>0.0</v>
       </c>
       <c r="DD18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE18" t="n">
         <v>0.0</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG18" t="n">
         <v>0.0</v>
@@ -7573,22 +7573,22 @@
         <v>0.0</v>
       </c>
       <c r="DI18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ18" t="n">
         <v>0.0</v>
       </c>
       <c r="DK18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM18" t="n">
         <v>0.0</v>
       </c>
       <c r="DN18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO18" t="n">
         <v>0.0</v>
@@ -7603,13 +7603,13 @@
         <v>0.0</v>
       </c>
       <c r="DS18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT18" t="n">
         <v>0.0</v>
       </c>
       <c r="DU18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV18" t="n">
         <v>0.0</v>
@@ -7636,10 +7636,10 @@
         <v>0.0</v>
       </c>
       <c r="ED18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF18" t="n">
         <v>0.0</v>
@@ -7648,13 +7648,13 @@
         <v>0.0</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI18" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -7665,10 +7665,10 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
@@ -7680,22 +7680,22 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -7710,10 +7710,10 @@
         <v>0.0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -7725,13 +7725,13 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X19" t="n">
         <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z19" t="n">
         <v>0.0</v>
@@ -7743,10 +7743,10 @@
         <v>0.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE19" t="n">
         <v>0.0</v>
@@ -7758,19 +7758,19 @@
         <v>0.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK19" t="n">
         <v>0.0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM19" t="n">
         <v>0.0</v>
@@ -7785,10 +7785,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS19" t="n">
         <v>0.0</v>
@@ -7809,13 +7809,13 @@
         <v>0.0</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ19" t="n">
         <v>0.0</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB19" t="n">
         <v>0.0</v>
@@ -7830,10 +7830,10 @@
         <v>0.0</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH19" t="n">
         <v>0.0</v>
@@ -7875,13 +7875,13 @@
         <v>0.0</v>
       </c>
       <c r="BU19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV19" t="n">
         <v>0.0</v>
       </c>
       <c r="BW19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX19" t="n">
         <v>0.0</v>
@@ -7890,10 +7890,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB19" t="n">
         <v>0.0</v>
@@ -7929,13 +7929,13 @@
         <v>0.0</v>
       </c>
       <c r="CM19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN19" t="n">
         <v>0.0</v>
       </c>
       <c r="CO19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP19" t="n">
         <v>0.0</v>
@@ -7974,13 +7974,13 @@
         <v>1.0</v>
       </c>
       <c r="DB19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC19" t="n">
         <v>0.0</v>
       </c>
       <c r="DD19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE19" t="n">
         <v>0.0</v>
@@ -7989,13 +7989,13 @@
         <v>0.0</v>
       </c>
       <c r="DG19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH19" t="n">
         <v>0.0</v>
       </c>
       <c r="DI19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ19" t="n">
         <v>0.0</v>
@@ -8010,10 +8010,10 @@
         <v>0.0</v>
       </c>
       <c r="DN19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP19" t="n">
         <v>0.0</v>
@@ -8025,10 +8025,10 @@
         <v>0.0</v>
       </c>
       <c r="DS19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU19" t="n">
         <v>0.0</v>
@@ -8040,16 +8040,16 @@
         <v>0.0</v>
       </c>
       <c r="DX19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY19" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB19" t="n">
         <v>0.0</v>
@@ -8061,7 +8061,7 @@
         <v>0.0</v>
       </c>
       <c r="EE19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF19" t="n">
         <v>0.0</v>
@@ -8070,13 +8070,13 @@
         <v>0.0</v>
       </c>
       <c r="EH19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI19" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -8087,13 +8087,13 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -8117,10 +8117,10 @@
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O20" t="n">
         <v>0.0</v>
@@ -8141,13 +8141,13 @@
         <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V20" t="n">
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X20" t="n">
         <v>0.0</v>
@@ -8177,16 +8177,16 @@
         <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH20" t="n">
         <v>0.0</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK20" t="n">
         <v>0.0</v>
@@ -8198,10 +8198,10 @@
         <v>0.0</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP20" t="n">
         <v>0.0</v>
@@ -8213,7 +8213,7 @@
         <v>0.0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT20" t="n">
         <v>0.0</v>
@@ -8222,13 +8222,13 @@
         <v>0.0</v>
       </c>
       <c r="AV20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW20" t="n">
         <v>0.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY20" t="n">
         <v>0.0</v>
@@ -8237,10 +8237,10 @@
         <v>0.0</v>
       </c>
       <c r="BA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC20" t="n">
         <v>0.0</v>
@@ -8267,10 +8267,10 @@
         <v>0.0</v>
       </c>
       <c r="BK20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM20" t="n">
         <v>0.0</v>
@@ -8282,13 +8282,13 @@
         <v>0.0</v>
       </c>
       <c r="BP20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ20" t="n">
         <v>0.0</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS20" t="n">
         <v>0.0</v>
@@ -8300,10 +8300,10 @@
         <v>0.0</v>
       </c>
       <c r="BV20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX20" t="n">
         <v>0.0</v>
@@ -8315,10 +8315,10 @@
         <v>0.0</v>
       </c>
       <c r="CA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC20" t="n">
         <v>0.0</v>
@@ -8327,10 +8327,10 @@
         <v>0.0</v>
       </c>
       <c r="CE20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG20" t="n">
         <v>0.0</v>
@@ -8342,10 +8342,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL20" t="n">
         <v>0.0</v>
@@ -8357,22 +8357,22 @@
         <v>0.0</v>
       </c>
       <c r="CO20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP20" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS20" t="n">
         <v>0.0</v>
       </c>
       <c r="CT20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU20" t="n">
         <v>0.0</v>
@@ -8387,13 +8387,13 @@
         <v>0.0</v>
       </c>
       <c r="CY20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ20" t="n">
         <v>0.0</v>
       </c>
       <c r="DA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB20" t="n">
         <v>0.0</v>
@@ -8411,7 +8411,7 @@
         <v>1.0</v>
       </c>
       <c r="DG20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH20" t="n">
         <v>0.0</v>
@@ -8423,7 +8423,7 @@
         <v>0.0</v>
       </c>
       <c r="DK20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL20" t="n">
         <v>0.0</v>
@@ -8447,13 +8447,13 @@
         <v>0.0</v>
       </c>
       <c r="DS20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT20" t="n">
         <v>0.0</v>
       </c>
       <c r="DU20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV20" t="n">
         <v>0.0</v>
@@ -8462,10 +8462,10 @@
         <v>0.0</v>
       </c>
       <c r="DX20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ20" t="n">
         <v>0.0</v>
@@ -8486,13 +8486,13 @@
         <v>0.0</v>
       </c>
       <c r="EF20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG20" t="n">
         <v>0.0</v>
       </c>
       <c r="EH20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI20" t="n">
         <v>0.0</v>
@@ -8512,10 +8512,10 @@
         <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -8524,13 +8524,13 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
         <v>0.0</v>
@@ -8539,13 +8539,13 @@
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P21" t="n">
         <v>0.0</v>
@@ -8554,13 +8554,13 @@
         <v>0.0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S21" t="n">
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
@@ -8569,13 +8569,13 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X21" t="n">
         <v>0.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z21" t="n">
         <v>0.0</v>
@@ -8584,10 +8584,10 @@
         <v>0.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD21" t="n">
         <v>0.0</v>
@@ -8599,10 +8599,10 @@
         <v>0.0</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI21" t="n">
         <v>0.0</v>
@@ -8617,10 +8617,10 @@
         <v>0.0</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO21" t="n">
         <v>0.0</v>
@@ -8632,10 +8632,10 @@
         <v>0.0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT21" t="n">
         <v>0.0</v>
@@ -8644,10 +8644,10 @@
         <v>0.0</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX21" t="n">
         <v>0.0</v>
@@ -8659,13 +8659,13 @@
         <v>0.0</v>
       </c>
       <c r="BA21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB21" t="n">
         <v>0.0</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD21" t="n">
         <v>0.0</v>
@@ -8689,13 +8689,13 @@
         <v>0.0</v>
       </c>
       <c r="BK21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL21" t="n">
         <v>0.0</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN21" t="n">
         <v>0.0</v>
@@ -8734,13 +8734,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA21" t="n">
         <v>0.0</v>
       </c>
       <c r="CB21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC21" t="n">
         <v>0.0</v>
@@ -8749,22 +8749,22 @@
         <v>0.0</v>
       </c>
       <c r="CE21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF21" t="n">
         <v>0.0</v>
       </c>
       <c r="CG21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI21" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK21" t="n">
         <v>0.0</v>
@@ -8773,13 +8773,13 @@
         <v>0.0</v>
       </c>
       <c r="CM21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN21" t="n">
         <v>0.0</v>
       </c>
       <c r="CO21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP21" t="n">
         <v>0.0</v>
@@ -8794,10 +8794,10 @@
         <v>0.0</v>
       </c>
       <c r="CT21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV21" t="n">
         <v>0.0</v>
@@ -8809,10 +8809,10 @@
         <v>0.0</v>
       </c>
       <c r="CY21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA21" t="n">
         <v>0.0</v>
@@ -8842,10 +8842,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL21" t="n">
         <v>0.0</v>
@@ -8863,13 +8863,13 @@
         <v>0.0</v>
       </c>
       <c r="DQ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR21" t="n">
         <v>0.0</v>
       </c>
       <c r="DS21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT21" t="n">
         <v>0.0</v>
@@ -8914,10 +8914,10 @@
         <v>0.0</v>
       </c>
       <c r="EH21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ21" t="n">
         <v>0.0</v>
@@ -8946,13 +8946,13 @@
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K22" t="n">
         <v>0.0</v>
@@ -8976,22 +8976,22 @@
         <v>0.0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S22" t="n">
         <v>0.0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V22" t="n">
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X22" t="n">
         <v>0.0</v>
@@ -9006,13 +9006,13 @@
         <v>0.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" t="n">
         <v>0.0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE22" t="n">
         <v>0.0</v>
@@ -9051,13 +9051,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR22" t="n">
         <v>0.0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT22" t="n">
         <v>0.0</v>
@@ -9081,10 +9081,10 @@
         <v>0.0</v>
       </c>
       <c r="BA22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC22" t="n">
         <v>0.0</v>
@@ -9096,10 +9096,10 @@
         <v>0.0</v>
       </c>
       <c r="BF22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH22" t="n">
         <v>0.0</v>
@@ -9111,13 +9111,13 @@
         <v>0.0</v>
       </c>
       <c r="BK22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL22" t="n">
         <v>0.0</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN22" t="n">
         <v>0.0</v>
@@ -9126,10 +9126,10 @@
         <v>0.0</v>
       </c>
       <c r="BP22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR22" t="n">
         <v>0.0</v>
@@ -9150,7 +9150,7 @@
         <v>1.0</v>
       </c>
       <c r="BX22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY22" t="n">
         <v>0.0</v>
@@ -9162,7 +9162,7 @@
         <v>0.0</v>
       </c>
       <c r="CB22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC22" t="n">
         <v>0.0</v>
@@ -9186,22 +9186,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL22" t="n">
         <v>0.0</v>
       </c>
       <c r="CM22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN22" t="n">
         <v>0.0</v>
       </c>
       <c r="CO22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP22" t="n">
         <v>0.0</v>
@@ -9216,10 +9216,10 @@
         <v>0.0</v>
       </c>
       <c r="CT22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV22" t="n">
         <v>0.0</v>
@@ -9231,13 +9231,13 @@
         <v>0.0</v>
       </c>
       <c r="CY22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ22" t="n">
         <v>0.0</v>
       </c>
       <c r="DA22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB22" t="n">
         <v>0.0</v>
@@ -9249,10 +9249,10 @@
         <v>0.0</v>
       </c>
       <c r="DE22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG22" t="n">
         <v>0.0</v>
@@ -9261,22 +9261,22 @@
         <v>0.0</v>
       </c>
       <c r="DI22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ22" t="n">
         <v>0.0</v>
       </c>
       <c r="DK22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM22" t="n">
         <v>0.0</v>
       </c>
       <c r="DN22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO22" t="n">
         <v>0.0</v>
@@ -9291,13 +9291,13 @@
         <v>0.0</v>
       </c>
       <c r="DS22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT22" t="n">
         <v>0.0</v>
       </c>
       <c r="DU22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV22" t="n">
         <v>0.0</v>
@@ -9321,22 +9321,22 @@
         <v>0.0</v>
       </c>
       <c r="EC22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE22" t="n">
         <v>0.0</v>
       </c>
       <c r="EF22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG22" t="n">
         <v>0.0</v>
       </c>
       <c r="EH22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI22" t="n">
         <v>0.0</v>
@@ -9353,16 +9353,16 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -9374,7 +9374,7 @@
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
@@ -9383,13 +9383,13 @@
         <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" t="n">
         <v>0.0</v>
@@ -9398,10 +9398,10 @@
         <v>0.0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
@@ -9413,22 +9413,22 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y23" t="n">
         <v>0.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA23" t="n">
         <v>0.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
@@ -9443,13 +9443,13 @@
         <v>0.0</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH23" t="n">
         <v>0.0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ23" t="n">
         <v>0.0</v>
@@ -9476,10 +9476,10 @@
         <v>0.0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT23" t="n">
         <v>0.0</v>
@@ -9503,22 +9503,22 @@
         <v>0.0</v>
       </c>
       <c r="BA23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB23" t="n">
         <v>0.0</v>
       </c>
       <c r="BC23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE23" t="n">
         <v>0.0</v>
       </c>
       <c r="BF23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG23" t="n">
         <v>0.0</v>
@@ -9527,13 +9527,13 @@
         <v>0.0</v>
       </c>
       <c r="BI23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ23" t="n">
         <v>0.0</v>
       </c>
       <c r="BK23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL23" t="n">
         <v>0.0</v>
@@ -9542,13 +9542,13 @@
         <v>0.0</v>
       </c>
       <c r="BN23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO23" t="n">
         <v>0.0</v>
       </c>
       <c r="BP23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ23" t="n">
         <v>0.0</v>
@@ -9596,10 +9596,10 @@
         <v>0.0</v>
       </c>
       <c r="CF23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH23" t="n">
         <v>0.0</v>
@@ -9608,10 +9608,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL23" t="n">
         <v>0.0</v>
@@ -9668,16 +9668,16 @@
         <v>0.0</v>
       </c>
       <c r="DD23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF23" t="n">
         <v>0.0</v>
       </c>
       <c r="DG23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH23" t="n">
         <v>0.0</v>
@@ -9689,7 +9689,7 @@
         <v>0.0</v>
       </c>
       <c r="DK23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL23" t="n">
         <v>0.0</v>
@@ -9713,22 +9713,22 @@
         <v>0.0</v>
       </c>
       <c r="DS23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT23" t="n">
         <v>0.0</v>
       </c>
       <c r="DU23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW23" t="n">
         <v>0.0</v>
       </c>
       <c r="DX23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY23" t="n">
         <v>0.0</v>
@@ -9758,13 +9758,13 @@
         <v>0.0</v>
       </c>
       <c r="EH23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI23" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -9775,22 +9775,22 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -9820,13 +9820,13 @@
         <v>0.0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S24" t="n">
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
@@ -9859,13 +9859,13 @@
         <v>0.0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF24" t="n">
         <v>0.0</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH24" t="n">
         <v>0.0</v>
@@ -9880,13 +9880,13 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM24" t="n">
         <v>0.0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO24" t="n">
         <v>0.0</v>
@@ -9910,13 +9910,13 @@
         <v>0.0</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW24" t="n">
         <v>0.0</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY24" t="n">
         <v>0.0</v>
@@ -9940,10 +9940,10 @@
         <v>0.0</v>
       </c>
       <c r="BF24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH24" t="n">
         <v>0.0</v>
@@ -9955,13 +9955,13 @@
         <v>0.0</v>
       </c>
       <c r="BK24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL24" t="n">
         <v>0.0</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN24" t="n">
         <v>0.0</v>
@@ -9970,13 +9970,13 @@
         <v>0.0</v>
       </c>
       <c r="BP24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ24" t="n">
         <v>0.0</v>
       </c>
       <c r="BR24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS24" t="n">
         <v>0.0</v>
@@ -9985,13 +9985,13 @@
         <v>0.0</v>
       </c>
       <c r="BU24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV24" t="n">
         <v>0.0</v>
       </c>
       <c r="BW24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX24" t="n">
         <v>0.0</v>
@@ -10000,16 +10000,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB24" t="n">
         <v>0.0</v>
       </c>
       <c r="CC24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD24" t="n">
         <v>0.0</v>
@@ -10021,10 +10021,10 @@
         <v>0.0</v>
       </c>
       <c r="CG24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI24" t="n">
         <v>0.0</v>
@@ -10036,7 +10036,7 @@
         <v>0.0</v>
       </c>
       <c r="CL24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM24" t="n">
         <v>0.0</v>
@@ -10105,10 +10105,10 @@
         <v>0.0</v>
       </c>
       <c r="DI24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK24" t="n">
         <v>0.0</v>
@@ -10120,13 +10120,13 @@
         <v>0.0</v>
       </c>
       <c r="DN24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO24" t="n">
         <v>0.0</v>
       </c>
       <c r="DP24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ24" t="n">
         <v>0.0</v>
@@ -10144,13 +10144,13 @@
         <v>1.0</v>
       </c>
       <c r="DV24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW24" t="n">
         <v>0.0</v>
       </c>
       <c r="DX24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY24" t="n">
         <v>0.0</v>
@@ -10159,13 +10159,13 @@
         <v>0.0</v>
       </c>
       <c r="EA24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB24" t="n">
         <v>0.0</v>
       </c>
       <c r="EC24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED24" t="n">
         <v>0.0</v>
@@ -10197,22 +10197,22 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E25" t="n">
         <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -10227,13 +10227,13 @@
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P25" t="n">
         <v>0.0</v>
@@ -10245,10 +10245,10 @@
         <v>0.0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
@@ -10281,13 +10281,13 @@
         <v>0.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF25" t="n">
         <v>0.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH25" t="n">
         <v>0.0</v>
@@ -10317,10 +10317,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS25" t="n">
         <v>0.0</v>
@@ -10332,13 +10332,13 @@
         <v>0.0</v>
       </c>
       <c r="AV25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW25" t="n">
         <v>0.0</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY25" t="n">
         <v>0.0</v>
@@ -10356,7 +10356,7 @@
         <v>1.0</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE25" t="n">
         <v>0.0</v>
@@ -10368,7 +10368,7 @@
         <v>0.0</v>
       </c>
       <c r="BH25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI25" t="n">
         <v>0.0</v>
@@ -10377,10 +10377,10 @@
         <v>0.0</v>
       </c>
       <c r="BK25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM25" t="n">
         <v>0.0</v>
@@ -10407,13 +10407,13 @@
         <v>0.0</v>
       </c>
       <c r="BU25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV25" t="n">
         <v>0.0</v>
       </c>
       <c r="BW25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX25" t="n">
         <v>0.0</v>
@@ -10422,22 +10422,22 @@
         <v>0.0</v>
       </c>
       <c r="BZ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA25" t="n">
         <v>0.0</v>
       </c>
       <c r="CB25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD25" t="n">
         <v>0.0</v>
       </c>
       <c r="CE25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF25" t="n">
         <v>0.0</v>
@@ -10446,7 +10446,7 @@
         <v>0.0</v>
       </c>
       <c r="CH25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI25" t="n">
         <v>0.0</v>
@@ -10458,7 +10458,7 @@
         <v>0.0</v>
       </c>
       <c r="CL25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM25" t="n">
         <v>0.0</v>
@@ -10467,22 +10467,22 @@
         <v>0.0</v>
       </c>
       <c r="CO25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP25" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS25" t="n">
         <v>0.0</v>
       </c>
       <c r="CT25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU25" t="n">
         <v>0.0</v>
@@ -10527,10 +10527,10 @@
         <v>0.0</v>
       </c>
       <c r="DI25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK25" t="n">
         <v>0.0</v>
@@ -10542,13 +10542,13 @@
         <v>0.0</v>
       </c>
       <c r="DN25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO25" t="n">
         <v>0.0</v>
       </c>
       <c r="DP25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ25" t="n">
         <v>0.0</v>
@@ -10560,10 +10560,10 @@
         <v>0.0</v>
       </c>
       <c r="DT25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV25" t="n">
         <v>0.0</v>
@@ -10575,10 +10575,10 @@
         <v>0.0</v>
       </c>
       <c r="DY25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA25" t="n">
         <v>0.0</v>
@@ -10602,13 +10602,13 @@
         <v>0.0</v>
       </c>
       <c r="EH25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI25" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -10628,13 +10628,13 @@
         <v>0.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -10649,10 +10649,10 @@
         <v>0.0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O26" t="n">
         <v>0.0</v>
@@ -10667,13 +10667,13 @@
         <v>0.0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V26" t="n">
         <v>0.0</v>
@@ -10685,16 +10685,16 @@
         <v>0.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA26" t="n">
         <v>0.0</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" t="n">
         <v>0.0</v>
@@ -10703,13 +10703,13 @@
         <v>0.0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF26" t="n">
         <v>0.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH26" t="n">
         <v>0.0</v>
@@ -10724,22 +10724,22 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM26" t="n">
         <v>0.0</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP26" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR26" t="n">
         <v>0.0</v>
@@ -10754,13 +10754,13 @@
         <v>0.0</v>
       </c>
       <c r="AV26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW26" t="n">
         <v>0.0</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY26" t="n">
         <v>0.0</v>
@@ -10793,13 +10793,13 @@
         <v>1.0</v>
       </c>
       <c r="BI26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ26" t="n">
         <v>0.0</v>
       </c>
       <c r="BK26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL26" t="n">
         <v>0.0</v>
@@ -10814,13 +10814,13 @@
         <v>0.0</v>
       </c>
       <c r="BP26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ26" t="n">
         <v>0.0</v>
       </c>
       <c r="BR26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS26" t="n">
         <v>0.0</v>
@@ -10829,13 +10829,13 @@
         <v>0.0</v>
       </c>
       <c r="BU26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV26" t="n">
         <v>0.0</v>
       </c>
       <c r="BW26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX26" t="n">
         <v>0.0</v>
@@ -10844,22 +10844,22 @@
         <v>0.0</v>
       </c>
       <c r="BZ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB26" t="n">
         <v>0.0</v>
       </c>
       <c r="CC26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD26" t="n">
         <v>0.0</v>
       </c>
       <c r="CE26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF26" t="n">
         <v>0.0</v>
@@ -10868,7 +10868,7 @@
         <v>0.0</v>
       </c>
       <c r="CH26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI26" t="n">
         <v>0.0</v>
@@ -10880,7 +10880,7 @@
         <v>0.0</v>
       </c>
       <c r="CL26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM26" t="n">
         <v>0.0</v>
@@ -10892,10 +10892,10 @@
         <v>0.0</v>
       </c>
       <c r="CP26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR26" t="n">
         <v>0.0</v>
@@ -10904,13 +10904,13 @@
         <v>0.0</v>
       </c>
       <c r="CT26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU26" t="n">
         <v>0.0</v>
       </c>
       <c r="CV26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW26" t="n">
         <v>0.0</v>
@@ -10919,10 +10919,10 @@
         <v>0.0</v>
       </c>
       <c r="CY26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA26" t="n">
         <v>0.0</v>
@@ -10934,22 +10934,22 @@
         <v>0.0</v>
       </c>
       <c r="DD26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE26" t="n">
         <v>0.0</v>
       </c>
       <c r="DF26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH26" t="n">
         <v>0.0</v>
       </c>
       <c r="DI26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ26" t="n">
         <v>0.0</v>
@@ -10958,13 +10958,13 @@
         <v>0.0</v>
       </c>
       <c r="DL26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM26" t="n">
         <v>0.0</v>
       </c>
       <c r="DN26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO26" t="n">
         <v>0.0</v>
@@ -10973,7 +10973,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR26" t="n">
         <v>0.0</v>
@@ -10985,7 +10985,7 @@
         <v>0.0</v>
       </c>
       <c r="DU26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV26" t="n">
         <v>0.0</v>
@@ -10997,10 +10997,10 @@
         <v>0.0</v>
       </c>
       <c r="DY26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA26" t="n">
         <v>0.0</v>
@@ -11024,10 +11024,10 @@
         <v>0.0</v>
       </c>
       <c r="EH26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ26" t="n">
         <v>0.0</v>
@@ -11035,13 +11035,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
@@ -11071,10 +11071,10 @@
         <v>0.0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
@@ -11110,13 +11110,13 @@
         <v>1.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA27" t="n">
         <v>0.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
@@ -11125,13 +11125,13 @@
         <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF27" t="n">
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH27" t="n">
         <v>0.0</v>
@@ -11146,10 +11146,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN27" t="n">
         <v>0.0</v>
@@ -11161,13 +11161,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR27" t="n">
         <v>0.0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT27" t="n">
         <v>0.0</v>
@@ -11176,13 +11176,13 @@
         <v>0.0</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW27" t="n">
         <v>0.0</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY27" t="n">
         <v>0.0</v>
@@ -11200,7 +11200,7 @@
         <v>1.0</v>
       </c>
       <c r="BD27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE27" t="n">
         <v>0.0</v>
@@ -11212,16 +11212,16 @@
         <v>0.0</v>
       </c>
       <c r="BH27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ27" t="n">
         <v>0.0</v>
       </c>
       <c r="BK27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL27" t="n">
         <v>0.0</v>
@@ -11251,13 +11251,13 @@
         <v>0.0</v>
       </c>
       <c r="BU27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV27" t="n">
         <v>0.0</v>
       </c>
       <c r="BW27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX27" t="n">
         <v>0.0</v>
@@ -11275,13 +11275,13 @@
         <v>0.0</v>
       </c>
       <c r="CC27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD27" t="n">
         <v>0.0</v>
       </c>
       <c r="CE27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF27" t="n">
         <v>0.0</v>
@@ -11314,10 +11314,10 @@
         <v>0.0</v>
       </c>
       <c r="CP27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR27" t="n">
         <v>0.0</v>
@@ -11356,10 +11356,10 @@
         <v>0.0</v>
       </c>
       <c r="DD27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF27" t="n">
         <v>0.0</v>
@@ -11371,10 +11371,10 @@
         <v>0.0</v>
       </c>
       <c r="DI27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK27" t="n">
         <v>0.0</v>
@@ -11410,7 +11410,7 @@
         <v>1.0</v>
       </c>
       <c r="DV27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW27" t="n">
         <v>0.0</v>
@@ -11422,7 +11422,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA27" t="n">
         <v>0.0</v>
@@ -11431,10 +11431,10 @@
         <v>0.0</v>
       </c>
       <c r="EC27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE27" t="n">
         <v>0.0</v>
@@ -11446,10 +11446,10 @@
         <v>0.0</v>
       </c>
       <c r="EH27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ27" t="n">
         <v>0.0</v>
@@ -11463,16 +11463,16 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -11481,13 +11481,13 @@
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" t="n">
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -11496,7 +11496,7 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O28" t="n">
         <v>0.0</v>
@@ -11526,10 +11526,10 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z28" t="n">
         <v>0.0</v>
@@ -11547,7 +11547,7 @@
         <v>0.0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF28" t="n">
         <v>0.0</v>
@@ -11559,7 +11559,7 @@
         <v>0.0</v>
       </c>
       <c r="AI28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ28" t="n">
         <v>0.0</v>
@@ -11568,13 +11568,13 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM28" t="n">
         <v>0.0</v>
       </c>
       <c r="AN28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO28" t="n">
         <v>0.0</v>
@@ -11586,10 +11586,10 @@
         <v>0.0</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT28" t="n">
         <v>0.0</v>
@@ -11598,10 +11598,10 @@
         <v>0.0</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX28" t="n">
         <v>0.0</v>
@@ -11616,10 +11616,10 @@
         <v>0.0</v>
       </c>
       <c r="BB28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD28" t="n">
         <v>0.0</v>
@@ -11631,10 +11631,10 @@
         <v>0.0</v>
       </c>
       <c r="BG28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI28" t="n">
         <v>0.0</v>
@@ -11643,10 +11643,10 @@
         <v>0.0</v>
       </c>
       <c r="BK28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM28" t="n">
         <v>0.0</v>
@@ -11673,13 +11673,13 @@
         <v>0.0</v>
       </c>
       <c r="BU28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV28" t="n">
         <v>0.0</v>
       </c>
       <c r="BW28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX28" t="n">
         <v>0.0</v>
@@ -11688,10 +11688,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB28" t="n">
         <v>0.0</v>
@@ -11706,10 +11706,10 @@
         <v>0.0</v>
       </c>
       <c r="CF28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH28" t="n">
         <v>0.0</v>
@@ -11742,7 +11742,7 @@
         <v>0.0</v>
       </c>
       <c r="CR28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS28" t="n">
         <v>0.0</v>
@@ -11751,7 +11751,7 @@
         <v>0.0</v>
       </c>
       <c r="CU28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV28" t="n">
         <v>0.0</v>
@@ -11772,7 +11772,7 @@
         <v>1.0</v>
       </c>
       <c r="DB28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC28" t="n">
         <v>0.0</v>
@@ -11784,7 +11784,7 @@
         <v>0.0</v>
       </c>
       <c r="DF28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG28" t="n">
         <v>0.0</v>
@@ -11793,10 +11793,10 @@
         <v>0.0</v>
       </c>
       <c r="DI28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK28" t="n">
         <v>0.0</v>
@@ -11808,10 +11808,10 @@
         <v>0.0</v>
       </c>
       <c r="DN28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP28" t="n">
         <v>0.0</v>
@@ -11853,10 +11853,10 @@
         <v>0.0</v>
       </c>
       <c r="EC28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE28" t="n">
         <v>0.0</v>
@@ -11888,10 +11888,10 @@
         <v>0.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -11918,10 +11918,10 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P29" t="n">
         <v>0.0</v>
@@ -11933,13 +11933,13 @@
         <v>0.0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V29" t="n">
         <v>0.0</v>
@@ -11948,7 +11948,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y29" t="n">
         <v>0.0</v>
@@ -11993,10 +11993,10 @@
         <v>0.0</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO29" t="n">
         <v>0.0</v>
@@ -12008,10 +12008,10 @@
         <v>0.0</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT29" t="n">
         <v>0.0</v>
@@ -12044,7 +12044,7 @@
         <v>0.0</v>
       </c>
       <c r="BD29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE29" t="n">
         <v>0.0</v>
@@ -12053,7 +12053,7 @@
         <v>0.0</v>
       </c>
       <c r="BG29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH29" t="n">
         <v>0.0</v>
@@ -12068,10 +12068,10 @@
         <v>0.0</v>
       </c>
       <c r="BL29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN29" t="n">
         <v>0.0</v>
@@ -12083,10 +12083,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS29" t="n">
         <v>0.0</v>
@@ -12095,13 +12095,13 @@
         <v>0.0</v>
       </c>
       <c r="BU29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV29" t="n">
         <v>0.0</v>
       </c>
       <c r="BW29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX29" t="n">
         <v>0.0</v>
@@ -12110,16 +12110,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA29" t="n">
         <v>0.0</v>
       </c>
       <c r="CB29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD29" t="n">
         <v>0.0</v>
@@ -12128,13 +12128,13 @@
         <v>0.0</v>
       </c>
       <c r="CF29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG29" t="n">
         <v>0.0</v>
       </c>
       <c r="CH29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI29" t="n">
         <v>0.0</v>
@@ -12143,7 +12143,7 @@
         <v>0.0</v>
       </c>
       <c r="CK29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL29" t="n">
         <v>0.0</v>
@@ -12155,10 +12155,10 @@
         <v>0.0</v>
       </c>
       <c r="CO29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ29" t="n">
         <v>0.0</v>
@@ -12188,10 +12188,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB29" t="n">
         <v>0.0</v>
@@ -12218,10 +12218,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL29" t="n">
         <v>0.0</v>
@@ -12245,10 +12245,10 @@
         <v>0.0</v>
       </c>
       <c r="DS29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU29" t="n">
         <v>0.0</v>
@@ -12260,16 +12260,16 @@
         <v>0.0</v>
       </c>
       <c r="DX29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ29" t="n">
         <v>0.0</v>
       </c>
       <c r="EA29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB29" t="n">
         <v>0.0</v>
@@ -12278,7 +12278,7 @@
         <v>0.0</v>
       </c>
       <c r="ED29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE29" t="n">
         <v>0.0</v>
@@ -12293,10 +12293,10 @@
         <v>0.0</v>
       </c>
       <c r="EI29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -12316,7 +12316,7 @@
         <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -12328,7 +12328,7 @@
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
@@ -12337,13 +12337,13 @@
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" t="n">
         <v>0.0</v>
@@ -12352,16 +12352,16 @@
         <v>0.0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T30" t="n">
         <v>0.0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V30" t="n">
         <v>0.0</v>
@@ -12370,7 +12370,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y30" t="n">
         <v>0.0</v>
@@ -12385,10 +12385,10 @@
         <v>0.0</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE30" t="n">
         <v>0.0</v>
@@ -12397,10 +12397,10 @@
         <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI30" t="n">
         <v>0.0</v>
@@ -12415,10 +12415,10 @@
         <v>0.0</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO30" t="n">
         <v>0.0</v>
@@ -12427,13 +12427,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR30" t="n">
         <v>0.0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT30" t="n">
         <v>0.0</v>
@@ -12442,16 +12442,16 @@
         <v>0.0</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW30" t="n">
         <v>0.0</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ30" t="n">
         <v>0.0</v>
@@ -12460,7 +12460,7 @@
         <v>0.0</v>
       </c>
       <c r="BB30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC30" t="n">
         <v>0.0</v>
@@ -12472,10 +12472,10 @@
         <v>0.0</v>
       </c>
       <c r="BF30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH30" t="n">
         <v>0.0</v>
@@ -12490,10 +12490,10 @@
         <v>0.0</v>
       </c>
       <c r="BL30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN30" t="n">
         <v>0.0</v>
@@ -12505,13 +12505,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT30" t="n">
         <v>0.0</v>
@@ -12520,7 +12520,7 @@
         <v>0.0</v>
       </c>
       <c r="BV30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW30" t="n">
         <v>0.0</v>
@@ -12532,13 +12532,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA30" t="n">
         <v>0.0</v>
       </c>
       <c r="CB30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC30" t="n">
         <v>0.0</v>
@@ -12547,13 +12547,13 @@
         <v>0.0</v>
       </c>
       <c r="CE30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF30" t="n">
         <v>0.0</v>
       </c>
       <c r="CG30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH30" t="n">
         <v>0.0</v>
@@ -12565,10 +12565,10 @@
         <v>0.0</v>
       </c>
       <c r="CK30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM30" t="n">
         <v>0.0</v>
@@ -12580,13 +12580,13 @@
         <v>0.0</v>
       </c>
       <c r="CP30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS30" t="n">
         <v>0.0</v>
@@ -12595,7 +12595,7 @@
         <v>0.0</v>
       </c>
       <c r="CU30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV30" t="n">
         <v>0.0</v>
@@ -12607,10 +12607,10 @@
         <v>0.0</v>
       </c>
       <c r="CY30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA30" t="n">
         <v>0.0</v>
@@ -12625,13 +12625,13 @@
         <v>0.0</v>
       </c>
       <c r="DE30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH30" t="n">
         <v>0.0</v>
@@ -12643,7 +12643,7 @@
         <v>0.0</v>
       </c>
       <c r="DK30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL30" t="n">
         <v>0.0</v>
@@ -12655,13 +12655,13 @@
         <v>0.0</v>
       </c>
       <c r="DO30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR30" t="n">
         <v>0.0</v>
@@ -12670,7 +12670,7 @@
         <v>0.0</v>
       </c>
       <c r="DT30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU30" t="n">
         <v>0.0</v>
@@ -12685,10 +12685,10 @@
         <v>0.0</v>
       </c>
       <c r="DY30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA30" t="n">
         <v>0.0</v>
@@ -12732,10 +12732,10 @@
         <v>0.0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -12759,10 +12759,10 @@
         <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O31" t="n">
         <v>0.0</v>
@@ -12792,10 +12792,10 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z31" t="n">
         <v>0.0</v>
@@ -12807,13 +12807,13 @@
         <v>0.0</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF31" t="n">
         <v>0.0</v>
@@ -12822,7 +12822,7 @@
         <v>0.0</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI31" t="n">
         <v>0.0</v>
@@ -12864,10 +12864,10 @@
         <v>0.0</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX31" t="n">
         <v>0.0</v>
@@ -12894,13 +12894,13 @@
         <v>0.0</v>
       </c>
       <c r="BF31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG31" t="n">
         <v>0.0</v>
       </c>
       <c r="BH31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI31" t="n">
         <v>0.0</v>
@@ -12912,13 +12912,13 @@
         <v>0.0</v>
       </c>
       <c r="BL31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO31" t="n">
         <v>0.0</v>
@@ -12927,7 +12927,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR31" t="n">
         <v>0.0</v>
@@ -12942,13 +12942,13 @@
         <v>0.0</v>
       </c>
       <c r="BV31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY31" t="n">
         <v>0.0</v>
@@ -12957,7 +12957,7 @@
         <v>0.0</v>
       </c>
       <c r="CA31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB31" t="n">
         <v>0.0</v>
@@ -12969,10 +12969,10 @@
         <v>0.0</v>
       </c>
       <c r="CE31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG31" t="n">
         <v>0.0</v>
@@ -12984,13 +12984,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK31" t="n">
         <v>0.0</v>
       </c>
       <c r="CL31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM31" t="n">
         <v>0.0</v>
@@ -13002,10 +13002,10 @@
         <v>0.0</v>
       </c>
       <c r="CP31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR31" t="n">
         <v>0.0</v>
@@ -13032,10 +13032,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB31" t="n">
         <v>0.0</v>
@@ -13053,7 +13053,7 @@
         <v>0.0</v>
       </c>
       <c r="DG31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH31" t="n">
         <v>0.0</v>
@@ -13062,7 +13062,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK31" t="n">
         <v>0.0</v>
@@ -13098,7 +13098,7 @@
         <v>1.0</v>
       </c>
       <c r="DV31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW31" t="n">
         <v>0.0</v>
@@ -13110,10 +13110,10 @@
         <v>0.0</v>
       </c>
       <c r="DZ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB31" t="n">
         <v>0.0</v>
@@ -13122,7 +13122,7 @@
         <v>0.0</v>
       </c>
       <c r="ED31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE31" t="n">
         <v>0.0</v>
@@ -13134,10 +13134,10 @@
         <v>0.0</v>
       </c>
       <c r="EH31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ31" t="n">
         <v>0.0</v>
@@ -13154,10 +13154,10 @@
         <v>0.0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -13175,7 +13175,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
@@ -13184,7 +13184,7 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O32" t="n">
         <v>0.0</v>
@@ -13199,10 +13199,10 @@
         <v>0.0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
@@ -13211,13 +13211,13 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X32" t="n">
         <v>0.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" t="n">
         <v>0.0</v>
@@ -13226,13 +13226,13 @@
         <v>0.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
       </c>
       <c r="AD32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE32" t="n">
         <v>0.0</v>
@@ -13241,10 +13241,10 @@
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI32" t="n">
         <v>0.0</v>
@@ -13259,13 +13259,13 @@
         <v>0.0</v>
       </c>
       <c r="AM32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP32" t="n">
         <v>0.0</v>
@@ -13274,13 +13274,13 @@
         <v>0.0</v>
       </c>
       <c r="AR32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS32" t="n">
         <v>0.0</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU32" t="n">
         <v>0.0</v>
@@ -13289,7 +13289,7 @@
         <v>0.0</v>
       </c>
       <c r="AW32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX32" t="n">
         <v>0.0</v>
@@ -13304,10 +13304,10 @@
         <v>0.0</v>
       </c>
       <c r="BB32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD32" t="n">
         <v>0.0</v>
@@ -13334,10 +13334,10 @@
         <v>0.0</v>
       </c>
       <c r="BL32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN32" t="n">
         <v>0.0</v>
@@ -13346,16 +13346,16 @@
         <v>0.0</v>
       </c>
       <c r="BP32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR32" t="n">
         <v>0.0</v>
       </c>
       <c r="BS32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT32" t="n">
         <v>0.0</v>
@@ -13364,7 +13364,7 @@
         <v>0.0</v>
       </c>
       <c r="BV32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW32" t="n">
         <v>0.0</v>
@@ -13409,10 +13409,10 @@
         <v>0.0</v>
       </c>
       <c r="CK32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM32" t="n">
         <v>0.0</v>
@@ -13445,7 +13445,7 @@
         <v>1.0</v>
       </c>
       <c r="CW32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX32" t="n">
         <v>0.0</v>
@@ -13454,13 +13454,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA32" t="n">
         <v>0.0</v>
       </c>
       <c r="DB32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC32" t="n">
         <v>0.0</v>
@@ -13469,7 +13469,7 @@
         <v>0.0</v>
       </c>
       <c r="DE32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF32" t="n">
         <v>0.0</v>
@@ -13505,7 +13505,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR32" t="n">
         <v>0.0</v>
@@ -13514,13 +13514,13 @@
         <v>0.0</v>
       </c>
       <c r="DT32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU32" t="n">
         <v>0.0</v>
       </c>
       <c r="DV32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW32" t="n">
         <v>0.0</v>
@@ -13532,7 +13532,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA32" t="n">
         <v>0.0</v>
@@ -13544,10 +13544,10 @@
         <v>0.0</v>
       </c>
       <c r="ED32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF32" t="n">
         <v>0.0</v>

--- a/CaseEfinal/files/FormatDepA.xlsx
+++ b/CaseEfinal/files/FormatDepA.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FITNESS = 92421.0" r:id="rId3" sheetId="1"/>
+    <sheet name="FITNESS = 96512.0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -72,10 +72,10 @@
         <v>0.0</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F1" t="n">
         <v>0.0</v>
@@ -99,16 +99,16 @@
         <v>0.0</v>
       </c>
       <c r="M1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N1" t="n">
         <v>0.0</v>
       </c>
       <c r="O1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q1" t="n">
         <v>0.0</v>
@@ -117,7 +117,7 @@
         <v>0.0</v>
       </c>
       <c r="S1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T1" t="n">
         <v>0.0</v>
@@ -153,7 +153,7 @@
         <v>1.0</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF1" t="n">
         <v>0.0</v>
@@ -162,7 +162,7 @@
         <v>0.0</v>
       </c>
       <c r="AH1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI1" t="n">
         <v>0.0</v>
@@ -177,10 +177,10 @@
         <v>0.0</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO1" t="n">
         <v>0.0</v>
@@ -198,13 +198,13 @@
         <v>0.0</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU1" t="n">
         <v>0.0</v>
       </c>
       <c r="AV1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW1" t="n">
         <v>0.0</v>
@@ -213,13 +213,13 @@
         <v>0.0</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ1" t="n">
         <v>0.0</v>
       </c>
       <c r="BA1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB1" t="n">
         <v>0.0</v>
@@ -228,13 +228,13 @@
         <v>0.0</v>
       </c>
       <c r="BD1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE1" t="n">
         <v>0.0</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG1" t="n">
         <v>0.0</v>
@@ -243,13 +243,13 @@
         <v>0.0</v>
       </c>
       <c r="BI1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ1" t="n">
         <v>0.0</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL1" t="n">
         <v>0.0</v>
@@ -267,10 +267,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS1" t="n">
         <v>0.0</v>
@@ -279,13 +279,13 @@
         <v>0.0</v>
       </c>
       <c r="BU1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV1" t="n">
         <v>0.0</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX1" t="n">
         <v>0.0</v>
@@ -297,19 +297,19 @@
         <v>0.0</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD1" t="n">
         <v>0.0</v>
       </c>
       <c r="CE1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF1" t="n">
         <v>0.0</v>
@@ -318,13 +318,13 @@
         <v>0.0</v>
       </c>
       <c r="CH1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI1" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK1" t="n">
         <v>0.0</v>
@@ -354,16 +354,16 @@
         <v>0.0</v>
       </c>
       <c r="CT1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV1" t="n">
         <v>0.0</v>
       </c>
       <c r="CW1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX1" t="n">
         <v>0.0</v>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB1" t="n">
         <v>0.0</v>
@@ -387,10 +387,10 @@
         <v>0.0</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG1" t="n">
         <v>1.0</v>
@@ -423,7 +423,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR1" t="n">
         <v>0.0</v>
@@ -435,7 +435,7 @@
         <v>0.0</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV1" t="n">
         <v>0.0</v>
@@ -474,13 +474,13 @@
         <v>0.0</v>
       </c>
       <c r="EH1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI1" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
@@ -494,10 +494,10 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -509,10 +509,10 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" t="n">
         <v>0.0</v>
@@ -521,13 +521,13 @@
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P2" t="n">
         <v>0.0</v>
@@ -536,13 +536,13 @@
         <v>0.0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
@@ -551,22 +551,22 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X2" t="n">
         <v>0.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC2" t="n">
         <v>0.0</v>
@@ -590,13 +590,13 @@
         <v>0.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK2" t="n">
         <v>0.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM2" t="n">
         <v>0.0</v>
@@ -629,19 +629,19 @@
         <v>0.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB2" t="n">
         <v>0.0</v>
@@ -671,13 +671,13 @@
         <v>0.0</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL2" t="n">
         <v>0.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN2" t="n">
         <v>0.0</v>
@@ -686,10 +686,10 @@
         <v>0.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR2" t="n">
         <v>0.0</v>
@@ -701,10 +701,10 @@
         <v>0.0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW2" t="n">
         <v>0.0</v>
@@ -731,13 +731,13 @@
         <v>0.0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF2" t="n">
         <v>0.0</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH2" t="n">
         <v>0.0</v>
@@ -755,13 +755,13 @@
         <v>1.0</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN2" t="n">
         <v>0.0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP2" t="n">
         <v>0.0</v>
@@ -791,10 +791,10 @@
         <v>0.0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA2" t="n">
         <v>0.0</v>
@@ -809,10 +809,10 @@
         <v>0.0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG2" t="n">
         <v>0.0</v>
@@ -824,10 +824,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL2" t="n">
         <v>0.0</v>
@@ -836,13 +836,13 @@
         <v>0.0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO2" t="n">
         <v>0.0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ2" t="n">
         <v>0.0</v>
@@ -866,16 +866,16 @@
         <v>0.0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY2" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB2" t="n">
         <v>0.0</v>
@@ -884,7 +884,7 @@
         <v>0.0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE2" t="n">
         <v>0.0</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -919,16 +919,16 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -946,10 +946,10 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P3" t="n">
         <v>0.0</v>
@@ -973,10 +973,10 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y3" t="n">
         <v>0.0</v>
@@ -988,22 +988,22 @@
         <v>0.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC3" t="n">
         <v>0.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF3" t="n">
         <v>0.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH3" t="n">
         <v>0.0</v>
@@ -1012,7 +1012,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK3" t="n">
         <v>0.0</v>
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO3" t="n">
         <v>0.0</v>
@@ -1033,16 +1033,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS3" t="n">
         <v>0.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU3" t="n">
         <v>0.0</v>
@@ -1051,7 +1051,7 @@
         <v>0.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX3" t="n">
         <v>0.0</v>
@@ -1066,10 +1066,10 @@
         <v>0.0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD3" t="n">
         <v>0.0</v>
@@ -1081,10 +1081,10 @@
         <v>0.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI3" t="n">
         <v>0.0</v>
@@ -1102,7 +1102,7 @@
         <v>0.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO3" t="n">
         <v>0.0</v>
@@ -1111,7 +1111,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR3" t="n">
         <v>0.0</v>
@@ -1126,13 +1126,13 @@
         <v>0.0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY3" t="n">
         <v>0.0</v>
@@ -1141,7 +1141,7 @@
         <v>0.0</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB3" t="n">
         <v>0.0</v>
@@ -1153,13 +1153,13 @@
         <v>0.0</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF3" t="n">
         <v>0.0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH3" t="n">
         <v>0.0</v>
@@ -1168,10 +1168,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL3" t="n">
         <v>0.0</v>
@@ -1183,22 +1183,22 @@
         <v>0.0</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP3" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS3" t="n">
         <v>0.0</v>
       </c>
       <c r="CT3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU3" t="n">
         <v>0.0</v>
@@ -1216,10 +1216,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB3" t="n">
         <v>0.0</v>
@@ -1228,16 +1228,16 @@
         <v>0.0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE3" t="n">
         <v>0.0</v>
       </c>
       <c r="DF3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH3" t="n">
         <v>0.0</v>
@@ -1249,16 +1249,16 @@
         <v>0.0</v>
       </c>
       <c r="DK3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM3" t="n">
         <v>0.0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO3" t="n">
         <v>0.0</v>
@@ -1267,13 +1267,13 @@
         <v>0.0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR3" t="n">
         <v>0.0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT3" t="n">
         <v>0.0</v>
@@ -1288,13 +1288,13 @@
         <v>0.0</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY3" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA3" t="n">
         <v>0.0</v>
@@ -1312,7 +1312,7 @@
         <v>1.0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG3" t="n">
         <v>0.0</v>
@@ -1324,7 +1324,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1335,16 +1335,16 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1356,7 +1356,7 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K4" t="n">
         <v>0.0</v>
@@ -1365,16 +1365,16 @@
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0</v>
@@ -1383,13 +1383,13 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V4" t="n">
         <v>0.0</v>
@@ -1401,16 +1401,16 @@
         <v>0.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA4" t="n">
         <v>0.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0</v>
@@ -1428,10 +1428,10 @@
         <v>0.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0.0</v>
@@ -1440,13 +1440,13 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM4" t="n">
         <v>0.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO4" t="n">
         <v>0.0</v>
@@ -1455,13 +1455,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR4" t="n">
         <v>0.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT4" t="n">
         <v>0.0</v>
@@ -1479,7 +1479,7 @@
         <v>0.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ4" t="n">
         <v>0.0</v>
@@ -1491,7 +1491,7 @@
         <v>0.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD4" t="n">
         <v>0.0</v>
@@ -1515,22 +1515,22 @@
         <v>0.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM4" t="n">
         <v>0.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO4" t="n">
         <v>0.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ4" t="n">
         <v>0.0</v>
@@ -1539,7 +1539,7 @@
         <v>0.0</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT4" t="n">
         <v>0.0</v>
@@ -1548,7 +1548,7 @@
         <v>0.0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW4" t="n">
         <v>0.0</v>
@@ -1578,10 +1578,10 @@
         <v>0.0</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH4" t="n">
         <v>0.0</v>
@@ -1590,10 +1590,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL4" t="n">
         <v>0.0</v>
@@ -1605,10 +1605,10 @@
         <v>0.0</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ4" t="n">
         <v>0.0</v>
@@ -1623,13 +1623,13 @@
         <v>0.0</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX4" t="n">
         <v>0.0</v>
@@ -1641,7 +1641,7 @@
         <v>0.0</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB4" t="n">
         <v>0.0</v>
@@ -1650,13 +1650,13 @@
         <v>0.0</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE4" t="n">
         <v>0.0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG4" t="n">
         <v>0.0</v>
@@ -1665,10 +1665,10 @@
         <v>0.0</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK4" t="n">
         <v>0.0</v>
@@ -1683,10 +1683,10 @@
         <v>0.0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0.0</v>
@@ -1698,10 +1698,10 @@
         <v>0.0</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV4" t="n">
         <v>0.0</v>
@@ -1713,13 +1713,13 @@
         <v>0.0</v>
       </c>
       <c r="DY4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB4" t="n">
         <v>0.0</v>
@@ -1728,19 +1728,19 @@
         <v>0.0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE4" t="n">
         <v>0.0</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG4" t="n">
         <v>0.0</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI4" t="n">
         <v>0.0</v>
@@ -1772,16 +1772,16 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
@@ -1793,7 +1793,7 @@
         <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P5" t="n">
         <v>0.0</v>
@@ -1802,16 +1802,16 @@
         <v>0.0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V5" t="n">
         <v>0.0</v>
@@ -1820,7 +1820,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y5" t="n">
         <v>0.0</v>
@@ -1841,13 +1841,13 @@
         <v>1.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF5" t="n">
         <v>0.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH5" t="n">
         <v>0.0</v>
@@ -1862,10 +1862,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN5" t="n">
         <v>0.0</v>
@@ -1877,13 +1877,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR5" t="n">
         <v>0.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT5" t="n">
         <v>0.0</v>
@@ -1895,10 +1895,10 @@
         <v>0.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY5" t="n">
         <v>0.0</v>
@@ -1910,10 +1910,10 @@
         <v>0.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD5" t="n">
         <v>1.0</v>
@@ -1931,13 +1931,13 @@
         <v>0.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL5" t="n">
         <v>0.0</v>
@@ -1946,7 +1946,7 @@
         <v>0.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO5" t="n">
         <v>0.0</v>
@@ -1955,13 +1955,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR5" t="n">
         <v>0.0</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT5" t="n">
         <v>0.0</v>
@@ -1970,7 +1970,7 @@
         <v>0.0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW5" t="n">
         <v>0.0</v>
@@ -1982,13 +1982,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA5" t="n">
         <v>0.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC5" t="n">
         <v>0.0</v>
@@ -2012,13 +2012,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK5" t="n">
         <v>0.0</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM5" t="n">
         <v>0.0</v>
@@ -2030,10 +2030,10 @@
         <v>0.0</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR5" t="n">
         <v>0.0</v>
@@ -2057,16 +2057,16 @@
         <v>0.0</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ5" t="n">
         <v>0.0</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC5" t="n">
         <v>0.0</v>
@@ -2078,10 +2078,10 @@
         <v>0.0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH5" t="n">
         <v>0.0</v>
@@ -2090,7 +2090,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK5" t="n">
         <v>0.0</v>
@@ -2102,16 +2102,16 @@
         <v>0.0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO5" t="n">
         <v>0.0</v>
       </c>
       <c r="DP5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR5" t="n">
         <v>0.0</v>
@@ -2123,7 +2123,7 @@
         <v>0.0</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV5" t="n">
         <v>0.0</v>
@@ -2132,16 +2132,16 @@
         <v>0.0</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY5" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB5" t="n">
         <v>0.0</v>
@@ -2150,7 +2150,7 @@
         <v>0.0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE5" t="n">
         <v>0.0</v>
@@ -2188,13 +2188,13 @@
         <v>0.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -2209,22 +2209,22 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
@@ -2242,13 +2242,13 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA6" t="n">
         <v>0.0</v>
@@ -2260,10 +2260,10 @@
         <v>0.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF6" t="n">
         <v>0.0</v>
@@ -2272,7 +2272,7 @@
         <v>0.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI6" t="n">
         <v>0.0</v>
@@ -2287,13 +2287,13 @@
         <v>0.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP6" t="n">
         <v>0.0</v>
@@ -2305,10 +2305,10 @@
         <v>0.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU6" t="n">
         <v>0.0</v>
@@ -2320,7 +2320,7 @@
         <v>0.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY6" t="n">
         <v>0.0</v>
@@ -2368,7 +2368,7 @@
         <v>0.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO6" t="n">
         <v>0.0</v>
@@ -2377,7 +2377,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR6" t="n">
         <v>0.0</v>
@@ -2419,10 +2419,10 @@
         <v>0.0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG6" t="n">
         <v>0.0</v>
@@ -2437,10 +2437,10 @@
         <v>0.0</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM6" t="n">
         <v>0.0</v>
@@ -2452,10 +2452,10 @@
         <v>0.0</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR6" t="n">
         <v>1.0</v>
@@ -2479,10 +2479,10 @@
         <v>0.0</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA6" t="n">
         <v>0.0</v>
@@ -2494,22 +2494,22 @@
         <v>0.0</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF6" t="n">
         <v>0.0</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH6" t="n">
         <v>0.0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ6" t="n">
         <v>0.0</v>
@@ -2527,10 +2527,10 @@
         <v>0.0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0.0</v>
@@ -2539,10 +2539,10 @@
         <v>0.0</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU6" t="n">
         <v>0.0</v>
@@ -2557,10 +2557,10 @@
         <v>0.0</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA6" t="n">
         <v>0.0</v>
@@ -2578,13 +2578,13 @@
         <v>1.0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG6" t="n">
         <v>0.0</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI6" t="n">
         <v>0.0</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2607,7 +2607,7 @@
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -2616,10 +2616,10 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" t="n">
         <v>0.0</v>
@@ -2655,7 +2655,7 @@
         <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V7" t="n">
         <v>0.0</v>
@@ -2664,7 +2664,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y7" t="n">
         <v>0.0</v>
@@ -2685,7 +2685,7 @@
         <v>1.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF7" t="n">
         <v>0.0</v>
@@ -2694,7 +2694,7 @@
         <v>0.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI7" t="n">
         <v>0.0</v>
@@ -2709,13 +2709,13 @@
         <v>0.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP7" t="n">
         <v>0.0</v>
@@ -2727,10 +2727,10 @@
         <v>0.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU7" t="n">
         <v>0.0</v>
@@ -2742,7 +2742,7 @@
         <v>0.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY7" t="n">
         <v>0.0</v>
@@ -2751,10 +2751,10 @@
         <v>0.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC7" t="n">
         <v>0.0</v>
@@ -2775,7 +2775,7 @@
         <v>0.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0.0</v>
@@ -2784,7 +2784,7 @@
         <v>0.0</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM7" t="n">
         <v>0.0</v>
@@ -2796,13 +2796,13 @@
         <v>0.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ7" t="n">
         <v>0.0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS7" t="n">
         <v>0.0</v>
@@ -2820,13 +2820,13 @@
         <v>0.0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY7" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA7" t="n">
         <v>0.0</v>
@@ -2874,10 +2874,10 @@
         <v>0.0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR7" t="n">
         <v>0.0</v>
@@ -2886,22 +2886,22 @@
         <v>0.0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU7" t="n">
         <v>0.0</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX7" t="n">
         <v>0.0</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ7" t="n">
         <v>0.0</v>
@@ -2910,13 +2910,13 @@
         <v>0.0</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC7" t="n">
         <v>0.0</v>
       </c>
       <c r="DD7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE7" t="n">
         <v>0.0</v>
@@ -2970,13 +2970,13 @@
         <v>1.0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW7" t="n">
         <v>0.0</v>
       </c>
       <c r="DX7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY7" t="n">
         <v>0.0</v>
@@ -2985,13 +2985,13 @@
         <v>0.0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB7" t="n">
         <v>0.0</v>
       </c>
       <c r="EC7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED7" t="n">
         <v>0.0</v>
@@ -3006,13 +3006,13 @@
         <v>0.0</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI7" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -3023,10 +3023,10 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
@@ -3041,19 +3041,19 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -3062,7 +3062,7 @@
         <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0</v>
@@ -3074,7 +3074,7 @@
         <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
@@ -3107,7 +3107,7 @@
         <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF8" t="n">
         <v>0.0</v>
@@ -3119,7 +3119,7 @@
         <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0.0</v>
@@ -3137,7 +3137,7 @@
         <v>1.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP8" t="n">
         <v>0.0</v>
@@ -3149,7 +3149,7 @@
         <v>0.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
         <v>0.0</v>
@@ -3158,16 +3158,16 @@
         <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" t="n">
         <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ8" t="n">
         <v>0.0</v>
@@ -3179,7 +3179,7 @@
         <v>0.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8" t="n">
         <v>0.0</v>
@@ -3206,10 +3206,10 @@
         <v>0.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN8" t="n">
         <v>0.0</v>
@@ -3221,19 +3221,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT8" t="n">
         <v>0.0</v>
       </c>
       <c r="BU8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV8" t="n">
         <v>0.0</v>
@@ -3242,7 +3242,7 @@
         <v>0.0</v>
       </c>
       <c r="BX8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY8" t="n">
         <v>0.0</v>
@@ -3251,13 +3251,13 @@
         <v>0.0</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB8" t="n">
         <v>0.0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD8" t="n">
         <v>0.0</v>
@@ -3266,7 +3266,7 @@
         <v>0.0</v>
       </c>
       <c r="CF8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG8" t="n">
         <v>0.0</v>
@@ -3278,13 +3278,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK8" t="n">
         <v>0.0</v>
       </c>
       <c r="CL8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM8" t="n">
         <v>0.0</v>
@@ -3293,10 +3293,10 @@
         <v>0.0</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ8" t="n">
         <v>0.0</v>
@@ -3341,13 +3341,13 @@
         <v>0.0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH8" t="n">
         <v>0.0</v>
@@ -3359,16 +3359,16 @@
         <v>0.0</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM8" t="n">
         <v>0.0</v>
       </c>
       <c r="DN8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO8" t="n">
         <v>0.0</v>
@@ -3386,19 +3386,19 @@
         <v>0.0</v>
       </c>
       <c r="DT8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW8" t="n">
         <v>0.0</v>
       </c>
       <c r="DX8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY8" t="n">
         <v>0.0</v>
@@ -3428,10 +3428,10 @@
         <v>0.0</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ8" t="n">
         <v>0.0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3448,7 +3448,7 @@
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
@@ -3484,13 +3484,13 @@
         <v>1.0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S9" t="n">
         <v>0.0</v>
@@ -3499,7 +3499,7 @@
         <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V9" t="n">
         <v>0.0</v>
@@ -3508,13 +3508,13 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA9" t="n">
         <v>0.0</v>
@@ -3526,7 +3526,7 @@
         <v>0.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE9" t="n">
         <v>0.0</v>
@@ -3538,10 +3538,10 @@
         <v>0.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.0</v>
@@ -3550,13 +3550,13 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM9" t="n">
         <v>0.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO9" t="n">
         <v>0.0</v>
@@ -3565,16 +3565,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR9" t="n">
         <v>0.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU9" t="n">
         <v>0.0</v>
@@ -3586,7 +3586,7 @@
         <v>0.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY9" t="n">
         <v>0.0</v>
@@ -3595,10 +3595,10 @@
         <v>0.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC9" t="n">
         <v>0.0</v>
@@ -3640,16 +3640,16 @@
         <v>0.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ9" t="n">
         <v>0.0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT9" t="n">
         <v>0.0</v>
@@ -3661,7 +3661,7 @@
         <v>0.0</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX9" t="n">
         <v>0.0</v>
@@ -3670,13 +3670,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA9" t="n">
         <v>0.0</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC9" t="n">
         <v>0.0</v>
@@ -3685,10 +3685,10 @@
         <v>0.0</v>
       </c>
       <c r="CE9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG9" t="n">
         <v>0.0</v>
@@ -3709,13 +3709,13 @@
         <v>0.0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN9" t="n">
         <v>0.0</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP9" t="n">
         <v>0.0</v>
@@ -3724,7 +3724,7 @@
         <v>0.0</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS9" t="n">
         <v>0.0</v>
@@ -3736,10 +3736,10 @@
         <v>0.0</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX9" t="n">
         <v>0.0</v>
@@ -3751,10 +3751,10 @@
         <v>0.0</v>
       </c>
       <c r="DA9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC9" t="n">
         <v>0.0</v>
@@ -3763,7 +3763,7 @@
         <v>0.0</v>
       </c>
       <c r="DE9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF9" t="n">
         <v>0.0</v>
@@ -3805,13 +3805,13 @@
         <v>0.0</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT9" t="n">
         <v>0.0</v>
       </c>
       <c r="DU9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV9" t="n">
         <v>1.0</v>
@@ -3835,13 +3835,13 @@
         <v>0.0</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED9" t="n">
         <v>0.0</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF9" t="n">
         <v>0.0</v>
@@ -3850,10 +3850,10 @@
         <v>0.0</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ9" t="n">
         <v>0.0</v>
@@ -3876,13 +3876,13 @@
         <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -3900,19 +3900,19 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" t="n">
         <v>0.0</v>
@@ -3936,13 +3936,13 @@
         <v>1.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA10" t="n">
         <v>0.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" t="n">
         <v>0.0</v>
@@ -3957,22 +3957,22 @@
         <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10" t="n">
         <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK10" t="n">
         <v>0.0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM10" t="n">
         <v>0.0</v>
@@ -3987,13 +3987,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR10" t="n">
         <v>0.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT10" t="n">
         <v>1.0</v>
@@ -4017,22 +4017,22 @@
         <v>0.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC10" t="n">
         <v>0.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE10" t="n">
         <v>0.0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG10" t="n">
         <v>0.0</v>
@@ -4041,7 +4041,7 @@
         <v>0.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0.0</v>
@@ -4053,10 +4053,10 @@
         <v>0.0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO10" t="n">
         <v>0.0</v>
@@ -4065,7 +4065,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR10" t="n">
         <v>0.0</v>
@@ -4077,16 +4077,16 @@
         <v>0.0</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW10" t="n">
         <v>0.0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY10" t="n">
         <v>0.0</v>
@@ -4098,7 +4098,7 @@
         <v>0.0</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC10" t="n">
         <v>0.0</v>
@@ -4107,13 +4107,13 @@
         <v>0.0</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF10" t="n">
         <v>0.0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH10" t="n">
         <v>0.0</v>
@@ -4122,10 +4122,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL10" t="n">
         <v>0.0</v>
@@ -4137,13 +4137,13 @@
         <v>0.0</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP10" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR10" t="n">
         <v>0.0</v>
@@ -4152,16 +4152,16 @@
         <v>0.0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV10" t="n">
         <v>0.0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX10" t="n">
         <v>0.0</v>
@@ -4170,13 +4170,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA10" t="n">
         <v>0.0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC10" t="n">
         <v>0.0</v>
@@ -4188,7 +4188,7 @@
         <v>0.0</v>
       </c>
       <c r="DF10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG10" t="n">
         <v>0.0</v>
@@ -4197,10 +4197,10 @@
         <v>0.0</v>
       </c>
       <c r="DI10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK10" t="n">
         <v>0.0</v>
@@ -4230,10 +4230,10 @@
         <v>0.0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV10" t="n">
         <v>0.0</v>
@@ -4242,13 +4242,13 @@
         <v>0.0</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY10" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA10" t="n">
         <v>0.0</v>
@@ -4283,13 +4283,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -4334,16 +4334,16 @@
         <v>0.0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" t="n">
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V11" t="n">
         <v>0.0</v>
@@ -4352,13 +4352,13 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y11" t="n">
         <v>0.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA11" t="n">
         <v>0.0</v>
@@ -4370,16 +4370,16 @@
         <v>0.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF11" t="n">
         <v>0.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH11" t="n">
         <v>0.0</v>
@@ -4388,13 +4388,13 @@
         <v>0.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK11" t="n">
         <v>0.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM11" t="n">
         <v>0.0</v>
@@ -4409,16 +4409,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR11" t="n">
         <v>0.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU11" t="n">
         <v>0.0</v>
@@ -4430,7 +4430,7 @@
         <v>0.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY11" t="n">
         <v>0.0</v>
@@ -4454,13 +4454,13 @@
         <v>0.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG11" t="n">
         <v>0.0</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI11" t="n">
         <v>0.0</v>
@@ -4472,10 +4472,10 @@
         <v>0.0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN11" t="n">
         <v>0.0</v>
@@ -4487,10 +4487,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS11" t="n">
         <v>0.0</v>
@@ -4499,13 +4499,13 @@
         <v>0.0</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV11" t="n">
         <v>0.0</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX11" t="n">
         <v>0.0</v>
@@ -4514,10 +4514,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB11" t="n">
         <v>0.0</v>
@@ -4532,13 +4532,13 @@
         <v>0.0</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI11" t="n">
         <v>0.0</v>
@@ -4550,7 +4550,7 @@
         <v>0.0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM11" t="n">
         <v>0.0</v>
@@ -4559,13 +4559,13 @@
         <v>0.0</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP11" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR11" t="n">
         <v>0.0</v>
@@ -4574,16 +4574,16 @@
         <v>0.0</v>
       </c>
       <c r="CT11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV11" t="n">
         <v>0.0</v>
       </c>
       <c r="CW11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX11" t="n">
         <v>0.0</v>
@@ -4595,16 +4595,16 @@
         <v>0.0</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC11" t="n">
         <v>0.0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE11" t="n">
         <v>0.0</v>
@@ -4613,13 +4613,13 @@
         <v>0.0</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH11" t="n">
         <v>0.0</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ11" t="n">
         <v>0.0</v>
@@ -4628,13 +4628,13 @@
         <v>0.0</v>
       </c>
       <c r="DL11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM11" t="n">
         <v>0.0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO11" t="n">
         <v>0.0</v>
@@ -4643,7 +4643,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR11" t="n">
         <v>0.0</v>
@@ -4655,16 +4655,16 @@
         <v>0.0</v>
       </c>
       <c r="DU11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW11" t="n">
         <v>0.0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY11" t="n">
         <v>0.0</v>
@@ -4679,22 +4679,22 @@
         <v>0.0</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED11" t="n">
         <v>0.0</v>
       </c>
       <c r="EE11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG11" t="n">
         <v>0.0</v>
       </c>
       <c r="EH11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI11" t="n">
         <v>0.0</v>
@@ -4705,13 +4705,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
@@ -4720,7 +4720,7 @@
         <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -4732,7 +4732,7 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K12" t="n">
         <v>1.0</v>
@@ -4771,10 +4771,10 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y12" t="n">
         <v>0.0</v>
@@ -4786,16 +4786,16 @@
         <v>0.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12" t="n">
         <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF12" t="n">
         <v>0.0</v>
@@ -4807,7 +4807,7 @@
         <v>0.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.0</v>
@@ -4819,10 +4819,10 @@
         <v>0.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO12" t="n">
         <v>0.0</v>
@@ -4834,10 +4834,10 @@
         <v>0.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT12" t="n">
         <v>0.0</v>
@@ -4846,10 +4846,10 @@
         <v>0.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX12" t="n">
         <v>0.0</v>
@@ -4861,13 +4861,13 @@
         <v>0.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB12" t="n">
         <v>0.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD12" t="n">
         <v>0.0</v>
@@ -4876,10 +4876,10 @@
         <v>0.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH12" t="n">
         <v>0.0</v>
@@ -4891,13 +4891,13 @@
         <v>0.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL12" t="n">
         <v>0.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN12" t="n">
         <v>0.0</v>
@@ -4936,13 +4936,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA12" t="n">
         <v>0.0</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC12" t="n">
         <v>0.0</v>
@@ -4951,10 +4951,10 @@
         <v>0.0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG12" t="n">
         <v>0.0</v>
@@ -4966,16 +4966,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL12" t="n">
         <v>0.0</v>
       </c>
       <c r="CM12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN12" t="n">
         <v>0.0</v>
@@ -4987,7 +4987,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR12" t="n">
         <v>0.0</v>
@@ -4996,13 +4996,13 @@
         <v>0.0</v>
       </c>
       <c r="CT12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU12" t="n">
         <v>0.0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW12" t="n">
         <v>1.0</v>
@@ -5035,7 +5035,7 @@
         <v>0.0</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH12" t="n">
         <v>0.0</v>
@@ -5044,13 +5044,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK12" t="n">
         <v>0.0</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM12" t="n">
         <v>0.0</v>
@@ -5062,7 +5062,7 @@
         <v>0.0</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ12" t="n">
         <v>0.0</v>
@@ -5071,13 +5071,13 @@
         <v>0.0</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT12" t="n">
         <v>0.0</v>
       </c>
       <c r="DU12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV12" t="n">
         <v>0.0</v>
@@ -5089,10 +5089,10 @@
         <v>0.0</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA12" t="n">
         <v>0.0</v>
@@ -5110,7 +5110,7 @@
         <v>1.0</v>
       </c>
       <c r="EF12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG12" t="n">
         <v>0.0</v>
@@ -5119,7 +5119,7 @@
         <v>0.0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ12" t="n">
         <v>0.0</v>
@@ -5136,10 +5136,10 @@
         <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -5157,7 +5157,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
@@ -5169,16 +5169,16 @@
         <v>0.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
         <v>0.0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S13" t="n">
         <v>0.0</v>
@@ -5196,10 +5196,10 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13" t="n">
         <v>0.0</v>
@@ -5211,10 +5211,10 @@
         <v>0.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE13" t="n">
         <v>0.0</v>
@@ -5253,13 +5253,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR13" t="n">
         <v>0.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT13" t="n">
         <v>0.0</v>
@@ -5268,16 +5268,16 @@
         <v>0.0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
         <v>0.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ13" t="n">
         <v>0.0</v>
@@ -5286,7 +5286,7 @@
         <v>0.0</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13" t="n">
         <v>0.0</v>
@@ -5301,19 +5301,19 @@
         <v>0.0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0.0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL13" t="n">
         <v>0.0</v>
@@ -5343,10 +5343,10 @@
         <v>0.0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW13" t="n">
         <v>0.0</v>
@@ -5358,16 +5358,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB13" t="n">
         <v>0.0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD13" t="n">
         <v>0.0</v>
@@ -5376,7 +5376,7 @@
         <v>0.0</v>
       </c>
       <c r="CF13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG13" t="n">
         <v>0.0</v>
@@ -5388,16 +5388,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL13" t="n">
         <v>0.0</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN13" t="n">
         <v>0.0</v>
@@ -5409,7 +5409,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR13" t="n">
         <v>0.0</v>
@@ -5418,13 +5418,13 @@
         <v>0.0</v>
       </c>
       <c r="CT13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU13" t="n">
         <v>0.0</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW13" t="n">
         <v>0.0</v>
@@ -5448,16 +5448,16 @@
         <v>0.0</v>
       </c>
       <c r="DD13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE13" t="n">
         <v>0.0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH13" t="n">
         <v>0.0</v>
@@ -5469,7 +5469,7 @@
         <v>0.0</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL13" t="n">
         <v>0.0</v>
@@ -5487,7 +5487,7 @@
         <v>1.0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR13" t="n">
         <v>0.0</v>
@@ -5499,10 +5499,10 @@
         <v>0.0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW13" t="n">
         <v>0.0</v>
@@ -5514,7 +5514,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA13" t="n">
         <v>0.0</v>
@@ -5523,13 +5523,13 @@
         <v>0.0</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED13" t="n">
         <v>0.0</v>
       </c>
       <c r="EE13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF13" t="n">
         <v>0.0</v>
@@ -5541,10 +5541,10 @@
         <v>0.0</v>
       </c>
       <c r="EI13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -5555,10 +5555,10 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
@@ -5573,10 +5573,10 @@
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="n">
         <v>0.0</v>
@@ -5609,13 +5609,13 @@
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V14" t="n">
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X14" t="n">
         <v>0.0</v>
@@ -5624,7 +5624,7 @@
         <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA14" t="n">
         <v>0.0</v>
@@ -5633,7 +5633,7 @@
         <v>0.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD14" t="n">
         <v>0.0</v>
@@ -5645,16 +5645,16 @@
         <v>0.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH14" t="n">
         <v>0.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK14" t="n">
         <v>0.0</v>
@@ -5663,7 +5663,7 @@
         <v>0.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN14" t="n">
         <v>0.0</v>
@@ -5690,13 +5690,13 @@
         <v>0.0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW14" t="n">
         <v>0.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY14" t="n">
         <v>0.0</v>
@@ -5705,22 +5705,22 @@
         <v>0.0</v>
       </c>
       <c r="BA14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB14" t="n">
         <v>0.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE14" t="n">
         <v>0.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG14" t="n">
         <v>0.0</v>
@@ -5729,13 +5729,13 @@
         <v>0.0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ14" t="n">
         <v>0.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL14" t="n">
         <v>0.0</v>
@@ -5744,13 +5744,13 @@
         <v>0.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO14" t="n">
         <v>0.0</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ14" t="n">
         <v>0.0</v>
@@ -5768,10 +5768,10 @@
         <v>0.0</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX14" t="n">
         <v>0.0</v>
@@ -5789,13 +5789,13 @@
         <v>0.0</v>
       </c>
       <c r="CC14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD14" t="n">
         <v>0.0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF14" t="n">
         <v>0.0</v>
@@ -5804,7 +5804,7 @@
         <v>0.0</v>
       </c>
       <c r="CH14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI14" t="n">
         <v>0.0</v>
@@ -5813,7 +5813,7 @@
         <v>0.0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL14" t="n">
         <v>0.0</v>
@@ -5858,10 +5858,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB14" t="n">
         <v>0.0</v>
@@ -5873,13 +5873,13 @@
         <v>0.0</v>
       </c>
       <c r="DE14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH14" t="n">
         <v>0.0</v>
@@ -5888,13 +5888,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK14" t="n">
         <v>0.0</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM14" t="n">
         <v>0.0</v>
@@ -5903,13 +5903,13 @@
         <v>0.0</v>
       </c>
       <c r="DO14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP14" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR14" t="n">
         <v>0.0</v>
@@ -5921,7 +5921,7 @@
         <v>0.0</v>
       </c>
       <c r="DU14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV14" t="n">
         <v>0.0</v>
@@ -5992,13 +5992,13 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="n">
         <v>0.0</v>
@@ -6007,22 +6007,22 @@
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S15" t="n">
         <v>0.0</v>
@@ -6052,13 +6052,13 @@
         <v>0.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" t="n">
         <v>0.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE15" t="n">
         <v>0.0</v>
@@ -6067,13 +6067,13 @@
         <v>0.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH15" t="n">
         <v>0.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.0</v>
@@ -6082,13 +6082,13 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM15" t="n">
         <v>0.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO15" t="n">
         <v>0.0</v>
@@ -6115,13 +6115,13 @@
         <v>0.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0.0</v>
@@ -6133,7 +6133,7 @@
         <v>0.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD15" t="n">
         <v>0.0</v>
@@ -6142,16 +6142,16 @@
         <v>0.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH15" t="n">
         <v>0.0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ15" t="n">
         <v>0.0</v>
@@ -6160,13 +6160,13 @@
         <v>0.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM15" t="n">
         <v>0.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO15" t="n">
         <v>0.0</v>
@@ -6178,10 +6178,10 @@
         <v>0.0</v>
       </c>
       <c r="BR15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT15" t="n">
         <v>0.0</v>
@@ -6193,10 +6193,10 @@
         <v>0.0</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY15" t="n">
         <v>0.0</v>
@@ -6208,7 +6208,7 @@
         <v>0.0</v>
       </c>
       <c r="CB15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC15" t="n">
         <v>0.0</v>
@@ -6235,10 +6235,10 @@
         <v>0.0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM15" t="n">
         <v>0.0</v>
@@ -6280,19 +6280,19 @@
         <v>0.0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC15" t="n">
         <v>0.0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE15" t="n">
         <v>0.0</v>
@@ -6301,13 +6301,13 @@
         <v>0.0</v>
       </c>
       <c r="DG15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH15" t="n">
         <v>0.0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ15" t="n">
         <v>0.0</v>
@@ -6316,7 +6316,7 @@
         <v>0.0</v>
       </c>
       <c r="DL15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM15" t="n">
         <v>0.0</v>
@@ -6325,7 +6325,7 @@
         <v>0.0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP15" t="n">
         <v>0.0</v>
@@ -6346,7 +6346,7 @@
         <v>0.0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW15" t="n">
         <v>0.0</v>
@@ -6355,7 +6355,7 @@
         <v>0.0</v>
       </c>
       <c r="DY15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ15" t="n">
         <v>0.0</v>
@@ -6367,16 +6367,16 @@
         <v>0.0</v>
       </c>
       <c r="EC15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED15" t="n">
         <v>0.0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG15" t="n">
         <v>0.0</v>
@@ -6388,7 +6388,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -6402,19 +6402,19 @@
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -6423,13 +6423,13 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -6438,13 +6438,13 @@
         <v>0.0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S16" t="n">
         <v>0.0</v>
@@ -6474,10 +6474,10 @@
         <v>0.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD16" t="n">
         <v>0.0</v>
@@ -6498,7 +6498,7 @@
         <v>1.0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK16" t="n">
         <v>0.0</v>
@@ -6507,13 +6507,13 @@
         <v>0.0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN16" t="n">
         <v>0.0</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP16" t="n">
         <v>0.0</v>
@@ -6525,16 +6525,16 @@
         <v>0.0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU16" t="n">
         <v>0.0</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW16" t="n">
         <v>0.0</v>
@@ -6558,7 +6558,7 @@
         <v>0.0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE16" t="n">
         <v>0.0</v>
@@ -6567,13 +6567,13 @@
         <v>0.0</v>
       </c>
       <c r="BG16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH16" t="n">
         <v>0.0</v>
       </c>
       <c r="BI16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ16" t="n">
         <v>0.0</v>
@@ -6582,7 +6582,7 @@
         <v>0.0</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM16" t="n">
         <v>0.0</v>
@@ -6594,13 +6594,13 @@
         <v>0.0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ16" t="n">
         <v>0.0</v>
       </c>
       <c r="BR16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS16" t="n">
         <v>0.0</v>
@@ -6627,10 +6627,10 @@
         <v>0.0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC16" t="n">
         <v>0.0</v>
@@ -6639,13 +6639,13 @@
         <v>0.0</v>
       </c>
       <c r="CE16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF16" t="n">
         <v>0.0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH16" t="n">
         <v>0.0</v>
@@ -6657,10 +6657,10 @@
         <v>0.0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM16" t="n">
         <v>0.0</v>
@@ -6669,13 +6669,13 @@
         <v>0.0</v>
       </c>
       <c r="CO16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP16" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR16" t="n">
         <v>0.0</v>
@@ -6693,7 +6693,7 @@
         <v>0.0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX16" t="n">
         <v>0.0</v>
@@ -6705,7 +6705,7 @@
         <v>0.0</v>
       </c>
       <c r="DA16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB16" t="n">
         <v>0.0</v>
@@ -6717,10 +6717,10 @@
         <v>0.0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG16" t="n">
         <v>0.0</v>
@@ -6729,10 +6729,10 @@
         <v>0.0</v>
       </c>
       <c r="DI16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK16" t="n">
         <v>0.0</v>
@@ -6744,16 +6744,16 @@
         <v>0.0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP16" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR16" t="n">
         <v>0.0</v>
@@ -6765,10 +6765,10 @@
         <v>0.0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW16" t="n">
         <v>0.0</v>
@@ -6780,7 +6780,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA16" t="n">
         <v>0.0</v>
@@ -6789,10 +6789,10 @@
         <v>0.0</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE16" t="n">
         <v>0.0</v>
@@ -6807,10 +6807,10 @@
         <v>0.0</v>
       </c>
       <c r="EI16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -6824,13 +6824,13 @@
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -6839,19 +6839,19 @@
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -6860,13 +6860,13 @@
         <v>0.0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q17" t="n">
         <v>0.0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" t="n">
         <v>0.0</v>
@@ -6884,13 +6884,13 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA17" t="n">
         <v>0.0</v>
@@ -6899,13 +6899,13 @@
         <v>0.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17" t="n">
         <v>0.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF17" t="n">
         <v>0.0</v>
@@ -6917,7 +6917,7 @@
         <v>0.0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -6941,16 +6941,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS17" t="n">
         <v>0.0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU17" t="n">
         <v>0.0</v>
@@ -6959,19 +6959,19 @@
         <v>0.0</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX17" t="n">
         <v>0.0</v>
       </c>
       <c r="AY17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ17" t="n">
         <v>0.0</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB17" t="n">
         <v>0.0</v>
@@ -7001,13 +7001,13 @@
         <v>0.0</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL17" t="n">
         <v>0.0</v>
       </c>
       <c r="BM17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN17" t="n">
         <v>0.0</v>
@@ -7016,16 +7016,16 @@
         <v>0.0</v>
       </c>
       <c r="BP17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ17" t="n">
         <v>0.0</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT17" t="n">
         <v>0.0</v>
@@ -7034,19 +7034,19 @@
         <v>0.0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW17" t="n">
         <v>0.0</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY17" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA17" t="n">
         <v>0.0</v>
@@ -7055,7 +7055,7 @@
         <v>0.0</v>
       </c>
       <c r="CC17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD17" t="n">
         <v>0.0</v>
@@ -7067,10 +7067,10 @@
         <v>0.0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI17" t="n">
         <v>0.0</v>
@@ -7082,7 +7082,7 @@
         <v>0.0</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM17" t="n">
         <v>1.0</v>
@@ -7139,10 +7139,10 @@
         <v>0.0</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG17" t="n">
         <v>0.0</v>
@@ -7151,16 +7151,16 @@
         <v>0.0</v>
       </c>
       <c r="DI17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK17" t="n">
         <v>0.0</v>
       </c>
       <c r="DL17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM17" t="n">
         <v>0.0</v>
@@ -7172,7 +7172,7 @@
         <v>0.0</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ17" t="n">
         <v>0.0</v>
@@ -7181,16 +7181,16 @@
         <v>0.0</v>
       </c>
       <c r="DS17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT17" t="n">
         <v>0.0</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW17" t="n">
         <v>0.0</v>
@@ -7199,13 +7199,13 @@
         <v>0.0</v>
       </c>
       <c r="DY17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ17" t="n">
         <v>0.0</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB17" t="n">
         <v>0.0</v>
@@ -7217,7 +7217,7 @@
         <v>0.0</v>
       </c>
       <c r="EE17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF17" t="n">
         <v>0.0</v>
@@ -7229,10 +7229,10 @@
         <v>0.0</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -7243,10 +7243,10 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
@@ -7297,13 +7297,13 @@
         <v>1.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V18" t="n">
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X18" t="n">
         <v>0.0</v>
@@ -7318,10 +7318,10 @@
         <v>0.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18" t="n">
         <v>0.0</v>
@@ -7363,10 +7363,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS18" t="n">
         <v>0.0</v>
@@ -7378,16 +7378,16 @@
         <v>0.0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW18" t="n">
         <v>0.0</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ18" t="n">
         <v>0.0</v>
@@ -7399,7 +7399,7 @@
         <v>0.0</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD18" t="n">
         <v>0.0</v>
@@ -7408,10 +7408,10 @@
         <v>0.0</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH18" t="n">
         <v>0.0</v>
@@ -7423,16 +7423,16 @@
         <v>0.0</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM18" t="n">
         <v>0.0</v>
       </c>
       <c r="BN18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO18" t="n">
         <v>0.0</v>
@@ -7444,7 +7444,7 @@
         <v>0.0</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS18" t="n">
         <v>0.0</v>
@@ -7477,13 +7477,13 @@
         <v>0.0</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD18" t="n">
         <v>0.0</v>
       </c>
       <c r="CE18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF18" t="n">
         <v>0.0</v>
@@ -7498,13 +7498,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK18" t="n">
         <v>0.0</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM18" t="n">
         <v>1.0</v>
@@ -7543,10 +7543,10 @@
         <v>0.0</v>
       </c>
       <c r="CY18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA18" t="n">
         <v>0.0</v>
@@ -7558,13 +7558,13 @@
         <v>0.0</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE18" t="n">
         <v>0.0</v>
       </c>
       <c r="DF18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG18" t="n">
         <v>0.0</v>
@@ -7576,13 +7576,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM18" t="n">
         <v>0.0</v>
@@ -7591,13 +7591,13 @@
         <v>0.0</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP18" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR18" t="n">
         <v>0.0</v>
@@ -7609,7 +7609,7 @@
         <v>0.0</v>
       </c>
       <c r="DU18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV18" t="n">
         <v>0.0</v>
@@ -7618,13 +7618,13 @@
         <v>0.0</v>
       </c>
       <c r="DX18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY18" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA18" t="n">
         <v>0.0</v>
@@ -7633,22 +7633,22 @@
         <v>0.0</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE18" t="n">
         <v>0.0</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG18" t="n">
         <v>0.0</v>
       </c>
       <c r="EH18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI18" t="n">
         <v>0.0</v>
@@ -7668,13 +7668,13 @@
         <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -7686,7 +7686,7 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K19" t="n">
         <v>1.0</v>
@@ -7704,7 +7704,7 @@
         <v>0.0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q19" t="n">
         <v>0.0</v>
@@ -7713,7 +7713,7 @@
         <v>0.0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -7725,13 +7725,13 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X19" t="n">
         <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z19" t="n">
         <v>0.0</v>
@@ -7740,10 +7740,10 @@
         <v>0.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19" t="n">
         <v>0.0</v>
@@ -7758,13 +7758,13 @@
         <v>0.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK19" t="n">
         <v>0.0</v>
@@ -7773,7 +7773,7 @@
         <v>0.0</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN19" t="n">
         <v>0.0</v>
@@ -7788,10 +7788,10 @@
         <v>0.0</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT19" t="n">
         <v>0.0</v>
@@ -7809,13 +7809,13 @@
         <v>0.0</v>
       </c>
       <c r="AY19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ19" t="n">
         <v>0.0</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB19" t="n">
         <v>0.0</v>
@@ -7848,10 +7848,10 @@
         <v>0.0</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN19" t="n">
         <v>0.0</v>
@@ -7875,13 +7875,13 @@
         <v>0.0</v>
       </c>
       <c r="BU19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV19" t="n">
         <v>0.0</v>
       </c>
       <c r="BW19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX19" t="n">
         <v>0.0</v>
@@ -7890,10 +7890,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB19" t="n">
         <v>0.0</v>
@@ -7920,16 +7920,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL19" t="n">
         <v>0.0</v>
       </c>
       <c r="CM19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN19" t="n">
         <v>0.0</v>
@@ -7938,7 +7938,7 @@
         <v>0.0</v>
       </c>
       <c r="CP19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ19" t="n">
         <v>0.0</v>
@@ -7968,19 +7968,19 @@
         <v>0.0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC19" t="n">
         <v>0.0</v>
       </c>
       <c r="DD19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE19" t="n">
         <v>0.0</v>
@@ -7989,7 +7989,7 @@
         <v>0.0</v>
       </c>
       <c r="DG19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH19" t="n">
         <v>0.0</v>
@@ -8001,7 +8001,7 @@
         <v>0.0</v>
       </c>
       <c r="DK19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL19" t="n">
         <v>0.0</v>
@@ -8010,10 +8010,10 @@
         <v>0.0</v>
       </c>
       <c r="DN19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP19" t="n">
         <v>0.0</v>
@@ -8040,16 +8040,16 @@
         <v>0.0</v>
       </c>
       <c r="DX19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY19" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB19" t="n">
         <v>0.0</v>
@@ -8061,7 +8061,7 @@
         <v>0.0</v>
       </c>
       <c r="EE19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF19" t="n">
         <v>0.0</v>
@@ -8070,13 +8070,13 @@
         <v>0.0</v>
       </c>
       <c r="EH19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI19" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -8087,13 +8087,13 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -8102,13 +8102,13 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K20" t="n">
         <v>0.0</v>
@@ -8141,7 +8141,7 @@
         <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V20" t="n">
         <v>0.0</v>
@@ -8153,7 +8153,7 @@
         <v>0.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z20" t="n">
         <v>0.0</v>
@@ -8162,13 +8162,13 @@
         <v>0.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE20" t="n">
         <v>0.0</v>
@@ -8177,22 +8177,22 @@
         <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH20" t="n">
         <v>0.0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK20" t="n">
         <v>0.0</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM20" t="n">
         <v>0.0</v>
@@ -8225,10 +8225,10 @@
         <v>0.0</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY20" t="n">
         <v>0.0</v>
@@ -8252,10 +8252,10 @@
         <v>0.0</v>
       </c>
       <c r="BF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH20" t="n">
         <v>0.0</v>
@@ -8270,10 +8270,10 @@
         <v>0.0</v>
       </c>
       <c r="BL20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN20" t="n">
         <v>0.0</v>
@@ -8297,10 +8297,10 @@
         <v>0.0</v>
       </c>
       <c r="BU20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW20" t="n">
         <v>0.0</v>
@@ -8312,10 +8312,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB20" t="n">
         <v>0.0</v>
@@ -8330,10 +8330,10 @@
         <v>0.0</v>
       </c>
       <c r="CF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH20" t="n">
         <v>0.0</v>
@@ -8342,10 +8342,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL20" t="n">
         <v>0.0</v>
@@ -8360,19 +8360,19 @@
         <v>0.0</v>
       </c>
       <c r="CP20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS20" t="n">
         <v>0.0</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU20" t="n">
         <v>0.0</v>
@@ -8405,13 +8405,13 @@
         <v>0.0</v>
       </c>
       <c r="DE20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH20" t="n">
         <v>0.0</v>
@@ -8420,19 +8420,19 @@
         <v>0.0</v>
       </c>
       <c r="DJ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK20" t="n">
         <v>0.0</v>
       </c>
       <c r="DL20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM20" t="n">
         <v>0.0</v>
       </c>
       <c r="DN20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO20" t="n">
         <v>0.0</v>
@@ -8456,7 +8456,7 @@
         <v>1.0</v>
       </c>
       <c r="DV20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW20" t="n">
         <v>0.0</v>
@@ -8465,19 +8465,19 @@
         <v>0.0</v>
       </c>
       <c r="DY20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ20" t="n">
         <v>0.0</v>
       </c>
       <c r="EA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB20" t="n">
         <v>0.0</v>
       </c>
       <c r="EC20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED20" t="n">
         <v>0.0</v>
@@ -8509,22 +8509,22 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -8539,13 +8539,13 @@
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P21" t="n">
         <v>0.0</v>
@@ -8554,13 +8554,13 @@
         <v>0.0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S21" t="n">
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
@@ -8572,10 +8572,10 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z21" t="n">
         <v>0.0</v>
@@ -8584,10 +8584,10 @@
         <v>0.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21" t="n">
         <v>0.0</v>
@@ -8614,16 +8614,16 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN21" t="n">
         <v>0.0</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP21" t="n">
         <v>0.0</v>
@@ -8632,7 +8632,7 @@
         <v>0.0</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS21" t="n">
         <v>0.0</v>
@@ -8644,10 +8644,10 @@
         <v>0.0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX21" t="n">
         <v>0.0</v>
@@ -8662,19 +8662,19 @@
         <v>0.0</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE21" t="n">
         <v>0.0</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG21" t="n">
         <v>0.0</v>
@@ -8704,13 +8704,13 @@
         <v>0.0</v>
       </c>
       <c r="BP21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ21" t="n">
         <v>0.0</v>
       </c>
       <c r="BR21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS21" t="n">
         <v>0.0</v>
@@ -8728,13 +8728,13 @@
         <v>1.0</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY21" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA21" t="n">
         <v>0.0</v>
@@ -8749,16 +8749,16 @@
         <v>0.0</v>
       </c>
       <c r="CE21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF21" t="n">
         <v>0.0</v>
       </c>
       <c r="CG21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI21" t="n">
         <v>0.0</v>
@@ -8770,10 +8770,10 @@
         <v>0.0</v>
       </c>
       <c r="CL21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN21" t="n">
         <v>0.0</v>
@@ -8785,7 +8785,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR21" t="n">
         <v>0.0</v>
@@ -8842,10 +8842,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL21" t="n">
         <v>0.0</v>
@@ -8854,22 +8854,22 @@
         <v>0.0</v>
       </c>
       <c r="DN21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO21" t="n">
         <v>0.0</v>
       </c>
       <c r="DP21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR21" t="n">
         <v>0.0</v>
       </c>
       <c r="DS21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT21" t="n">
         <v>0.0</v>
@@ -8899,16 +8899,16 @@
         <v>0.0</v>
       </c>
       <c r="EC21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE21" t="n">
         <v>0.0</v>
       </c>
       <c r="EF21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG21" t="n">
         <v>0.0</v>
@@ -8917,7 +8917,7 @@
         <v>0.0</v>
       </c>
       <c r="EI21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ21" t="n">
         <v>0.0</v>
@@ -8931,13 +8931,13 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -8946,13 +8946,13 @@
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K22" t="n">
         <v>0.0</v>
@@ -8961,16 +8961,16 @@
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
@@ -8982,7 +8982,7 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U22" t="n">
         <v>1.0</v>
@@ -9015,13 +9015,13 @@
         <v>1.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF22" t="n">
         <v>0.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH22" t="n">
         <v>0.0</v>
@@ -9039,10 +9039,10 @@
         <v>0.0</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO22" t="n">
         <v>0.0</v>
@@ -9051,13 +9051,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR22" t="n">
         <v>0.0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT22" t="n">
         <v>0.0</v>
@@ -9066,13 +9066,13 @@
         <v>0.0</v>
       </c>
       <c r="AV22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW22" t="n">
         <v>0.0</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY22" t="n">
         <v>0.0</v>
@@ -9081,10 +9081,10 @@
         <v>0.0</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC22" t="n">
         <v>0.0</v>
@@ -9096,10 +9096,10 @@
         <v>0.0</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH22" t="n">
         <v>0.0</v>
@@ -9111,13 +9111,13 @@
         <v>0.0</v>
       </c>
       <c r="BK22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL22" t="n">
         <v>0.0</v>
       </c>
       <c r="BM22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN22" t="n">
         <v>0.0</v>
@@ -9129,10 +9129,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS22" t="n">
         <v>0.0</v>
@@ -9144,13 +9144,13 @@
         <v>0.0</v>
       </c>
       <c r="BV22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY22" t="n">
         <v>0.0</v>
@@ -9159,7 +9159,7 @@
         <v>0.0</v>
       </c>
       <c r="CA22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB22" t="n">
         <v>0.0</v>
@@ -9171,10 +9171,10 @@
         <v>0.0</v>
       </c>
       <c r="CE22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG22" t="n">
         <v>0.0</v>
@@ -9186,16 +9186,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL22" t="n">
         <v>0.0</v>
       </c>
       <c r="CM22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN22" t="n">
         <v>0.0</v>
@@ -9207,7 +9207,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR22" t="n">
         <v>0.0</v>
@@ -9234,10 +9234,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB22" t="n">
         <v>0.0</v>
@@ -9249,10 +9249,10 @@
         <v>0.0</v>
       </c>
       <c r="DE22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG22" t="n">
         <v>0.0</v>
@@ -9294,10 +9294,10 @@
         <v>0.0</v>
       </c>
       <c r="DT22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV22" t="n">
         <v>0.0</v>
@@ -9306,10 +9306,10 @@
         <v>0.0</v>
       </c>
       <c r="DX22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ22" t="n">
         <v>0.0</v>
@@ -9321,22 +9321,22 @@
         <v>0.0</v>
       </c>
       <c r="EC22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE22" t="n">
         <v>0.0</v>
       </c>
       <c r="EF22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG22" t="n">
         <v>0.0</v>
       </c>
       <c r="EH22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI22" t="n">
         <v>0.0</v>
@@ -9353,22 +9353,22 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -9383,13 +9383,13 @@
         <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P23" t="n">
         <v>0.0</v>
@@ -9398,16 +9398,16 @@
         <v>0.0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V23" t="n">
         <v>0.0</v>
@@ -9416,13 +9416,13 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y23" t="n">
         <v>0.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA23" t="n">
         <v>0.0</v>
@@ -9431,7 +9431,7 @@
         <v>0.0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD23" t="n">
         <v>0.0</v>
@@ -9443,13 +9443,13 @@
         <v>0.0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH23" t="n">
         <v>0.0</v>
       </c>
       <c r="AI23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ23" t="n">
         <v>0.0</v>
@@ -9458,13 +9458,13 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM23" t="n">
         <v>0.0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO23" t="n">
         <v>0.0</v>
@@ -9476,13 +9476,13 @@
         <v>0.0</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU23" t="n">
         <v>0.0</v>
@@ -9494,10 +9494,10 @@
         <v>0.0</v>
       </c>
       <c r="AX23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ23" t="n">
         <v>0.0</v>
@@ -9509,16 +9509,16 @@
         <v>0.0</v>
       </c>
       <c r="BC23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE23" t="n">
         <v>0.0</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG23" t="n">
         <v>0.0</v>
@@ -9527,13 +9527,13 @@
         <v>0.0</v>
       </c>
       <c r="BI23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ23" t="n">
         <v>0.0</v>
       </c>
       <c r="BK23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL23" t="n">
         <v>0.0</v>
@@ -9542,7 +9542,7 @@
         <v>0.0</v>
       </c>
       <c r="BN23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO23" t="n">
         <v>0.0</v>
@@ -9554,7 +9554,7 @@
         <v>0.0</v>
       </c>
       <c r="BR23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS23" t="n">
         <v>0.0</v>
@@ -9578,13 +9578,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA23" t="n">
         <v>0.0</v>
       </c>
       <c r="CB23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC23" t="n">
         <v>0.0</v>
@@ -9593,10 +9593,10 @@
         <v>0.0</v>
       </c>
       <c r="CE23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG23" t="n">
         <v>0.0</v>
@@ -9611,19 +9611,19 @@
         <v>0.0</v>
       </c>
       <c r="CK23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN23" t="n">
         <v>0.0</v>
       </c>
       <c r="CO23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP23" t="n">
         <v>0.0</v>
@@ -9632,13 +9632,13 @@
         <v>0.0</v>
       </c>
       <c r="CR23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS23" t="n">
         <v>0.0</v>
       </c>
       <c r="CT23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU23" t="n">
         <v>0.0</v>
@@ -9653,13 +9653,13 @@
         <v>0.0</v>
       </c>
       <c r="CY23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ23" t="n">
         <v>0.0</v>
       </c>
       <c r="DA23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB23" t="n">
         <v>0.0</v>
@@ -9677,13 +9677,13 @@
         <v>0.0</v>
       </c>
       <c r="DG23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH23" t="n">
         <v>0.0</v>
       </c>
       <c r="DI23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ23" t="n">
         <v>0.0</v>
@@ -9692,7 +9692,7 @@
         <v>0.0</v>
       </c>
       <c r="DL23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM23" t="n">
         <v>0.0</v>
@@ -9704,10 +9704,10 @@
         <v>0.0</v>
       </c>
       <c r="DP23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR23" t="n">
         <v>0.0</v>
@@ -9719,10 +9719,10 @@
         <v>0.0</v>
       </c>
       <c r="DU23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW23" t="n">
         <v>0.0</v>
@@ -9734,7 +9734,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA23" t="n">
         <v>0.0</v>
@@ -9743,10 +9743,10 @@
         <v>0.0</v>
       </c>
       <c r="EC23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE23" t="n">
         <v>0.0</v>
@@ -9784,7 +9784,7 @@
         <v>1.0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -9793,13 +9793,13 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J24" t="n">
         <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
@@ -9811,7 +9811,7 @@
         <v>0.0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24" t="n">
         <v>0.0</v>
@@ -9820,10 +9820,10 @@
         <v>0.0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
@@ -9835,10 +9835,10 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y24" t="n">
         <v>0.0</v>
@@ -9850,10 +9850,10 @@
         <v>0.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD24" t="n">
         <v>0.0</v>
@@ -9880,22 +9880,22 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM24" t="n">
         <v>0.0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP24" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR24" t="n">
         <v>0.0</v>
@@ -9904,13 +9904,13 @@
         <v>0.0</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU24" t="n">
         <v>0.0</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW24" t="n">
         <v>0.0</v>
@@ -9928,10 +9928,10 @@
         <v>0.0</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD24" t="n">
         <v>0.0</v>
@@ -9943,13 +9943,13 @@
         <v>0.0</v>
       </c>
       <c r="BG24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ24" t="n">
         <v>0.0</v>
@@ -9961,10 +9961,10 @@
         <v>0.0</v>
       </c>
       <c r="BM24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO24" t="n">
         <v>0.0</v>
@@ -9976,7 +9976,7 @@
         <v>0.0</v>
       </c>
       <c r="BR24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS24" t="n">
         <v>0.0</v>
@@ -10003,13 +10003,13 @@
         <v>0.0</v>
       </c>
       <c r="CA24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD24" t="n">
         <v>0.0</v>
@@ -10021,10 +10021,10 @@
         <v>0.0</v>
       </c>
       <c r="CG24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI24" t="n">
         <v>0.0</v>
@@ -10036,7 +10036,7 @@
         <v>0.0</v>
       </c>
       <c r="CL24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM24" t="n">
         <v>0.0</v>
@@ -10060,10 +10060,10 @@
         <v>0.0</v>
       </c>
       <c r="CT24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV24" t="n">
         <v>0.0</v>
@@ -10075,10 +10075,10 @@
         <v>0.0</v>
       </c>
       <c r="CY24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA24" t="n">
         <v>0.0</v>
@@ -10108,19 +10108,19 @@
         <v>0.0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM24" t="n">
         <v>0.0</v>
       </c>
       <c r="DN24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO24" t="n">
         <v>0.0</v>
@@ -10135,22 +10135,22 @@
         <v>0.0</v>
       </c>
       <c r="DS24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT24" t="n">
         <v>0.0</v>
       </c>
       <c r="DU24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW24" t="n">
         <v>0.0</v>
       </c>
       <c r="DX24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY24" t="n">
         <v>0.0</v>
@@ -10159,7 +10159,7 @@
         <v>0.0</v>
       </c>
       <c r="EA24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB24" t="n">
         <v>0.0</v>
@@ -10171,16 +10171,16 @@
         <v>0.0</v>
       </c>
       <c r="EE24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG24" t="n">
         <v>0.0</v>
       </c>
       <c r="EH24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI24" t="n">
         <v>0.0</v>
@@ -10200,13 +10200,13 @@
         <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -10215,7 +10215,7 @@
         <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J25" t="n">
         <v>0.0</v>
@@ -10227,13 +10227,13 @@
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" t="n">
         <v>0.0</v>
@@ -10245,10 +10245,10 @@
         <v>0.0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
@@ -10260,10 +10260,10 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z25" t="n">
         <v>0.0</v>
@@ -10272,10 +10272,10 @@
         <v>0.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD25" t="n">
         <v>0.0</v>
@@ -10302,10 +10302,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN25" t="n">
         <v>0.0</v>
@@ -10341,7 +10341,7 @@
         <v>1.0</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ25" t="n">
         <v>0.0</v>
@@ -10353,10 +10353,10 @@
         <v>0.0</v>
       </c>
       <c r="BC25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE25" t="n">
         <v>0.0</v>
@@ -10365,7 +10365,7 @@
         <v>0.0</v>
       </c>
       <c r="BG25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH25" t="n">
         <v>0.0</v>
@@ -10377,10 +10377,10 @@
         <v>0.0</v>
       </c>
       <c r="BK25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM25" t="n">
         <v>0.0</v>
@@ -10392,13 +10392,13 @@
         <v>0.0</v>
       </c>
       <c r="BP25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ25" t="n">
         <v>0.0</v>
       </c>
       <c r="BR25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS25" t="n">
         <v>0.0</v>
@@ -10410,10 +10410,10 @@
         <v>0.0</v>
       </c>
       <c r="BV25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX25" t="n">
         <v>0.0</v>
@@ -10431,7 +10431,7 @@
         <v>1.0</v>
       </c>
       <c r="CC25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD25" t="n">
         <v>0.0</v>
@@ -10440,13 +10440,13 @@
         <v>0.0</v>
       </c>
       <c r="CF25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG25" t="n">
         <v>0.0</v>
       </c>
       <c r="CH25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI25" t="n">
         <v>0.0</v>
@@ -10458,16 +10458,16 @@
         <v>0.0</v>
       </c>
       <c r="CL25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN25" t="n">
         <v>0.0</v>
       </c>
       <c r="CO25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP25" t="n">
         <v>0.0</v>
@@ -10476,7 +10476,7 @@
         <v>0.0</v>
       </c>
       <c r="CR25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS25" t="n">
         <v>0.0</v>
@@ -10485,19 +10485,19 @@
         <v>0.0</v>
       </c>
       <c r="CU25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV25" t="n">
         <v>0.0</v>
       </c>
       <c r="CW25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX25" t="n">
         <v>0.0</v>
       </c>
       <c r="CY25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ25" t="n">
         <v>0.0</v>
@@ -10521,7 +10521,7 @@
         <v>0.0</v>
       </c>
       <c r="DG25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH25" t="n">
         <v>0.0</v>
@@ -10530,13 +10530,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK25" t="n">
         <v>0.0</v>
       </c>
       <c r="DL25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM25" t="n">
         <v>0.0</v>
@@ -10548,7 +10548,7 @@
         <v>0.0</v>
       </c>
       <c r="DP25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ25" t="n">
         <v>0.0</v>
@@ -10560,10 +10560,10 @@
         <v>0.0</v>
       </c>
       <c r="DT25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV25" t="n">
         <v>0.0</v>
@@ -10572,10 +10572,10 @@
         <v>0.0</v>
       </c>
       <c r="DX25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ25" t="n">
         <v>0.0</v>
@@ -10587,10 +10587,10 @@
         <v>0.0</v>
       </c>
       <c r="EC25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE25" t="n">
         <v>0.0</v>
@@ -10628,7 +10628,7 @@
         <v>0.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -10637,7 +10637,7 @@
         <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J26" t="n">
         <v>0.0</v>
@@ -10652,13 +10652,13 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q26" t="n">
         <v>0.0</v>
@@ -10667,13 +10667,13 @@
         <v>0.0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T26" t="n">
         <v>0.0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V26" t="n">
         <v>0.0</v>
@@ -10685,7 +10685,7 @@
         <v>0.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z26" t="n">
         <v>1.0</v>
@@ -10718,7 +10718,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK26" t="n">
         <v>0.0</v>
@@ -10730,7 +10730,7 @@
         <v>0.0</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO26" t="n">
         <v>1.0</v>
@@ -10754,13 +10754,13 @@
         <v>0.0</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW26" t="n">
         <v>0.0</v>
       </c>
       <c r="AX26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY26" t="n">
         <v>0.0</v>
@@ -10769,13 +10769,13 @@
         <v>0.0</v>
       </c>
       <c r="BA26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB26" t="n">
         <v>0.0</v>
       </c>
       <c r="BC26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD26" t="n">
         <v>0.0</v>
@@ -10793,7 +10793,7 @@
         <v>1.0</v>
       </c>
       <c r="BI26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ26" t="n">
         <v>0.0</v>
@@ -10805,7 +10805,7 @@
         <v>0.0</v>
       </c>
       <c r="BM26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN26" t="n">
         <v>0.0</v>
@@ -10853,7 +10853,7 @@
         <v>0.0</v>
       </c>
       <c r="CC26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD26" t="n">
         <v>0.0</v>
@@ -10865,16 +10865,16 @@
         <v>0.0</v>
       </c>
       <c r="CG26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI26" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK26" t="n">
         <v>0.0</v>
@@ -10904,13 +10904,13 @@
         <v>0.0</v>
       </c>
       <c r="CT26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU26" t="n">
         <v>0.0</v>
       </c>
       <c r="CV26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW26" t="n">
         <v>0.0</v>
@@ -10919,10 +10919,10 @@
         <v>0.0</v>
       </c>
       <c r="CY26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA26" t="n">
         <v>0.0</v>
@@ -10937,13 +10937,13 @@
         <v>0.0</v>
       </c>
       <c r="DE26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH26" t="n">
         <v>0.0</v>
@@ -10952,13 +10952,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK26" t="n">
         <v>0.0</v>
       </c>
       <c r="DL26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM26" t="n">
         <v>0.0</v>
@@ -10967,7 +10967,7 @@
         <v>0.0</v>
       </c>
       <c r="DO26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP26" t="n">
         <v>0.0</v>
@@ -10994,10 +10994,10 @@
         <v>0.0</v>
       </c>
       <c r="DX26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ26" t="n">
         <v>0.0</v>
@@ -11027,21 +11027,21 @@
         <v>0.0</v>
       </c>
       <c r="EI26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
@@ -11050,13 +11050,13 @@
         <v>0.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -11065,7 +11065,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -11074,7 +11074,7 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
@@ -11125,7 +11125,7 @@
         <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF27" t="n">
         <v>0.0</v>
@@ -11137,7 +11137,7 @@
         <v>0.0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0.0</v>
@@ -11161,13 +11161,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR27" t="n">
         <v>0.0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT27" t="n">
         <v>0.0</v>
@@ -11215,7 +11215,7 @@
         <v>0.0</v>
       </c>
       <c r="BI27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ27" t="n">
         <v>0.0</v>
@@ -11227,7 +11227,7 @@
         <v>0.0</v>
       </c>
       <c r="BM27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN27" t="n">
         <v>0.0</v>
@@ -11236,10 +11236,10 @@
         <v>0.0</v>
       </c>
       <c r="BP27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR27" t="n">
         <v>0.0</v>
@@ -11251,22 +11251,22 @@
         <v>0.0</v>
       </c>
       <c r="BU27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV27" t="n">
         <v>0.0</v>
       </c>
       <c r="BW27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY27" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA27" t="n">
         <v>0.0</v>
@@ -11275,13 +11275,13 @@
         <v>0.0</v>
       </c>
       <c r="CC27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD27" t="n">
         <v>0.0</v>
       </c>
       <c r="CE27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF27" t="n">
         <v>0.0</v>
@@ -11290,7 +11290,7 @@
         <v>0.0</v>
       </c>
       <c r="CH27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI27" t="n">
         <v>0.0</v>
@@ -11302,7 +11302,7 @@
         <v>0.0</v>
       </c>
       <c r="CL27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM27" t="n">
         <v>0.0</v>
@@ -11314,10 +11314,10 @@
         <v>0.0</v>
       </c>
       <c r="CP27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR27" t="n">
         <v>0.0</v>
@@ -11335,13 +11335,13 @@
         <v>0.0</v>
       </c>
       <c r="CW27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX27" t="n">
         <v>0.0</v>
       </c>
       <c r="CY27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ27" t="n">
         <v>0.0</v>
@@ -11350,7 +11350,7 @@
         <v>0.0</v>
       </c>
       <c r="DB27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC27" t="n">
         <v>0.0</v>
@@ -11359,7 +11359,7 @@
         <v>0.0</v>
       </c>
       <c r="DE27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF27" t="n">
         <v>0.0</v>
@@ -11371,10 +11371,10 @@
         <v>0.0</v>
       </c>
       <c r="DI27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK27" t="n">
         <v>0.0</v>
@@ -11386,13 +11386,13 @@
         <v>0.0</v>
       </c>
       <c r="DN27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO27" t="n">
         <v>0.0</v>
       </c>
       <c r="DP27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ27" t="n">
         <v>0.0</v>
@@ -11404,10 +11404,10 @@
         <v>0.0</v>
       </c>
       <c r="DT27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV27" t="n">
         <v>1.0</v>
@@ -11425,7 +11425,7 @@
         <v>0.0</v>
       </c>
       <c r="EA27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB27" t="n">
         <v>0.0</v>
@@ -11434,7 +11434,7 @@
         <v>0.0</v>
       </c>
       <c r="ED27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE27" t="n">
         <v>0.0</v>
@@ -11446,10 +11446,10 @@
         <v>0.0</v>
       </c>
       <c r="EH27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ27" t="n">
         <v>0.0</v>
@@ -11463,16 +11463,16 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -11481,7 +11481,7 @@
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" t="n">
         <v>0.0</v>
@@ -11511,13 +11511,13 @@
         <v>0.0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V28" t="n">
         <v>0.0</v>
@@ -11529,7 +11529,7 @@
         <v>0.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z28" t="n">
         <v>0.0</v>
@@ -11538,22 +11538,22 @@
         <v>0.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28" t="n">
         <v>0.0</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF28" t="n">
         <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH28" t="n">
         <v>0.0</v>
@@ -11568,13 +11568,13 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM28" t="n">
         <v>0.0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO28" t="n">
         <v>0.0</v>
@@ -11583,13 +11583,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR28" t="n">
         <v>0.0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT28" t="n">
         <v>0.0</v>
@@ -11616,10 +11616,10 @@
         <v>0.0</v>
       </c>
       <c r="BB28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD28" t="n">
         <v>0.0</v>
@@ -11643,13 +11643,13 @@
         <v>0.0</v>
       </c>
       <c r="BK28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL28" t="n">
         <v>0.0</v>
       </c>
       <c r="BM28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN28" t="n">
         <v>0.0</v>
@@ -11658,13 +11658,13 @@
         <v>0.0</v>
       </c>
       <c r="BP28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ28" t="n">
         <v>0.0</v>
       </c>
       <c r="BR28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS28" t="n">
         <v>0.0</v>
@@ -11673,10 +11673,10 @@
         <v>0.0</v>
       </c>
       <c r="BU28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW28" t="n">
         <v>0.0</v>
@@ -11703,13 +11703,13 @@
         <v>0.0</v>
       </c>
       <c r="CE28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF28" t="n">
         <v>0.0</v>
       </c>
       <c r="CG28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH28" t="n">
         <v>0.0</v>
@@ -11736,19 +11736,19 @@
         <v>0.0</v>
       </c>
       <c r="CP28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS28" t="n">
         <v>0.0</v>
       </c>
       <c r="CT28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU28" t="n">
         <v>0.0</v>
@@ -11763,16 +11763,16 @@
         <v>0.0</v>
       </c>
       <c r="CY28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ28" t="n">
         <v>0.0</v>
       </c>
       <c r="DA28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC28" t="n">
         <v>0.0</v>
@@ -11781,7 +11781,7 @@
         <v>0.0</v>
       </c>
       <c r="DE28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF28" t="n">
         <v>0.0</v>
@@ -11793,13 +11793,13 @@
         <v>0.0</v>
       </c>
       <c r="DI28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ28" t="n">
         <v>0.0</v>
       </c>
       <c r="DK28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL28" t="n">
         <v>0.0</v>
@@ -11808,10 +11808,10 @@
         <v>0.0</v>
       </c>
       <c r="DN28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP28" t="n">
         <v>0.0</v>
@@ -11823,10 +11823,10 @@
         <v>0.0</v>
       </c>
       <c r="DS28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU28" t="n">
         <v>0.0</v>
@@ -11841,10 +11841,10 @@
         <v>0.0</v>
       </c>
       <c r="DY28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA28" t="n">
         <v>0.0</v>
@@ -11853,10 +11853,10 @@
         <v>0.0</v>
       </c>
       <c r="EC28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE28" t="n">
         <v>0.0</v>
@@ -11871,10 +11871,10 @@
         <v>0.0</v>
       </c>
       <c r="EI28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -11885,10 +11885,10 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n">
         <v>0.0</v>
@@ -11930,16 +11930,16 @@
         <v>0.0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S29" t="n">
         <v>0.0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V29" t="n">
         <v>0.0</v>
@@ -11951,7 +11951,7 @@
         <v>0.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z29" t="n">
         <v>0.0</v>
@@ -11960,10 +11960,10 @@
         <v>0.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29" t="n">
         <v>0.0</v>
@@ -11975,16 +11975,16 @@
         <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI29" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK29" t="n">
         <v>0.0</v>
@@ -11993,7 +11993,7 @@
         <v>0.0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN29" t="n">
         <v>0.0</v>
@@ -12005,10 +12005,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS29" t="n">
         <v>0.0</v>
@@ -12035,16 +12035,16 @@
         <v>0.0</v>
       </c>
       <c r="BA29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC29" t="n">
         <v>0.0</v>
       </c>
       <c r="BD29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE29" t="n">
         <v>0.0</v>
@@ -12053,13 +12053,13 @@
         <v>0.0</v>
       </c>
       <c r="BG29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH29" t="n">
         <v>0.0</v>
       </c>
       <c r="BI29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ29" t="n">
         <v>0.0</v>
@@ -12071,7 +12071,7 @@
         <v>0.0</v>
       </c>
       <c r="BM29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN29" t="n">
         <v>0.0</v>
@@ -12095,22 +12095,22 @@
         <v>0.0</v>
       </c>
       <c r="BU29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW29" t="n">
         <v>0.0</v>
       </c>
       <c r="BX29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY29" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA29" t="n">
         <v>0.0</v>
@@ -12119,7 +12119,7 @@
         <v>0.0</v>
       </c>
       <c r="CC29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD29" t="n">
         <v>0.0</v>
@@ -12131,7 +12131,7 @@
         <v>0.0</v>
       </c>
       <c r="CG29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH29" t="n">
         <v>1.0</v>
@@ -12155,10 +12155,10 @@
         <v>0.0</v>
       </c>
       <c r="CO29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ29" t="n">
         <v>0.0</v>
@@ -12200,13 +12200,13 @@
         <v>0.0</v>
       </c>
       <c r="DD29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE29" t="n">
         <v>0.0</v>
       </c>
       <c r="DF29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG29" t="n">
         <v>0.0</v>
@@ -12218,13 +12218,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM29" t="n">
         <v>0.0</v>
@@ -12233,7 +12233,7 @@
         <v>0.0</v>
       </c>
       <c r="DO29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP29" t="n">
         <v>0.0</v>
@@ -12260,16 +12260,16 @@
         <v>0.0</v>
       </c>
       <c r="DX29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY29" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB29" t="n">
         <v>0.0</v>
@@ -12278,7 +12278,7 @@
         <v>0.0</v>
       </c>
       <c r="ED29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE29" t="n">
         <v>0.0</v>
@@ -12290,13 +12290,13 @@
         <v>0.0</v>
       </c>
       <c r="EH29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI29" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -12412,13 +12412,13 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM30" t="n">
         <v>0.0</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO30" t="n">
         <v>0.0</v>
@@ -12427,13 +12427,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR30" t="n">
         <v>0.0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT30" t="n">
         <v>0.0</v>
@@ -12451,7 +12451,7 @@
         <v>0.0</v>
       </c>
       <c r="AY30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ30" t="n">
         <v>0.0</v>
@@ -12463,7 +12463,7 @@
         <v>0.0</v>
       </c>
       <c r="BC30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD30" t="n">
         <v>0.0</v>
@@ -12472,13 +12472,13 @@
         <v>0.0</v>
       </c>
       <c r="BF30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG30" t="n">
         <v>0.0</v>
       </c>
       <c r="BH30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI30" t="n">
         <v>0.0</v>
@@ -12487,13 +12487,13 @@
         <v>0.0</v>
       </c>
       <c r="BK30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL30" t="n">
         <v>0.0</v>
       </c>
       <c r="BM30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN30" t="n">
         <v>0.0</v>
@@ -12502,13 +12502,13 @@
         <v>0.0</v>
       </c>
       <c r="BP30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ30" t="n">
         <v>0.0</v>
       </c>
       <c r="BR30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS30" t="n">
         <v>1.0</v>
@@ -12547,13 +12547,13 @@
         <v>0.0</v>
       </c>
       <c r="CE30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF30" t="n">
         <v>0.0</v>
       </c>
       <c r="CG30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH30" t="n">
         <v>0.0</v>
@@ -12565,10 +12565,10 @@
         <v>0.0</v>
       </c>
       <c r="CK30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM30" t="n">
         <v>0.0</v>
@@ -12580,13 +12580,13 @@
         <v>0.0</v>
       </c>
       <c r="CP30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS30" t="n">
         <v>0.0</v>
@@ -12595,7 +12595,7 @@
         <v>0.0</v>
       </c>
       <c r="CU30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV30" t="n">
         <v>0.0</v>
@@ -12625,13 +12625,13 @@
         <v>0.0</v>
       </c>
       <c r="DE30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH30" t="n">
         <v>0.0</v>
@@ -12643,7 +12643,7 @@
         <v>0.0</v>
       </c>
       <c r="DK30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL30" t="n">
         <v>0.0</v>
@@ -12652,16 +12652,16 @@
         <v>0.0</v>
       </c>
       <c r="DN30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP30" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR30" t="n">
         <v>0.0</v>
@@ -12673,10 +12673,10 @@
         <v>0.0</v>
       </c>
       <c r="DU30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW30" t="n">
         <v>0.0</v>
@@ -12688,7 +12688,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA30" t="n">
         <v>0.0</v>
@@ -12700,13 +12700,13 @@
         <v>0.0</v>
       </c>
       <c r="ED30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG30" t="n">
         <v>0.0</v>
@@ -12715,7 +12715,7 @@
         <v>0.0</v>
       </c>
       <c r="EI30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ30" t="n">
         <v>0.0</v>
@@ -12738,7 +12738,7 @@
         <v>1.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -12747,19 +12747,19 @@
         <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J31" t="n">
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -12768,7 +12768,7 @@
         <v>0.0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q31" t="n">
         <v>0.0</v>
@@ -12780,7 +12780,7 @@
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U31" t="n">
         <v>0.0</v>
@@ -12792,10 +12792,10 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z31" t="n">
         <v>0.0</v>
@@ -12828,7 +12828,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK31" t="n">
         <v>0.0</v>
@@ -12837,7 +12837,7 @@
         <v>0.0</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN31" t="n">
         <v>0.0</v>
@@ -12852,19 +12852,19 @@
         <v>0.0</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU31" t="n">
         <v>0.0</v>
       </c>
       <c r="AV31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW31" t="n">
         <v>0.0</v>
@@ -12879,13 +12879,13 @@
         <v>0.0</v>
       </c>
       <c r="BA31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB31" t="n">
         <v>0.0</v>
       </c>
       <c r="BC31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD31" t="n">
         <v>0.0</v>
@@ -12894,10 +12894,10 @@
         <v>0.0</v>
       </c>
       <c r="BF31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH31" t="n">
         <v>0.0</v>
@@ -12912,19 +12912,19 @@
         <v>0.0</v>
       </c>
       <c r="BL31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO31" t="n">
         <v>0.0</v>
       </c>
       <c r="BP31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ31" t="n">
         <v>0.0</v>
@@ -12984,10 +12984,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL31" t="n">
         <v>0.0</v>
@@ -13002,10 +13002,10 @@
         <v>0.0</v>
       </c>
       <c r="CP31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR31" t="n">
         <v>0.0</v>
@@ -13017,13 +13017,13 @@
         <v>0.0</v>
       </c>
       <c r="CU31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX31" t="n">
         <v>0.0</v>
@@ -13035,10 +13035,10 @@
         <v>0.0</v>
       </c>
       <c r="DA31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC31" t="n">
         <v>0.0</v>
@@ -13047,13 +13047,13 @@
         <v>0.0</v>
       </c>
       <c r="DE31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF31" t="n">
         <v>0.0</v>
       </c>
       <c r="DG31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH31" t="n">
         <v>0.0</v>
@@ -13062,7 +13062,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK31" t="n">
         <v>0.0</v>
@@ -13077,13 +13077,13 @@
         <v>0.0</v>
       </c>
       <c r="DO31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR31" t="n">
         <v>0.0</v>
@@ -13095,16 +13095,16 @@
         <v>0.0</v>
       </c>
       <c r="DU31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW31" t="n">
         <v>0.0</v>
       </c>
       <c r="DX31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY31" t="n">
         <v>0.0</v>
@@ -13113,7 +13113,7 @@
         <v>0.0</v>
       </c>
       <c r="EA31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB31" t="n">
         <v>0.0</v>
@@ -13122,7 +13122,7 @@
         <v>0.0</v>
       </c>
       <c r="ED31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE31" t="n">
         <v>0.0</v>
@@ -13160,7 +13160,7 @@
         <v>1.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
@@ -13169,7 +13169,7 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
@@ -13199,10 +13199,10 @@
         <v>0.0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
@@ -13241,10 +13241,10 @@
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI32" t="n">
         <v>0.0</v>
@@ -13265,13 +13265,13 @@
         <v>1.0</v>
       </c>
       <c r="AO32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP32" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR32" t="n">
         <v>0.0</v>
@@ -13280,7 +13280,7 @@
         <v>0.0</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU32" t="n">
         <v>0.0</v>
@@ -13292,7 +13292,7 @@
         <v>0.0</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY32" t="n">
         <v>0.0</v>
@@ -13319,10 +13319,10 @@
         <v>0.0</v>
       </c>
       <c r="BG32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI32" t="n">
         <v>0.0</v>
@@ -13379,10 +13379,10 @@
         <v>0.0</v>
       </c>
       <c r="CA32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC32" t="n">
         <v>0.0</v>
@@ -13391,10 +13391,10 @@
         <v>0.0</v>
       </c>
       <c r="CE32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG32" t="n">
         <v>0.0</v>
@@ -13424,10 +13424,10 @@
         <v>0.0</v>
       </c>
       <c r="CP32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR32" t="n">
         <v>0.0</v>
@@ -13439,19 +13439,19 @@
         <v>0.0</v>
       </c>
       <c r="CU32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX32" t="n">
         <v>0.0</v>
       </c>
       <c r="CY32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ32" t="n">
         <v>0.0</v>
@@ -13460,13 +13460,13 @@
         <v>0.0</v>
       </c>
       <c r="DB32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC32" t="n">
         <v>0.0</v>
       </c>
       <c r="DD32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE32" t="n">
         <v>0.0</v>
@@ -13475,7 +13475,7 @@
         <v>0.0</v>
       </c>
       <c r="DG32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH32" t="n">
         <v>0.0</v>
@@ -13484,7 +13484,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK32" t="n">
         <v>0.0</v>
@@ -13499,10 +13499,10 @@
         <v>0.0</v>
       </c>
       <c r="DO32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ32" t="n">
         <v>1.0</v>
@@ -13544,10 +13544,10 @@
         <v>0.0</v>
       </c>
       <c r="ED32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF32" t="n">
         <v>0.0</v>

--- a/CaseEfinal/files/FormatDepA.xlsx
+++ b/CaseEfinal/files/FormatDepA.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FITNESS = 96512.0" r:id="rId3" sheetId="1"/>
+    <sheet name="FITNESS = 94981.0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -72,10 +72,10 @@
         <v>0.0</v>
       </c>
       <c r="D1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F1" t="n">
         <v>0.0</v>
@@ -93,13 +93,13 @@
         <v>1.0</v>
       </c>
       <c r="K1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L1" t="n">
         <v>0.0</v>
       </c>
       <c r="M1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N1" t="n">
         <v>0.0</v>
@@ -117,10 +117,10 @@
         <v>0.0</v>
       </c>
       <c r="S1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U1" t="n">
         <v>1.0</v>
@@ -153,7 +153,7 @@
         <v>1.0</v>
       </c>
       <c r="AE1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF1" t="n">
         <v>0.0</v>
@@ -165,7 +165,7 @@
         <v>0.0</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ1" t="n">
         <v>0.0</v>
@@ -174,10 +174,10 @@
         <v>0.0</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN1" t="n">
         <v>0.0</v>
@@ -198,7 +198,7 @@
         <v>0.0</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU1" t="n">
         <v>0.0</v>
@@ -210,10 +210,10 @@
         <v>0.0</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ1" t="n">
         <v>0.0</v>
@@ -222,19 +222,19 @@
         <v>0.0</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC1" t="n">
         <v>0.0</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE1" t="n">
         <v>0.0</v>
       </c>
       <c r="BF1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG1" t="n">
         <v>0.0</v>
@@ -264,16 +264,16 @@
         <v>0.0</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ1" t="n">
         <v>0.0</v>
       </c>
       <c r="BR1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT1" t="n">
         <v>0.0</v>
@@ -285,7 +285,7 @@
         <v>0.0</v>
       </c>
       <c r="BW1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX1" t="n">
         <v>0.0</v>
@@ -294,16 +294,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB1" t="n">
         <v>0.0</v>
       </c>
       <c r="CC1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD1" t="n">
         <v>0.0</v>
@@ -315,7 +315,7 @@
         <v>0.0</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH1" t="n">
         <v>0.0</v>
@@ -324,13 +324,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK1" t="n">
         <v>0.0</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM1" t="n">
         <v>1.0</v>
@@ -354,16 +354,16 @@
         <v>0.0</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV1" t="n">
         <v>0.0</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX1" t="n">
         <v>0.0</v>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="DA1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB1" t="n">
         <v>0.0</v>
@@ -414,10 +414,10 @@
         <v>0.0</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP1" t="n">
         <v>0.0</v>
@@ -429,16 +429,16 @@
         <v>0.0</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT1" t="n">
         <v>0.0</v>
       </c>
       <c r="DU1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW1" t="n">
         <v>0.0</v>
@@ -447,7 +447,7 @@
         <v>0.0</v>
       </c>
       <c r="DY1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ1" t="n">
         <v>0.0</v>
@@ -462,10 +462,10 @@
         <v>0.0</v>
       </c>
       <c r="ED1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF1" t="n">
         <v>0.0</v>
@@ -474,18 +474,18 @@
         <v>0.0</v>
       </c>
       <c r="EH1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI1" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -497,10 +497,10 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -509,7 +509,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" t="n">
         <v>0.0</v>
@@ -536,13 +536,13 @@
         <v>0.0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
@@ -551,22 +551,22 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X2" t="n">
         <v>0.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC2" t="n">
         <v>0.0</v>
@@ -575,13 +575,13 @@
         <v>0.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF2" t="n">
         <v>0.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH2" t="n">
         <v>0.0</v>
@@ -605,13 +605,13 @@
         <v>0.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP2" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR2" t="n">
         <v>0.0</v>
@@ -626,10 +626,10 @@
         <v>0.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX2" t="n">
         <v>0.0</v>
@@ -641,13 +641,13 @@
         <v>0.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB2" t="n">
         <v>0.0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD2" t="n">
         <v>0.0</v>
@@ -656,13 +656,13 @@
         <v>0.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG2" t="n">
         <v>0.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI2" t="n">
         <v>0.0</v>
@@ -701,10 +701,10 @@
         <v>0.0</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW2" t="n">
         <v>0.0</v>
@@ -719,10 +719,10 @@
         <v>0.0</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC2" t="n">
         <v>0.0</v>
@@ -749,10 +749,10 @@
         <v>0.0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM2" t="n">
         <v>0.0</v>
@@ -761,13 +761,13 @@
         <v>0.0</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP2" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR2" t="n">
         <v>0.0</v>
@@ -776,22 +776,22 @@
         <v>0.0</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV2" t="n">
         <v>0.0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX2" t="n">
         <v>0.0</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ2" t="n">
         <v>0.0</v>
@@ -800,7 +800,7 @@
         <v>0.0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC2" t="n">
         <v>0.0</v>
@@ -809,7 +809,7 @@
         <v>0.0</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF2" t="n">
         <v>0.0</v>
@@ -845,7 +845,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR2" t="n">
         <v>0.0</v>
@@ -857,16 +857,16 @@
         <v>0.0</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW2" t="n">
         <v>0.0</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY2" t="n">
         <v>0.0</v>
@@ -884,13 +884,13 @@
         <v>0.0</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG2" t="n">
         <v>0.0</v>
@@ -899,7 +899,7 @@
         <v>0.0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ2" t="n">
         <v>0.0</v>
@@ -916,19 +916,19 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -937,7 +937,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
@@ -946,7 +946,7 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O3" t="n">
         <v>0.0</v>
@@ -958,13 +958,13 @@
         <v>0.0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S3" t="n">
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U3" t="n">
         <v>0.0</v>
@@ -1003,10 +1003,10 @@
         <v>0.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI3" t="n">
         <v>0.0</v>
@@ -1021,10 +1021,10 @@
         <v>0.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO3" t="n">
         <v>0.0</v>
@@ -1033,10 +1033,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS3" t="n">
         <v>0.0</v>
@@ -1051,10 +1051,10 @@
         <v>0.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY3" t="n">
         <v>0.0</v>
@@ -1063,10 +1063,10 @@
         <v>0.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC3" t="n">
         <v>0.0</v>
@@ -1123,16 +1123,16 @@
         <v>0.0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW3" t="n">
         <v>0.0</v>
       </c>
       <c r="BX3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY3" t="n">
         <v>0.0</v>
@@ -1144,7 +1144,7 @@
         <v>0.0</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC3" t="n">
         <v>0.0</v>
@@ -1153,13 +1153,13 @@
         <v>0.0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF3" t="n">
         <v>0.0</v>
       </c>
       <c r="CG3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH3" t="n">
         <v>0.0</v>
@@ -1171,10 +1171,10 @@
         <v>0.0</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM3" t="n">
         <v>0.0</v>
@@ -1183,16 +1183,16 @@
         <v>0.0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP3" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS3" t="n">
         <v>0.0</v>
@@ -1201,7 +1201,7 @@
         <v>0.0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV3" t="n">
         <v>0.0</v>
@@ -1213,10 +1213,10 @@
         <v>0.0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA3" t="n">
         <v>0.0</v>
@@ -1228,22 +1228,22 @@
         <v>0.0</v>
       </c>
       <c r="DD3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE3" t="n">
         <v>0.0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH3" t="n">
         <v>0.0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ3" t="n">
         <v>0.0</v>
@@ -1258,22 +1258,22 @@
         <v>0.0</v>
       </c>
       <c r="DN3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO3" t="n">
         <v>0.0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR3" t="n">
         <v>0.0</v>
       </c>
       <c r="DS3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT3" t="n">
         <v>0.0</v>
@@ -1282,7 +1282,7 @@
         <v>0.0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW3" t="n">
         <v>0.0</v>
@@ -1294,10 +1294,10 @@
         <v>0.0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB3" t="n">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG3" t="n">
         <v>0.0</v>
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ3" t="n">
         <v>0.0</v>
@@ -1353,10 +1353,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K4" t="n">
         <v>0.0</v>
@@ -1383,10 +1383,10 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U4" t="n">
         <v>0.0</v>
@@ -1404,7 +1404,7 @@
         <v>1.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA4" t="n">
         <v>0.0</v>
@@ -1413,13 +1413,13 @@
         <v>0.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD4" t="n">
         <v>0.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF4" t="n">
         <v>0.0</v>
@@ -1431,16 +1431,16 @@
         <v>0.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK4" t="n">
         <v>0.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM4" t="n">
         <v>0.0</v>
@@ -1449,13 +1449,13 @@
         <v>0.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP4" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR4" t="n">
         <v>0.0</v>
@@ -1470,22 +1470,22 @@
         <v>0.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ4" t="n">
         <v>0.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB4" t="n">
         <v>0.0</v>
@@ -1503,10 +1503,10 @@
         <v>0.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI4" t="n">
         <v>0.0</v>
@@ -1515,10 +1515,10 @@
         <v>0.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM4" t="n">
         <v>0.0</v>
@@ -1530,16 +1530,16 @@
         <v>0.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR4" t="n">
         <v>0.0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT4" t="n">
         <v>0.0</v>
@@ -1548,7 +1548,7 @@
         <v>0.0</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW4" t="n">
         <v>0.0</v>
@@ -1590,10 +1590,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL4" t="n">
         <v>0.0</v>
@@ -1605,10 +1605,10 @@
         <v>0.0</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ4" t="n">
         <v>0.0</v>
@@ -1650,13 +1650,13 @@
         <v>0.0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE4" t="n">
         <v>0.0</v>
       </c>
       <c r="DF4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG4" t="n">
         <v>0.0</v>
@@ -1668,10 +1668,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL4" t="n">
         <v>0.0</v>
@@ -1683,10 +1683,10 @@
         <v>0.0</v>
       </c>
       <c r="DO4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0.0</v>
@@ -1698,10 +1698,10 @@
         <v>0.0</v>
       </c>
       <c r="DT4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV4" t="n">
         <v>0.0</v>
@@ -1719,7 +1719,7 @@
         <v>1.0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB4" t="n">
         <v>0.0</v>
@@ -1728,19 +1728,19 @@
         <v>0.0</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE4" t="n">
         <v>0.0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG4" t="n">
         <v>0.0</v>
       </c>
       <c r="EH4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI4" t="n">
         <v>0.0</v>
@@ -1766,7 +1766,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1775,7 +1775,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
@@ -1802,22 +1802,22 @@
         <v>0.0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V5" t="n">
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X5" t="n">
         <v>0.0</v>
@@ -1826,7 +1826,7 @@
         <v>0.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA5" t="n">
         <v>0.0</v>
@@ -1838,10 +1838,10 @@
         <v>0.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF5" t="n">
         <v>0.0</v>
@@ -1853,7 +1853,7 @@
         <v>0.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.0</v>
@@ -1862,10 +1862,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN5" t="n">
         <v>0.0</v>
@@ -1895,10 +1895,10 @@
         <v>0.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY5" t="n">
         <v>0.0</v>
@@ -1916,7 +1916,7 @@
         <v>1.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE5" t="n">
         <v>0.0</v>
@@ -1928,10 +1928,10 @@
         <v>0.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0.0</v>
@@ -1940,7 +1940,7 @@
         <v>0.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM5" t="n">
         <v>0.0</v>
@@ -1976,13 +1976,13 @@
         <v>0.0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY5" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA5" t="n">
         <v>0.0</v>
@@ -1991,7 +1991,7 @@
         <v>0.0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD5" t="n">
         <v>0.0</v>
@@ -2000,7 +2000,7 @@
         <v>0.0</v>
       </c>
       <c r="CF5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG5" t="n">
         <v>0.0</v>
@@ -2042,13 +2042,13 @@
         <v>0.0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU5" t="n">
         <v>0.0</v>
       </c>
       <c r="CV5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW5" t="n">
         <v>0.0</v>
@@ -2081,7 +2081,7 @@
         <v>1.0</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH5" t="n">
         <v>0.0</v>
@@ -2090,7 +2090,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK5" t="n">
         <v>0.0</v>
@@ -2102,16 +2102,16 @@
         <v>0.0</v>
       </c>
       <c r="DN5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP5" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR5" t="n">
         <v>0.0</v>
@@ -2120,7 +2120,7 @@
         <v>0.0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU5" t="n">
         <v>0.0</v>
@@ -2132,13 +2132,13 @@
         <v>0.0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY5" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA5" t="n">
         <v>0.0</v>
@@ -2147,10 +2147,10 @@
         <v>0.0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE5" t="n">
         <v>0.0</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2182,19 +2182,19 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -2209,22 +2209,22 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O6" t="n">
         <v>0.0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
@@ -2239,22 +2239,22 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X6" t="n">
         <v>0.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA6" t="n">
         <v>0.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC6" t="n">
         <v>0.0</v>
@@ -2287,13 +2287,13 @@
         <v>0.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP6" t="n">
         <v>0.0</v>
@@ -2305,7 +2305,7 @@
         <v>0.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT6" t="n">
         <v>0.0</v>
@@ -2329,16 +2329,16 @@
         <v>0.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC6" t="n">
         <v>0.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE6" t="n">
         <v>0.0</v>
@@ -2350,7 +2350,7 @@
         <v>0.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI6" t="n">
         <v>0.0</v>
@@ -2374,10 +2374,10 @@
         <v>0.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR6" t="n">
         <v>0.0</v>
@@ -2389,16 +2389,16 @@
         <v>0.0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV6" t="n">
         <v>0.0</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY6" t="n">
         <v>0.0</v>
@@ -2410,16 +2410,16 @@
         <v>0.0</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD6" t="n">
         <v>0.0</v>
       </c>
       <c r="CE6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF6" t="n">
         <v>0.0</v>
@@ -2434,13 +2434,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK6" t="n">
         <v>0.0</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM6" t="n">
         <v>0.0</v>
@@ -2458,7 +2458,7 @@
         <v>1.0</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS6" t="n">
         <v>0.0</v>
@@ -2470,7 +2470,7 @@
         <v>0.0</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW6" t="n">
         <v>0.0</v>
@@ -2494,10 +2494,10 @@
         <v>0.0</v>
       </c>
       <c r="DD6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF6" t="n">
         <v>0.0</v>
@@ -2509,13 +2509,13 @@
         <v>0.0</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ6" t="n">
         <v>0.0</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL6" t="n">
         <v>0.0</v>
@@ -2527,10 +2527,10 @@
         <v>0.0</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0.0</v>
@@ -2542,13 +2542,13 @@
         <v>0.0</v>
       </c>
       <c r="DT6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW6" t="n">
         <v>0.0</v>
@@ -2557,7 +2557,7 @@
         <v>0.0</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0.0</v>
@@ -2572,13 +2572,13 @@
         <v>0.0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG6" t="n">
         <v>0.0</v>
@@ -2587,7 +2587,7 @@
         <v>0.0</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ6" t="n">
         <v>0.0</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2607,7 +2607,7 @@
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -2616,10 +2616,10 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" t="n">
         <v>0.0</v>
@@ -2634,10 +2634,10 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P7" t="n">
         <v>0.0</v>
@@ -2646,16 +2646,16 @@
         <v>0.0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V7" t="n">
         <v>0.0</v>
@@ -2664,7 +2664,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y7" t="n">
         <v>0.0</v>
@@ -2679,10 +2679,10 @@
         <v>0.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE7" t="n">
         <v>0.0</v>
@@ -2715,13 +2715,13 @@
         <v>1.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP7" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR7" t="n">
         <v>0.0</v>
@@ -2751,16 +2751,16 @@
         <v>0.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC7" t="n">
         <v>0.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE7" t="n">
         <v>0.0</v>
@@ -2769,7 +2769,7 @@
         <v>0.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH7" t="n">
         <v>0.0</v>
@@ -2781,10 +2781,10 @@
         <v>0.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM7" t="n">
         <v>0.0</v>
@@ -2796,13 +2796,13 @@
         <v>0.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ7" t="n">
         <v>0.0</v>
       </c>
       <c r="BR7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS7" t="n">
         <v>0.0</v>
@@ -2811,13 +2811,13 @@
         <v>0.0</v>
       </c>
       <c r="BU7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV7" t="n">
         <v>0.0</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX7" t="n">
         <v>1.0</v>
@@ -2841,10 +2841,10 @@
         <v>0.0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG7" t="n">
         <v>0.0</v>
@@ -2910,7 +2910,7 @@
         <v>0.0</v>
       </c>
       <c r="DB7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC7" t="n">
         <v>0.0</v>
@@ -2919,7 +2919,7 @@
         <v>0.0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF7" t="n">
         <v>0.0</v>
@@ -2940,7 +2940,7 @@
         <v>1.0</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM7" t="n">
         <v>0.0</v>
@@ -2952,10 +2952,10 @@
         <v>0.0</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR7" t="n">
         <v>0.0</v>
@@ -2967,10 +2967,10 @@
         <v>0.0</v>
       </c>
       <c r="DU7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW7" t="n">
         <v>0.0</v>
@@ -2982,10 +2982,10 @@
         <v>0.0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB7" t="n">
         <v>0.0</v>
@@ -2994,7 +2994,7 @@
         <v>0.0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE7" t="n">
         <v>0.0</v>
@@ -3026,10 +3026,10 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -3047,13 +3047,13 @@
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -3092,7 +3092,7 @@
         <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA8" t="n">
         <v>0.0</v>
@@ -3101,19 +3101,19 @@
         <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD8" t="n">
         <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF8" t="n">
         <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH8" t="n">
         <v>0.0</v>
@@ -3137,7 +3137,7 @@
         <v>1.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
         <v>0.0</v>
@@ -3146,7 +3146,7 @@
         <v>0.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS8" t="n">
         <v>0.0</v>
@@ -3158,22 +3158,22 @@
         <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW8" t="n">
         <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8" t="n">
         <v>0.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB8" t="n">
         <v>0.0</v>
@@ -3182,7 +3182,7 @@
         <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE8" t="n">
         <v>0.0</v>
@@ -3191,7 +3191,7 @@
         <v>0.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH8" t="n">
         <v>0.0</v>
@@ -3203,16 +3203,16 @@
         <v>0.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL8" t="n">
         <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO8" t="n">
         <v>0.0</v>
@@ -3221,19 +3221,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR8" t="n">
         <v>0.0</v>
       </c>
       <c r="BS8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT8" t="n">
         <v>0.0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV8" t="n">
         <v>0.0</v>
@@ -3251,19 +3251,19 @@
         <v>0.0</v>
       </c>
       <c r="CA8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD8" t="n">
         <v>0.0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF8" t="n">
         <v>0.0</v>
@@ -3272,13 +3272,13 @@
         <v>0.0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI8" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK8" t="n">
         <v>0.0</v>
@@ -3293,10 +3293,10 @@
         <v>0.0</v>
       </c>
       <c r="CO8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ8" t="n">
         <v>0.0</v>
@@ -3308,16 +3308,16 @@
         <v>0.0</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU8" t="n">
         <v>0.0</v>
       </c>
       <c r="CV8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX8" t="n">
         <v>0.0</v>
@@ -3329,7 +3329,7 @@
         <v>0.0</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB8" t="n">
         <v>0.0</v>
@@ -3341,10 +3341,10 @@
         <v>0.0</v>
       </c>
       <c r="DE8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG8" t="n">
         <v>0.0</v>
@@ -3362,7 +3362,7 @@
         <v>1.0</v>
       </c>
       <c r="DL8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM8" t="n">
         <v>0.0</v>
@@ -3371,13 +3371,13 @@
         <v>0.0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP8" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR8" t="n">
         <v>0.0</v>
@@ -3389,16 +3389,16 @@
         <v>0.0</v>
       </c>
       <c r="DU8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW8" t="n">
         <v>0.0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY8" t="n">
         <v>0.0</v>
@@ -3422,13 +3422,13 @@
         <v>0.0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG8" t="n">
         <v>0.0</v>
       </c>
       <c r="EH8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI8" t="n">
         <v>0.0</v>
@@ -3439,13 +3439,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -3454,13 +3454,13 @@
         <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -3475,22 +3475,22 @@
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S9" t="n">
         <v>0.0</v>
@@ -3499,7 +3499,7 @@
         <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V9" t="n">
         <v>0.0</v>
@@ -3508,7 +3508,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0</v>
@@ -3520,13 +3520,13 @@
         <v>0.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC9" t="n">
         <v>0.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE9" t="n">
         <v>0.0</v>
@@ -3535,16 +3535,16 @@
         <v>0.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI9" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK9" t="n">
         <v>0.0</v>
@@ -3556,7 +3556,7 @@
         <v>0.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO9" t="n">
         <v>0.0</v>
@@ -3565,13 +3565,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR9" t="n">
         <v>0.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT9" t="n">
         <v>1.0</v>
@@ -3598,10 +3598,10 @@
         <v>0.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD9" t="n">
         <v>0.0</v>
@@ -3610,10 +3610,10 @@
         <v>0.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH9" t="n">
         <v>0.0</v>
@@ -3625,13 +3625,13 @@
         <v>0.0</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL9" t="n">
         <v>0.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN9" t="n">
         <v>0.0</v>
@@ -3679,7 +3679,7 @@
         <v>1.0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD9" t="n">
         <v>0.0</v>
@@ -3688,13 +3688,13 @@
         <v>0.0</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG9" t="n">
         <v>0.0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI9" t="n">
         <v>0.0</v>
@@ -3703,19 +3703,19 @@
         <v>0.0</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL9" t="n">
         <v>0.0</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN9" t="n">
         <v>0.0</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP9" t="n">
         <v>0.0</v>
@@ -3724,7 +3724,7 @@
         <v>0.0</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS9" t="n">
         <v>0.0</v>
@@ -3736,16 +3736,16 @@
         <v>0.0</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX9" t="n">
         <v>0.0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ9" t="n">
         <v>0.0</v>
@@ -3754,7 +3754,7 @@
         <v>0.0</v>
       </c>
       <c r="DB9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC9" t="n">
         <v>0.0</v>
@@ -3766,7 +3766,7 @@
         <v>0.0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG9" t="n">
         <v>0.0</v>
@@ -3778,10 +3778,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL9" t="n">
         <v>0.0</v>
@@ -3790,22 +3790,22 @@
         <v>0.0</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO9" t="n">
         <v>0.0</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR9" t="n">
         <v>0.0</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT9" t="n">
         <v>0.0</v>
@@ -3814,7 +3814,7 @@
         <v>0.0</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW9" t="n">
         <v>0.0</v>
@@ -3826,10 +3826,10 @@
         <v>0.0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB9" t="n">
         <v>0.0</v>
@@ -3841,7 +3841,7 @@
         <v>0.0</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF9" t="n">
         <v>0.0</v>
@@ -3850,10 +3850,10 @@
         <v>0.0</v>
       </c>
       <c r="EH9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ9" t="n">
         <v>0.0</v>
@@ -3867,10 +3867,10 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -3900,13 +3900,13 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0</v>
@@ -3918,7 +3918,7 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U10" t="n">
         <v>0.0</v>
@@ -3930,10 +3930,10 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
         <v>1.0</v>
@@ -3957,22 +3957,22 @@
         <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH10" t="n">
         <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK10" t="n">
         <v>0.0</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM10" t="n">
         <v>0.0</v>
@@ -3981,13 +3981,13 @@
         <v>0.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP10" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR10" t="n">
         <v>0.0</v>
@@ -3996,13 +3996,13 @@
         <v>0.0</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" t="n">
         <v>0.0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW10" t="n">
         <v>0.0</v>
@@ -4017,10 +4017,10 @@
         <v>0.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC10" t="n">
         <v>0.0</v>
@@ -4032,16 +4032,16 @@
         <v>0.0</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH10" t="n">
         <v>0.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0.0</v>
@@ -4053,7 +4053,7 @@
         <v>0.0</v>
       </c>
       <c r="BM10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN10" t="n">
         <v>0.0</v>
@@ -4065,10 +4065,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS10" t="n">
         <v>0.0</v>
@@ -4077,16 +4077,16 @@
         <v>0.0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW10" t="n">
         <v>0.0</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY10" t="n">
         <v>0.0</v>
@@ -4095,7 +4095,7 @@
         <v>0.0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB10" t="n">
         <v>0.0</v>
@@ -4110,10 +4110,10 @@
         <v>0.0</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH10" t="n">
         <v>0.0</v>
@@ -4122,13 +4122,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK10" t="n">
         <v>0.0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM10" t="n">
         <v>0.0</v>
@@ -4137,13 +4137,13 @@
         <v>0.0</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP10" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR10" t="n">
         <v>0.0</v>
@@ -4161,7 +4161,7 @@
         <v>0.0</v>
       </c>
       <c r="CW10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX10" t="n">
         <v>0.0</v>
@@ -4170,13 +4170,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA10" t="n">
         <v>0.0</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC10" t="n">
         <v>0.0</v>
@@ -4188,10 +4188,10 @@
         <v>0.0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH10" t="n">
         <v>0.0</v>
@@ -4200,7 +4200,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK10" t="n">
         <v>0.0</v>
@@ -4230,10 +4230,10 @@
         <v>0.0</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV10" t="n">
         <v>0.0</v>
@@ -4266,7 +4266,7 @@
         <v>1.0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG10" t="n">
         <v>0.0</v>
@@ -4278,7 +4278,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -4298,7 +4298,7 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -4310,7 +4310,7 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
@@ -4319,13 +4319,13 @@
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P11" t="n">
         <v>0.0</v>
@@ -4334,16 +4334,16 @@
         <v>0.0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S11" t="n">
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V11" t="n">
         <v>0.0</v>
@@ -4352,7 +4352,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y11" t="n">
         <v>0.0</v>
@@ -4373,7 +4373,7 @@
         <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF11" t="n">
         <v>0.0</v>
@@ -4385,7 +4385,7 @@
         <v>0.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0.0</v>
@@ -4394,16 +4394,16 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM11" t="n">
         <v>0.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP11" t="n">
         <v>0.0</v>
@@ -4415,7 +4415,7 @@
         <v>0.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT11" t="n">
         <v>1.0</v>
@@ -4439,10 +4439,10 @@
         <v>0.0</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC11" t="n">
         <v>0.0</v>
@@ -4457,10 +4457,10 @@
         <v>0.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI11" t="n">
         <v>0.0</v>
@@ -4472,13 +4472,13 @@
         <v>0.0</v>
       </c>
       <c r="BL11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO11" t="n">
         <v>0.0</v>
@@ -4490,10 +4490,10 @@
         <v>0.0</v>
       </c>
       <c r="BR11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT11" t="n">
         <v>0.0</v>
@@ -4505,10 +4505,10 @@
         <v>0.0</v>
       </c>
       <c r="BW11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY11" t="n">
         <v>0.0</v>
@@ -4517,13 +4517,13 @@
         <v>0.0</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB11" t="n">
         <v>0.0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD11" t="n">
         <v>0.0</v>
@@ -4532,7 +4532,7 @@
         <v>0.0</v>
       </c>
       <c r="CF11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG11" t="n">
         <v>0.0</v>
@@ -4559,13 +4559,13 @@
         <v>0.0</v>
       </c>
       <c r="CO11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP11" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR11" t="n">
         <v>0.0</v>
@@ -4583,7 +4583,7 @@
         <v>0.0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX11" t="n">
         <v>0.0</v>
@@ -4595,7 +4595,7 @@
         <v>0.0</v>
       </c>
       <c r="DA11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB11" t="n">
         <v>0.0</v>
@@ -4613,7 +4613,7 @@
         <v>0.0</v>
       </c>
       <c r="DG11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH11" t="n">
         <v>0.0</v>
@@ -4622,7 +4622,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK11" t="n">
         <v>0.0</v>
@@ -4634,22 +4634,22 @@
         <v>0.0</v>
       </c>
       <c r="DN11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO11" t="n">
         <v>0.0</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR11" t="n">
         <v>0.0</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT11" t="n">
         <v>0.0</v>
@@ -4664,22 +4664,22 @@
         <v>0.0</v>
       </c>
       <c r="DX11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY11" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB11" t="n">
         <v>0.0</v>
       </c>
       <c r="EC11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED11" t="n">
         <v>0.0</v>
@@ -4688,13 +4688,13 @@
         <v>0.0</v>
       </c>
       <c r="EF11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG11" t="n">
         <v>0.0</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI11" t="n">
         <v>0.0</v>
@@ -4705,13 +4705,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
@@ -4735,13 +4735,13 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -4774,10 +4774,10 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z12" t="n">
         <v>0.0</v>
@@ -4786,16 +4786,16 @@
         <v>0.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" t="n">
         <v>0.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF12" t="n">
         <v>0.0</v>
@@ -4804,7 +4804,7 @@
         <v>0.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI12" t="n">
         <v>0.0</v>
@@ -4816,16 +4816,16 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM12" t="n">
         <v>0.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP12" t="n">
         <v>0.0</v>
@@ -4837,7 +4837,7 @@
         <v>0.0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT12" t="n">
         <v>0.0</v>
@@ -4846,13 +4846,13 @@
         <v>0.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW12" t="n">
         <v>0.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY12" t="n">
         <v>0.0</v>
@@ -4861,13 +4861,13 @@
         <v>0.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB12" t="n">
         <v>0.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD12" t="n">
         <v>0.0</v>
@@ -4876,10 +4876,10 @@
         <v>0.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH12" t="n">
         <v>0.0</v>
@@ -4891,13 +4891,13 @@
         <v>0.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL12" t="n">
         <v>0.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN12" t="n">
         <v>0.0</v>
@@ -4909,13 +4909,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT12" t="n">
         <v>0.0</v>
@@ -4927,7 +4927,7 @@
         <v>0.0</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX12" t="n">
         <v>0.0</v>
@@ -4936,13 +4936,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA12" t="n">
         <v>0.0</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC12" t="n">
         <v>0.0</v>
@@ -4951,10 +4951,10 @@
         <v>0.0</v>
       </c>
       <c r="CE12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG12" t="n">
         <v>0.0</v>
@@ -4966,10 +4966,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL12" t="n">
         <v>0.0</v>
@@ -4990,7 +4990,7 @@
         <v>1.0</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS12" t="n">
         <v>0.0</v>
@@ -5002,16 +5002,16 @@
         <v>0.0</v>
       </c>
       <c r="CV12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX12" t="n">
         <v>0.0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ12" t="n">
         <v>0.0</v>
@@ -5035,7 +5035,7 @@
         <v>0.0</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH12" t="n">
         <v>0.0</v>
@@ -5044,13 +5044,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK12" t="n">
         <v>0.0</v>
       </c>
       <c r="DL12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM12" t="n">
         <v>0.0</v>
@@ -5059,7 +5059,7 @@
         <v>0.0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP12" t="n">
         <v>0.0</v>
@@ -5095,7 +5095,7 @@
         <v>1.0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB12" t="n">
         <v>0.0</v>
@@ -5107,7 +5107,7 @@
         <v>0.0</v>
       </c>
       <c r="EE12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF12" t="n">
         <v>0.0</v>
@@ -5116,10 +5116,10 @@
         <v>0.0</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ12" t="n">
         <v>0.0</v>
@@ -5133,10 +5133,10 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
@@ -5178,13 +5178,13 @@
         <v>0.0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S13" t="n">
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
@@ -5202,7 +5202,7 @@
         <v>0.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA13" t="n">
         <v>0.0</v>
@@ -5211,7 +5211,7 @@
         <v>0.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13" t="n">
         <v>0.0</v>
@@ -5223,16 +5223,16 @@
         <v>0.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI13" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK13" t="n">
         <v>0.0</v>
@@ -5241,7 +5241,7 @@
         <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN13" t="n">
         <v>0.0</v>
@@ -5268,22 +5268,22 @@
         <v>0.0</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX13" t="n">
         <v>0.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13" t="n">
         <v>0.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB13" t="n">
         <v>0.0</v>
@@ -5301,10 +5301,10 @@
         <v>0.0</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI13" t="n">
         <v>0.0</v>
@@ -5313,22 +5313,22 @@
         <v>0.0</v>
       </c>
       <c r="BK13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM13" t="n">
         <v>0.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO13" t="n">
         <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ13" t="n">
         <v>0.0</v>
@@ -5343,22 +5343,22 @@
         <v>0.0</v>
       </c>
       <c r="BU13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW13" t="n">
         <v>0.0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY13" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA13" t="n">
         <v>0.0</v>
@@ -5367,7 +5367,7 @@
         <v>0.0</v>
       </c>
       <c r="CC13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD13" t="n">
         <v>0.0</v>
@@ -5379,7 +5379,7 @@
         <v>0.0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH13" t="n">
         <v>0.0</v>
@@ -5388,22 +5388,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK13" t="n">
         <v>0.0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN13" t="n">
         <v>0.0</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP13" t="n">
         <v>0.0</v>
@@ -5427,13 +5427,13 @@
         <v>1.0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX13" t="n">
         <v>0.0</v>
       </c>
       <c r="CY13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ13" t="n">
         <v>0.0</v>
@@ -5442,7 +5442,7 @@
         <v>0.0</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC13" t="n">
         <v>0.0</v>
@@ -5454,7 +5454,7 @@
         <v>0.0</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG13" t="n">
         <v>0.0</v>
@@ -5463,16 +5463,16 @@
         <v>0.0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ13" t="n">
         <v>0.0</v>
       </c>
       <c r="DK13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM13" t="n">
         <v>0.0</v>
@@ -5484,7 +5484,7 @@
         <v>0.0</v>
       </c>
       <c r="DP13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ13" t="n">
         <v>0.0</v>
@@ -5502,13 +5502,13 @@
         <v>1.0</v>
       </c>
       <c r="DV13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW13" t="n">
         <v>0.0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY13" t="n">
         <v>0.0</v>
@@ -5538,18 +5538,18 @@
         <v>0.0</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI13" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5558,13 +5558,13 @@
         <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -5573,7 +5573,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
         <v>0.0</v>
@@ -5600,22 +5600,22 @@
         <v>0.0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V14" t="n">
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X14" t="n">
         <v>0.0</v>
@@ -5633,13 +5633,13 @@
         <v>0.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF14" t="n">
         <v>0.0</v>
@@ -5651,7 +5651,7 @@
         <v>0.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0.0</v>
@@ -5660,10 +5660,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN14" t="n">
         <v>0.0</v>
@@ -5675,13 +5675,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR14" t="n">
         <v>0.0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT14" t="n">
         <v>0.0</v>
@@ -5690,13 +5690,13 @@
         <v>0.0</v>
       </c>
       <c r="AV14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW14" t="n">
         <v>0.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY14" t="n">
         <v>0.0</v>
@@ -5708,10 +5708,10 @@
         <v>0.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD14" t="n">
         <v>0.0</v>
@@ -5720,22 +5720,22 @@
         <v>0.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH14" t="n">
         <v>0.0</v>
       </c>
       <c r="BI14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ14" t="n">
         <v>0.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL14" t="n">
         <v>0.0</v>
@@ -5750,13 +5750,13 @@
         <v>0.0</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ14" t="n">
         <v>0.0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS14" t="n">
         <v>0.0</v>
@@ -5765,13 +5765,13 @@
         <v>0.0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV14" t="n">
         <v>0.0</v>
       </c>
       <c r="BW14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX14" t="n">
         <v>0.0</v>
@@ -5795,16 +5795,16 @@
         <v>0.0</v>
       </c>
       <c r="CE14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG14" t="n">
         <v>0.0</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI14" t="n">
         <v>0.0</v>
@@ -5813,7 +5813,7 @@
         <v>0.0</v>
       </c>
       <c r="CK14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL14" t="n">
         <v>0.0</v>
@@ -5834,7 +5834,7 @@
         <v>1.0</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS14" t="n">
         <v>0.0</v>
@@ -5846,7 +5846,7 @@
         <v>0.0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW14" t="n">
         <v>0.0</v>
@@ -5858,13 +5858,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC14" t="n">
         <v>0.0</v>
@@ -5876,7 +5876,7 @@
         <v>0.0</v>
       </c>
       <c r="DF14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG14" t="n">
         <v>0.0</v>
@@ -5894,13 +5894,13 @@
         <v>0.0</v>
       </c>
       <c r="DL14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM14" t="n">
         <v>0.0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO14" t="n">
         <v>0.0</v>
@@ -5909,7 +5909,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR14" t="n">
         <v>0.0</v>
@@ -5921,7 +5921,7 @@
         <v>0.0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV14" t="n">
         <v>0.0</v>
@@ -5933,10 +5933,10 @@
         <v>0.0</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA14" t="n">
         <v>0.0</v>
@@ -5945,13 +5945,13 @@
         <v>0.0</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED14" t="n">
         <v>0.0</v>
       </c>
       <c r="EE14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF14" t="n">
         <v>0.0</v>
@@ -5963,21 +5963,21 @@
         <v>0.0</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
@@ -5992,10 +5992,10 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n">
         <v>0.0</v>
@@ -6016,13 +6016,13 @@
         <v>1.0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S15" t="n">
         <v>0.0</v>
@@ -6055,10 +6055,10 @@
         <v>0.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE15" t="n">
         <v>0.0</v>
@@ -6082,10 +6082,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN15" t="n">
         <v>0.0</v>
@@ -6097,10 +6097,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS15" t="n">
         <v>0.0</v>
@@ -6127,13 +6127,13 @@
         <v>0.0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB15" t="n">
         <v>0.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD15" t="n">
         <v>0.0</v>
@@ -6145,19 +6145,19 @@
         <v>0.0</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ15" t="n">
         <v>0.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL15" t="n">
         <v>0.0</v>
@@ -6166,13 +6166,13 @@
         <v>0.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO15" t="n">
         <v>0.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ15" t="n">
         <v>0.0</v>
@@ -6190,10 +6190,10 @@
         <v>0.0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX15" t="n">
         <v>1.0</v>
@@ -6226,7 +6226,7 @@
         <v>1.0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI15" t="n">
         <v>0.0</v>
@@ -6235,7 +6235,7 @@
         <v>0.0</v>
       </c>
       <c r="CK15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL15" t="n">
         <v>0.0</v>
@@ -6265,13 +6265,13 @@
         <v>0.0</v>
       </c>
       <c r="CU15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX15" t="n">
         <v>0.0</v>
@@ -6283,7 +6283,7 @@
         <v>0.0</v>
       </c>
       <c r="DA15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB15" t="n">
         <v>0.0</v>
@@ -6292,13 +6292,13 @@
         <v>0.0</v>
       </c>
       <c r="DD15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE15" t="n">
         <v>0.0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG15" t="n">
         <v>0.0</v>
@@ -6307,13 +6307,13 @@
         <v>0.0</v>
       </c>
       <c r="DI15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ15" t="n">
         <v>0.0</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL15" t="n">
         <v>0.0</v>
@@ -6322,22 +6322,22 @@
         <v>0.0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP15" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR15" t="n">
         <v>0.0</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT15" t="n">
         <v>0.0</v>
@@ -6376,13 +6376,13 @@
         <v>1.0</v>
       </c>
       <c r="EF15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG15" t="n">
         <v>0.0</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI15" t="n">
         <v>0.0</v>
@@ -6414,13 +6414,13 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K16" t="n">
         <v>0.0</v>
@@ -6429,16 +6429,16 @@
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O16" t="n">
         <v>0.0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
@@ -6447,7 +6447,7 @@
         <v>0.0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T16" t="n">
         <v>0.0</v>
@@ -6462,13 +6462,13 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA16" t="n">
         <v>0.0</v>
@@ -6477,13 +6477,13 @@
         <v>0.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16" t="n">
         <v>0.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF16" t="n">
         <v>0.0</v>
@@ -6495,10 +6495,10 @@
         <v>0.0</v>
       </c>
       <c r="AI16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK16" t="n">
         <v>0.0</v>
@@ -6510,7 +6510,7 @@
         <v>0.0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO16" t="n">
         <v>0.0</v>
@@ -6522,10 +6522,10 @@
         <v>0.0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT16" t="n">
         <v>0.0</v>
@@ -6534,16 +6534,16 @@
         <v>0.0</v>
       </c>
       <c r="AV16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW16" t="n">
         <v>0.0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ16" t="n">
         <v>0.0</v>
@@ -6555,10 +6555,10 @@
         <v>0.0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE16" t="n">
         <v>0.0</v>
@@ -6567,7 +6567,7 @@
         <v>0.0</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH16" t="n">
         <v>0.0</v>
@@ -6582,10 +6582,10 @@
         <v>0.0</v>
       </c>
       <c r="BL16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN16" t="n">
         <v>0.0</v>
@@ -6594,13 +6594,13 @@
         <v>0.0</v>
       </c>
       <c r="BP16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ16" t="n">
         <v>0.0</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS16" t="n">
         <v>0.0</v>
@@ -6609,10 +6609,10 @@
         <v>0.0</v>
       </c>
       <c r="BU16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW16" t="n">
         <v>0.0</v>
@@ -6624,16 +6624,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB16" t="n">
         <v>0.0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD16" t="n">
         <v>0.0</v>
@@ -6645,10 +6645,10 @@
         <v>0.0</v>
       </c>
       <c r="CG16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI16" t="n">
         <v>0.0</v>
@@ -6657,7 +6657,7 @@
         <v>0.0</v>
       </c>
       <c r="CK16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL16" t="n">
         <v>0.0</v>
@@ -6684,10 +6684,10 @@
         <v>0.0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV16" t="n">
         <v>0.0</v>
@@ -6723,7 +6723,7 @@
         <v>0.0</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH16" t="n">
         <v>0.0</v>
@@ -6732,7 +6732,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK16" t="n">
         <v>0.0</v>
@@ -6744,10 +6744,10 @@
         <v>0.0</v>
       </c>
       <c r="DN16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP16" t="n">
         <v>0.0</v>
@@ -6762,10 +6762,10 @@
         <v>0.0</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV16" t="n">
         <v>0.0</v>
@@ -6804,13 +6804,13 @@
         <v>0.0</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI16" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -6824,19 +6824,19 @@
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -6845,13 +6845,13 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -6860,13 +6860,13 @@
         <v>0.0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" t="n">
         <v>0.0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S17" t="n">
         <v>0.0</v>
@@ -6881,16 +6881,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y17" t="n">
         <v>0.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA17" t="n">
         <v>0.0</v>
@@ -6899,7 +6899,7 @@
         <v>0.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD17" t="n">
         <v>0.0</v>
@@ -6926,10 +6926,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN17" t="n">
         <v>0.0</v>
@@ -6950,7 +6950,7 @@
         <v>0.0</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU17" t="n">
         <v>0.0</v>
@@ -6962,16 +6962,16 @@
         <v>0.0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ17" t="n">
         <v>0.0</v>
       </c>
       <c r="BA17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB17" t="n">
         <v>0.0</v>
@@ -7001,10 +7001,10 @@
         <v>0.0</v>
       </c>
       <c r="BK17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM17" t="n">
         <v>0.0</v>
@@ -7019,10 +7019,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS17" t="n">
         <v>0.0</v>
@@ -7040,7 +7040,7 @@
         <v>0.0</v>
       </c>
       <c r="BX17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY17" t="n">
         <v>0.0</v>
@@ -7052,10 +7052,10 @@
         <v>0.0</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD17" t="n">
         <v>0.0</v>
@@ -7067,7 +7067,7 @@
         <v>0.0</v>
       </c>
       <c r="CG17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH17" t="n">
         <v>0.0</v>
@@ -7079,13 +7079,13 @@
         <v>0.0</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN17" t="n">
         <v>0.0</v>
@@ -7097,10 +7097,10 @@
         <v>0.0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS17" t="n">
         <v>0.0</v>
@@ -7112,7 +7112,7 @@
         <v>0.0</v>
       </c>
       <c r="CV17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW17" t="n">
         <v>0.0</v>
@@ -7124,13 +7124,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC17" t="n">
         <v>0.0</v>
@@ -7139,7 +7139,7 @@
         <v>0.0</v>
       </c>
       <c r="DE17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF17" t="n">
         <v>0.0</v>
@@ -7151,10 +7151,10 @@
         <v>0.0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK17" t="n">
         <v>0.0</v>
@@ -7181,22 +7181,22 @@
         <v>0.0</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT17" t="n">
         <v>0.0</v>
       </c>
       <c r="DU17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW17" t="n">
         <v>0.0</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY17" t="n">
         <v>0.0</v>
@@ -7205,13 +7205,13 @@
         <v>0.0</v>
       </c>
       <c r="EA17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB17" t="n">
         <v>0.0</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED17" t="n">
         <v>0.0</v>
@@ -7237,13 +7237,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
@@ -7252,7 +7252,7 @@
         <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -7264,10 +7264,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
@@ -7279,10 +7279,10 @@
         <v>0.0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q18" t="n">
         <v>0.0</v>
@@ -7294,7 +7294,7 @@
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U18" t="n">
         <v>1.0</v>
@@ -7312,13 +7312,13 @@
         <v>0.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA18" t="n">
         <v>0.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" t="n">
         <v>0.0</v>
@@ -7342,7 +7342,7 @@
         <v>1.0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK18" t="n">
         <v>0.0</v>
@@ -7354,7 +7354,7 @@
         <v>0.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO18" t="n">
         <v>0.0</v>
@@ -7363,10 +7363,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS18" t="n">
         <v>0.0</v>
@@ -7387,7 +7387,7 @@
         <v>0.0</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ18" t="n">
         <v>0.0</v>
@@ -7399,7 +7399,7 @@
         <v>0.0</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD18" t="n">
         <v>0.0</v>
@@ -7408,22 +7408,22 @@
         <v>0.0</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG18" t="n">
         <v>0.0</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ18" t="n">
         <v>0.0</v>
       </c>
       <c r="BK18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL18" t="n">
         <v>0.0</v>
@@ -7447,13 +7447,13 @@
         <v>1.0</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT18" t="n">
         <v>0.0</v>
       </c>
       <c r="BU18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV18" t="n">
         <v>0.0</v>
@@ -7462,13 +7462,13 @@
         <v>0.0</v>
       </c>
       <c r="BX18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY18" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA18" t="n">
         <v>0.0</v>
@@ -7477,13 +7477,13 @@
         <v>0.0</v>
       </c>
       <c r="CC18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD18" t="n">
         <v>0.0</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF18" t="n">
         <v>0.0</v>
@@ -7501,13 +7501,13 @@
         <v>0.0</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN18" t="n">
         <v>0.0</v>
@@ -7519,7 +7519,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR18" t="n">
         <v>0.0</v>
@@ -7528,16 +7528,16 @@
         <v>0.0</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU18" t="n">
         <v>0.0</v>
       </c>
       <c r="CV18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX18" t="n">
         <v>0.0</v>
@@ -7546,19 +7546,19 @@
         <v>0.0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA18" t="n">
         <v>0.0</v>
       </c>
       <c r="DB18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC18" t="n">
         <v>0.0</v>
       </c>
       <c r="DD18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE18" t="n">
         <v>0.0</v>
@@ -7567,7 +7567,7 @@
         <v>0.0</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH18" t="n">
         <v>0.0</v>
@@ -7576,7 +7576,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK18" t="n">
         <v>0.0</v>
@@ -7591,19 +7591,19 @@
         <v>0.0</v>
       </c>
       <c r="DO18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR18" t="n">
         <v>0.0</v>
       </c>
       <c r="DS18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT18" t="n">
         <v>0.0</v>
@@ -7612,7 +7612,7 @@
         <v>0.0</v>
       </c>
       <c r="DV18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW18" t="n">
         <v>0.0</v>
@@ -7624,7 +7624,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA18" t="n">
         <v>0.0</v>
@@ -7633,16 +7633,16 @@
         <v>0.0</v>
       </c>
       <c r="EC18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE18" t="n">
         <v>0.0</v>
       </c>
       <c r="EF18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG18" t="n">
         <v>0.0</v>
@@ -7654,7 +7654,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -7665,16 +7665,16 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -7683,13 +7683,13 @@
         <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" t="n">
         <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
@@ -7701,10 +7701,10 @@
         <v>0.0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" t="n">
         <v>0.0</v>
@@ -7716,7 +7716,7 @@
         <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
@@ -7740,10 +7740,10 @@
         <v>0.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD19" t="n">
         <v>0.0</v>
@@ -7800,10 +7800,10 @@
         <v>0.0</v>
       </c>
       <c r="AV19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX19" t="n">
         <v>0.0</v>
@@ -7830,10 +7830,10 @@
         <v>0.0</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH19" t="n">
         <v>0.0</v>
@@ -7854,7 +7854,7 @@
         <v>0.0</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO19" t="n">
         <v>0.0</v>
@@ -7866,16 +7866,16 @@
         <v>0.0</v>
       </c>
       <c r="BR19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT19" t="n">
         <v>0.0</v>
       </c>
       <c r="BU19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV19" t="n">
         <v>0.0</v>
@@ -7884,13 +7884,13 @@
         <v>0.0</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY19" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA19" t="n">
         <v>0.0</v>
@@ -7923,13 +7923,13 @@
         <v>0.0</v>
       </c>
       <c r="CK19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN19" t="n">
         <v>0.0</v>
@@ -7938,7 +7938,7 @@
         <v>0.0</v>
       </c>
       <c r="CP19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ19" t="n">
         <v>0.0</v>
@@ -7953,10 +7953,10 @@
         <v>0.0</v>
       </c>
       <c r="CU19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW19" t="n">
         <v>0.0</v>
@@ -7980,16 +7980,16 @@
         <v>0.0</v>
       </c>
       <c r="DD19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE19" t="n">
         <v>0.0</v>
       </c>
       <c r="DF19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH19" t="n">
         <v>0.0</v>
@@ -8001,7 +8001,7 @@
         <v>0.0</v>
       </c>
       <c r="DK19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL19" t="n">
         <v>0.0</v>
@@ -8010,10 +8010,10 @@
         <v>0.0</v>
       </c>
       <c r="DN19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP19" t="n">
         <v>0.0</v>
@@ -8028,10 +8028,10 @@
         <v>0.0</v>
       </c>
       <c r="DT19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV19" t="n">
         <v>0.0</v>
@@ -8040,10 +8040,10 @@
         <v>0.0</v>
       </c>
       <c r="DX19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ19" t="n">
         <v>0.0</v>
@@ -8070,13 +8070,13 @@
         <v>0.0</v>
       </c>
       <c r="EH19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI19" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -8090,19 +8090,19 @@
         <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -8111,7 +8111,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
@@ -8120,7 +8120,7 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O20" t="n">
         <v>0.0</v>
@@ -8132,10 +8132,10 @@
         <v>0.0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
@@ -8147,13 +8147,13 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X20" t="n">
         <v>0.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" t="n">
         <v>0.0</v>
@@ -8165,19 +8165,19 @@
         <v>0.0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF20" t="n">
         <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH20" t="n">
         <v>0.0</v>
@@ -8192,16 +8192,16 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM20" t="n">
         <v>0.0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP20" t="n">
         <v>0.0</v>
@@ -8213,10 +8213,10 @@
         <v>0.0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU20" t="n">
         <v>0.0</v>
@@ -8225,7 +8225,7 @@
         <v>0.0</v>
       </c>
       <c r="AW20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX20" t="n">
         <v>0.0</v>
@@ -8240,10 +8240,10 @@
         <v>0.0</v>
       </c>
       <c r="BB20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD20" t="n">
         <v>0.0</v>
@@ -8252,16 +8252,16 @@
         <v>0.0</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH20" t="n">
         <v>0.0</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ20" t="n">
         <v>0.0</v>
@@ -8273,7 +8273,7 @@
         <v>0.0</v>
       </c>
       <c r="BM20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN20" t="n">
         <v>0.0</v>
@@ -8282,22 +8282,22 @@
         <v>0.0</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ20" t="n">
         <v>0.0</v>
       </c>
       <c r="BR20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT20" t="n">
         <v>0.0</v>
       </c>
       <c r="BU20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV20" t="n">
         <v>0.0</v>
@@ -8306,13 +8306,13 @@
         <v>0.0</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY20" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA20" t="n">
         <v>0.0</v>
@@ -8360,10 +8360,10 @@
         <v>0.0</v>
       </c>
       <c r="CP20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR20" t="n">
         <v>0.0</v>
@@ -8372,16 +8372,16 @@
         <v>0.0</v>
       </c>
       <c r="CT20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU20" t="n">
         <v>0.0</v>
       </c>
       <c r="CV20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX20" t="n">
         <v>0.0</v>
@@ -8393,7 +8393,7 @@
         <v>0.0</v>
       </c>
       <c r="DA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB20" t="n">
         <v>0.0</v>
@@ -8405,10 +8405,10 @@
         <v>0.0</v>
       </c>
       <c r="DE20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG20" t="n">
         <v>0.0</v>
@@ -8417,22 +8417,22 @@
         <v>0.0</v>
       </c>
       <c r="DI20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK20" t="n">
         <v>0.0</v>
       </c>
       <c r="DL20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM20" t="n">
         <v>0.0</v>
       </c>
       <c r="DN20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO20" t="n">
         <v>0.0</v>
@@ -8447,16 +8447,16 @@
         <v>0.0</v>
       </c>
       <c r="DS20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT20" t="n">
         <v>0.0</v>
       </c>
       <c r="DU20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW20" t="n">
         <v>0.0</v>
@@ -8468,16 +8468,16 @@
         <v>0.0</v>
       </c>
       <c r="DZ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB20" t="n">
         <v>0.0</v>
       </c>
       <c r="EC20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED20" t="n">
         <v>0.0</v>
@@ -8486,7 +8486,7 @@
         <v>0.0</v>
       </c>
       <c r="EF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG20" t="n">
         <v>0.0</v>
@@ -8495,7 +8495,7 @@
         <v>0.0</v>
       </c>
       <c r="EI20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ20" t="n">
         <v>0.0</v>
@@ -8503,13 +8503,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
@@ -8518,7 +8518,7 @@
         <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -8527,7 +8527,7 @@
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" t="n">
         <v>0.0</v>
@@ -8539,10 +8539,10 @@
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O21" t="n">
         <v>0.0</v>
@@ -8554,16 +8554,16 @@
         <v>0.0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V21" t="n">
         <v>0.0</v>
@@ -8572,7 +8572,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y21" t="n">
         <v>0.0</v>
@@ -8584,13 +8584,13 @@
         <v>0.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" t="n">
         <v>0.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE21" t="n">
         <v>0.0</v>
@@ -8602,19 +8602,19 @@
         <v>0.0</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK21" t="n">
         <v>0.0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM21" t="n">
         <v>0.0</v>
@@ -8623,7 +8623,7 @@
         <v>0.0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP21" t="n">
         <v>0.0</v>
@@ -8635,7 +8635,7 @@
         <v>0.0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT21" t="n">
         <v>0.0</v>
@@ -8653,7 +8653,7 @@
         <v>0.0</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ21" t="n">
         <v>0.0</v>
@@ -8662,13 +8662,13 @@
         <v>0.0</v>
       </c>
       <c r="BB21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC21" t="n">
         <v>0.0</v>
       </c>
       <c r="BD21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE21" t="n">
         <v>0.0</v>
@@ -8677,7 +8677,7 @@
         <v>0.0</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH21" t="n">
         <v>0.0</v>
@@ -8692,10 +8692,10 @@
         <v>0.0</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN21" t="n">
         <v>0.0</v>
@@ -8722,13 +8722,13 @@
         <v>0.0</v>
       </c>
       <c r="BV21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY21" t="n">
         <v>0.0</v>
@@ -8737,7 +8737,7 @@
         <v>0.0</v>
       </c>
       <c r="CA21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB21" t="n">
         <v>0.0</v>
@@ -8758,7 +8758,7 @@
         <v>0.0</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI21" t="n">
         <v>0.0</v>
@@ -8770,7 +8770,7 @@
         <v>0.0</v>
       </c>
       <c r="CL21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM21" t="n">
         <v>0.0</v>
@@ -8779,16 +8779,16 @@
         <v>0.0</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP21" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS21" t="n">
         <v>0.0</v>
@@ -8797,7 +8797,7 @@
         <v>0.0</v>
       </c>
       <c r="CU21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV21" t="n">
         <v>0.0</v>
@@ -8809,10 +8809,10 @@
         <v>0.0</v>
       </c>
       <c r="CY21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA21" t="n">
         <v>0.0</v>
@@ -8839,13 +8839,13 @@
         <v>0.0</v>
       </c>
       <c r="DI21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ21" t="n">
         <v>0.0</v>
       </c>
       <c r="DK21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL21" t="n">
         <v>0.0</v>
@@ -8884,10 +8884,10 @@
         <v>0.0</v>
       </c>
       <c r="DX21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ21" t="n">
         <v>0.0</v>
@@ -8902,13 +8902,13 @@
         <v>0.0</v>
       </c>
       <c r="ED21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG21" t="n">
         <v>0.0</v>
@@ -8920,18 +8920,18 @@
         <v>0.0</v>
       </c>
       <c r="EJ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
@@ -8955,7 +8955,7 @@
         <v>1.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -8967,10 +8967,10 @@
         <v>0.0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
@@ -8979,13 +8979,13 @@
         <v>0.0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T22" t="n">
         <v>0.0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V22" t="n">
         <v>0.0</v>
@@ -8997,7 +8997,7 @@
         <v>0.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z22" t="n">
         <v>0.0</v>
@@ -9009,19 +9009,19 @@
         <v>0.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF22" t="n">
         <v>0.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH22" t="n">
         <v>0.0</v>
@@ -9036,10 +9036,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN22" t="n">
         <v>0.0</v>
@@ -9054,10 +9054,10 @@
         <v>0.0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT22" t="n">
         <v>0.0</v>
@@ -9069,10 +9069,10 @@
         <v>0.0</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY22" t="n">
         <v>0.0</v>
@@ -9081,13 +9081,13 @@
         <v>0.0</v>
       </c>
       <c r="BA22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB22" t="n">
         <v>0.0</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD22" t="n">
         <v>0.0</v>
@@ -9111,13 +9111,13 @@
         <v>0.0</v>
       </c>
       <c r="BK22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL22" t="n">
         <v>0.0</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN22" t="n">
         <v>0.0</v>
@@ -9141,10 +9141,10 @@
         <v>0.0</v>
       </c>
       <c r="BU22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW22" t="n">
         <v>0.0</v>
@@ -9165,7 +9165,7 @@
         <v>0.0</v>
       </c>
       <c r="CC22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD22" t="n">
         <v>0.0</v>
@@ -9174,7 +9174,7 @@
         <v>0.0</v>
       </c>
       <c r="CF22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG22" t="n">
         <v>0.0</v>
@@ -9186,13 +9186,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK22" t="n">
         <v>0.0</v>
       </c>
       <c r="CL22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM22" t="n">
         <v>0.0</v>
@@ -9201,16 +9201,16 @@
         <v>0.0</v>
       </c>
       <c r="CO22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP22" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS22" t="n">
         <v>0.0</v>
@@ -9219,13 +9219,13 @@
         <v>0.0</v>
       </c>
       <c r="CU22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV22" t="n">
         <v>0.0</v>
       </c>
       <c r="CW22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX22" t="n">
         <v>0.0</v>
@@ -9234,7 +9234,7 @@
         <v>0.0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA22" t="n">
         <v>0.0</v>
@@ -9246,13 +9246,13 @@
         <v>0.0</v>
       </c>
       <c r="DD22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE22" t="n">
         <v>0.0</v>
       </c>
       <c r="DF22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG22" t="n">
         <v>0.0</v>
@@ -9261,22 +9261,22 @@
         <v>0.0</v>
       </c>
       <c r="DI22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ22" t="n">
         <v>0.0</v>
       </c>
       <c r="DK22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM22" t="n">
         <v>0.0</v>
       </c>
       <c r="DN22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO22" t="n">
         <v>0.0</v>
@@ -9294,10 +9294,10 @@
         <v>0.0</v>
       </c>
       <c r="DT22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV22" t="n">
         <v>0.0</v>
@@ -9321,22 +9321,22 @@
         <v>0.0</v>
       </c>
       <c r="EC22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE22" t="n">
         <v>0.0</v>
       </c>
       <c r="EF22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG22" t="n">
         <v>0.0</v>
       </c>
       <c r="EH22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI22" t="n">
         <v>0.0</v>
@@ -9347,13 +9347,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
@@ -9368,13 +9368,13 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
@@ -9398,16 +9398,16 @@
         <v>0.0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V23" t="n">
         <v>0.0</v>
@@ -9419,7 +9419,7 @@
         <v>0.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z23" t="n">
         <v>0.0</v>
@@ -9431,19 +9431,19 @@
         <v>0.0</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF23" t="n">
         <v>0.0</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH23" t="n">
         <v>0.0</v>
@@ -9458,13 +9458,13 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM23" t="n">
         <v>0.0</v>
       </c>
       <c r="AN23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO23" t="n">
         <v>0.0</v>
@@ -9473,16 +9473,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR23" t="n">
         <v>0.0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU23" t="n">
         <v>0.0</v>
@@ -9491,13 +9491,13 @@
         <v>0.0</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX23" t="n">
         <v>0.0</v>
       </c>
       <c r="AY23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ23" t="n">
         <v>0.0</v>
@@ -9506,19 +9506,19 @@
         <v>0.0</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC23" t="n">
         <v>0.0</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE23" t="n">
         <v>0.0</v>
       </c>
       <c r="BF23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG23" t="n">
         <v>0.0</v>
@@ -9533,10 +9533,10 @@
         <v>0.0</v>
       </c>
       <c r="BK23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM23" t="n">
         <v>0.0</v>
@@ -9548,13 +9548,13 @@
         <v>0.0</v>
       </c>
       <c r="BP23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ23" t="n">
         <v>0.0</v>
       </c>
       <c r="BR23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS23" t="n">
         <v>0.0</v>
@@ -9563,10 +9563,10 @@
         <v>0.0</v>
       </c>
       <c r="BU23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW23" t="n">
         <v>0.0</v>
@@ -9578,13 +9578,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA23" t="n">
         <v>0.0</v>
       </c>
       <c r="CB23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC23" t="n">
         <v>0.0</v>
@@ -9593,13 +9593,13 @@
         <v>0.0</v>
       </c>
       <c r="CE23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF23" t="n">
         <v>0.0</v>
       </c>
       <c r="CG23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH23" t="n">
         <v>0.0</v>
@@ -9617,13 +9617,13 @@
         <v>1.0</v>
       </c>
       <c r="CM23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN23" t="n">
         <v>0.0</v>
       </c>
       <c r="CO23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP23" t="n">
         <v>0.0</v>
@@ -9632,7 +9632,7 @@
         <v>0.0</v>
       </c>
       <c r="CR23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS23" t="n">
         <v>0.0</v>
@@ -9644,10 +9644,10 @@
         <v>0.0</v>
       </c>
       <c r="CV23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX23" t="n">
         <v>0.0</v>
@@ -9659,7 +9659,7 @@
         <v>0.0</v>
       </c>
       <c r="DA23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB23" t="n">
         <v>0.0</v>
@@ -9668,10 +9668,10 @@
         <v>0.0</v>
       </c>
       <c r="DD23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF23" t="n">
         <v>0.0</v>
@@ -9692,7 +9692,7 @@
         <v>0.0</v>
       </c>
       <c r="DL23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM23" t="n">
         <v>0.0</v>
@@ -9701,13 +9701,13 @@
         <v>0.0</v>
       </c>
       <c r="DO23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP23" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR23" t="n">
         <v>0.0</v>
@@ -9716,13 +9716,13 @@
         <v>0.0</v>
       </c>
       <c r="DT23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU23" t="n">
         <v>0.0</v>
       </c>
       <c r="DV23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW23" t="n">
         <v>0.0</v>
@@ -9734,7 +9734,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA23" t="n">
         <v>0.0</v>
@@ -9743,10 +9743,10 @@
         <v>0.0</v>
       </c>
       <c r="EC23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE23" t="n">
         <v>0.0</v>
@@ -9761,10 +9761,10 @@
         <v>0.0</v>
       </c>
       <c r="EI23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -9775,13 +9775,13 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -9793,13 +9793,13 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
@@ -9808,7 +9808,7 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O24" t="n">
         <v>0.0</v>
@@ -9823,10 +9823,10 @@
         <v>0.0</v>
       </c>
       <c r="S24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
@@ -9835,10 +9835,10 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y24" t="n">
         <v>0.0</v>
@@ -9850,16 +9850,16 @@
         <v>0.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24" t="n">
         <v>0.0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF24" t="n">
         <v>0.0</v>
@@ -9871,7 +9871,7 @@
         <v>0.0</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ24" t="n">
         <v>0.0</v>
@@ -9880,22 +9880,22 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM24" t="n">
         <v>0.0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP24" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR24" t="n">
         <v>0.0</v>
@@ -9904,7 +9904,7 @@
         <v>0.0</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU24" t="n">
         <v>0.0</v>
@@ -9916,10 +9916,10 @@
         <v>0.0</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ24" t="n">
         <v>0.0</v>
@@ -9928,7 +9928,7 @@
         <v>0.0</v>
       </c>
       <c r="BB24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC24" t="n">
         <v>0.0</v>
@@ -9943,10 +9943,10 @@
         <v>0.0</v>
       </c>
       <c r="BG24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI24" t="n">
         <v>1.0</v>
@@ -9964,7 +9964,7 @@
         <v>0.0</v>
       </c>
       <c r="BN24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO24" t="n">
         <v>0.0</v>
@@ -9973,7 +9973,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR24" t="n">
         <v>0.0</v>
@@ -10003,10 +10003,10 @@
         <v>0.0</v>
       </c>
       <c r="CA24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC24" t="n">
         <v>0.0</v>
@@ -10033,10 +10033,10 @@
         <v>0.0</v>
       </c>
       <c r="CK24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM24" t="n">
         <v>0.0</v>
@@ -10045,10 +10045,10 @@
         <v>0.0</v>
       </c>
       <c r="CO24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ24" t="n">
         <v>0.0</v>
@@ -10075,10 +10075,10 @@
         <v>0.0</v>
       </c>
       <c r="CY24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA24" t="n">
         <v>0.0</v>
@@ -10099,7 +10099,7 @@
         <v>0.0</v>
       </c>
       <c r="DG24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH24" t="n">
         <v>0.0</v>
@@ -10111,7 +10111,7 @@
         <v>0.0</v>
       </c>
       <c r="DK24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL24" t="n">
         <v>1.0</v>
@@ -10135,22 +10135,22 @@
         <v>0.0</v>
       </c>
       <c r="DS24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT24" t="n">
         <v>0.0</v>
       </c>
       <c r="DU24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW24" t="n">
         <v>0.0</v>
       </c>
       <c r="DX24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY24" t="n">
         <v>0.0</v>
@@ -10165,13 +10165,13 @@
         <v>0.0</v>
       </c>
       <c r="EC24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED24" t="n">
         <v>0.0</v>
       </c>
       <c r="EE24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF24" t="n">
         <v>1.0</v>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -10203,10 +10203,10 @@
         <v>0.0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -10215,7 +10215,7 @@
         <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" t="n">
         <v>0.0</v>
@@ -10227,10 +10227,10 @@
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O25" t="n">
         <v>0.0</v>
@@ -10257,10 +10257,10 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y25" t="n">
         <v>0.0</v>
@@ -10281,7 +10281,7 @@
         <v>0.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF25" t="n">
         <v>0.0</v>
@@ -10293,7 +10293,7 @@
         <v>0.0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ25" t="n">
         <v>0.0</v>
@@ -10302,10 +10302,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN25" t="n">
         <v>0.0</v>
@@ -10332,13 +10332,13 @@
         <v>0.0</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW25" t="n">
         <v>0.0</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY25" t="n">
         <v>1.0</v>
@@ -10362,22 +10362,22 @@
         <v>0.0</v>
       </c>
       <c r="BF25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH25" t="n">
         <v>0.0</v>
       </c>
       <c r="BI25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ25" t="n">
         <v>0.0</v>
       </c>
       <c r="BK25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL25" t="n">
         <v>0.0</v>
@@ -10461,13 +10461,13 @@
         <v>1.0</v>
       </c>
       <c r="CM25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN25" t="n">
         <v>0.0</v>
       </c>
       <c r="CO25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP25" t="n">
         <v>0.0</v>
@@ -10482,10 +10482,10 @@
         <v>0.0</v>
       </c>
       <c r="CT25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV25" t="n">
         <v>0.0</v>
@@ -10512,16 +10512,16 @@
         <v>0.0</v>
       </c>
       <c r="DD25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF25" t="n">
         <v>0.0</v>
       </c>
       <c r="DG25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH25" t="n">
         <v>0.0</v>
@@ -10530,13 +10530,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK25" t="n">
         <v>0.0</v>
       </c>
       <c r="DL25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM25" t="n">
         <v>0.0</v>
@@ -10548,7 +10548,7 @@
         <v>0.0</v>
       </c>
       <c r="DP25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ25" t="n">
         <v>0.0</v>
@@ -10590,10 +10590,10 @@
         <v>0.0</v>
       </c>
       <c r="ED25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF25" t="n">
         <v>0.0</v>
@@ -10605,21 +10605,21 @@
         <v>0.0</v>
       </c>
       <c r="EI25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
@@ -10637,10 +10637,10 @@
         <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K26" t="n">
         <v>0.0</v>
@@ -10673,7 +10673,7 @@
         <v>0.0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V26" t="n">
         <v>0.0</v>
@@ -10685,10 +10685,10 @@
         <v>0.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA26" t="n">
         <v>0.0</v>
@@ -10700,10 +10700,10 @@
         <v>0.0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF26" t="n">
         <v>0.0</v>
@@ -10715,10 +10715,10 @@
         <v>0.0</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK26" t="n">
         <v>0.0</v>
@@ -10730,7 +10730,7 @@
         <v>0.0</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO26" t="n">
         <v>1.0</v>
@@ -10748,13 +10748,13 @@
         <v>0.0</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU26" t="n">
         <v>0.0</v>
       </c>
       <c r="AV26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW26" t="n">
         <v>0.0</v>
@@ -10769,13 +10769,13 @@
         <v>0.0</v>
       </c>
       <c r="BA26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB26" t="n">
         <v>0.0</v>
       </c>
       <c r="BC26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD26" t="n">
         <v>0.0</v>
@@ -10784,13 +10784,13 @@
         <v>0.0</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG26" t="n">
         <v>0.0</v>
       </c>
       <c r="BH26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI26" t="n">
         <v>0.0</v>
@@ -10799,16 +10799,16 @@
         <v>0.0</v>
       </c>
       <c r="BK26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL26" t="n">
         <v>0.0</v>
       </c>
       <c r="BM26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO26" t="n">
         <v>0.0</v>
@@ -10820,7 +10820,7 @@
         <v>0.0</v>
       </c>
       <c r="BR26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS26" t="n">
         <v>0.0</v>
@@ -10829,13 +10829,13 @@
         <v>0.0</v>
       </c>
       <c r="BU26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV26" t="n">
         <v>0.0</v>
       </c>
       <c r="BW26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX26" t="n">
         <v>0.0</v>
@@ -10853,7 +10853,7 @@
         <v>0.0</v>
       </c>
       <c r="CC26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD26" t="n">
         <v>0.0</v>
@@ -10865,7 +10865,7 @@
         <v>0.0</v>
       </c>
       <c r="CG26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH26" t="n">
         <v>0.0</v>
@@ -10892,19 +10892,19 @@
         <v>0.0</v>
       </c>
       <c r="CP26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS26" t="n">
         <v>0.0</v>
       </c>
       <c r="CT26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU26" t="n">
         <v>0.0</v>
@@ -10919,16 +10919,16 @@
         <v>0.0</v>
       </c>
       <c r="CY26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA26" t="n">
         <v>0.0</v>
       </c>
       <c r="DB26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC26" t="n">
         <v>0.0</v>
@@ -10937,13 +10937,13 @@
         <v>0.0</v>
       </c>
       <c r="DE26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF26" t="n">
         <v>0.0</v>
       </c>
       <c r="DG26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH26" t="n">
         <v>0.0</v>
@@ -10952,7 +10952,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK26" t="n">
         <v>0.0</v>
@@ -10964,16 +10964,16 @@
         <v>0.0</v>
       </c>
       <c r="DN26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP26" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR26" t="n">
         <v>0.0</v>
@@ -10982,7 +10982,7 @@
         <v>0.0</v>
       </c>
       <c r="DT26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU26" t="n">
         <v>0.0</v>
@@ -11009,16 +11009,16 @@
         <v>0.0</v>
       </c>
       <c r="EC26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED26" t="n">
         <v>0.0</v>
       </c>
       <c r="EE26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG26" t="n">
         <v>0.0</v>
@@ -11030,18 +11030,18 @@
         <v>0.0</v>
       </c>
       <c r="EJ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
@@ -11050,7 +11050,7 @@
         <v>0.0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
@@ -11062,7 +11062,7 @@
         <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K27" t="n">
         <v>1.0</v>
@@ -11125,7 +11125,7 @@
         <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF27" t="n">
         <v>0.0</v>
@@ -11137,7 +11137,7 @@
         <v>0.0</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0.0</v>
@@ -11146,10 +11146,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN27" t="n">
         <v>0.0</v>
@@ -11161,10 +11161,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS27" t="n">
         <v>0.0</v>
@@ -11179,10 +11179,10 @@
         <v>0.0</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY27" t="n">
         <v>0.0</v>
@@ -11194,19 +11194,19 @@
         <v>0.0</v>
       </c>
       <c r="BB27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE27" t="n">
         <v>0.0</v>
       </c>
       <c r="BF27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG27" t="n">
         <v>0.0</v>
@@ -11215,7 +11215,7 @@
         <v>0.0</v>
       </c>
       <c r="BI27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ27" t="n">
         <v>0.0</v>
@@ -11227,7 +11227,7 @@
         <v>0.0</v>
       </c>
       <c r="BM27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN27" t="n">
         <v>0.0</v>
@@ -11239,19 +11239,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT27" t="n">
         <v>0.0</v>
       </c>
       <c r="BU27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV27" t="n">
         <v>0.0</v>
@@ -11260,7 +11260,7 @@
         <v>0.0</v>
       </c>
       <c r="BX27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY27" t="n">
         <v>0.0</v>
@@ -11269,7 +11269,7 @@
         <v>0.0</v>
       </c>
       <c r="CA27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB27" t="n">
         <v>0.0</v>
@@ -11281,10 +11281,10 @@
         <v>0.0</v>
       </c>
       <c r="CE27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG27" t="n">
         <v>0.0</v>
@@ -11311,13 +11311,13 @@
         <v>0.0</v>
       </c>
       <c r="CO27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP27" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR27" t="n">
         <v>0.0</v>
@@ -11326,22 +11326,22 @@
         <v>0.0</v>
       </c>
       <c r="CT27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU27" t="n">
         <v>0.0</v>
       </c>
       <c r="CV27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX27" t="n">
         <v>0.0</v>
       </c>
       <c r="CY27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ27" t="n">
         <v>0.0</v>
@@ -11350,7 +11350,7 @@
         <v>0.0</v>
       </c>
       <c r="DB27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC27" t="n">
         <v>0.0</v>
@@ -11359,7 +11359,7 @@
         <v>0.0</v>
       </c>
       <c r="DE27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF27" t="n">
         <v>0.0</v>
@@ -11401,16 +11401,16 @@
         <v>0.0</v>
       </c>
       <c r="DS27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU27" t="n">
         <v>0.0</v>
       </c>
       <c r="DV27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW27" t="n">
         <v>0.0</v>
@@ -11422,7 +11422,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA27" t="n">
         <v>1.0</v>
@@ -11446,13 +11446,13 @@
         <v>0.0</v>
       </c>
       <c r="EH27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI27" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -11472,7 +11472,7 @@
         <v>1.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -11481,19 +11481,19 @@
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" t="n">
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -11517,13 +11517,13 @@
         <v>1.0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V28" t="n">
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X28" t="n">
         <v>0.0</v>
@@ -11547,13 +11547,13 @@
         <v>0.0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF28" t="n">
         <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH28" t="n">
         <v>0.0</v>
@@ -11577,13 +11577,13 @@
         <v>1.0</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP28" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR28" t="n">
         <v>0.0</v>
@@ -11592,13 +11592,13 @@
         <v>0.0</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU28" t="n">
         <v>0.0</v>
       </c>
       <c r="AV28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW28" t="n">
         <v>0.0</v>
@@ -11607,7 +11607,7 @@
         <v>0.0</v>
       </c>
       <c r="AY28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ28" t="n">
         <v>0.0</v>
@@ -11616,7 +11616,7 @@
         <v>0.0</v>
       </c>
       <c r="BB28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC28" t="n">
         <v>0.0</v>
@@ -11673,10 +11673,10 @@
         <v>0.0</v>
       </c>
       <c r="BU28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW28" t="n">
         <v>0.0</v>
@@ -11688,10 +11688,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB28" t="n">
         <v>0.0</v>
@@ -11703,16 +11703,16 @@
         <v>0.0</v>
       </c>
       <c r="CE28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF28" t="n">
         <v>0.0</v>
       </c>
       <c r="CG28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI28" t="n">
         <v>0.0</v>
@@ -11721,13 +11721,13 @@
         <v>0.0</v>
       </c>
       <c r="CK28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL28" t="n">
         <v>0.0</v>
       </c>
       <c r="CM28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN28" t="n">
         <v>0.0</v>
@@ -11739,7 +11739,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR28" t="n">
         <v>0.0</v>
@@ -11748,10 +11748,10 @@
         <v>0.0</v>
       </c>
       <c r="CT28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV28" t="n">
         <v>0.0</v>
@@ -11763,10 +11763,10 @@
         <v>0.0</v>
       </c>
       <c r="CY28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA28" t="n">
         <v>0.0</v>
@@ -11778,10 +11778,10 @@
         <v>0.0</v>
       </c>
       <c r="DD28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF28" t="n">
         <v>0.0</v>
@@ -11811,10 +11811,10 @@
         <v>0.0</v>
       </c>
       <c r="DO28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ28" t="n">
         <v>0.0</v>
@@ -11823,10 +11823,10 @@
         <v>0.0</v>
       </c>
       <c r="DS28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU28" t="n">
         <v>0.0</v>
@@ -11838,13 +11838,13 @@
         <v>0.0</v>
       </c>
       <c r="DX28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY28" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA28" t="n">
         <v>0.0</v>
@@ -11853,10 +11853,10 @@
         <v>0.0</v>
       </c>
       <c r="EC28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE28" t="n">
         <v>0.0</v>
@@ -11879,13 +11879,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" t="n">
         <v>0.0</v>
@@ -11903,13 +11903,13 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
@@ -11921,16 +11921,16 @@
         <v>0.0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q29" t="n">
         <v>0.0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S29" t="n">
         <v>0.0</v>
@@ -11948,19 +11948,19 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA29" t="n">
         <v>0.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
@@ -11969,13 +11969,13 @@
         <v>0.0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF29" t="n">
         <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH29" t="n">
         <v>0.0</v>
@@ -11984,7 +11984,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK29" t="n">
         <v>0.0</v>
@@ -11996,7 +11996,7 @@
         <v>0.0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO29" t="n">
         <v>0.0</v>
@@ -12005,16 +12005,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR29" t="n">
         <v>0.0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU29" t="n">
         <v>0.0</v>
@@ -12023,7 +12023,7 @@
         <v>0.0</v>
       </c>
       <c r="AW29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX29" t="n">
         <v>0.0</v>
@@ -12035,10 +12035,10 @@
         <v>0.0</v>
       </c>
       <c r="BA29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC29" t="n">
         <v>0.0</v>
@@ -12050,16 +12050,16 @@
         <v>0.0</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH29" t="n">
         <v>0.0</v>
       </c>
       <c r="BI29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ29" t="n">
         <v>0.0</v>
@@ -12068,7 +12068,7 @@
         <v>0.0</v>
       </c>
       <c r="BL29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM29" t="n">
         <v>0.0</v>
@@ -12083,10 +12083,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS29" t="n">
         <v>0.0</v>
@@ -12095,16 +12095,16 @@
         <v>0.0</v>
       </c>
       <c r="BU29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW29" t="n">
         <v>0.0</v>
       </c>
       <c r="BX29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY29" t="n">
         <v>0.0</v>
@@ -12116,10 +12116,10 @@
         <v>0.0</v>
       </c>
       <c r="CB29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD29" t="n">
         <v>0.0</v>
@@ -12131,10 +12131,10 @@
         <v>0.0</v>
       </c>
       <c r="CG29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI29" t="n">
         <v>0.0</v>
@@ -12146,7 +12146,7 @@
         <v>0.0</v>
       </c>
       <c r="CL29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM29" t="n">
         <v>0.0</v>
@@ -12173,10 +12173,10 @@
         <v>0.0</v>
       </c>
       <c r="CU29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW29" t="n">
         <v>0.0</v>
@@ -12200,13 +12200,13 @@
         <v>0.0</v>
       </c>
       <c r="DD29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE29" t="n">
         <v>0.0</v>
       </c>
       <c r="DF29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG29" t="n">
         <v>0.0</v>
@@ -12218,19 +12218,19 @@
         <v>0.0</v>
       </c>
       <c r="DJ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM29" t="n">
         <v>0.0</v>
       </c>
       <c r="DN29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO29" t="n">
         <v>0.0</v>
@@ -12245,13 +12245,13 @@
         <v>0.0</v>
       </c>
       <c r="DS29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT29" t="n">
         <v>0.0</v>
       </c>
       <c r="DU29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV29" t="n">
         <v>0.0</v>
@@ -12260,13 +12260,13 @@
         <v>0.0</v>
       </c>
       <c r="DX29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY29" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA29" t="n">
         <v>0.0</v>
@@ -12284,13 +12284,13 @@
         <v>0.0</v>
       </c>
       <c r="EF29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG29" t="n">
         <v>0.0</v>
       </c>
       <c r="EH29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI29" t="n">
         <v>0.0</v>
@@ -12301,7 +12301,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -12310,13 +12310,13 @@
         <v>0.0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E30" t="n">
         <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -12328,16 +12328,16 @@
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -12376,7 +12376,7 @@
         <v>0.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA30" t="n">
         <v>0.0</v>
@@ -12388,16 +12388,16 @@
         <v>0.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF30" t="n">
         <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH30" t="n">
         <v>0.0</v>
@@ -12412,13 +12412,13 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM30" t="n">
         <v>0.0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO30" t="n">
         <v>0.0</v>
@@ -12427,13 +12427,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR30" t="n">
         <v>0.0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT30" t="n">
         <v>0.0</v>
@@ -12442,13 +12442,13 @@
         <v>0.0</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW30" t="n">
         <v>0.0</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY30" t="n">
         <v>0.0</v>
@@ -12460,10 +12460,10 @@
         <v>0.0</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD30" t="n">
         <v>0.0</v>
@@ -12472,22 +12472,22 @@
         <v>0.0</v>
       </c>
       <c r="BF30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG30" t="n">
         <v>0.0</v>
       </c>
       <c r="BH30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ30" t="n">
         <v>0.0</v>
       </c>
       <c r="BK30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL30" t="n">
         <v>0.0</v>
@@ -12496,13 +12496,13 @@
         <v>0.0</v>
       </c>
       <c r="BN30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO30" t="n">
         <v>0.0</v>
       </c>
       <c r="BP30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ30" t="n">
         <v>0.0</v>
@@ -12511,7 +12511,7 @@
         <v>0.0</v>
       </c>
       <c r="BS30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT30" t="n">
         <v>0.0</v>
@@ -12523,7 +12523,7 @@
         <v>0.0</v>
       </c>
       <c r="BW30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX30" t="n">
         <v>0.0</v>
@@ -12532,13 +12532,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA30" t="n">
         <v>0.0</v>
       </c>
       <c r="CB30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC30" t="n">
         <v>0.0</v>
@@ -12547,13 +12547,13 @@
         <v>0.0</v>
       </c>
       <c r="CE30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF30" t="n">
         <v>0.0</v>
       </c>
       <c r="CG30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH30" t="n">
         <v>0.0</v>
@@ -12580,10 +12580,10 @@
         <v>0.0</v>
       </c>
       <c r="CP30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR30" t="n">
         <v>0.0</v>
@@ -12595,10 +12595,10 @@
         <v>0.0</v>
       </c>
       <c r="CU30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW30" t="n">
         <v>0.0</v>
@@ -12607,10 +12607,10 @@
         <v>0.0</v>
       </c>
       <c r="CY30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA30" t="n">
         <v>0.0</v>
@@ -12622,10 +12622,10 @@
         <v>0.0</v>
       </c>
       <c r="DD30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF30" t="n">
         <v>0.0</v>
@@ -12637,22 +12637,22 @@
         <v>0.0</v>
       </c>
       <c r="DI30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ30" t="n">
         <v>0.0</v>
       </c>
       <c r="DK30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM30" t="n">
         <v>0.0</v>
       </c>
       <c r="DN30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO30" t="n">
         <v>0.0</v>
@@ -12670,19 +12670,19 @@
         <v>0.0</v>
       </c>
       <c r="DT30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW30" t="n">
         <v>0.0</v>
       </c>
       <c r="DX30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY30" t="n">
         <v>0.0</v>
@@ -12706,7 +12706,7 @@
         <v>1.0</v>
       </c>
       <c r="EF30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG30" t="n">
         <v>0.0</v>
@@ -12715,7 +12715,7 @@
         <v>0.0</v>
       </c>
       <c r="EI30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ30" t="n">
         <v>0.0</v>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -12735,7 +12735,7 @@
         <v>0.0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" t="n">
         <v>1.0</v>
@@ -12753,7 +12753,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
@@ -12765,7 +12765,7 @@
         <v>0.0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P31" t="n">
         <v>1.0</v>
@@ -12804,16 +12804,16 @@
         <v>0.0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF31" t="n">
         <v>0.0</v>
@@ -12825,7 +12825,7 @@
         <v>0.0</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ31" t="n">
         <v>1.0</v>
@@ -12852,10 +12852,10 @@
         <v>0.0</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT31" t="n">
         <v>1.0</v>
@@ -12894,10 +12894,10 @@
         <v>0.0</v>
       </c>
       <c r="BF31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH31" t="n">
         <v>0.0</v>
@@ -12909,10 +12909,10 @@
         <v>0.0</v>
       </c>
       <c r="BK31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM31" t="n">
         <v>0.0</v>
@@ -12969,13 +12969,13 @@
         <v>0.0</v>
       </c>
       <c r="CE31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF31" t="n">
         <v>0.0</v>
       </c>
       <c r="CG31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH31" t="n">
         <v>0.0</v>
@@ -12984,10 +12984,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL31" t="n">
         <v>0.0</v>
@@ -12999,13 +12999,13 @@
         <v>0.0</v>
       </c>
       <c r="CO31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP31" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR31" t="n">
         <v>0.0</v>
@@ -13017,13 +13017,13 @@
         <v>0.0</v>
       </c>
       <c r="CU31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX31" t="n">
         <v>0.0</v>
@@ -13032,19 +13032,19 @@
         <v>0.0</v>
       </c>
       <c r="CZ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA31" t="n">
         <v>0.0</v>
       </c>
       <c r="DB31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC31" t="n">
         <v>0.0</v>
       </c>
       <c r="DD31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE31" t="n">
         <v>0.0</v>
@@ -13062,10 +13062,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL31" t="n">
         <v>0.0</v>
@@ -13083,13 +13083,13 @@
         <v>1.0</v>
       </c>
       <c r="DQ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR31" t="n">
         <v>0.0</v>
       </c>
       <c r="DS31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT31" t="n">
         <v>0.0</v>
@@ -13098,13 +13098,13 @@
         <v>0.0</v>
       </c>
       <c r="DV31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW31" t="n">
         <v>0.0</v>
       </c>
       <c r="DX31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY31" t="n">
         <v>0.0</v>
@@ -13122,10 +13122,10 @@
         <v>0.0</v>
       </c>
       <c r="ED31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF31" t="n">
         <v>0.0</v>
@@ -13145,7 +13145,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -13157,10 +13157,10 @@
         <v>0.0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
@@ -13172,10 +13172,10 @@
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
@@ -13184,7 +13184,7 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O32" t="n">
         <v>0.0</v>
@@ -13199,10 +13199,10 @@
         <v>0.0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
@@ -13220,13 +13220,13 @@
         <v>0.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA32" t="n">
         <v>0.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
@@ -13244,13 +13244,13 @@
         <v>0.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK32" t="n">
         <v>0.0</v>
@@ -13262,7 +13262,7 @@
         <v>0.0</v>
       </c>
       <c r="AN32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO32" t="n">
         <v>0.0</v>
@@ -13271,13 +13271,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR32" t="n">
         <v>0.0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT32" t="n">
         <v>0.0</v>
@@ -13286,13 +13286,13 @@
         <v>0.0</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW32" t="n">
         <v>0.0</v>
       </c>
       <c r="AX32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY32" t="n">
         <v>0.0</v>
@@ -13310,7 +13310,7 @@
         <v>1.0</v>
       </c>
       <c r="BD32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE32" t="n">
         <v>0.0</v>
@@ -13319,7 +13319,7 @@
         <v>0.0</v>
       </c>
       <c r="BG32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH32" t="n">
         <v>0.0</v>
@@ -13340,13 +13340,13 @@
         <v>0.0</v>
       </c>
       <c r="BN32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO32" t="n">
         <v>0.0</v>
       </c>
       <c r="BP32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ32" t="n">
         <v>0.0</v>
@@ -13355,7 +13355,7 @@
         <v>0.0</v>
       </c>
       <c r="BS32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT32" t="n">
         <v>0.0</v>
@@ -13364,7 +13364,7 @@
         <v>0.0</v>
       </c>
       <c r="BV32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW32" t="n">
         <v>0.0</v>
@@ -13385,13 +13385,13 @@
         <v>1.0</v>
       </c>
       <c r="CC32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD32" t="n">
         <v>0.0</v>
       </c>
       <c r="CE32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF32" t="n">
         <v>0.0</v>
@@ -13406,13 +13406,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK32" t="n">
         <v>0.0</v>
       </c>
       <c r="CL32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM32" t="n">
         <v>0.0</v>
@@ -13424,13 +13424,13 @@
         <v>0.0</v>
       </c>
       <c r="CP32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS32" t="n">
         <v>0.0</v>
@@ -13439,19 +13439,19 @@
         <v>0.0</v>
       </c>
       <c r="CU32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV32" t="n">
         <v>0.0</v>
       </c>
       <c r="CW32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX32" t="n">
         <v>0.0</v>
       </c>
       <c r="CY32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ32" t="n">
         <v>0.0</v>
@@ -13466,22 +13466,22 @@
         <v>0.0</v>
       </c>
       <c r="DD32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF32" t="n">
         <v>0.0</v>
       </c>
       <c r="DG32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH32" t="n">
         <v>0.0</v>
       </c>
       <c r="DI32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ32" t="n">
         <v>0.0</v>
@@ -13499,13 +13499,13 @@
         <v>0.0</v>
       </c>
       <c r="DO32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR32" t="n">
         <v>0.0</v>
@@ -13517,7 +13517,7 @@
         <v>0.0</v>
       </c>
       <c r="DU32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV32" t="n">
         <v>1.0</v>
@@ -13544,13 +13544,13 @@
         <v>0.0</v>
       </c>
       <c r="ED32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG32" t="n">
         <v>0.0</v>
@@ -13559,7 +13559,7 @@
         <v>0.0</v>
       </c>
       <c r="EI32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ32" t="n">
         <v>0.0</v>

--- a/CaseEfinal/files/FormatDepA.xlsx
+++ b/CaseEfinal/files/FormatDepA.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FITNESS = 94981.0" r:id="rId3" sheetId="1"/>
+    <sheet name="FITNESS = 122818.0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -72,10 +72,10 @@
         <v>0.0</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F1" t="n">
         <v>0.0</v>
@@ -87,19 +87,19 @@
         <v>0.0</v>
       </c>
       <c r="I1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L1" t="n">
         <v>0.0</v>
       </c>
       <c r="M1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N1" t="n">
         <v>0.0</v>
@@ -108,7 +108,7 @@
         <v>0.0</v>
       </c>
       <c r="P1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q1" t="n">
         <v>0.0</v>
@@ -120,16 +120,16 @@
         <v>0.0</v>
       </c>
       <c r="T1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V1" t="n">
         <v>0.0</v>
       </c>
       <c r="W1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X1" t="n">
         <v>0.0</v>
@@ -162,10 +162,10 @@
         <v>0.0</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ1" t="n">
         <v>0.0</v>
@@ -192,10 +192,10 @@
         <v>0.0</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT1" t="n">
         <v>0.0</v>
@@ -204,16 +204,16 @@
         <v>0.0</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW1" t="n">
         <v>0.0</v>
       </c>
       <c r="AX1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ1" t="n">
         <v>0.0</v>
@@ -222,7 +222,7 @@
         <v>0.0</v>
       </c>
       <c r="BB1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC1" t="n">
         <v>0.0</v>
@@ -249,10 +249,10 @@
         <v>0.0</v>
       </c>
       <c r="BK1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM1" t="n">
         <v>0.0</v>
@@ -264,13 +264,13 @@
         <v>0.0</v>
       </c>
       <c r="BP1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ1" t="n">
         <v>0.0</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS1" t="n">
         <v>1.0</v>
@@ -294,10 +294,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB1" t="n">
         <v>0.0</v>
@@ -312,10 +312,10 @@
         <v>0.0</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH1" t="n">
         <v>0.0</v>
@@ -324,16 +324,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK1" t="n">
         <v>0.0</v>
       </c>
       <c r="CL1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN1" t="n">
         <v>0.0</v>
@@ -342,19 +342,19 @@
         <v>0.0</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ1" t="n">
         <v>0.0</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS1" t="n">
         <v>0.0</v>
       </c>
       <c r="CT1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU1" t="n">
         <v>0.0</v>
@@ -387,13 +387,13 @@
         <v>0.0</v>
       </c>
       <c r="DE1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH1" t="n">
         <v>0.0</v>
@@ -402,7 +402,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK1" t="n">
         <v>0.0</v>
@@ -414,22 +414,22 @@
         <v>0.0</v>
       </c>
       <c r="DN1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP1" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR1" t="n">
         <v>0.0</v>
       </c>
       <c r="DS1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT1" t="n">
         <v>0.0</v>
@@ -438,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="DV1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW1" t="n">
         <v>0.0</v>
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA1" t="n">
         <v>0.0</v>
@@ -462,10 +462,10 @@
         <v>0.0</v>
       </c>
       <c r="ED1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF1" t="n">
         <v>0.0</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -551,16 +551,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y2" t="n">
         <v>0.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0</v>
@@ -572,7 +572,7 @@
         <v>0.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE2" t="n">
         <v>0.0</v>
@@ -581,13 +581,13 @@
         <v>0.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH2" t="n">
         <v>0.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.0</v>
@@ -611,13 +611,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR2" t="n">
         <v>0.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT2" t="n">
         <v>0.0</v>
@@ -626,10 +626,10 @@
         <v>0.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX2" t="n">
         <v>0.0</v>
@@ -641,16 +641,16 @@
         <v>0.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB2" t="n">
         <v>0.0</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE2" t="n">
         <v>0.0</v>
@@ -662,7 +662,7 @@
         <v>0.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI2" t="n">
         <v>0.0</v>
@@ -674,10 +674,10 @@
         <v>0.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN2" t="n">
         <v>0.0</v>
@@ -686,13 +686,13 @@
         <v>0.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ2" t="n">
         <v>0.0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS2" t="n">
         <v>0.0</v>
@@ -716,22 +716,22 @@
         <v>0.0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA2" t="n">
         <v>0.0</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD2" t="n">
         <v>0.0</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF2" t="n">
         <v>0.0</v>
@@ -746,16 +746,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL2" t="n">
         <v>0.0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN2" t="n">
         <v>0.0</v>
@@ -767,7 +767,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR2" t="n">
         <v>0.0</v>
@@ -785,7 +785,7 @@
         <v>0.0</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX2" t="n">
         <v>0.0</v>
@@ -794,19 +794,19 @@
         <v>0.0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA2" t="n">
         <v>0.0</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC2" t="n">
         <v>0.0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE2" t="n">
         <v>0.0</v>
@@ -836,16 +836,16 @@
         <v>0.0</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO2" t="n">
         <v>0.0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR2" t="n">
         <v>0.0</v>
@@ -854,13 +854,13 @@
         <v>0.0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU2" t="n">
         <v>0.0</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW2" t="n">
         <v>0.0</v>
@@ -869,7 +869,7 @@
         <v>0.0</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ2" t="n">
         <v>0.0</v>
@@ -884,10 +884,10 @@
         <v>0.0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF2" t="n">
         <v>0.0</v>
@@ -899,10 +899,10 @@
         <v>0.0</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -916,10 +916,10 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -928,16 +928,16 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
@@ -946,13 +946,13 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O3" t="n">
         <v>0.0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0</v>
@@ -964,7 +964,7 @@
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U3" t="n">
         <v>0.0</v>
@@ -973,10 +973,10 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y3" t="n">
         <v>0.0</v>
@@ -988,13 +988,13 @@
         <v>0.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC3" t="n">
         <v>0.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE3" t="n">
         <v>0.0</v>
@@ -1003,10 +1003,10 @@
         <v>0.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI3" t="n">
         <v>0.0</v>
@@ -1021,10 +1021,10 @@
         <v>0.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO3" t="n">
         <v>0.0</v>
@@ -1078,13 +1078,13 @@
         <v>0.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG3" t="n">
         <v>0.0</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI3" t="n">
         <v>0.0</v>
@@ -1102,7 +1102,7 @@
         <v>0.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO3" t="n">
         <v>0.0</v>
@@ -1111,7 +1111,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR3" t="n">
         <v>0.0</v>
@@ -1123,10 +1123,10 @@
         <v>0.0</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW3" t="n">
         <v>0.0</v>
@@ -1138,22 +1138,22 @@
         <v>0.0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA3" t="n">
         <v>0.0</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD3" t="n">
         <v>0.0</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF3" t="n">
         <v>0.0</v>
@@ -1171,19 +1171,19 @@
         <v>0.0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN3" t="n">
         <v>0.0</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP3" t="n">
         <v>0.0</v>
@@ -1192,7 +1192,7 @@
         <v>0.0</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS3" t="n">
         <v>0.0</v>
@@ -1201,7 +1201,7 @@
         <v>0.0</v>
       </c>
       <c r="CU3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV3" t="n">
         <v>0.0</v>
@@ -1213,16 +1213,16 @@
         <v>0.0</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ3" t="n">
         <v>0.0</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC3" t="n">
         <v>0.0</v>
@@ -1234,7 +1234,7 @@
         <v>0.0</v>
       </c>
       <c r="DF3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG3" t="n">
         <v>0.0</v>
@@ -1261,13 +1261,13 @@
         <v>0.0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR3" t="n">
         <v>0.0</v>
@@ -1276,13 +1276,13 @@
         <v>0.0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU3" t="n">
         <v>0.0</v>
       </c>
       <c r="DV3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW3" t="n">
         <v>0.0</v>
@@ -1294,10 +1294,10 @@
         <v>0.0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB3" t="n">
         <v>0.0</v>
@@ -1309,7 +1309,7 @@
         <v>0.0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF3" t="n">
         <v>0.0</v>
@@ -1321,10 +1321,10 @@
         <v>0.0</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1335,16 +1335,16 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1353,19 +1353,19 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" t="n">
         <v>0.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -1374,7 +1374,7 @@
         <v>0.0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0</v>
@@ -1386,10 +1386,10 @@
         <v>0.0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V4" t="n">
         <v>0.0</v>
@@ -1401,7 +1401,7 @@
         <v>0.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z4" t="n">
         <v>0.0</v>
@@ -1410,22 +1410,22 @@
         <v>0.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD4" t="n">
         <v>0.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF4" t="n">
         <v>0.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH4" t="n">
         <v>0.0</v>
@@ -1434,13 +1434,13 @@
         <v>0.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK4" t="n">
         <v>0.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM4" t="n">
         <v>0.0</v>
@@ -1449,7 +1449,7 @@
         <v>0.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP4" t="n">
         <v>0.0</v>
@@ -1458,7 +1458,7 @@
         <v>0.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS4" t="n">
         <v>0.0</v>
@@ -1470,10 +1470,10 @@
         <v>0.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0</v>
@@ -1485,13 +1485,13 @@
         <v>0.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB4" t="n">
         <v>0.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD4" t="n">
         <v>0.0</v>
@@ -1509,7 +1509,7 @@
         <v>0.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0.0</v>
@@ -1518,13 +1518,13 @@
         <v>0.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM4" t="n">
         <v>0.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO4" t="n">
         <v>0.0</v>
@@ -1533,7 +1533,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR4" t="n">
         <v>0.0</v>
@@ -1560,13 +1560,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA4" t="n">
         <v>0.0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC4" t="n">
         <v>0.0</v>
@@ -1578,10 +1578,10 @@
         <v>0.0</v>
       </c>
       <c r="CF4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH4" t="n">
         <v>0.0</v>
@@ -1590,16 +1590,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK4" t="n">
         <v>0.0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN4" t="n">
         <v>0.0</v>
@@ -1608,7 +1608,7 @@
         <v>0.0</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ4" t="n">
         <v>0.0</v>
@@ -1620,13 +1620,13 @@
         <v>0.0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU4" t="n">
         <v>0.0</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW4" t="n">
         <v>0.0</v>
@@ -1635,13 +1635,13 @@
         <v>0.0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ4" t="n">
         <v>0.0</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB4" t="n">
         <v>0.0</v>
@@ -1650,13 +1650,13 @@
         <v>0.0</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE4" t="n">
         <v>0.0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG4" t="n">
         <v>0.0</v>
@@ -1668,10 +1668,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL4" t="n">
         <v>0.0</v>
@@ -1695,13 +1695,13 @@
         <v>0.0</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT4" t="n">
         <v>0.0</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV4" t="n">
         <v>0.0</v>
@@ -1719,7 +1719,7 @@
         <v>1.0</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB4" t="n">
         <v>0.0</v>
@@ -1728,13 +1728,13 @@
         <v>0.0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE4" t="n">
         <v>0.0</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG4" t="n">
         <v>0.0</v>
@@ -1746,7 +1746,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1766,13 +1766,13 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -1781,7 +1781,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
@@ -1793,7 +1793,7 @@
         <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P5" t="n">
         <v>0.0</v>
@@ -1802,22 +1802,22 @@
         <v>0.0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S5" t="n">
         <v>0.0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V5" t="n">
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X5" t="n">
         <v>0.0</v>
@@ -1826,7 +1826,7 @@
         <v>0.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA5" t="n">
         <v>0.0</v>
@@ -1835,13 +1835,13 @@
         <v>0.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD5" t="n">
         <v>0.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF5" t="n">
         <v>0.0</v>
@@ -1853,7 +1853,7 @@
         <v>0.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.0</v>
@@ -1862,10 +1862,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN5" t="n">
         <v>0.0</v>
@@ -1886,7 +1886,7 @@
         <v>0.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU5" t="n">
         <v>0.0</v>
@@ -1898,7 +1898,7 @@
         <v>0.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY5" t="n">
         <v>0.0</v>
@@ -1910,10 +1910,10 @@
         <v>0.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD5" t="n">
         <v>0.0</v>
@@ -1931,7 +1931,7 @@
         <v>1.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0.0</v>
@@ -1940,13 +1940,13 @@
         <v>0.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM5" t="n">
         <v>0.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO5" t="n">
         <v>0.0</v>
@@ -1958,7 +1958,7 @@
         <v>0.0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS5" t="n">
         <v>0.0</v>
@@ -1967,16 +1967,16 @@
         <v>0.0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW5" t="n">
         <v>0.0</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY5" t="n">
         <v>0.0</v>
@@ -1988,10 +1988,10 @@
         <v>0.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD5" t="n">
         <v>0.0</v>
@@ -2000,7 +2000,7 @@
         <v>0.0</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG5" t="n">
         <v>0.0</v>
@@ -2015,10 +2015,10 @@
         <v>0.0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM5" t="n">
         <v>0.0</v>
@@ -2027,22 +2027,22 @@
         <v>0.0</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP5" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS5" t="n">
         <v>0.0</v>
       </c>
       <c r="CT5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU5" t="n">
         <v>0.0</v>
@@ -2057,13 +2057,13 @@
         <v>0.0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ5" t="n">
         <v>0.0</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB5" t="n">
         <v>0.0</v>
@@ -2090,13 +2090,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM5" t="n">
         <v>0.0</v>
@@ -2105,13 +2105,13 @@
         <v>0.0</v>
       </c>
       <c r="DO5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP5" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR5" t="n">
         <v>0.0</v>
@@ -2120,7 +2120,7 @@
         <v>0.0</v>
       </c>
       <c r="DT5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU5" t="n">
         <v>0.0</v>
@@ -2132,22 +2132,22 @@
         <v>0.0</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0.0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB5" t="n">
         <v>0.0</v>
       </c>
       <c r="EC5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED5" t="n">
         <v>0.0</v>
@@ -2156,7 +2156,7 @@
         <v>0.0</v>
       </c>
       <c r="EF5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG5" t="n">
         <v>0.0</v>
@@ -2168,12 +2168,12 @@
         <v>0.0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2182,7 +2182,7 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -2194,13 +2194,13 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K6" t="n">
         <v>0.0</v>
@@ -2212,10 +2212,10 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P6" t="n">
         <v>0.0</v>
@@ -2224,13 +2224,13 @@
         <v>0.0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
@@ -2239,22 +2239,22 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y6" t="n">
         <v>0.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA6" t="n">
         <v>0.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" t="n">
         <v>0.0</v>
@@ -2272,10 +2272,10 @@
         <v>0.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -2302,10 +2302,10 @@
         <v>0.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT6" t="n">
         <v>0.0</v>
@@ -2317,10 +2317,10 @@
         <v>0.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY6" t="n">
         <v>0.0</v>
@@ -2329,16 +2329,16 @@
         <v>0.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC6" t="n">
         <v>0.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE6" t="n">
         <v>0.0</v>
@@ -2347,7 +2347,7 @@
         <v>0.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH6" t="n">
         <v>0.0</v>
@@ -2359,10 +2359,10 @@
         <v>0.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM6" t="n">
         <v>0.0</v>
@@ -2389,10 +2389,10 @@
         <v>0.0</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW6" t="n">
         <v>0.0</v>
@@ -2407,10 +2407,10 @@
         <v>0.0</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC6" t="n">
         <v>1.0</v>
@@ -2434,10 +2434,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL6" t="n">
         <v>0.0</v>
@@ -2452,10 +2452,10 @@
         <v>0.0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR6" t="n">
         <v>0.0</v>
@@ -2479,16 +2479,16 @@
         <v>0.0</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA6" t="n">
         <v>0.0</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC6" t="n">
         <v>0.0</v>
@@ -2497,7 +2497,7 @@
         <v>0.0</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF6" t="n">
         <v>0.0</v>
@@ -2518,7 +2518,7 @@
         <v>1.0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM6" t="n">
         <v>0.0</v>
@@ -2530,7 +2530,7 @@
         <v>0.0</v>
       </c>
       <c r="DP6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0.0</v>
@@ -2548,7 +2548,7 @@
         <v>1.0</v>
       </c>
       <c r="DV6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW6" t="n">
         <v>0.0</v>
@@ -2557,13 +2557,13 @@
         <v>0.0</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0.0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB6" t="n">
         <v>0.0</v>
@@ -2572,7 +2572,7 @@
         <v>0.0</v>
       </c>
       <c r="ED6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE6" t="n">
         <v>0.0</v>
@@ -2587,10 +2587,10 @@
         <v>0.0</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2616,13 +2616,13 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K7" t="n">
         <v>0.0</v>
@@ -2631,16 +2631,16 @@
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0</v>
@@ -2649,7 +2649,7 @@
         <v>0.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -2664,10 +2664,10 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z7" t="n">
         <v>0.0</v>
@@ -2676,10 +2676,10 @@
         <v>0.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7" t="n">
         <v>0.0</v>
@@ -2751,10 +2751,10 @@
         <v>0.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC7" t="n">
         <v>0.0</v>
@@ -2766,10 +2766,10 @@
         <v>0.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH7" t="n">
         <v>0.0</v>
@@ -2796,16 +2796,16 @@
         <v>0.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR7" t="n">
         <v>0.0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT7" t="n">
         <v>0.0</v>
@@ -2817,16 +2817,16 @@
         <v>0.0</v>
       </c>
       <c r="BW7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY7" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA7" t="n">
         <v>0.0</v>
@@ -2841,10 +2841,10 @@
         <v>0.0</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG7" t="n">
         <v>0.0</v>
@@ -2856,10 +2856,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL7" t="n">
         <v>0.0</v>
@@ -2886,16 +2886,16 @@
         <v>0.0</v>
       </c>
       <c r="CT7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU7" t="n">
         <v>0.0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX7" t="n">
         <v>0.0</v>
@@ -2904,7 +2904,7 @@
         <v>0.0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA7" t="n">
         <v>0.0</v>
@@ -2925,7 +2925,7 @@
         <v>0.0</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH7" t="n">
         <v>0.0</v>
@@ -2937,16 +2937,16 @@
         <v>0.0</v>
       </c>
       <c r="DK7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM7" t="n">
         <v>0.0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO7" t="n">
         <v>0.0</v>
@@ -2955,13 +2955,13 @@
         <v>0.0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR7" t="n">
         <v>0.0</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT7" t="n">
         <v>0.0</v>
@@ -2976,13 +2976,13 @@
         <v>0.0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY7" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA7" t="n">
         <v>0.0</v>
@@ -2994,10 +2994,10 @@
         <v>0.0</v>
       </c>
       <c r="ED7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF7" t="n">
         <v>0.0</v>
@@ -3026,13 +3026,13 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -3044,7 +3044,7 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
         <v>0.0</v>
@@ -3068,16 +3068,16 @@
         <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S8" t="n">
         <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V8" t="n">
         <v>0.0</v>
@@ -3086,7 +3086,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="n">
         <v>0.0</v>
@@ -3098,10 +3098,10 @@
         <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
         <v>0.0</v>
@@ -3113,13 +3113,13 @@
         <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8" t="n">
         <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0.0</v>
@@ -3143,10 +3143,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8" t="n">
         <v>0.0</v>
@@ -3158,13 +3158,13 @@
         <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" t="n">
         <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY8" t="n">
         <v>0.0</v>
@@ -3173,22 +3173,22 @@
         <v>0.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC8" t="n">
         <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
         <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG8" t="n">
         <v>0.0</v>
@@ -3203,22 +3203,22 @@
         <v>0.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL8" t="n">
         <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO8" t="n">
         <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ8" t="n">
         <v>0.0</v>
@@ -3257,13 +3257,13 @@
         <v>1.0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD8" t="n">
         <v>0.0</v>
       </c>
       <c r="CE8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF8" t="n">
         <v>0.0</v>
@@ -3272,13 +3272,13 @@
         <v>0.0</v>
       </c>
       <c r="CH8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI8" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK8" t="n">
         <v>0.0</v>
@@ -3296,10 +3296,10 @@
         <v>0.0</v>
       </c>
       <c r="CP8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR8" t="n">
         <v>0.0</v>
@@ -3323,16 +3323,16 @@
         <v>0.0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ8" t="n">
         <v>0.0</v>
       </c>
       <c r="DA8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC8" t="n">
         <v>0.0</v>
@@ -3344,10 +3344,10 @@
         <v>0.0</v>
       </c>
       <c r="DF8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH8" t="n">
         <v>0.0</v>
@@ -3359,10 +3359,10 @@
         <v>0.0</v>
       </c>
       <c r="DK8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM8" t="n">
         <v>0.0</v>
@@ -3371,13 +3371,13 @@
         <v>0.0</v>
       </c>
       <c r="DO8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP8" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR8" t="n">
         <v>0.0</v>
@@ -3386,7 +3386,7 @@
         <v>0.0</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU8" t="n">
         <v>0.0</v>
@@ -3398,22 +3398,22 @@
         <v>0.0</v>
       </c>
       <c r="DX8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY8" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB8" t="n">
         <v>0.0</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED8" t="n">
         <v>0.0</v>
@@ -3422,7 +3422,7 @@
         <v>0.0</v>
       </c>
       <c r="EF8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG8" t="n">
         <v>0.0</v>
@@ -3434,7 +3434,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -3445,13 +3445,13 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -3475,16 +3475,16 @@
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0</v>
@@ -3496,7 +3496,7 @@
         <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
@@ -3505,10 +3505,10 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0</v>
@@ -3535,22 +3535,22 @@
         <v>0.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH9" t="n">
         <v>0.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK9" t="n">
         <v>0.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM9" t="n">
         <v>0.0</v>
@@ -3565,16 +3565,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR9" t="n">
         <v>0.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU9" t="n">
         <v>0.0</v>
@@ -3586,10 +3586,10 @@
         <v>0.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ9" t="n">
         <v>0.0</v>
@@ -3601,7 +3601,7 @@
         <v>0.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD9" t="n">
         <v>0.0</v>
@@ -3625,16 +3625,16 @@
         <v>0.0</v>
       </c>
       <c r="BK9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL9" t="n">
         <v>0.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO9" t="n">
         <v>0.0</v>
@@ -3646,10 +3646,10 @@
         <v>0.0</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT9" t="n">
         <v>0.0</v>
@@ -3661,10 +3661,10 @@
         <v>0.0</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY9" t="n">
         <v>0.0</v>
@@ -3676,10 +3676,10 @@
         <v>0.0</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD9" t="n">
         <v>0.0</v>
@@ -3688,19 +3688,19 @@
         <v>0.0</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG9" t="n">
         <v>0.0</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI9" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK9" t="n">
         <v>0.0</v>
@@ -3715,16 +3715,16 @@
         <v>0.0</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ9" t="n">
         <v>0.0</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS9" t="n">
         <v>0.0</v>
@@ -3733,7 +3733,7 @@
         <v>0.0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV9" t="n">
         <v>0.0</v>
@@ -3745,10 +3745,10 @@
         <v>0.0</v>
       </c>
       <c r="CY9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA9" t="n">
         <v>0.0</v>
@@ -3760,16 +3760,16 @@
         <v>0.0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE9" t="n">
         <v>0.0</v>
       </c>
       <c r="DF9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH9" t="n">
         <v>0.0</v>
@@ -3781,7 +3781,7 @@
         <v>0.0</v>
       </c>
       <c r="DK9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL9" t="n">
         <v>0.0</v>
@@ -3790,16 +3790,16 @@
         <v>0.0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO9" t="n">
         <v>0.0</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR9" t="n">
         <v>0.0</v>
@@ -3808,7 +3808,7 @@
         <v>0.0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU9" t="n">
         <v>0.0</v>
@@ -3829,13 +3829,13 @@
         <v>1.0</v>
       </c>
       <c r="EA9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB9" t="n">
         <v>0.0</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED9" t="n">
         <v>0.0</v>
@@ -3850,10 +3850,10 @@
         <v>0.0</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ9" t="n">
         <v>0.0</v>
@@ -3870,10 +3870,10 @@
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -3882,16 +3882,16 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
@@ -3903,10 +3903,10 @@
         <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0</v>
@@ -3918,7 +3918,7 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
         <v>0.0</v>
@@ -3927,16 +3927,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y10" t="n">
         <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA10" t="n">
         <v>0.0</v>
@@ -3945,7 +3945,7 @@
         <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD10" t="n">
         <v>0.0</v>
@@ -3957,16 +3957,16 @@
         <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI10" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK10" t="n">
         <v>0.0</v>
@@ -3975,13 +3975,13 @@
         <v>0.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN10" t="n">
         <v>0.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP10" t="n">
         <v>0.0</v>
@@ -3993,7 +3993,7 @@
         <v>0.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT10" t="n">
         <v>0.0</v>
@@ -4002,16 +4002,16 @@
         <v>0.0</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW10" t="n">
         <v>0.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ10" t="n">
         <v>0.0</v>
@@ -4020,7 +4020,7 @@
         <v>0.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC10" t="n">
         <v>0.0</v>
@@ -4035,13 +4035,13 @@
         <v>0.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0.0</v>
@@ -4050,7 +4050,7 @@
         <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM10" t="n">
         <v>0.0</v>
@@ -4086,7 +4086,7 @@
         <v>0.0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY10" t="n">
         <v>0.0</v>
@@ -4095,7 +4095,7 @@
         <v>0.0</v>
       </c>
       <c r="CA10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB10" t="n">
         <v>0.0</v>
@@ -4152,10 +4152,10 @@
         <v>0.0</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV10" t="n">
         <v>0.0</v>
@@ -4167,16 +4167,16 @@
         <v>0.0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA10" t="n">
         <v>0.0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC10" t="n">
         <v>0.0</v>
@@ -4188,10 +4188,10 @@
         <v>0.0</v>
       </c>
       <c r="DF10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH10" t="n">
         <v>0.0</v>
@@ -4203,16 +4203,16 @@
         <v>0.0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM10" t="n">
         <v>0.0</v>
       </c>
       <c r="DN10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO10" t="n">
         <v>0.0</v>
@@ -4221,7 +4221,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR10" t="n">
         <v>0.0</v>
@@ -4233,10 +4233,10 @@
         <v>0.0</v>
       </c>
       <c r="DU10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW10" t="n">
         <v>0.0</v>
@@ -4248,7 +4248,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA10" t="n">
         <v>0.0</v>
@@ -4260,10 +4260,10 @@
         <v>0.0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF10" t="n">
         <v>1.0</v>
@@ -4298,7 +4298,7 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -4310,7 +4310,7 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
@@ -4334,13 +4334,13 @@
         <v>0.0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" t="n">
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
@@ -4349,22 +4349,22 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y11" t="n">
         <v>0.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA11" t="n">
         <v>0.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC11" t="n">
         <v>0.0</v>
@@ -4373,7 +4373,7 @@
         <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF11" t="n">
         <v>0.0</v>
@@ -4385,10 +4385,10 @@
         <v>0.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK11" t="n">
         <v>0.0</v>
@@ -4400,10 +4400,10 @@
         <v>0.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP11" t="n">
         <v>0.0</v>
@@ -4415,16 +4415,16 @@
         <v>0.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU11" t="n">
         <v>0.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW11" t="n">
         <v>0.0</v>
@@ -4442,10 +4442,10 @@
         <v>0.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD11" t="n">
         <v>0.0</v>
@@ -4493,7 +4493,7 @@
         <v>0.0</v>
       </c>
       <c r="BS11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT11" t="n">
         <v>0.0</v>
@@ -4502,13 +4502,13 @@
         <v>0.0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW11" t="n">
         <v>0.0</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY11" t="n">
         <v>0.0</v>
@@ -4517,7 +4517,7 @@
         <v>0.0</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB11" t="n">
         <v>0.0</v>
@@ -4538,7 +4538,7 @@
         <v>0.0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI11" t="n">
         <v>0.0</v>
@@ -4550,10 +4550,10 @@
         <v>0.0</v>
       </c>
       <c r="CL11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN11" t="n">
         <v>0.0</v>
@@ -4565,7 +4565,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR11" t="n">
         <v>0.0</v>
@@ -4577,10 +4577,10 @@
         <v>0.0</v>
       </c>
       <c r="CU11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW11" t="n">
         <v>1.0</v>
@@ -4658,7 +4658,7 @@
         <v>0.0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW11" t="n">
         <v>0.0</v>
@@ -4670,16 +4670,16 @@
         <v>0.0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB11" t="n">
         <v>0.0</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED11" t="n">
         <v>0.0</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4717,7 +4717,7 @@
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" t="n">
         <v>1.0</v>
@@ -4741,13 +4741,13 @@
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P12" t="n">
         <v>0.0</v>
@@ -4756,10 +4756,10 @@
         <v>0.0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -4801,10 +4801,10 @@
         <v>0.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI12" t="n">
         <v>0.0</v>
@@ -4816,16 +4816,16 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN12" t="n">
         <v>0.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP12" t="n">
         <v>0.0</v>
@@ -4834,7 +4834,7 @@
         <v>0.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS12" t="n">
         <v>0.0</v>
@@ -4846,13 +4846,13 @@
         <v>0.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW12" t="n">
         <v>0.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY12" t="n">
         <v>0.0</v>
@@ -4861,10 +4861,10 @@
         <v>0.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC12" t="n">
         <v>0.0</v>
@@ -4876,10 +4876,10 @@
         <v>0.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH12" t="n">
         <v>0.0</v>
@@ -4891,16 +4891,16 @@
         <v>0.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL12" t="n">
         <v>0.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO12" t="n">
         <v>0.0</v>
@@ -4909,7 +4909,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR12" t="n">
         <v>0.0</v>
@@ -4921,13 +4921,13 @@
         <v>0.0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV12" t="n">
         <v>0.0</v>
       </c>
       <c r="BW12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX12" t="n">
         <v>0.0</v>
@@ -4936,13 +4936,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA12" t="n">
         <v>0.0</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC12" t="n">
         <v>0.0</v>
@@ -4954,10 +4954,10 @@
         <v>0.0</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH12" t="n">
         <v>0.0</v>
@@ -4981,13 +4981,13 @@
         <v>0.0</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP12" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR12" t="n">
         <v>1.0</v>
@@ -5020,7 +5020,7 @@
         <v>0.0</v>
       </c>
       <c r="DB12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC12" t="n">
         <v>0.0</v>
@@ -5032,10 +5032,10 @@
         <v>0.0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH12" t="n">
         <v>0.0</v>
@@ -5047,10 +5047,10 @@
         <v>0.0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM12" t="n">
         <v>0.0</v>
@@ -5059,7 +5059,7 @@
         <v>0.0</v>
       </c>
       <c r="DO12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP12" t="n">
         <v>0.0</v>
@@ -5071,10 +5071,10 @@
         <v>0.0</v>
       </c>
       <c r="DS12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU12" t="n">
         <v>0.0</v>
@@ -5089,13 +5089,13 @@
         <v>0.0</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB12" t="n">
         <v>0.0</v>
@@ -5107,16 +5107,16 @@
         <v>0.0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG12" t="n">
         <v>0.0</v>
       </c>
       <c r="EH12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI12" t="n">
         <v>0.0</v>
@@ -5127,13 +5127,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
@@ -5157,7 +5157,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
@@ -5169,7 +5169,7 @@
         <v>0.0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
         <v>0.0</v>
@@ -5181,10 +5181,10 @@
         <v>0.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
@@ -5193,16 +5193,16 @@
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y13" t="n">
         <v>0.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA13" t="n">
         <v>0.0</v>
@@ -5214,7 +5214,7 @@
         <v>0.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE13" t="n">
         <v>0.0</v>
@@ -5256,13 +5256,13 @@
         <v>0.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU13" t="n">
         <v>0.0</v>
@@ -5271,7 +5271,7 @@
         <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
         <v>0.0</v>
@@ -5316,10 +5316,10 @@
         <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN13" t="n">
         <v>0.0</v>
@@ -5337,7 +5337,7 @@
         <v>0.0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT13" t="n">
         <v>0.0</v>
@@ -5346,19 +5346,19 @@
         <v>0.0</v>
       </c>
       <c r="BV13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW13" t="n">
         <v>0.0</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY13" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA13" t="n">
         <v>0.0</v>
@@ -5367,7 +5367,7 @@
         <v>0.0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD13" t="n">
         <v>0.0</v>
@@ -5379,7 +5379,7 @@
         <v>0.0</v>
       </c>
       <c r="CG13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH13" t="n">
         <v>0.0</v>
@@ -5388,13 +5388,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK13" t="n">
         <v>0.0</v>
       </c>
       <c r="CL13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM13" t="n">
         <v>0.0</v>
@@ -5403,13 +5403,13 @@
         <v>0.0</v>
       </c>
       <c r="CO13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP13" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR13" t="n">
         <v>0.0</v>
@@ -5427,7 +5427,7 @@
         <v>1.0</v>
       </c>
       <c r="CW13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX13" t="n">
         <v>0.0</v>
@@ -5436,13 +5436,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA13" t="n">
         <v>0.0</v>
       </c>
       <c r="DB13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC13" t="n">
         <v>0.0</v>
@@ -5454,7 +5454,7 @@
         <v>0.0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG13" t="n">
         <v>0.0</v>
@@ -5463,16 +5463,16 @@
         <v>0.0</v>
       </c>
       <c r="DI13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK13" t="n">
         <v>0.0</v>
       </c>
       <c r="DL13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM13" t="n">
         <v>0.0</v>
@@ -5481,7 +5481,7 @@
         <v>0.0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP13" t="n">
         <v>0.0</v>
@@ -5493,13 +5493,13 @@
         <v>0.0</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT13" t="n">
         <v>0.0</v>
       </c>
       <c r="DU13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV13" t="n">
         <v>0.0</v>
@@ -5508,22 +5508,22 @@
         <v>0.0</v>
       </c>
       <c r="DX13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY13" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB13" t="n">
         <v>0.0</v>
       </c>
       <c r="EC13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED13" t="n">
         <v>0.0</v>
@@ -5538,13 +5538,13 @@
         <v>0.0</v>
       </c>
       <c r="EH13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI13" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -5585,16 +5585,16 @@
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q14" t="n">
         <v>0.0</v>
@@ -5603,19 +5603,19 @@
         <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V14" t="n">
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X14" t="n">
         <v>0.0</v>
@@ -5630,13 +5630,13 @@
         <v>0.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC14" t="n">
         <v>0.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE14" t="n">
         <v>1.0</v>
@@ -5660,22 +5660,22 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN14" t="n">
         <v>0.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP14" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR14" t="n">
         <v>0.0</v>
@@ -5723,10 +5723,10 @@
         <v>0.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI14" t="n">
         <v>0.0</v>
@@ -5765,13 +5765,13 @@
         <v>0.0</v>
       </c>
       <c r="BU14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV14" t="n">
         <v>0.0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX14" t="n">
         <v>0.0</v>
@@ -5780,10 +5780,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB14" t="n">
         <v>0.0</v>
@@ -5804,13 +5804,13 @@
         <v>0.0</v>
       </c>
       <c r="CH14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI14" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK14" t="n">
         <v>0.0</v>
@@ -5819,7 +5819,7 @@
         <v>0.0</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN14" t="n">
         <v>0.0</v>
@@ -5831,7 +5831,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR14" t="n">
         <v>0.0</v>
@@ -5840,16 +5840,16 @@
         <v>0.0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU14" t="n">
         <v>0.0</v>
       </c>
       <c r="CV14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX14" t="n">
         <v>0.0</v>
@@ -5861,10 +5861,10 @@
         <v>0.0</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC14" t="n">
         <v>0.0</v>
@@ -5873,7 +5873,7 @@
         <v>0.0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF14" t="n">
         <v>0.0</v>
@@ -5888,10 +5888,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL14" t="n">
         <v>0.0</v>
@@ -5924,7 +5924,7 @@
         <v>1.0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW14" t="n">
         <v>0.0</v>
@@ -5936,7 +5936,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA14" t="n">
         <v>0.0</v>
@@ -5945,16 +5945,16 @@
         <v>0.0</v>
       </c>
       <c r="EC14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED14" t="n">
         <v>0.0</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG14" t="n">
         <v>0.0</v>
@@ -5963,7 +5963,7 @@
         <v>0.0</v>
       </c>
       <c r="EI14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ14" t="n">
         <v>0.0</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5980,13 +5980,13 @@
         <v>0.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -5995,7 +5995,7 @@
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" t="n">
         <v>0.0</v>
@@ -6007,16 +6007,16 @@
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
@@ -6028,7 +6028,7 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
@@ -6037,13 +6037,13 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X15" t="n">
         <v>0.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z15" t="n">
         <v>0.0</v>
@@ -6085,13 +6085,13 @@
         <v>0.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP15" t="n">
         <v>0.0</v>
@@ -6100,7 +6100,7 @@
         <v>0.0</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS15" t="n">
         <v>0.0</v>
@@ -6112,22 +6112,22 @@
         <v>0.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW15" t="n">
         <v>0.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0.0</v>
       </c>
       <c r="BA15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB15" t="n">
         <v>0.0</v>
@@ -6142,13 +6142,13 @@
         <v>0.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG15" t="n">
         <v>0.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI15" t="n">
         <v>0.0</v>
@@ -6157,10 +6157,10 @@
         <v>0.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM15" t="n">
         <v>0.0</v>
@@ -6187,16 +6187,16 @@
         <v>0.0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW15" t="n">
         <v>0.0</v>
       </c>
       <c r="BX15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY15" t="n">
         <v>0.0</v>
@@ -6205,7 +6205,7 @@
         <v>0.0</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB15" t="n">
         <v>0.0</v>
@@ -6226,13 +6226,13 @@
         <v>1.0</v>
       </c>
       <c r="CH15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI15" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK15" t="n">
         <v>0.0</v>
@@ -6265,13 +6265,13 @@
         <v>0.0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX15" t="n">
         <v>0.0</v>
@@ -6283,7 +6283,7 @@
         <v>0.0</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB15" t="n">
         <v>0.0</v>
@@ -6301,7 +6301,7 @@
         <v>1.0</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH15" t="n">
         <v>0.0</v>
@@ -6313,16 +6313,16 @@
         <v>0.0</v>
       </c>
       <c r="DK15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM15" t="n">
         <v>0.0</v>
       </c>
       <c r="DN15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO15" t="n">
         <v>0.0</v>
@@ -6337,13 +6337,13 @@
         <v>0.0</v>
       </c>
       <c r="DS15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT15" t="n">
         <v>0.0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV15" t="n">
         <v>1.0</v>
@@ -6370,10 +6370,10 @@
         <v>0.0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF15" t="n">
         <v>0.0</v>
@@ -6382,13 +6382,13 @@
         <v>0.0</v>
       </c>
       <c r="EH15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI15" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -6408,7 +6408,7 @@
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -6420,10 +6420,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
@@ -6432,7 +6432,7 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O16" t="n">
         <v>0.0</v>
@@ -6447,10 +6447,10 @@
         <v>0.0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
@@ -6468,7 +6468,7 @@
         <v>0.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA16" t="n">
         <v>0.0</v>
@@ -6477,19 +6477,19 @@
         <v>0.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD16" t="n">
         <v>0.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF16" t="n">
         <v>0.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH16" t="n">
         <v>0.0</v>
@@ -6534,13 +6534,13 @@
         <v>0.0</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW16" t="n">
         <v>0.0</v>
       </c>
       <c r="AX16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY16" t="n">
         <v>0.0</v>
@@ -6558,7 +6558,7 @@
         <v>1.0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE16" t="n">
         <v>0.0</v>
@@ -6567,7 +6567,7 @@
         <v>0.0</v>
       </c>
       <c r="BG16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH16" t="n">
         <v>0.0</v>
@@ -6579,13 +6579,13 @@
         <v>0.0</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL16" t="n">
         <v>0.0</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN16" t="n">
         <v>0.0</v>
@@ -6594,13 +6594,13 @@
         <v>0.0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ16" t="n">
         <v>0.0</v>
       </c>
       <c r="BR16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS16" t="n">
         <v>0.0</v>
@@ -6624,16 +6624,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB16" t="n">
         <v>0.0</v>
       </c>
       <c r="CC16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD16" t="n">
         <v>0.0</v>
@@ -6642,19 +6642,19 @@
         <v>0.0</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG16" t="n">
         <v>0.0</v>
       </c>
       <c r="CH16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI16" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK16" t="n">
         <v>0.0</v>
@@ -6678,13 +6678,13 @@
         <v>1.0</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS16" t="n">
         <v>0.0</v>
       </c>
       <c r="CT16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU16" t="n">
         <v>0.0</v>
@@ -6693,7 +6693,7 @@
         <v>0.0</v>
       </c>
       <c r="CW16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX16" t="n">
         <v>0.0</v>
@@ -6705,10 +6705,10 @@
         <v>0.0</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC16" t="n">
         <v>0.0</v>
@@ -6717,13 +6717,13 @@
         <v>0.0</v>
       </c>
       <c r="DE16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF16" t="n">
         <v>0.0</v>
       </c>
       <c r="DG16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH16" t="n">
         <v>0.0</v>
@@ -6732,13 +6732,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK16" t="n">
         <v>0.0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM16" t="n">
         <v>0.0</v>
@@ -6747,13 +6747,13 @@
         <v>0.0</v>
       </c>
       <c r="DO16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP16" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR16" t="n">
         <v>0.0</v>
@@ -6762,7 +6762,7 @@
         <v>0.0</v>
       </c>
       <c r="DT16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU16" t="n">
         <v>0.0</v>
@@ -6789,13 +6789,13 @@
         <v>0.0</v>
       </c>
       <c r="EC16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED16" t="n">
         <v>0.0</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF16" t="n">
         <v>0.0</v>
@@ -6804,13 +6804,13 @@
         <v>0.0</v>
       </c>
       <c r="EH16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI16" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -6824,19 +6824,19 @@
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -6845,13 +6845,13 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -6866,13 +6866,13 @@
         <v>0.0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" t="n">
         <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
@@ -6881,16 +6881,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X17" t="n">
         <v>0.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA17" t="n">
         <v>0.0</v>
@@ -6899,13 +6899,13 @@
         <v>0.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17" t="n">
         <v>0.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF17" t="n">
         <v>0.0</v>
@@ -6917,7 +6917,7 @@
         <v>0.0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -6929,10 +6929,10 @@
         <v>0.0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO17" t="n">
         <v>0.0</v>
@@ -6950,7 +6950,7 @@
         <v>0.0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU17" t="n">
         <v>0.0</v>
@@ -6962,7 +6962,7 @@
         <v>0.0</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY17" t="n">
         <v>1.0</v>
@@ -6980,7 +6980,7 @@
         <v>0.0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE17" t="n">
         <v>0.0</v>
@@ -6992,10 +6992,10 @@
         <v>0.0</v>
       </c>
       <c r="BH17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ17" t="n">
         <v>0.0</v>
@@ -7004,7 +7004,7 @@
         <v>0.0</v>
       </c>
       <c r="BL17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM17" t="n">
         <v>0.0</v>
@@ -7016,10 +7016,10 @@
         <v>0.0</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR17" t="n">
         <v>0.0</v>
@@ -7034,10 +7034,10 @@
         <v>0.0</v>
       </c>
       <c r="BV17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX17" t="n">
         <v>0.0</v>
@@ -7055,13 +7055,13 @@
         <v>1.0</v>
       </c>
       <c r="CC17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD17" t="n">
         <v>0.0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF17" t="n">
         <v>0.0</v>
@@ -7085,7 +7085,7 @@
         <v>0.0</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN17" t="n">
         <v>0.0</v>
@@ -7097,16 +7097,16 @@
         <v>0.0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS17" t="n">
         <v>0.0</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU17" t="n">
         <v>0.0</v>
@@ -7130,7 +7130,7 @@
         <v>1.0</v>
       </c>
       <c r="DB17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC17" t="n">
         <v>0.0</v>
@@ -7142,7 +7142,7 @@
         <v>0.0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG17" t="n">
         <v>0.0</v>
@@ -7160,7 +7160,7 @@
         <v>0.0</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM17" t="n">
         <v>0.0</v>
@@ -7172,7 +7172,7 @@
         <v>0.0</v>
       </c>
       <c r="DP17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ17" t="n">
         <v>0.0</v>
@@ -7181,13 +7181,13 @@
         <v>0.0</v>
       </c>
       <c r="DS17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT17" t="n">
         <v>0.0</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV17" t="n">
         <v>0.0</v>
@@ -7211,10 +7211,10 @@
         <v>0.0</v>
       </c>
       <c r="EC17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE17" t="n">
         <v>0.0</v>
@@ -7237,13 +7237,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
@@ -7252,7 +7252,7 @@
         <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -7264,7 +7264,7 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K18" t="n">
         <v>0.0</v>
@@ -7276,19 +7276,19 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" t="n">
         <v>0.0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S18" t="n">
         <v>0.0</v>
@@ -7297,7 +7297,7 @@
         <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V18" t="n">
         <v>0.0</v>
@@ -7309,10 +7309,10 @@
         <v>0.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA18" t="n">
         <v>0.0</v>
@@ -7324,7 +7324,7 @@
         <v>0.0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE18" t="n">
         <v>0.0</v>
@@ -7363,22 +7363,22 @@
         <v>0.0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS18" t="n">
         <v>0.0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU18" t="n">
         <v>0.0</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW18" t="n">
         <v>0.0</v>
@@ -7387,13 +7387,13 @@
         <v>0.0</v>
       </c>
       <c r="AY18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ18" t="n">
         <v>0.0</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB18" t="n">
         <v>0.0</v>
@@ -7411,13 +7411,13 @@
         <v>0.0</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ18" t="n">
         <v>0.0</v>
@@ -7429,7 +7429,7 @@
         <v>0.0</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN18" t="n">
         <v>0.0</v>
@@ -7441,19 +7441,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT18" t="n">
         <v>0.0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV18" t="n">
         <v>0.0</v>
@@ -7468,10 +7468,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB18" t="n">
         <v>0.0</v>
@@ -7501,10 +7501,10 @@
         <v>0.0</v>
       </c>
       <c r="CK18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM18" t="n">
         <v>0.0</v>
@@ -7513,13 +7513,13 @@
         <v>0.0</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP18" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR18" t="n">
         <v>0.0</v>
@@ -7528,10 +7528,10 @@
         <v>0.0</v>
       </c>
       <c r="CT18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV18" t="n">
         <v>0.0</v>
@@ -7552,13 +7552,13 @@
         <v>0.0</v>
       </c>
       <c r="DB18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC18" t="n">
         <v>0.0</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE18" t="n">
         <v>0.0</v>
@@ -7567,7 +7567,7 @@
         <v>0.0</v>
       </c>
       <c r="DG18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH18" t="n">
         <v>0.0</v>
@@ -7579,7 +7579,7 @@
         <v>0.0</v>
       </c>
       <c r="DK18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL18" t="n">
         <v>0.0</v>
@@ -7591,10 +7591,10 @@
         <v>0.0</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ18" t="n">
         <v>0.0</v>
@@ -7603,16 +7603,16 @@
         <v>0.0</v>
       </c>
       <c r="DS18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT18" t="n">
         <v>0.0</v>
       </c>
       <c r="DU18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW18" t="n">
         <v>0.0</v>
@@ -7624,7 +7624,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA18" t="n">
         <v>0.0</v>
@@ -7633,10 +7633,10 @@
         <v>0.0</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE18" t="n">
         <v>0.0</v>
@@ -7648,13 +7648,13 @@
         <v>0.0</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI18" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -7680,10 +7680,10 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" t="n">
         <v>0.0</v>
@@ -7695,13 +7695,13 @@
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P19" t="n">
         <v>0.0</v>
@@ -7713,10 +7713,10 @@
         <v>0.0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
@@ -7725,10 +7725,10 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y19" t="n">
         <v>0.0</v>
@@ -7740,10 +7740,10 @@
         <v>0.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19" t="n">
         <v>0.0</v>
@@ -7755,16 +7755,16 @@
         <v>0.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH19" t="n">
         <v>0.0</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK19" t="n">
         <v>0.0</v>
@@ -7773,7 +7773,7 @@
         <v>0.0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN19" t="n">
         <v>0.0</v>
@@ -7830,13 +7830,13 @@
         <v>0.0</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG19" t="n">
         <v>0.0</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI19" t="n">
         <v>0.0</v>
@@ -7848,13 +7848,13 @@
         <v>0.0</v>
       </c>
       <c r="BL19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO19" t="n">
         <v>0.0</v>
@@ -7863,19 +7863,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR19" t="n">
         <v>0.0</v>
       </c>
       <c r="BS19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT19" t="n">
         <v>0.0</v>
       </c>
       <c r="BU19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV19" t="n">
         <v>0.0</v>
@@ -7884,7 +7884,7 @@
         <v>0.0</v>
       </c>
       <c r="BX19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY19" t="n">
         <v>0.0</v>
@@ -7893,7 +7893,7 @@
         <v>0.0</v>
       </c>
       <c r="CA19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB19" t="n">
         <v>0.0</v>
@@ -7905,13 +7905,13 @@
         <v>0.0</v>
       </c>
       <c r="CE19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF19" t="n">
         <v>0.0</v>
       </c>
       <c r="CG19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH19" t="n">
         <v>0.0</v>
@@ -7929,7 +7929,7 @@
         <v>1.0</v>
       </c>
       <c r="CM19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN19" t="n">
         <v>0.0</v>
@@ -7941,7 +7941,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR19" t="n">
         <v>0.0</v>
@@ -7950,10 +7950,10 @@
         <v>0.0</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV19" t="n">
         <v>0.0</v>
@@ -7968,10 +7968,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB19" t="n">
         <v>0.0</v>
@@ -7980,22 +7980,22 @@
         <v>0.0</v>
       </c>
       <c r="DD19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE19" t="n">
         <v>0.0</v>
       </c>
       <c r="DF19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH19" t="n">
         <v>0.0</v>
       </c>
       <c r="DI19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ19" t="n">
         <v>0.0</v>
@@ -8025,13 +8025,13 @@
         <v>0.0</v>
       </c>
       <c r="DS19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT19" t="n">
         <v>0.0</v>
       </c>
       <c r="DU19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV19" t="n">
         <v>0.0</v>
@@ -8043,10 +8043,10 @@
         <v>0.0</v>
       </c>
       <c r="DY19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA19" t="n">
         <v>0.0</v>
@@ -8058,10 +8058,10 @@
         <v>0.0</v>
       </c>
       <c r="ED19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF19" t="n">
         <v>0.0</v>
@@ -8087,22 +8087,22 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -8111,7 +8111,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
@@ -8120,13 +8120,13 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O20" t="n">
         <v>0.0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q20" t="n">
         <v>0.0</v>
@@ -8135,7 +8135,7 @@
         <v>0.0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
@@ -8147,13 +8147,13 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X20" t="n">
         <v>0.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z20" t="n">
         <v>0.0</v>
@@ -8165,19 +8165,19 @@
         <v>0.0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF20" t="n">
         <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH20" t="n">
         <v>0.0</v>
@@ -8210,13 +8210,13 @@
         <v>0.0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU20" t="n">
         <v>0.0</v>
@@ -8228,7 +8228,7 @@
         <v>0.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY20" t="n">
         <v>0.0</v>
@@ -8261,7 +8261,7 @@
         <v>0.0</v>
       </c>
       <c r="BI20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ20" t="n">
         <v>0.0</v>
@@ -8273,16 +8273,16 @@
         <v>0.0</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO20" t="n">
         <v>0.0</v>
       </c>
       <c r="BP20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ20" t="n">
         <v>0.0</v>
@@ -8291,13 +8291,13 @@
         <v>0.0</v>
       </c>
       <c r="BS20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT20" t="n">
         <v>0.0</v>
       </c>
       <c r="BU20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV20" t="n">
         <v>0.0</v>
@@ -8306,7 +8306,7 @@
         <v>0.0</v>
       </c>
       <c r="BX20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY20" t="n">
         <v>0.0</v>
@@ -8315,7 +8315,7 @@
         <v>0.0</v>
       </c>
       <c r="CA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB20" t="n">
         <v>0.0</v>
@@ -8330,19 +8330,19 @@
         <v>0.0</v>
       </c>
       <c r="CF20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI20" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK20" t="n">
         <v>0.0</v>
@@ -8357,16 +8357,16 @@
         <v>0.0</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP20" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS20" t="n">
         <v>0.0</v>
@@ -8378,16 +8378,16 @@
         <v>0.0</v>
       </c>
       <c r="CV20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX20" t="n">
         <v>0.0</v>
       </c>
       <c r="CY20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ20" t="n">
         <v>0.0</v>
@@ -8396,7 +8396,7 @@
         <v>0.0</v>
       </c>
       <c r="DB20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC20" t="n">
         <v>0.0</v>
@@ -8408,7 +8408,7 @@
         <v>0.0</v>
       </c>
       <c r="DF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG20" t="n">
         <v>0.0</v>
@@ -8417,13 +8417,13 @@
         <v>0.0</v>
       </c>
       <c r="DI20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ20" t="n">
         <v>0.0</v>
       </c>
       <c r="DK20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL20" t="n">
         <v>0.0</v>
@@ -8447,16 +8447,16 @@
         <v>0.0</v>
       </c>
       <c r="DS20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT20" t="n">
         <v>0.0</v>
       </c>
       <c r="DU20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW20" t="n">
         <v>0.0</v>
@@ -8468,16 +8468,16 @@
         <v>0.0</v>
       </c>
       <c r="DZ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB20" t="n">
         <v>0.0</v>
       </c>
       <c r="EC20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED20" t="n">
         <v>0.0</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -8515,7 +8515,7 @@
         <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -8533,7 +8533,7 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -8542,7 +8542,7 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O21" t="n">
         <v>0.0</v>
@@ -8563,13 +8563,13 @@
         <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V21" t="n">
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X21" t="n">
         <v>0.0</v>
@@ -8593,7 +8593,7 @@
         <v>1.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF21" t="n">
         <v>0.0</v>
@@ -8605,10 +8605,10 @@
         <v>0.0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK21" t="n">
         <v>0.0</v>
@@ -8620,10 +8620,10 @@
         <v>0.0</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP21" t="n">
         <v>0.0</v>
@@ -8635,7 +8635,7 @@
         <v>0.0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT21" t="n">
         <v>0.0</v>
@@ -8644,16 +8644,16 @@
         <v>0.0</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX21" t="n">
         <v>0.0</v>
       </c>
       <c r="AY21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ21" t="n">
         <v>0.0</v>
@@ -8662,7 +8662,7 @@
         <v>0.0</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC21" t="n">
         <v>0.0</v>
@@ -8674,10 +8674,10 @@
         <v>0.0</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH21" t="n">
         <v>0.0</v>
@@ -8689,10 +8689,10 @@
         <v>0.0</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM21" t="n">
         <v>0.0</v>
@@ -8704,13 +8704,13 @@
         <v>0.0</v>
       </c>
       <c r="BP21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ21" t="n">
         <v>0.0</v>
       </c>
       <c r="BR21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS21" t="n">
         <v>0.0</v>
@@ -8719,16 +8719,16 @@
         <v>0.0</v>
       </c>
       <c r="BU21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW21" t="n">
         <v>0.0</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY21" t="n">
         <v>0.0</v>
@@ -8737,7 +8737,7 @@
         <v>0.0</v>
       </c>
       <c r="CA21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB21" t="n">
         <v>0.0</v>
@@ -8749,16 +8749,16 @@
         <v>0.0</v>
       </c>
       <c r="CE21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF21" t="n">
         <v>0.0</v>
       </c>
       <c r="CG21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI21" t="n">
         <v>0.0</v>
@@ -8767,7 +8767,7 @@
         <v>0.0</v>
       </c>
       <c r="CK21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL21" t="n">
         <v>0.0</v>
@@ -8788,7 +8788,7 @@
         <v>0.0</v>
       </c>
       <c r="CR21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS21" t="n">
         <v>0.0</v>
@@ -8800,7 +8800,7 @@
         <v>0.0</v>
       </c>
       <c r="CV21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW21" t="n">
         <v>0.0</v>
@@ -8809,13 +8809,13 @@
         <v>0.0</v>
       </c>
       <c r="CY21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ21" t="n">
         <v>0.0</v>
       </c>
       <c r="DA21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB21" t="n">
         <v>0.0</v>
@@ -8827,10 +8827,10 @@
         <v>0.0</v>
       </c>
       <c r="DE21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG21" t="n">
         <v>0.0</v>
@@ -8839,13 +8839,13 @@
         <v>0.0</v>
       </c>
       <c r="DI21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ21" t="n">
         <v>0.0</v>
       </c>
       <c r="DK21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL21" t="n">
         <v>0.0</v>
@@ -8854,13 +8854,13 @@
         <v>0.0</v>
       </c>
       <c r="DN21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO21" t="n">
         <v>0.0</v>
       </c>
       <c r="DP21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ21" t="n">
         <v>0.0</v>
@@ -8869,13 +8869,13 @@
         <v>0.0</v>
       </c>
       <c r="DS21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT21" t="n">
         <v>0.0</v>
       </c>
       <c r="DU21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV21" t="n">
         <v>0.0</v>
@@ -8899,16 +8899,16 @@
         <v>0.0</v>
       </c>
       <c r="EC21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED21" t="n">
         <v>0.0</v>
       </c>
       <c r="EE21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG21" t="n">
         <v>0.0</v>
@@ -8920,7 +8920,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -8955,7 +8955,7 @@
         <v>1.0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -8964,13 +8964,13 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O22" t="n">
         <v>0.0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
@@ -8979,7 +8979,7 @@
         <v>0.0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T22" t="n">
         <v>0.0</v>
@@ -8994,10 +8994,10 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z22" t="n">
         <v>0.0</v>
@@ -9006,10 +9006,10 @@
         <v>0.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22" t="n">
         <v>0.0</v>
@@ -9021,22 +9021,22 @@
         <v>0.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH22" t="n">
         <v>0.0</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK22" t="n">
         <v>0.0</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM22" t="n">
         <v>0.0</v>
@@ -9069,13 +9069,13 @@
         <v>0.0</v>
       </c>
       <c r="AW22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ22" t="n">
         <v>0.0</v>
@@ -9087,7 +9087,7 @@
         <v>0.0</v>
       </c>
       <c r="BC22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD22" t="n">
         <v>0.0</v>
@@ -9096,10 +9096,10 @@
         <v>0.0</v>
       </c>
       <c r="BF22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH22" t="n">
         <v>0.0</v>
@@ -9114,10 +9114,10 @@
         <v>0.0</v>
       </c>
       <c r="BL22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN22" t="n">
         <v>0.0</v>
@@ -9141,10 +9141,10 @@
         <v>0.0</v>
       </c>
       <c r="BU22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW22" t="n">
         <v>0.0</v>
@@ -9156,22 +9156,22 @@
         <v>0.0</v>
       </c>
       <c r="BZ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB22" t="n">
         <v>0.0</v>
       </c>
       <c r="CC22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD22" t="n">
         <v>0.0</v>
       </c>
       <c r="CE22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF22" t="n">
         <v>0.0</v>
@@ -9195,13 +9195,13 @@
         <v>1.0</v>
       </c>
       <c r="CM22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN22" t="n">
         <v>0.0</v>
       </c>
       <c r="CO22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP22" t="n">
         <v>0.0</v>
@@ -9210,7 +9210,7 @@
         <v>0.0</v>
       </c>
       <c r="CR22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS22" t="n">
         <v>0.0</v>
@@ -9222,7 +9222,7 @@
         <v>0.0</v>
       </c>
       <c r="CV22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW22" t="n">
         <v>1.0</v>
@@ -9246,16 +9246,16 @@
         <v>0.0</v>
       </c>
       <c r="DD22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF22" t="n">
         <v>0.0</v>
       </c>
       <c r="DG22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH22" t="n">
         <v>0.0</v>
@@ -9267,16 +9267,16 @@
         <v>0.0</v>
       </c>
       <c r="DK22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM22" t="n">
         <v>0.0</v>
       </c>
       <c r="DN22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO22" t="n">
         <v>0.0</v>
@@ -9306,10 +9306,10 @@
         <v>0.0</v>
       </c>
       <c r="DX22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ22" t="n">
         <v>0.0</v>
@@ -9330,7 +9330,7 @@
         <v>0.0</v>
       </c>
       <c r="EF22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG22" t="n">
         <v>0.0</v>
@@ -9342,18 +9342,18 @@
         <v>0.0</v>
       </c>
       <c r="EJ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
@@ -9401,10 +9401,10 @@
         <v>0.0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
@@ -9413,13 +9413,13 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X23" t="n">
         <v>0.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z23" t="n">
         <v>0.0</v>
@@ -9452,13 +9452,13 @@
         <v>0.0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK23" t="n">
         <v>0.0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM23" t="n">
         <v>0.0</v>
@@ -9467,13 +9467,13 @@
         <v>0.0</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP23" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR23" t="n">
         <v>0.0</v>
@@ -9488,16 +9488,16 @@
         <v>0.0</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX23" t="n">
         <v>0.0</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ23" t="n">
         <v>0.0</v>
@@ -9506,7 +9506,7 @@
         <v>0.0</v>
       </c>
       <c r="BB23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC23" t="n">
         <v>0.0</v>
@@ -9542,13 +9542,13 @@
         <v>0.0</v>
       </c>
       <c r="BN23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO23" t="n">
         <v>0.0</v>
       </c>
       <c r="BP23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ23" t="n">
         <v>0.0</v>
@@ -9623,16 +9623,16 @@
         <v>0.0</v>
       </c>
       <c r="CO23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP23" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS23" t="n">
         <v>0.0</v>
@@ -9644,16 +9644,16 @@
         <v>0.0</v>
       </c>
       <c r="CV23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX23" t="n">
         <v>0.0</v>
       </c>
       <c r="CY23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ23" t="n">
         <v>0.0</v>
@@ -9668,10 +9668,10 @@
         <v>0.0</v>
       </c>
       <c r="DD23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF23" t="n">
         <v>0.0</v>
@@ -9683,10 +9683,10 @@
         <v>0.0</v>
       </c>
       <c r="DI23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK23" t="n">
         <v>0.0</v>
@@ -9698,16 +9698,16 @@
         <v>0.0</v>
       </c>
       <c r="DN23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP23" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR23" t="n">
         <v>0.0</v>
@@ -9716,13 +9716,13 @@
         <v>0.0</v>
       </c>
       <c r="DT23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU23" t="n">
         <v>0.0</v>
       </c>
       <c r="DV23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW23" t="n">
         <v>0.0</v>
@@ -9731,7 +9731,7 @@
         <v>0.0</v>
       </c>
       <c r="DY23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ23" t="n">
         <v>0.0</v>
@@ -9752,7 +9752,7 @@
         <v>0.0</v>
       </c>
       <c r="EF23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG23" t="n">
         <v>0.0</v>
@@ -9761,7 +9761,7 @@
         <v>0.0</v>
       </c>
       <c r="EI23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ23" t="n">
         <v>0.0</v>
@@ -9769,13 +9769,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
@@ -9793,10 +9793,10 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K24" t="n">
         <v>0.0</v>
@@ -9805,16 +9805,16 @@
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O24" t="n">
         <v>0.0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q24" t="n">
         <v>0.0</v>
@@ -9826,7 +9826,7 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
@@ -9850,10 +9850,10 @@
         <v>0.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD24" t="n">
         <v>0.0</v>
@@ -9865,13 +9865,13 @@
         <v>0.0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH24" t="n">
         <v>0.0</v>
       </c>
       <c r="AI24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ24" t="n">
         <v>0.0</v>
@@ -9889,13 +9889,13 @@
         <v>1.0</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP24" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR24" t="n">
         <v>0.0</v>
@@ -9940,16 +9940,16 @@
         <v>0.0</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH24" t="n">
         <v>0.0</v>
       </c>
       <c r="BI24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ24" t="n">
         <v>0.0</v>
@@ -9958,7 +9958,7 @@
         <v>0.0</v>
       </c>
       <c r="BL24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM24" t="n">
         <v>0.0</v>
@@ -9973,13 +9973,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT24" t="n">
         <v>0.0</v>
@@ -9991,7 +9991,7 @@
         <v>0.0</v>
       </c>
       <c r="BW24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX24" t="n">
         <v>0.0</v>
@@ -10000,10 +10000,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB24" t="n">
         <v>0.0</v>
@@ -10015,13 +10015,13 @@
         <v>0.0</v>
       </c>
       <c r="CE24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF24" t="n">
         <v>0.0</v>
       </c>
       <c r="CG24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH24" t="n">
         <v>0.0</v>
@@ -10033,13 +10033,13 @@
         <v>0.0</v>
       </c>
       <c r="CK24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN24" t="n">
         <v>0.0</v>
@@ -10048,13 +10048,13 @@
         <v>0.0</v>
       </c>
       <c r="CP24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ24" t="n">
         <v>0.0</v>
       </c>
       <c r="CR24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS24" t="n">
         <v>0.0</v>
@@ -10063,7 +10063,7 @@
         <v>0.0</v>
       </c>
       <c r="CU24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV24" t="n">
         <v>0.0</v>
@@ -10075,13 +10075,13 @@
         <v>0.0</v>
       </c>
       <c r="CY24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ24" t="n">
         <v>0.0</v>
       </c>
       <c r="DA24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB24" t="n">
         <v>0.0</v>
@@ -10090,22 +10090,22 @@
         <v>0.0</v>
       </c>
       <c r="DD24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE24" t="n">
         <v>0.0</v>
       </c>
       <c r="DF24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH24" t="n">
         <v>0.0</v>
       </c>
       <c r="DI24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ24" t="n">
         <v>0.0</v>
@@ -10138,13 +10138,13 @@
         <v>0.0</v>
       </c>
       <c r="DT24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW24" t="n">
         <v>0.0</v>
@@ -10153,7 +10153,7 @@
         <v>0.0</v>
       </c>
       <c r="DY24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ24" t="n">
         <v>0.0</v>
@@ -10165,16 +10165,16 @@
         <v>0.0</v>
       </c>
       <c r="EC24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED24" t="n">
         <v>0.0</v>
       </c>
       <c r="EE24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG24" t="n">
         <v>0.0</v>
@@ -10186,7 +10186,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -10206,13 +10206,13 @@
         <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -10221,7 +10221,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
@@ -10230,7 +10230,7 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O25" t="n">
         <v>0.0</v>
@@ -10245,10 +10245,10 @@
         <v>0.0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
@@ -10257,10 +10257,10 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y25" t="n">
         <v>0.0</v>
@@ -10275,13 +10275,13 @@
         <v>0.0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF25" t="n">
         <v>0.0</v>
@@ -10293,7 +10293,7 @@
         <v>0.0</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ25" t="n">
         <v>0.0</v>
@@ -10311,7 +10311,7 @@
         <v>0.0</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP25" t="n">
         <v>0.0</v>
@@ -10320,19 +10320,19 @@
         <v>0.0</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS25" t="n">
         <v>0.0</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU25" t="n">
         <v>0.0</v>
       </c>
       <c r="AV25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW25" t="n">
         <v>0.0</v>
@@ -10341,13 +10341,13 @@
         <v>0.0</v>
       </c>
       <c r="AY25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ25" t="n">
         <v>0.0</v>
       </c>
       <c r="BA25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB25" t="n">
         <v>0.0</v>
@@ -10356,13 +10356,13 @@
         <v>0.0</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE25" t="n">
         <v>0.0</v>
       </c>
       <c r="BF25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG25" t="n">
         <v>0.0</v>
@@ -10371,13 +10371,13 @@
         <v>0.0</v>
       </c>
       <c r="BI25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ25" t="n">
         <v>0.0</v>
       </c>
       <c r="BK25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL25" t="n">
         <v>0.0</v>
@@ -10395,10 +10395,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS25" t="n">
         <v>0.0</v>
@@ -10410,10 +10410,10 @@
         <v>0.0</v>
       </c>
       <c r="BV25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX25" t="n">
         <v>0.0</v>
@@ -10431,7 +10431,7 @@
         <v>1.0</v>
       </c>
       <c r="CC25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD25" t="n">
         <v>0.0</v>
@@ -10440,7 +10440,7 @@
         <v>0.0</v>
       </c>
       <c r="CF25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG25" t="n">
         <v>0.0</v>
@@ -10467,10 +10467,10 @@
         <v>0.0</v>
       </c>
       <c r="CO25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ25" t="n">
         <v>0.0</v>
@@ -10491,7 +10491,7 @@
         <v>0.0</v>
       </c>
       <c r="CW25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX25" t="n">
         <v>0.0</v>
@@ -10503,10 +10503,10 @@
         <v>0.0</v>
       </c>
       <c r="DA25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC25" t="n">
         <v>0.0</v>
@@ -10515,7 +10515,7 @@
         <v>0.0</v>
       </c>
       <c r="DE25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF25" t="n">
         <v>0.0</v>
@@ -10530,10 +10530,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL25" t="n">
         <v>0.0</v>
@@ -10551,7 +10551,7 @@
         <v>1.0</v>
       </c>
       <c r="DQ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR25" t="n">
         <v>0.0</v>
@@ -10563,16 +10563,16 @@
         <v>0.0</v>
       </c>
       <c r="DU25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW25" t="n">
         <v>0.0</v>
       </c>
       <c r="DX25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY25" t="n">
         <v>0.0</v>
@@ -10581,7 +10581,7 @@
         <v>0.0</v>
       </c>
       <c r="EA25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB25" t="n">
         <v>0.0</v>
@@ -10593,7 +10593,7 @@
         <v>0.0</v>
       </c>
       <c r="EE25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF25" t="n">
         <v>0.0</v>
@@ -10605,21 +10605,21 @@
         <v>0.0</v>
       </c>
       <c r="EI25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
@@ -10643,7 +10643,7 @@
         <v>1.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
@@ -10655,16 +10655,16 @@
         <v>0.0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" t="n">
         <v>0.0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S26" t="n">
         <v>0.0</v>
@@ -10673,7 +10673,7 @@
         <v>0.0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V26" t="n">
         <v>0.0</v>
@@ -10682,7 +10682,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y26" t="n">
         <v>0.0</v>
@@ -10697,10 +10697,10 @@
         <v>0.0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE26" t="n">
         <v>0.0</v>
@@ -10712,10 +10712,10 @@
         <v>0.0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ26" t="n">
         <v>0.0</v>
@@ -10727,13 +10727,13 @@
         <v>0.0</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP26" t="n">
         <v>0.0</v>
@@ -10742,19 +10742,19 @@
         <v>0.0</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS26" t="n">
         <v>0.0</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU26" t="n">
         <v>0.0</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW26" t="n">
         <v>0.0</v>
@@ -10784,22 +10784,22 @@
         <v>0.0</v>
       </c>
       <c r="BF26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG26" t="n">
         <v>0.0</v>
       </c>
       <c r="BH26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ26" t="n">
         <v>0.0</v>
       </c>
       <c r="BK26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL26" t="n">
         <v>0.0</v>
@@ -10808,13 +10808,13 @@
         <v>0.0</v>
       </c>
       <c r="BN26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO26" t="n">
         <v>0.0</v>
       </c>
       <c r="BP26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ26" t="n">
         <v>0.0</v>
@@ -10829,13 +10829,13 @@
         <v>0.0</v>
       </c>
       <c r="BU26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV26" t="n">
         <v>0.0</v>
       </c>
       <c r="BW26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX26" t="n">
         <v>0.0</v>
@@ -10847,19 +10847,19 @@
         <v>0.0</v>
       </c>
       <c r="CA26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD26" t="n">
         <v>0.0</v>
       </c>
       <c r="CE26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF26" t="n">
         <v>0.0</v>
@@ -10868,13 +10868,13 @@
         <v>0.0</v>
       </c>
       <c r="CH26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI26" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK26" t="n">
         <v>0.0</v>
@@ -10883,7 +10883,7 @@
         <v>0.0</v>
       </c>
       <c r="CM26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN26" t="n">
         <v>0.0</v>
@@ -10895,7 +10895,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR26" t="n">
         <v>1.0</v>
@@ -10922,13 +10922,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC26" t="n">
         <v>0.0</v>
@@ -10940,10 +10940,10 @@
         <v>0.0</v>
       </c>
       <c r="DF26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH26" t="n">
         <v>0.0</v>
@@ -10952,7 +10952,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK26" t="n">
         <v>0.0</v>
@@ -10979,10 +10979,10 @@
         <v>0.0</v>
       </c>
       <c r="DS26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU26" t="n">
         <v>0.0</v>
@@ -11003,7 +11003,7 @@
         <v>0.0</v>
       </c>
       <c r="EA26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB26" t="n">
         <v>0.0</v>
@@ -11015,10 +11015,10 @@
         <v>0.0</v>
       </c>
       <c r="EE26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG26" t="n">
         <v>0.0</v>
@@ -11030,18 +11030,18 @@
         <v>0.0</v>
       </c>
       <c r="EJ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
@@ -11059,13 +11059,13 @@
         <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -11074,7 +11074,7 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
@@ -11125,7 +11125,7 @@
         <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF27" t="n">
         <v>0.0</v>
@@ -11137,7 +11137,7 @@
         <v>0.0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0.0</v>
@@ -11170,7 +11170,7 @@
         <v>0.0</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU27" t="n">
         <v>0.0</v>
@@ -11179,7 +11179,7 @@
         <v>0.0</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX27" t="n">
         <v>0.0</v>
@@ -11206,16 +11206,16 @@
         <v>0.0</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG27" t="n">
         <v>0.0</v>
       </c>
       <c r="BH27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ27" t="n">
         <v>0.0</v>
@@ -11227,7 +11227,7 @@
         <v>0.0</v>
       </c>
       <c r="BM27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN27" t="n">
         <v>0.0</v>
@@ -11239,13 +11239,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT27" t="n">
         <v>0.0</v>
@@ -11254,13 +11254,13 @@
         <v>0.0</v>
       </c>
       <c r="BV27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW27" t="n">
         <v>0.0</v>
       </c>
       <c r="BX27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY27" t="n">
         <v>0.0</v>
@@ -11269,7 +11269,7 @@
         <v>0.0</v>
       </c>
       <c r="CA27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB27" t="n">
         <v>0.0</v>
@@ -11281,22 +11281,22 @@
         <v>0.0</v>
       </c>
       <c r="CE27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG27" t="n">
         <v>0.0</v>
       </c>
       <c r="CH27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI27" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK27" t="n">
         <v>0.0</v>
@@ -11311,13 +11311,13 @@
         <v>0.0</v>
       </c>
       <c r="CO27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP27" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR27" t="n">
         <v>0.0</v>
@@ -11329,10 +11329,10 @@
         <v>0.0</v>
       </c>
       <c r="CU27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW27" t="n">
         <v>0.0</v>
@@ -11341,13 +11341,13 @@
         <v>0.0</v>
       </c>
       <c r="CY27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ27" t="n">
         <v>0.0</v>
       </c>
       <c r="DA27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB27" t="n">
         <v>0.0</v>
@@ -11356,10 +11356,10 @@
         <v>0.0</v>
       </c>
       <c r="DD27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF27" t="n">
         <v>0.0</v>
@@ -11386,22 +11386,22 @@
         <v>0.0</v>
       </c>
       <c r="DN27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO27" t="n">
         <v>0.0</v>
       </c>
       <c r="DP27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR27" t="n">
         <v>0.0</v>
       </c>
       <c r="DS27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT27" t="n">
         <v>0.0</v>
@@ -11425,7 +11425,7 @@
         <v>1.0</v>
       </c>
       <c r="EA27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB27" t="n">
         <v>0.0</v>
@@ -11434,7 +11434,7 @@
         <v>0.0</v>
       </c>
       <c r="ED27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE27" t="n">
         <v>0.0</v>
@@ -11449,10 +11449,10 @@
         <v>0.0</v>
       </c>
       <c r="EI27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -11463,22 +11463,22 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -11493,10 +11493,10 @@
         <v>0.0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O28" t="n">
         <v>0.0</v>
@@ -11517,13 +11517,13 @@
         <v>1.0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V28" t="n">
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X28" t="n">
         <v>0.0</v>
@@ -11538,13 +11538,13 @@
         <v>0.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" t="n">
         <v>0.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE28" t="n">
         <v>1.0</v>
@@ -11571,10 +11571,10 @@
         <v>0.0</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO28" t="n">
         <v>1.0</v>
@@ -11592,7 +11592,7 @@
         <v>0.0</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU28" t="n">
         <v>0.0</v>
@@ -11601,7 +11601,7 @@
         <v>0.0</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX28" t="n">
         <v>0.0</v>
@@ -11628,13 +11628,13 @@
         <v>0.0</v>
       </c>
       <c r="BF28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG28" t="n">
         <v>0.0</v>
       </c>
       <c r="BH28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI28" t="n">
         <v>0.0</v>
@@ -11646,10 +11646,10 @@
         <v>0.0</v>
       </c>
       <c r="BL28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN28" t="n">
         <v>0.0</v>
@@ -11658,13 +11658,13 @@
         <v>0.0</v>
       </c>
       <c r="BP28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ28" t="n">
         <v>0.0</v>
       </c>
       <c r="BR28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS28" t="n">
         <v>0.0</v>
@@ -11673,16 +11673,16 @@
         <v>0.0</v>
       </c>
       <c r="BU28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV28" t="n">
         <v>0.0</v>
       </c>
       <c r="BW28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY28" t="n">
         <v>0.0</v>
@@ -11691,7 +11691,7 @@
         <v>0.0</v>
       </c>
       <c r="CA28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB28" t="n">
         <v>0.0</v>
@@ -11712,7 +11712,7 @@
         <v>1.0</v>
       </c>
       <c r="CH28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI28" t="n">
         <v>0.0</v>
@@ -11721,7 +11721,7 @@
         <v>0.0</v>
       </c>
       <c r="CK28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL28" t="n">
         <v>0.0</v>
@@ -11748,10 +11748,10 @@
         <v>0.0</v>
       </c>
       <c r="CT28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV28" t="n">
         <v>0.0</v>
@@ -11766,19 +11766,19 @@
         <v>0.0</v>
       </c>
       <c r="CZ28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC28" t="n">
         <v>0.0</v>
       </c>
       <c r="DD28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE28" t="n">
         <v>0.0</v>
@@ -11787,7 +11787,7 @@
         <v>0.0</v>
       </c>
       <c r="DG28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH28" t="n">
         <v>0.0</v>
@@ -11799,7 +11799,7 @@
         <v>0.0</v>
       </c>
       <c r="DK28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL28" t="n">
         <v>0.0</v>
@@ -11823,10 +11823,10 @@
         <v>0.0</v>
       </c>
       <c r="DS28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU28" t="n">
         <v>0.0</v>
@@ -11838,13 +11838,13 @@
         <v>0.0</v>
       </c>
       <c r="DX28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY28" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA28" t="n">
         <v>0.0</v>
@@ -11909,7 +11909,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
@@ -11921,10 +11921,10 @@
         <v>0.0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" t="n">
         <v>0.0</v>
@@ -11933,7 +11933,7 @@
         <v>0.0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T29" t="n">
         <v>0.0</v>
@@ -11948,10 +11948,10 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z29" t="n">
         <v>1.0</v>
@@ -11990,13 +11990,13 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM29" t="n">
         <v>0.0</v>
       </c>
       <c r="AN29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO29" t="n">
         <v>0.0</v>
@@ -12014,7 +12014,7 @@
         <v>1.0</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU29" t="n">
         <v>0.0</v>
@@ -12023,7 +12023,7 @@
         <v>0.0</v>
       </c>
       <c r="AW29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX29" t="n">
         <v>0.0</v>
@@ -12050,13 +12050,13 @@
         <v>0.0</v>
       </c>
       <c r="BF29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG29" t="n">
         <v>0.0</v>
       </c>
       <c r="BH29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI29" t="n">
         <v>0.0</v>
@@ -12065,10 +12065,10 @@
         <v>0.0</v>
       </c>
       <c r="BK29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM29" t="n">
         <v>0.0</v>
@@ -12080,10 +12080,10 @@
         <v>0.0</v>
       </c>
       <c r="BP29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR29" t="n">
         <v>0.0</v>
@@ -12095,13 +12095,13 @@
         <v>0.0</v>
       </c>
       <c r="BU29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV29" t="n">
         <v>0.0</v>
       </c>
       <c r="BW29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX29" t="n">
         <v>0.0</v>
@@ -12110,22 +12110,22 @@
         <v>0.0</v>
       </c>
       <c r="BZ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA29" t="n">
         <v>0.0</v>
       </c>
       <c r="CB29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD29" t="n">
         <v>0.0</v>
       </c>
       <c r="CE29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF29" t="n">
         <v>0.0</v>
@@ -12134,7 +12134,7 @@
         <v>0.0</v>
       </c>
       <c r="CH29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI29" t="n">
         <v>0.0</v>
@@ -12146,7 +12146,7 @@
         <v>0.0</v>
       </c>
       <c r="CL29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM29" t="n">
         <v>0.0</v>
@@ -12164,7 +12164,7 @@
         <v>0.0</v>
       </c>
       <c r="CR29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS29" t="n">
         <v>0.0</v>
@@ -12176,7 +12176,7 @@
         <v>0.0</v>
       </c>
       <c r="CV29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW29" t="n">
         <v>0.0</v>
@@ -12188,10 +12188,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB29" t="n">
         <v>0.0</v>
@@ -12218,10 +12218,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL29" t="n">
         <v>0.0</v>
@@ -12239,7 +12239,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR29" t="n">
         <v>0.0</v>
@@ -12251,7 +12251,7 @@
         <v>0.0</v>
       </c>
       <c r="DU29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV29" t="n">
         <v>0.0</v>
@@ -12278,19 +12278,19 @@
         <v>0.0</v>
       </c>
       <c r="ED29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG29" t="n">
         <v>0.0</v>
       </c>
       <c r="EH29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI29" t="n">
         <v>0.0</v>
@@ -12301,7 +12301,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -12310,7 +12310,7 @@
         <v>0.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E30" t="n">
         <v>0.0</v>
@@ -12322,16 +12322,16 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
@@ -12343,7 +12343,7 @@
         <v>0.0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P30" t="n">
         <v>0.0</v>
@@ -12361,7 +12361,7 @@
         <v>0.0</v>
       </c>
       <c r="U30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V30" t="n">
         <v>0.0</v>
@@ -12373,10 +12373,10 @@
         <v>0.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA30" t="n">
         <v>0.0</v>
@@ -12388,10 +12388,10 @@
         <v>0.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF30" t="n">
         <v>0.0</v>
@@ -12400,7 +12400,7 @@
         <v>0.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI30" t="n">
         <v>0.0</v>
@@ -12421,13 +12421,13 @@
         <v>1.0</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP30" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR30" t="n">
         <v>0.0</v>
@@ -12472,22 +12472,22 @@
         <v>0.0</v>
       </c>
       <c r="BF30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH30" t="n">
         <v>0.0</v>
       </c>
       <c r="BI30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ30" t="n">
         <v>0.0</v>
       </c>
       <c r="BK30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL30" t="n">
         <v>0.0</v>
@@ -12511,7 +12511,7 @@
         <v>0.0</v>
       </c>
       <c r="BS30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT30" t="n">
         <v>0.0</v>
@@ -12523,7 +12523,7 @@
         <v>0.0</v>
       </c>
       <c r="BW30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX30" t="n">
         <v>0.0</v>
@@ -12532,13 +12532,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA30" t="n">
         <v>0.0</v>
       </c>
       <c r="CB30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC30" t="n">
         <v>0.0</v>
@@ -12556,7 +12556,7 @@
         <v>0.0</v>
       </c>
       <c r="CH30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI30" t="n">
         <v>0.0</v>
@@ -12565,13 +12565,13 @@
         <v>0.0</v>
       </c>
       <c r="CK30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL30" t="n">
         <v>0.0</v>
       </c>
       <c r="CM30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN30" t="n">
         <v>0.0</v>
@@ -12583,7 +12583,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR30" t="n">
         <v>0.0</v>
@@ -12592,16 +12592,16 @@
         <v>0.0</v>
       </c>
       <c r="CT30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU30" t="n">
         <v>0.0</v>
       </c>
       <c r="CV30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX30" t="n">
         <v>0.0</v>
@@ -12610,7 +12610,7 @@
         <v>0.0</v>
       </c>
       <c r="CZ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA30" t="n">
         <v>0.0</v>
@@ -12622,13 +12622,13 @@
         <v>0.0</v>
       </c>
       <c r="DD30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE30" t="n">
         <v>0.0</v>
       </c>
       <c r="DF30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG30" t="n">
         <v>0.0</v>
@@ -12637,16 +12637,16 @@
         <v>0.0</v>
       </c>
       <c r="DI30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ30" t="n">
         <v>0.0</v>
       </c>
       <c r="DK30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM30" t="n">
         <v>0.0</v>
@@ -12655,13 +12655,13 @@
         <v>0.0</v>
       </c>
       <c r="DO30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP30" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR30" t="n">
         <v>0.0</v>
@@ -12670,7 +12670,7 @@
         <v>0.0</v>
       </c>
       <c r="DT30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU30" t="n">
         <v>0.0</v>
@@ -12682,13 +12682,13 @@
         <v>0.0</v>
       </c>
       <c r="DX30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY30" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA30" t="n">
         <v>0.0</v>
@@ -12700,13 +12700,13 @@
         <v>0.0</v>
       </c>
       <c r="ED30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG30" t="n">
         <v>0.0</v>
@@ -12715,7 +12715,7 @@
         <v>0.0</v>
       </c>
       <c r="EI30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ30" t="n">
         <v>0.0</v>
@@ -12738,7 +12738,7 @@
         <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -12750,7 +12750,7 @@
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
@@ -12768,13 +12768,13 @@
         <v>1.0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" t="n">
         <v>0.0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S31" t="n">
         <v>0.0</v>
@@ -12804,10 +12804,10 @@
         <v>0.0</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD31" t="n">
         <v>0.0</v>
@@ -12828,13 +12828,13 @@
         <v>1.0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK31" t="n">
         <v>0.0</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM31" t="n">
         <v>0.0</v>
@@ -12852,19 +12852,19 @@
         <v>0.0</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU31" t="n">
         <v>0.0</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW31" t="n">
         <v>0.0</v>
@@ -12894,22 +12894,22 @@
         <v>0.0</v>
       </c>
       <c r="BF31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH31" t="n">
         <v>0.0</v>
       </c>
       <c r="BI31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ31" t="n">
         <v>0.0</v>
       </c>
       <c r="BK31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL31" t="n">
         <v>0.0</v>
@@ -12918,13 +12918,13 @@
         <v>0.0</v>
       </c>
       <c r="BN31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO31" t="n">
         <v>0.0</v>
       </c>
       <c r="BP31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ31" t="n">
         <v>0.0</v>
@@ -12942,13 +12942,13 @@
         <v>0.0</v>
       </c>
       <c r="BV31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY31" t="n">
         <v>0.0</v>
@@ -12960,10 +12960,10 @@
         <v>0.0</v>
       </c>
       <c r="CB31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD31" t="n">
         <v>0.0</v>
@@ -12975,7 +12975,7 @@
         <v>0.0</v>
       </c>
       <c r="CG31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH31" t="n">
         <v>0.0</v>
@@ -12984,10 +12984,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL31" t="n">
         <v>0.0</v>
@@ -12999,16 +12999,16 @@
         <v>0.0</v>
       </c>
       <c r="CO31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ31" t="n">
         <v>0.0</v>
       </c>
       <c r="CR31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS31" t="n">
         <v>0.0</v>
@@ -13017,7 +13017,7 @@
         <v>0.0</v>
       </c>
       <c r="CU31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV31" t="n">
         <v>0.0</v>
@@ -13029,22 +13029,22 @@
         <v>0.0</v>
       </c>
       <c r="CY31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA31" t="n">
         <v>0.0</v>
       </c>
       <c r="DB31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC31" t="n">
         <v>0.0</v>
       </c>
       <c r="DD31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE31" t="n">
         <v>0.0</v>
@@ -13059,16 +13059,16 @@
         <v>0.0</v>
       </c>
       <c r="DI31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ31" t="n">
         <v>0.0</v>
       </c>
       <c r="DK31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM31" t="n">
         <v>0.0</v>
@@ -13080,7 +13080,7 @@
         <v>0.0</v>
       </c>
       <c r="DP31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ31" t="n">
         <v>0.0</v>
@@ -13098,7 +13098,7 @@
         <v>0.0</v>
       </c>
       <c r="DV31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW31" t="n">
         <v>0.0</v>
@@ -13107,7 +13107,7 @@
         <v>0.0</v>
       </c>
       <c r="DY31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ31" t="n">
         <v>0.0</v>
@@ -13134,24 +13134,24 @@
         <v>0.0</v>
       </c>
       <c r="EH31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI31" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" t="n">
         <v>0.0</v>
@@ -13160,7 +13160,7 @@
         <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
@@ -13172,7 +13172,7 @@
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
@@ -13181,10 +13181,10 @@
         <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O32" t="n">
         <v>0.0</v>
@@ -13199,10 +13199,10 @@
         <v>0.0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
@@ -13211,16 +13211,16 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y32" t="n">
         <v>0.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA32" t="n">
         <v>0.0</v>
@@ -13229,13 +13229,13 @@
         <v>0.0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD32" t="n">
         <v>0.0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF32" t="n">
         <v>0.0</v>
@@ -13247,7 +13247,7 @@
         <v>0.0</v>
       </c>
       <c r="AI32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ32" t="n">
         <v>1.0</v>
@@ -13280,13 +13280,13 @@
         <v>1.0</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU32" t="n">
         <v>0.0</v>
       </c>
       <c r="AV32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW32" t="n">
         <v>0.0</v>
@@ -13310,13 +13310,13 @@
         <v>1.0</v>
       </c>
       <c r="BD32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE32" t="n">
         <v>0.0</v>
       </c>
       <c r="BF32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG32" t="n">
         <v>0.0</v>
@@ -13331,16 +13331,16 @@
         <v>0.0</v>
       </c>
       <c r="BK32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM32" t="n">
         <v>0.0</v>
       </c>
       <c r="BN32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO32" t="n">
         <v>0.0</v>
@@ -13352,7 +13352,7 @@
         <v>0.0</v>
       </c>
       <c r="BR32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS32" t="n">
         <v>0.0</v>
@@ -13370,7 +13370,7 @@
         <v>0.0</v>
       </c>
       <c r="BX32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY32" t="n">
         <v>0.0</v>
@@ -13382,7 +13382,7 @@
         <v>0.0</v>
       </c>
       <c r="CB32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC32" t="n">
         <v>1.0</v>
@@ -13400,13 +13400,13 @@
         <v>0.0</v>
       </c>
       <c r="CH32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI32" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK32" t="n">
         <v>0.0</v>
@@ -13421,16 +13421,16 @@
         <v>0.0</v>
       </c>
       <c r="CO32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP32" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS32" t="n">
         <v>0.0</v>
@@ -13442,10 +13442,10 @@
         <v>0.0</v>
       </c>
       <c r="CV32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX32" t="n">
         <v>0.0</v>
@@ -13457,10 +13457,10 @@
         <v>0.0</v>
       </c>
       <c r="DA32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC32" t="n">
         <v>0.0</v>
@@ -13469,7 +13469,7 @@
         <v>0.0</v>
       </c>
       <c r="DE32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF32" t="n">
         <v>0.0</v>
@@ -13481,10 +13481,10 @@
         <v>0.0</v>
       </c>
       <c r="DI32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK32" t="n">
         <v>0.0</v>
@@ -13520,7 +13520,7 @@
         <v>1.0</v>
       </c>
       <c r="DV32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW32" t="n">
         <v>0.0</v>
@@ -13532,7 +13532,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA32" t="n">
         <v>0.0</v>
@@ -13550,7 +13550,7 @@
         <v>0.0</v>
       </c>
       <c r="EF32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG32" t="n">
         <v>0.0</v>
@@ -13562,7 +13562,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/CaseEfinal/files/FormatDepA.xlsx
+++ b/CaseEfinal/files/FormatDepA.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FITNESS = 92421.0" r:id="rId3" sheetId="1"/>
+    <sheet name="FITNESS = 122818.0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -72,10 +72,10 @@
         <v>0.0</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F1" t="n">
         <v>0.0</v>
@@ -87,10 +87,10 @@
         <v>0.0</v>
       </c>
       <c r="I1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K1" t="n">
         <v>0.0</v>
@@ -99,13 +99,13 @@
         <v>0.0</v>
       </c>
       <c r="M1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N1" t="n">
         <v>0.0</v>
       </c>
       <c r="O1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P1" t="n">
         <v>1.0</v>
@@ -123,13 +123,13 @@
         <v>0.0</v>
       </c>
       <c r="U1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V1" t="n">
         <v>0.0</v>
       </c>
       <c r="W1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X1" t="n">
         <v>0.0</v>
@@ -174,13 +174,13 @@
         <v>0.0</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM1" t="n">
         <v>0.0</v>
       </c>
       <c r="AN1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO1" t="n">
         <v>0.0</v>
@@ -192,10 +192,10 @@
         <v>0.0</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT1" t="n">
         <v>0.0</v>
@@ -213,13 +213,13 @@
         <v>0.0</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ1" t="n">
         <v>0.0</v>
       </c>
       <c r="BA1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB1" t="n">
         <v>0.0</v>
@@ -243,7 +243,7 @@
         <v>0.0</v>
       </c>
       <c r="BI1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ1" t="n">
         <v>0.0</v>
@@ -252,7 +252,7 @@
         <v>0.0</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM1" t="n">
         <v>0.0</v>
@@ -267,19 +267,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT1" t="n">
         <v>0.0</v>
       </c>
       <c r="BU1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV1" t="n">
         <v>0.0</v>
@@ -297,10 +297,10 @@
         <v>0.0</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC1" t="n">
         <v>0.0</v>
@@ -309,22 +309,22 @@
         <v>0.0</v>
       </c>
       <c r="CE1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG1" t="n">
         <v>0.0</v>
       </c>
       <c r="CH1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI1" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK1" t="n">
         <v>0.0</v>
@@ -333,7 +333,7 @@
         <v>0.0</v>
       </c>
       <c r="CM1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN1" t="n">
         <v>0.0</v>
@@ -342,19 +342,19 @@
         <v>0.0</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ1" t="n">
         <v>0.0</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS1" t="n">
         <v>0.0</v>
       </c>
       <c r="CT1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU1" t="n">
         <v>0.0</v>
@@ -393,7 +393,7 @@
         <v>1.0</v>
       </c>
       <c r="DG1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH1" t="n">
         <v>0.0</v>
@@ -402,7 +402,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK1" t="n">
         <v>0.0</v>
@@ -447,10 +447,10 @@
         <v>0.0</v>
       </c>
       <c r="DY1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA1" t="n">
         <v>0.0</v>
@@ -491,16 +491,16 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -512,7 +512,7 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" t="n">
         <v>0.0</v>
@@ -521,13 +521,13 @@
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P2" t="n">
         <v>0.0</v>
@@ -551,16 +551,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y2" t="n">
         <v>0.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0</v>
@@ -572,10 +572,10 @@
         <v>0.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF2" t="n">
         <v>0.0</v>
@@ -587,16 +587,16 @@
         <v>0.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK2" t="n">
         <v>0.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM2" t="n">
         <v>0.0</v>
@@ -605,7 +605,7 @@
         <v>0.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP2" t="n">
         <v>0.0</v>
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT2" t="n">
         <v>0.0</v>
@@ -629,19 +629,19 @@
         <v>0.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB2" t="n">
         <v>0.0</v>
@@ -650,13 +650,13 @@
         <v>0.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE2" t="n">
         <v>0.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG2" t="n">
         <v>0.0</v>
@@ -671,10 +671,10 @@
         <v>0.0</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM2" t="n">
         <v>0.0</v>
@@ -689,10 +689,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS2" t="n">
         <v>0.0</v>
@@ -716,16 +716,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB2" t="n">
         <v>0.0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD2" t="n">
         <v>0.0</v>
@@ -737,7 +737,7 @@
         <v>0.0</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH2" t="n">
         <v>0.0</v>
@@ -746,13 +746,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK2" t="n">
         <v>0.0</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM2" t="n">
         <v>1.0</v>
@@ -776,10 +776,10 @@
         <v>0.0</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV2" t="n">
         <v>0.0</v>
@@ -806,13 +806,13 @@
         <v>0.0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE2" t="n">
         <v>0.0</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG2" t="n">
         <v>0.0</v>
@@ -824,10 +824,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL2" t="n">
         <v>0.0</v>
@@ -854,10 +854,10 @@
         <v>0.0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV2" t="n">
         <v>0.0</v>
@@ -869,13 +869,13 @@
         <v>0.0</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB2" t="n">
         <v>0.0</v>
@@ -884,13 +884,13 @@
         <v>0.0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE2" t="n">
         <v>0.0</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG2" t="n">
         <v>0.0</v>
@@ -902,12 +902,12 @@
         <v>0.0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -919,7 +919,7 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -928,13 +928,13 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K3" t="n">
         <v>0.0</v>
@@ -946,19 +946,19 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S3" t="n">
         <v>0.0</v>
@@ -997,13 +997,13 @@
         <v>0.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF3" t="n">
         <v>0.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH3" t="n">
         <v>0.0</v>
@@ -1012,7 +1012,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK3" t="n">
         <v>0.0</v>
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO3" t="n">
         <v>0.0</v>
@@ -1042,7 +1042,7 @@
         <v>0.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU3" t="n">
         <v>0.0</v>
@@ -1054,7 +1054,7 @@
         <v>0.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY3" t="n">
         <v>0.0</v>
@@ -1063,13 +1063,13 @@
         <v>0.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB3" t="n">
         <v>0.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD3" t="n">
         <v>0.0</v>
@@ -1078,10 +1078,10 @@
         <v>0.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH3" t="n">
         <v>0.0</v>
@@ -1126,10 +1126,10 @@
         <v>0.0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX3" t="n">
         <v>0.0</v>
@@ -1138,22 +1138,22 @@
         <v>0.0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB3" t="n">
         <v>0.0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD3" t="n">
         <v>0.0</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF3" t="n">
         <v>0.0</v>
@@ -1168,22 +1168,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL3" t="n">
         <v>0.0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN3" t="n">
         <v>0.0</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP3" t="n">
         <v>0.0</v>
@@ -1192,13 +1192,13 @@
         <v>0.0</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS3" t="n">
         <v>0.0</v>
       </c>
       <c r="CT3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU3" t="n">
         <v>0.0</v>
@@ -1222,7 +1222,7 @@
         <v>1.0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC3" t="n">
         <v>0.0</v>
@@ -1234,7 +1234,7 @@
         <v>0.0</v>
       </c>
       <c r="DF3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG3" t="n">
         <v>0.0</v>
@@ -1243,16 +1243,16 @@
         <v>0.0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ3" t="n">
         <v>0.0</v>
       </c>
       <c r="DK3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM3" t="n">
         <v>0.0</v>
@@ -1261,13 +1261,13 @@
         <v>0.0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP3" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR3" t="n">
         <v>0.0</v>
@@ -1276,7 +1276,7 @@
         <v>0.0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU3" t="n">
         <v>0.0</v>
@@ -1288,13 +1288,13 @@
         <v>0.0</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY3" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA3" t="n">
         <v>0.0</v>
@@ -1359,7 +1359,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
@@ -1371,7 +1371,7 @@
         <v>0.0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P4" t="n">
         <v>1.0</v>
@@ -1425,10 +1425,10 @@
         <v>0.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI4" t="n">
         <v>0.0</v>
@@ -1440,13 +1440,13 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM4" t="n">
         <v>0.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO4" t="n">
         <v>0.0</v>
@@ -1458,10 +1458,10 @@
         <v>0.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT4" t="n">
         <v>0.0</v>
@@ -1503,13 +1503,13 @@
         <v>0.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0.0</v>
@@ -1518,7 +1518,7 @@
         <v>0.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM4" t="n">
         <v>0.0</v>
@@ -1560,13 +1560,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA4" t="n">
         <v>0.0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC4" t="n">
         <v>0.0</v>
@@ -1590,16 +1590,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK4" t="n">
         <v>0.0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN4" t="n">
         <v>0.0</v>
@@ -1608,7 +1608,7 @@
         <v>0.0</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ4" t="n">
         <v>0.0</v>
@@ -1620,22 +1620,22 @@
         <v>0.0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV4" t="n">
         <v>0.0</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX4" t="n">
         <v>0.0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ4" t="n">
         <v>0.0</v>
@@ -1650,13 +1650,13 @@
         <v>0.0</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE4" t="n">
         <v>0.0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG4" t="n">
         <v>0.0</v>
@@ -1665,10 +1665,10 @@
         <v>0.0</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK4" t="n">
         <v>0.0</v>
@@ -1695,13 +1695,13 @@
         <v>0.0</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT4" t="n">
         <v>0.0</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV4" t="n">
         <v>0.0</v>
@@ -1713,13 +1713,13 @@
         <v>0.0</v>
       </c>
       <c r="DY4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB4" t="n">
         <v>0.0</v>
@@ -1728,13 +1728,13 @@
         <v>0.0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE4" t="n">
         <v>0.0</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG4" t="n">
         <v>0.0</v>
@@ -1746,7 +1746,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1802,16 +1802,16 @@
         <v>0.0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S5" t="n">
         <v>0.0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V5" t="n">
         <v>0.0</v>
@@ -1820,7 +1820,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y5" t="n">
         <v>0.0</v>
@@ -1835,19 +1835,19 @@
         <v>0.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF5" t="n">
         <v>0.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH5" t="n">
         <v>0.0</v>
@@ -1862,10 +1862,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN5" t="n">
         <v>0.0</v>
@@ -1877,16 +1877,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR5" t="n">
         <v>0.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU5" t="n">
         <v>0.0</v>
@@ -1898,7 +1898,7 @@
         <v>0.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY5" t="n">
         <v>0.0</v>
@@ -1916,7 +1916,7 @@
         <v>0.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE5" t="n">
         <v>0.0</v>
@@ -1928,16 +1928,16 @@
         <v>0.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL5" t="n">
         <v>0.0</v>
@@ -1955,19 +1955,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT5" t="n">
         <v>0.0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV5" t="n">
         <v>0.0</v>
@@ -2012,10 +2012,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL5" t="n">
         <v>0.0</v>
@@ -2027,16 +2027,16 @@
         <v>0.0</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ5" t="n">
         <v>0.0</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS5" t="n">
         <v>0.0</v>
@@ -2048,7 +2048,7 @@
         <v>0.0</v>
       </c>
       <c r="CV5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW5" t="n">
         <v>0.0</v>
@@ -2066,7 +2066,7 @@
         <v>0.0</v>
       </c>
       <c r="DB5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC5" t="n">
         <v>0.0</v>
@@ -2078,7 +2078,7 @@
         <v>0.0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG5" t="n">
         <v>0.0</v>
@@ -2090,13 +2090,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM5" t="n">
         <v>0.0</v>
@@ -2108,10 +2108,10 @@
         <v>0.0</v>
       </c>
       <c r="DP5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR5" t="n">
         <v>0.0</v>
@@ -2123,7 +2123,7 @@
         <v>0.0</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV5" t="n">
         <v>0.0</v>
@@ -2132,10 +2132,10 @@
         <v>0.0</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0.0</v>
@@ -2156,7 +2156,7 @@
         <v>0.0</v>
       </c>
       <c r="EF5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG5" t="n">
         <v>0.0</v>
@@ -2168,7 +2168,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -2194,13 +2194,13 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K6" t="n">
         <v>0.0</v>
@@ -2224,13 +2224,13 @@
         <v>0.0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
@@ -2248,7 +2248,7 @@
         <v>0.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA6" t="n">
         <v>0.0</v>
@@ -2260,10 +2260,10 @@
         <v>0.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF6" t="n">
         <v>0.0</v>
@@ -2275,7 +2275,7 @@
         <v>0.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -2302,13 +2302,13 @@
         <v>0.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU6" t="n">
         <v>0.0</v>
@@ -2317,7 +2317,7 @@
         <v>0.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX6" t="n">
         <v>0.0</v>
@@ -2347,10 +2347,10 @@
         <v>0.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI6" t="n">
         <v>0.0</v>
@@ -2359,22 +2359,22 @@
         <v>0.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM6" t="n">
         <v>0.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO6" t="n">
         <v>0.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ6" t="n">
         <v>0.0</v>
@@ -2392,13 +2392,13 @@
         <v>0.0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY6" t="n">
         <v>0.0</v>
@@ -2407,13 +2407,13 @@
         <v>0.0</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB6" t="n">
         <v>0.0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD6" t="n">
         <v>0.0</v>
@@ -2422,7 +2422,7 @@
         <v>0.0</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG6" t="n">
         <v>0.0</v>
@@ -2458,7 +2458,7 @@
         <v>0.0</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS6" t="n">
         <v>0.0</v>
@@ -2470,7 +2470,7 @@
         <v>0.0</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW6" t="n">
         <v>0.0</v>
@@ -2488,7 +2488,7 @@
         <v>0.0</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC6" t="n">
         <v>0.0</v>
@@ -2497,13 +2497,13 @@
         <v>0.0</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF6" t="n">
         <v>0.0</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH6" t="n">
         <v>0.0</v>
@@ -2515,10 +2515,10 @@
         <v>0.0</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM6" t="n">
         <v>0.0</v>
@@ -2530,7 +2530,7 @@
         <v>0.0</v>
       </c>
       <c r="DP6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0.0</v>
@@ -2539,13 +2539,13 @@
         <v>0.0</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT6" t="n">
         <v>0.0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV6" t="n">
         <v>0.0</v>
@@ -2557,13 +2557,13 @@
         <v>0.0</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB6" t="n">
         <v>0.0</v>
@@ -2575,7 +2575,7 @@
         <v>0.0</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF6" t="n">
         <v>0.0</v>
@@ -2584,13 +2584,13 @@
         <v>0.0</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI6" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2616,13 +2616,13 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K7" t="n">
         <v>0.0</v>
@@ -2631,22 +2631,22 @@
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O7" t="n">
         <v>0.0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" t="n">
         <v>0.0</v>
@@ -2664,10 +2664,10 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z7" t="n">
         <v>0.0</v>
@@ -2676,16 +2676,16 @@
         <v>0.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC7" t="n">
         <v>0.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF7" t="n">
         <v>0.0</v>
@@ -2694,7 +2694,7 @@
         <v>0.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI7" t="n">
         <v>0.0</v>
@@ -2709,10 +2709,10 @@
         <v>0.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO7" t="n">
         <v>0.0</v>
@@ -2721,16 +2721,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR7" t="n">
         <v>0.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU7" t="n">
         <v>0.0</v>
@@ -2742,7 +2742,7 @@
         <v>0.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY7" t="n">
         <v>0.0</v>
@@ -2751,22 +2751,22 @@
         <v>0.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC7" t="n">
         <v>0.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE7" t="n">
         <v>0.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG7" t="n">
         <v>0.0</v>
@@ -2775,13 +2775,13 @@
         <v>0.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL7" t="n">
         <v>0.0</v>
@@ -2796,22 +2796,22 @@
         <v>0.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR7" t="n">
         <v>0.0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT7" t="n">
         <v>0.0</v>
       </c>
       <c r="BU7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV7" t="n">
         <v>0.0</v>
@@ -2856,10 +2856,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL7" t="n">
         <v>0.0</v>
@@ -2874,10 +2874,10 @@
         <v>0.0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR7" t="n">
         <v>0.0</v>
@@ -2901,10 +2901,10 @@
         <v>0.0</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA7" t="n">
         <v>0.0</v>
@@ -2916,16 +2916,16 @@
         <v>0.0</v>
       </c>
       <c r="DD7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF7" t="n">
         <v>0.0</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH7" t="n">
         <v>0.0</v>
@@ -2937,7 +2937,7 @@
         <v>0.0</v>
       </c>
       <c r="DK7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL7" t="n">
         <v>0.0</v>
@@ -2946,13 +2946,13 @@
         <v>0.0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO7" t="n">
         <v>0.0</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ7" t="n">
         <v>0.0</v>
@@ -2961,13 +2961,13 @@
         <v>0.0</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT7" t="n">
         <v>0.0</v>
       </c>
       <c r="DU7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV7" t="n">
         <v>0.0</v>
@@ -2991,13 +2991,13 @@
         <v>0.0</v>
       </c>
       <c r="EC7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED7" t="n">
         <v>0.0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF7" t="n">
         <v>0.0</v>
@@ -3006,13 +3006,13 @@
         <v>0.0</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI7" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -3023,16 +3023,16 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -3041,7 +3041,7 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
         <v>0.0</v>
@@ -3062,13 +3062,13 @@
         <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S8" t="n">
         <v>0.0</v>
@@ -3077,7 +3077,7 @@
         <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V8" t="n">
         <v>0.0</v>
@@ -3086,19 +3086,19 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="n">
         <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA8" t="n">
         <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC8" t="n">
         <v>0.0</v>
@@ -3143,13 +3143,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR8" t="n">
         <v>0.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
         <v>0.0</v>
@@ -3158,13 +3158,13 @@
         <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" t="n">
         <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY8" t="n">
         <v>0.0</v>
@@ -3176,10 +3176,10 @@
         <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8" t="n">
         <v>0.0</v>
@@ -3188,10 +3188,10 @@
         <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH8" t="n">
         <v>0.0</v>
@@ -3206,10 +3206,10 @@
         <v>0.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN8" t="n">
         <v>0.0</v>
@@ -3218,13 +3218,13 @@
         <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ8" t="n">
         <v>0.0</v>
       </c>
       <c r="BR8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS8" t="n">
         <v>0.0</v>
@@ -3242,7 +3242,7 @@
         <v>0.0</v>
       </c>
       <c r="BX8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY8" t="n">
         <v>0.0</v>
@@ -3254,10 +3254,10 @@
         <v>0.0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD8" t="n">
         <v>0.0</v>
@@ -3266,7 +3266,7 @@
         <v>0.0</v>
       </c>
       <c r="CF8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG8" t="n">
         <v>0.0</v>
@@ -3278,13 +3278,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK8" t="n">
         <v>0.0</v>
       </c>
       <c r="CL8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM8" t="n">
         <v>0.0</v>
@@ -3296,10 +3296,10 @@
         <v>0.0</v>
       </c>
       <c r="CP8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR8" t="n">
         <v>0.0</v>
@@ -3308,22 +3308,22 @@
         <v>0.0</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU8" t="n">
         <v>0.0</v>
       </c>
       <c r="CV8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX8" t="n">
         <v>0.0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ8" t="n">
         <v>0.0</v>
@@ -3332,7 +3332,7 @@
         <v>0.0</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC8" t="n">
         <v>0.0</v>
@@ -3344,7 +3344,7 @@
         <v>0.0</v>
       </c>
       <c r="DF8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG8" t="n">
         <v>1.0</v>
@@ -3362,13 +3362,13 @@
         <v>0.0</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM8" t="n">
         <v>0.0</v>
       </c>
       <c r="DN8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO8" t="n">
         <v>0.0</v>
@@ -3398,22 +3398,22 @@
         <v>0.0</v>
       </c>
       <c r="DX8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY8" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB8" t="n">
         <v>0.0</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED8" t="n">
         <v>0.0</v>
@@ -3431,10 +3431,10 @@
         <v>0.0</v>
       </c>
       <c r="EI8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -3448,19 +3448,19 @@
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -3484,7 +3484,7 @@
         <v>1.0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0</v>
@@ -3496,7 +3496,7 @@
         <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
@@ -3505,22 +3505,22 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA9" t="n">
         <v>0.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC9" t="n">
         <v>0.0</v>
@@ -3565,13 +3565,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR9" t="n">
         <v>0.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT9" t="n">
         <v>0.0</v>
@@ -3589,13 +3589,13 @@
         <v>1.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ9" t="n">
         <v>0.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB9" t="n">
         <v>0.0</v>
@@ -3610,10 +3610,10 @@
         <v>0.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH9" t="n">
         <v>0.0</v>
@@ -3634,13 +3634,13 @@
         <v>1.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO9" t="n">
         <v>0.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ9" t="n">
         <v>0.0</v>
@@ -3664,13 +3664,13 @@
         <v>1.0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY9" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA9" t="n">
         <v>0.0</v>
@@ -3685,10 +3685,10 @@
         <v>0.0</v>
       </c>
       <c r="CE9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG9" t="n">
         <v>0.0</v>
@@ -3700,10 +3700,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL9" t="n">
         <v>0.0</v>
@@ -3715,16 +3715,16 @@
         <v>0.0</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ9" t="n">
         <v>0.0</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS9" t="n">
         <v>0.0</v>
@@ -3733,7 +3733,7 @@
         <v>0.0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV9" t="n">
         <v>0.0</v>
@@ -3748,10 +3748,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB9" t="n">
         <v>0.0</v>
@@ -3760,16 +3760,16 @@
         <v>0.0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF9" t="n">
         <v>0.0</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH9" t="n">
         <v>0.0</v>
@@ -3778,7 +3778,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK9" t="n">
         <v>0.0</v>
@@ -3808,13 +3808,13 @@
         <v>0.0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW9" t="n">
         <v>0.0</v>
@@ -3826,7 +3826,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA9" t="n">
         <v>0.0</v>
@@ -3850,10 +3850,10 @@
         <v>0.0</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ9" t="n">
         <v>0.0</v>
@@ -3867,16 +3867,16 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -3888,10 +3888,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
@@ -3903,16 +3903,16 @@
         <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" t="n">
         <v>0.0</v>
@@ -3927,13 +3927,13 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X10" t="n">
         <v>0.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
         <v>0.0</v>
@@ -3942,10 +3942,10 @@
         <v>0.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD10" t="n">
         <v>0.0</v>
@@ -3957,16 +3957,16 @@
         <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI10" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK10" t="n">
         <v>0.0</v>
@@ -3975,7 +3975,7 @@
         <v>0.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN10" t="n">
         <v>0.0</v>
@@ -3996,7 +3996,7 @@
         <v>1.0</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" t="n">
         <v>0.0</v>
@@ -4008,10 +4008,10 @@
         <v>0.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ10" t="n">
         <v>0.0</v>
@@ -4020,13 +4020,13 @@
         <v>0.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC10" t="n">
         <v>0.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE10" t="n">
         <v>0.0</v>
@@ -4038,10 +4038,10 @@
         <v>0.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0.0</v>
@@ -4050,13 +4050,13 @@
         <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM10" t="n">
         <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO10" t="n">
         <v>0.0</v>
@@ -4068,7 +4068,7 @@
         <v>0.0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS10" t="n">
         <v>0.0</v>
@@ -4086,7 +4086,7 @@
         <v>0.0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY10" t="n">
         <v>0.0</v>
@@ -4098,7 +4098,7 @@
         <v>0.0</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC10" t="n">
         <v>0.0</v>
@@ -4107,10 +4107,10 @@
         <v>0.0</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG10" t="n">
         <v>0.0</v>
@@ -4125,10 +4125,10 @@
         <v>0.0</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM10" t="n">
         <v>0.0</v>
@@ -4167,16 +4167,16 @@
         <v>0.0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA10" t="n">
         <v>0.0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC10" t="n">
         <v>0.0</v>
@@ -4188,7 +4188,7 @@
         <v>0.0</v>
       </c>
       <c r="DF10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG10" t="n">
         <v>0.0</v>
@@ -4197,22 +4197,22 @@
         <v>0.0</v>
       </c>
       <c r="DI10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ10" t="n">
         <v>0.0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM10" t="n">
         <v>0.0</v>
       </c>
       <c r="DN10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO10" t="n">
         <v>0.0</v>
@@ -4221,7 +4221,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR10" t="n">
         <v>0.0</v>
@@ -4233,16 +4233,16 @@
         <v>0.0</v>
       </c>
       <c r="DU10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW10" t="n">
         <v>0.0</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY10" t="n">
         <v>0.0</v>
@@ -4260,13 +4260,13 @@
         <v>0.0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG10" t="n">
         <v>0.0</v>
@@ -4278,18 +4278,18 @@
         <v>0.0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -4319,13 +4319,13 @@
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P11" t="n">
         <v>0.0</v>
@@ -4334,13 +4334,13 @@
         <v>0.0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" t="n">
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
@@ -4349,10 +4349,10 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y11" t="n">
         <v>0.0</v>
@@ -4364,22 +4364,22 @@
         <v>0.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC11" t="n">
         <v>0.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF11" t="n">
         <v>0.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH11" t="n">
         <v>0.0</v>
@@ -4409,13 +4409,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR11" t="n">
         <v>0.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT11" t="n">
         <v>0.0</v>
@@ -4424,13 +4424,13 @@
         <v>0.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW11" t="n">
         <v>0.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY11" t="n">
         <v>0.0</v>
@@ -4439,13 +4439,13 @@
         <v>0.0</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB11" t="n">
         <v>0.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD11" t="n">
         <v>0.0</v>
@@ -4454,10 +4454,10 @@
         <v>0.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH11" t="n">
         <v>0.0</v>
@@ -4478,7 +4478,7 @@
         <v>1.0</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO11" t="n">
         <v>0.0</v>
@@ -4487,7 +4487,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR11" t="n">
         <v>0.0</v>
@@ -4499,10 +4499,10 @@
         <v>0.0</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW11" t="n">
         <v>0.0</v>
@@ -4514,16 +4514,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB11" t="n">
         <v>0.0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD11" t="n">
         <v>0.0</v>
@@ -4535,7 +4535,7 @@
         <v>0.0</v>
       </c>
       <c r="CG11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH11" t="n">
         <v>1.0</v>
@@ -4553,7 +4553,7 @@
         <v>0.0</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN11" t="n">
         <v>0.0</v>
@@ -4565,7 +4565,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR11" t="n">
         <v>0.0</v>
@@ -4574,13 +4574,13 @@
         <v>0.0</v>
       </c>
       <c r="CT11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU11" t="n">
         <v>0.0</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW11" t="n">
         <v>1.0</v>
@@ -4598,13 +4598,13 @@
         <v>0.0</v>
       </c>
       <c r="DB11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC11" t="n">
         <v>0.0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE11" t="n">
         <v>0.0</v>
@@ -4619,16 +4619,16 @@
         <v>0.0</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK11" t="n">
         <v>0.0</v>
       </c>
       <c r="DL11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM11" t="n">
         <v>0.0</v>
@@ -4640,7 +4640,7 @@
         <v>0.0</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ11" t="n">
         <v>0.0</v>
@@ -4649,13 +4649,13 @@
         <v>0.0</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT11" t="n">
         <v>0.0</v>
       </c>
       <c r="DU11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV11" t="n">
         <v>1.0</v>
@@ -4679,13 +4679,13 @@
         <v>0.0</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED11" t="n">
         <v>0.0</v>
       </c>
       <c r="EE11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF11" t="n">
         <v>0.0</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4717,10 +4717,10 @@
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -4732,10 +4732,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
@@ -4747,7 +4747,7 @@
         <v>0.0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P12" t="n">
         <v>0.0</v>
@@ -4756,10 +4756,10 @@
         <v>0.0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -4771,13 +4771,13 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X12" t="n">
         <v>0.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z12" t="n">
         <v>0.0</v>
@@ -4789,10 +4789,10 @@
         <v>0.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE12" t="n">
         <v>0.0</v>
@@ -4801,13 +4801,13 @@
         <v>0.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH12" t="n">
         <v>0.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.0</v>
@@ -4846,10 +4846,10 @@
         <v>0.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX12" t="n">
         <v>0.0</v>
@@ -4861,10 +4861,10 @@
         <v>0.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC12" t="n">
         <v>0.0</v>
@@ -4876,10 +4876,10 @@
         <v>0.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH12" t="n">
         <v>0.0</v>
@@ -4891,16 +4891,16 @@
         <v>0.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL12" t="n">
         <v>0.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO12" t="n">
         <v>0.0</v>
@@ -4912,16 +4912,16 @@
         <v>0.0</v>
       </c>
       <c r="BR12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT12" t="n">
         <v>0.0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV12" t="n">
         <v>0.0</v>
@@ -4936,13 +4936,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA12" t="n">
         <v>0.0</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC12" t="n">
         <v>0.0</v>
@@ -4954,10 +4954,10 @@
         <v>0.0</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH12" t="n">
         <v>0.0</v>
@@ -4975,13 +4975,13 @@
         <v>0.0</v>
       </c>
       <c r="CM12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN12" t="n">
         <v>0.0</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP12" t="n">
         <v>0.0</v>
@@ -4990,13 +4990,13 @@
         <v>0.0</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS12" t="n">
         <v>0.0</v>
       </c>
       <c r="CT12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU12" t="n">
         <v>0.0</v>
@@ -5005,13 +5005,13 @@
         <v>0.0</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX12" t="n">
         <v>0.0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ12" t="n">
         <v>0.0</v>
@@ -5020,7 +5020,7 @@
         <v>0.0</v>
       </c>
       <c r="DB12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC12" t="n">
         <v>0.0</v>
@@ -5032,10 +5032,10 @@
         <v>0.0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH12" t="n">
         <v>0.0</v>
@@ -5047,10 +5047,10 @@
         <v>0.0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM12" t="n">
         <v>0.0</v>
@@ -5062,7 +5062,7 @@
         <v>0.0</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ12" t="n">
         <v>0.0</v>
@@ -5074,10 +5074,10 @@
         <v>0.0</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV12" t="n">
         <v>0.0</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5139,7 +5139,7 @@
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -5172,7 +5172,7 @@
         <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
         <v>0.0</v>
@@ -5181,7 +5181,7 @@
         <v>0.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
@@ -5193,13 +5193,13 @@
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X13" t="n">
         <v>0.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13" t="n">
         <v>0.0</v>
@@ -5223,16 +5223,16 @@
         <v>0.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI13" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK13" t="n">
         <v>0.0</v>
@@ -5241,7 +5241,7 @@
         <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN13" t="n">
         <v>0.0</v>
@@ -5253,16 +5253,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS13" t="n">
         <v>0.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU13" t="n">
         <v>0.0</v>
@@ -5271,7 +5271,7 @@
         <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
         <v>0.0</v>
@@ -5283,10 +5283,10 @@
         <v>0.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13" t="n">
         <v>0.0</v>
@@ -5307,7 +5307,7 @@
         <v>1.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0.0</v>
@@ -5319,16 +5319,16 @@
         <v>0.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO13" t="n">
         <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ13" t="n">
         <v>0.0</v>
@@ -5337,7 +5337,7 @@
         <v>0.0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT13" t="n">
         <v>0.0</v>
@@ -5346,7 +5346,7 @@
         <v>0.0</v>
       </c>
       <c r="BV13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW13" t="n">
         <v>0.0</v>
@@ -5358,16 +5358,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB13" t="n">
         <v>0.0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD13" t="n">
         <v>0.0</v>
@@ -5376,7 +5376,7 @@
         <v>0.0</v>
       </c>
       <c r="CF13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG13" t="n">
         <v>0.0</v>
@@ -5388,10 +5388,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL13" t="n">
         <v>0.0</v>
@@ -5418,13 +5418,13 @@
         <v>0.0</v>
       </c>
       <c r="CT13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU13" t="n">
         <v>0.0</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW13" t="n">
         <v>0.0</v>
@@ -5433,10 +5433,10 @@
         <v>0.0</v>
       </c>
       <c r="CY13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA13" t="n">
         <v>0.0</v>
@@ -5448,16 +5448,16 @@
         <v>0.0</v>
       </c>
       <c r="DD13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE13" t="n">
         <v>0.0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH13" t="n">
         <v>0.0</v>
@@ -5466,7 +5466,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK13" t="n">
         <v>0.0</v>
@@ -5481,19 +5481,19 @@
         <v>0.0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR13" t="n">
         <v>0.0</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT13" t="n">
         <v>0.0</v>
@@ -5517,7 +5517,7 @@
         <v>1.0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB13" t="n">
         <v>0.0</v>
@@ -5529,7 +5529,7 @@
         <v>0.0</v>
       </c>
       <c r="EE13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF13" t="n">
         <v>0.0</v>
@@ -5541,21 +5541,21 @@
         <v>0.0</v>
       </c>
       <c r="EI13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
@@ -5564,7 +5564,7 @@
         <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -5576,7 +5576,7 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="n">
         <v>0.0</v>
@@ -5585,22 +5585,22 @@
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q14" t="n">
         <v>0.0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" t="n">
         <v>0.0</v>
@@ -5609,13 +5609,13 @@
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V14" t="n">
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X14" t="n">
         <v>0.0</v>
@@ -5624,13 +5624,13 @@
         <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA14" t="n">
         <v>0.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC14" t="n">
         <v>0.0</v>
@@ -5639,13 +5639,13 @@
         <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF14" t="n">
         <v>0.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH14" t="n">
         <v>0.0</v>
@@ -5654,7 +5654,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK14" t="n">
         <v>0.0</v>
@@ -5663,13 +5663,13 @@
         <v>0.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN14" t="n">
         <v>0.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP14" t="n">
         <v>0.0</v>
@@ -5681,7 +5681,7 @@
         <v>0.0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT14" t="n">
         <v>0.0</v>
@@ -5705,16 +5705,16 @@
         <v>0.0</v>
       </c>
       <c r="BA14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC14" t="n">
         <v>0.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE14" t="n">
         <v>0.0</v>
@@ -5726,7 +5726,7 @@
         <v>0.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI14" t="n">
         <v>0.0</v>
@@ -5744,7 +5744,7 @@
         <v>0.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO14" t="n">
         <v>0.0</v>
@@ -5756,7 +5756,7 @@
         <v>0.0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS14" t="n">
         <v>0.0</v>
@@ -5768,10 +5768,10 @@
         <v>0.0</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX14" t="n">
         <v>0.0</v>
@@ -5780,16 +5780,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB14" t="n">
         <v>0.0</v>
       </c>
       <c r="CC14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD14" t="n">
         <v>0.0</v>
@@ -5798,19 +5798,19 @@
         <v>0.0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG14" t="n">
         <v>0.0</v>
       </c>
       <c r="CH14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI14" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK14" t="n">
         <v>0.0</v>
@@ -5819,7 +5819,7 @@
         <v>0.0</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN14" t="n">
         <v>0.0</v>
@@ -5831,16 +5831,16 @@
         <v>0.0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS14" t="n">
         <v>0.0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU14" t="n">
         <v>0.0</v>
@@ -5849,7 +5849,7 @@
         <v>0.0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX14" t="n">
         <v>0.0</v>
@@ -5861,7 +5861,7 @@
         <v>0.0</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB14" t="n">
         <v>0.0</v>
@@ -5879,7 +5879,7 @@
         <v>0.0</v>
       </c>
       <c r="DG14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH14" t="n">
         <v>0.0</v>
@@ -5891,7 +5891,7 @@
         <v>0.0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL14" t="n">
         <v>0.0</v>
@@ -5900,10 +5900,10 @@
         <v>0.0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP14" t="n">
         <v>0.0</v>
@@ -5924,7 +5924,7 @@
         <v>1.0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW14" t="n">
         <v>0.0</v>
@@ -5933,7 +5933,7 @@
         <v>0.0</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ14" t="n">
         <v>0.0</v>
@@ -5954,7 +5954,7 @@
         <v>1.0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG14" t="n">
         <v>0.0</v>
@@ -5966,7 +5966,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -5977,16 +5977,16 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -5998,7 +5998,7 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="n">
         <v>0.0</v>
@@ -6016,7 +6016,7 @@
         <v>0.0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
@@ -6028,7 +6028,7 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
@@ -6037,13 +6037,13 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X15" t="n">
         <v>0.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z15" t="n">
         <v>0.0</v>
@@ -6052,10 +6052,10 @@
         <v>0.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD15" t="n">
         <v>0.0</v>
@@ -6067,13 +6067,13 @@
         <v>0.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH15" t="n">
         <v>0.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.0</v>
@@ -6091,13 +6091,13 @@
         <v>1.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP15" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR15" t="n">
         <v>0.0</v>
@@ -6112,10 +6112,10 @@
         <v>0.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX15" t="n">
         <v>0.0</v>
@@ -6172,22 +6172,22 @@
         <v>0.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ15" t="n">
         <v>0.0</v>
       </c>
       <c r="BR15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT15" t="n">
         <v>0.0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV15" t="n">
         <v>0.0</v>
@@ -6205,10 +6205,10 @@
         <v>0.0</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC15" t="n">
         <v>0.0</v>
@@ -6232,13 +6232,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK15" t="n">
         <v>0.0</v>
       </c>
       <c r="CL15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM15" t="n">
         <v>0.0</v>
@@ -6280,13 +6280,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC15" t="n">
         <v>0.0</v>
@@ -6298,7 +6298,7 @@
         <v>0.0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG15" t="n">
         <v>1.0</v>
@@ -6331,7 +6331,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR15" t="n">
         <v>0.0</v>
@@ -6343,10 +6343,10 @@
         <v>0.0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW15" t="n">
         <v>0.0</v>
@@ -6355,7 +6355,7 @@
         <v>0.0</v>
       </c>
       <c r="DY15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ15" t="n">
         <v>0.0</v>
@@ -6367,10 +6367,10 @@
         <v>0.0</v>
       </c>
       <c r="EC15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE15" t="n">
         <v>0.0</v>
@@ -6402,10 +6402,10 @@
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" t="n">
         <v>1.0</v>
@@ -6444,13 +6444,13 @@
         <v>0.0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S16" t="n">
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
@@ -6462,10 +6462,10 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z16" t="n">
         <v>0.0</v>
@@ -6474,10 +6474,10 @@
         <v>0.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD16" t="n">
         <v>0.0</v>
@@ -6489,13 +6489,13 @@
         <v>0.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH16" t="n">
         <v>0.0</v>
       </c>
       <c r="AI16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0.0</v>
@@ -6507,13 +6507,13 @@
         <v>0.0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP16" t="n">
         <v>0.0</v>
@@ -6522,19 +6522,19 @@
         <v>0.0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS16" t="n">
         <v>0.0</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU16" t="n">
         <v>0.0</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW16" t="n">
         <v>0.0</v>
@@ -6543,7 +6543,7 @@
         <v>0.0</v>
       </c>
       <c r="AY16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ16" t="n">
         <v>0.0</v>
@@ -6555,10 +6555,10 @@
         <v>0.0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE16" t="n">
         <v>0.0</v>
@@ -6567,19 +6567,19 @@
         <v>0.0</v>
       </c>
       <c r="BG16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH16" t="n">
         <v>0.0</v>
       </c>
       <c r="BI16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ16" t="n">
         <v>0.0</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL16" t="n">
         <v>0.0</v>
@@ -6594,13 +6594,13 @@
         <v>0.0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ16" t="n">
         <v>0.0</v>
       </c>
       <c r="BR16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS16" t="n">
         <v>0.0</v>
@@ -6609,10 +6609,10 @@
         <v>0.0</v>
       </c>
       <c r="BU16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW16" t="n">
         <v>0.0</v>
@@ -6627,10 +6627,10 @@
         <v>0.0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC16" t="n">
         <v>0.0</v>
@@ -6639,10 +6639,10 @@
         <v>0.0</v>
       </c>
       <c r="CE16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG16" t="n">
         <v>0.0</v>
@@ -6654,13 +6654,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK16" t="n">
         <v>0.0</v>
       </c>
       <c r="CL16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM16" t="n">
         <v>0.0</v>
@@ -6669,16 +6669,16 @@
         <v>0.0</v>
       </c>
       <c r="CO16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP16" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS16" t="n">
         <v>0.0</v>
@@ -6687,7 +6687,7 @@
         <v>0.0</v>
       </c>
       <c r="CU16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV16" t="n">
         <v>0.0</v>
@@ -6708,7 +6708,7 @@
         <v>1.0</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC16" t="n">
         <v>0.0</v>
@@ -6720,7 +6720,7 @@
         <v>0.0</v>
       </c>
       <c r="DF16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG16" t="n">
         <v>0.0</v>
@@ -6729,16 +6729,16 @@
         <v>0.0</v>
       </c>
       <c r="DI16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK16" t="n">
         <v>0.0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM16" t="n">
         <v>0.0</v>
@@ -6747,7 +6747,7 @@
         <v>0.0</v>
       </c>
       <c r="DO16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP16" t="n">
         <v>0.0</v>
@@ -6768,7 +6768,7 @@
         <v>0.0</v>
       </c>
       <c r="DV16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW16" t="n">
         <v>0.0</v>
@@ -6780,7 +6780,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA16" t="n">
         <v>0.0</v>
@@ -6792,10 +6792,10 @@
         <v>0.0</v>
       </c>
       <c r="ED16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF16" t="n">
         <v>0.0</v>
@@ -6807,10 +6807,10 @@
         <v>0.0</v>
       </c>
       <c r="EI16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -6824,13 +6824,13 @@
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -6839,19 +6839,19 @@
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -6866,13 +6866,13 @@
         <v>0.0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" t="n">
         <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
@@ -6890,7 +6890,7 @@
         <v>1.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA17" t="n">
         <v>0.0</v>
@@ -6899,7 +6899,7 @@
         <v>0.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17" t="n">
         <v>0.0</v>
@@ -6926,13 +6926,13 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM17" t="n">
         <v>0.0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO17" t="n">
         <v>0.0</v>
@@ -6941,16 +6941,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS17" t="n">
         <v>0.0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU17" t="n">
         <v>0.0</v>
@@ -6959,7 +6959,7 @@
         <v>0.0</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX17" t="n">
         <v>0.0</v>
@@ -6980,7 +6980,7 @@
         <v>0.0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE17" t="n">
         <v>0.0</v>
@@ -6992,10 +6992,10 @@
         <v>0.0</v>
       </c>
       <c r="BH17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ17" t="n">
         <v>0.0</v>
@@ -7007,7 +7007,7 @@
         <v>0.0</v>
       </c>
       <c r="BM17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN17" t="n">
         <v>0.0</v>
@@ -7025,7 +7025,7 @@
         <v>0.0</v>
       </c>
       <c r="BS17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT17" t="n">
         <v>0.0</v>
@@ -7037,7 +7037,7 @@
         <v>0.0</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX17" t="n">
         <v>0.0</v>
@@ -7046,22 +7046,22 @@
         <v>0.0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA17" t="n">
         <v>0.0</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD17" t="n">
         <v>0.0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF17" t="n">
         <v>0.0</v>
@@ -7070,7 +7070,7 @@
         <v>0.0</v>
       </c>
       <c r="CH17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI17" t="n">
         <v>0.0</v>
@@ -7079,7 +7079,7 @@
         <v>0.0</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL17" t="n">
         <v>0.0</v>
@@ -7106,13 +7106,13 @@
         <v>0.0</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU17" t="n">
         <v>0.0</v>
       </c>
       <c r="CV17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW17" t="n">
         <v>0.0</v>
@@ -7124,10 +7124,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB17" t="n">
         <v>0.0</v>
@@ -7181,13 +7181,13 @@
         <v>0.0</v>
       </c>
       <c r="DS17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT17" t="n">
         <v>0.0</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV17" t="n">
         <v>0.0</v>
@@ -7196,10 +7196,10 @@
         <v>0.0</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ17" t="n">
         <v>0.0</v>
@@ -7214,10 +7214,10 @@
         <v>0.0</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF17" t="n">
         <v>0.0</v>
@@ -7229,10 +7229,10 @@
         <v>0.0</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -7243,10 +7243,10 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
@@ -7267,7 +7267,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
@@ -7276,7 +7276,7 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O18" t="n">
         <v>0.0</v>
@@ -7288,13 +7288,13 @@
         <v>0.0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S18" t="n">
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
@@ -7303,13 +7303,13 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X18" t="n">
         <v>0.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z18" t="n">
         <v>0.0</v>
@@ -7321,10 +7321,10 @@
         <v>0.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE18" t="n">
         <v>0.0</v>
@@ -7342,7 +7342,7 @@
         <v>1.0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK18" t="n">
         <v>0.0</v>
@@ -7354,7 +7354,7 @@
         <v>0.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO18" t="n">
         <v>0.0</v>
@@ -7363,16 +7363,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS18" t="n">
         <v>0.0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU18" t="n">
         <v>0.0</v>
@@ -7384,16 +7384,16 @@
         <v>0.0</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ18" t="n">
         <v>0.0</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB18" t="n">
         <v>0.0</v>
@@ -7426,13 +7426,13 @@
         <v>0.0</v>
       </c>
       <c r="BL18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO18" t="n">
         <v>0.0</v>
@@ -7441,7 +7441,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR18" t="n">
         <v>0.0</v>
@@ -7462,7 +7462,7 @@
         <v>0.0</v>
       </c>
       <c r="BX18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY18" t="n">
         <v>0.0</v>
@@ -7471,7 +7471,7 @@
         <v>0.0</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB18" t="n">
         <v>0.0</v>
@@ -7498,22 +7498,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK18" t="n">
         <v>0.0</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN18" t="n">
         <v>0.0</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP18" t="n">
         <v>0.0</v>
@@ -7531,19 +7531,19 @@
         <v>0.0</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX18" t="n">
         <v>0.0</v>
       </c>
       <c r="CY18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ18" t="n">
         <v>0.0</v>
@@ -7558,13 +7558,13 @@
         <v>0.0</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE18" t="n">
         <v>0.0</v>
       </c>
       <c r="DF18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG18" t="n">
         <v>0.0</v>
@@ -7582,7 +7582,7 @@
         <v>1.0</v>
       </c>
       <c r="DL18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM18" t="n">
         <v>0.0</v>
@@ -7591,7 +7591,7 @@
         <v>0.0</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP18" t="n">
         <v>0.0</v>
@@ -7618,13 +7618,13 @@
         <v>0.0</v>
       </c>
       <c r="DX18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY18" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA18" t="n">
         <v>0.0</v>
@@ -7633,10 +7633,10 @@
         <v>0.0</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE18" t="n">
         <v>0.0</v>
@@ -7665,10 +7665,10 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
@@ -7680,22 +7680,22 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -7728,10 +7728,10 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z19" t="n">
         <v>0.0</v>
@@ -7740,10 +7740,10 @@
         <v>0.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19" t="n">
         <v>0.0</v>
@@ -7755,10 +7755,10 @@
         <v>0.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI19" t="n">
         <v>0.0</v>
@@ -7788,10 +7788,10 @@
         <v>0.0</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT19" t="n">
         <v>0.0</v>
@@ -7800,22 +7800,22 @@
         <v>0.0</v>
       </c>
       <c r="AV19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX19" t="n">
         <v>0.0</v>
       </c>
       <c r="AY19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ19" t="n">
         <v>0.0</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB19" t="n">
         <v>0.0</v>
@@ -7833,10 +7833,10 @@
         <v>0.0</v>
       </c>
       <c r="BG19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI19" t="n">
         <v>0.0</v>
@@ -7863,10 +7863,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS19" t="n">
         <v>0.0</v>
@@ -7875,13 +7875,13 @@
         <v>0.0</v>
       </c>
       <c r="BU19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV19" t="n">
         <v>0.0</v>
       </c>
       <c r="BW19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX19" t="n">
         <v>0.0</v>
@@ -7905,13 +7905,13 @@
         <v>0.0</v>
       </c>
       <c r="CE19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF19" t="n">
         <v>0.0</v>
       </c>
       <c r="CG19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH19" t="n">
         <v>0.0</v>
@@ -7920,16 +7920,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK19" t="n">
         <v>0.0</v>
       </c>
       <c r="CL19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN19" t="n">
         <v>0.0</v>
@@ -7941,7 +7941,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR19" t="n">
         <v>0.0</v>
@@ -7950,13 +7950,13 @@
         <v>0.0</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU19" t="n">
         <v>0.0</v>
       </c>
       <c r="CV19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW19" t="n">
         <v>0.0</v>
@@ -7974,13 +7974,13 @@
         <v>1.0</v>
       </c>
       <c r="DB19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC19" t="n">
         <v>0.0</v>
       </c>
       <c r="DD19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE19" t="n">
         <v>0.0</v>
@@ -7989,13 +7989,13 @@
         <v>0.0</v>
       </c>
       <c r="DG19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH19" t="n">
         <v>0.0</v>
       </c>
       <c r="DI19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ19" t="n">
         <v>0.0</v>
@@ -8025,10 +8025,10 @@
         <v>0.0</v>
       </c>
       <c r="DS19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU19" t="n">
         <v>0.0</v>
@@ -8049,7 +8049,7 @@
         <v>1.0</v>
       </c>
       <c r="EA19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB19" t="n">
         <v>0.0</v>
@@ -8058,7 +8058,7 @@
         <v>0.0</v>
       </c>
       <c r="ED19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE19" t="n">
         <v>0.0</v>
@@ -8102,13 +8102,13 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K20" t="n">
         <v>0.0</v>
@@ -8126,13 +8126,13 @@
         <v>0.0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q20" t="n">
         <v>0.0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S20" t="n">
         <v>0.0</v>
@@ -8141,7 +8141,7 @@
         <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V20" t="n">
         <v>0.0</v>
@@ -8153,7 +8153,7 @@
         <v>0.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z20" t="n">
         <v>0.0</v>
@@ -8162,13 +8162,13 @@
         <v>0.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE20" t="n">
         <v>0.0</v>
@@ -8177,16 +8177,16 @@
         <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH20" t="n">
         <v>0.0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK20" t="n">
         <v>0.0</v>
@@ -8198,10 +8198,10 @@
         <v>0.0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP20" t="n">
         <v>0.0</v>
@@ -8210,7 +8210,7 @@
         <v>0.0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS20" t="n">
         <v>0.0</v>
@@ -8240,10 +8240,10 @@
         <v>0.0</v>
       </c>
       <c r="BB20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD20" t="n">
         <v>0.0</v>
@@ -8270,13 +8270,13 @@
         <v>0.0</v>
       </c>
       <c r="BL20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO20" t="n">
         <v>0.0</v>
@@ -8288,7 +8288,7 @@
         <v>0.0</v>
       </c>
       <c r="BR20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS20" t="n">
         <v>0.0</v>
@@ -8297,10 +8297,10 @@
         <v>0.0</v>
       </c>
       <c r="BU20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW20" t="n">
         <v>0.0</v>
@@ -8336,7 +8336,7 @@
         <v>0.0</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI20" t="n">
         <v>0.0</v>
@@ -8345,7 +8345,7 @@
         <v>0.0</v>
       </c>
       <c r="CK20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL20" t="n">
         <v>0.0</v>
@@ -8357,13 +8357,13 @@
         <v>0.0</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP20" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR20" t="n">
         <v>1.0</v>
@@ -8387,16 +8387,16 @@
         <v>0.0</v>
       </c>
       <c r="CY20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ20" t="n">
         <v>0.0</v>
       </c>
       <c r="DA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC20" t="n">
         <v>0.0</v>
@@ -8408,10 +8408,10 @@
         <v>0.0</v>
       </c>
       <c r="DF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH20" t="n">
         <v>0.0</v>
@@ -8423,7 +8423,7 @@
         <v>0.0</v>
       </c>
       <c r="DK20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL20" t="n">
         <v>0.0</v>
@@ -8456,7 +8456,7 @@
         <v>1.0</v>
       </c>
       <c r="DV20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW20" t="n">
         <v>0.0</v>
@@ -8465,19 +8465,19 @@
         <v>0.0</v>
       </c>
       <c r="DY20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ20" t="n">
         <v>0.0</v>
       </c>
       <c r="EA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB20" t="n">
         <v>0.0</v>
       </c>
       <c r="EC20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED20" t="n">
         <v>0.0</v>
@@ -8486,7 +8486,7 @@
         <v>0.0</v>
       </c>
       <c r="EF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG20" t="n">
         <v>0.0</v>
@@ -8495,7 +8495,7 @@
         <v>0.0</v>
       </c>
       <c r="EI20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ20" t="n">
         <v>0.0</v>
@@ -8512,10 +8512,10 @@
         <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -8524,16 +8524,16 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" t="n">
         <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -8545,7 +8545,7 @@
         <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P21" t="n">
         <v>0.0</v>
@@ -8557,10 +8557,10 @@
         <v>0.0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
@@ -8569,13 +8569,13 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X21" t="n">
         <v>0.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z21" t="n">
         <v>0.0</v>
@@ -8587,13 +8587,13 @@
         <v>0.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF21" t="n">
         <v>0.0</v>
@@ -8602,7 +8602,7 @@
         <v>0.0</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI21" t="n">
         <v>0.0</v>
@@ -8617,13 +8617,13 @@
         <v>0.0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP21" t="n">
         <v>0.0</v>
@@ -8632,7 +8632,7 @@
         <v>0.0</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS21" t="n">
         <v>0.0</v>
@@ -8662,10 +8662,10 @@
         <v>0.0</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD21" t="n">
         <v>0.0</v>
@@ -8689,13 +8689,13 @@
         <v>0.0</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL21" t="n">
         <v>0.0</v>
       </c>
       <c r="BM21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN21" t="n">
         <v>0.0</v>
@@ -8719,22 +8719,22 @@
         <v>0.0</v>
       </c>
       <c r="BU21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV21" t="n">
         <v>0.0</v>
       </c>
       <c r="BW21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY21" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA21" t="n">
         <v>0.0</v>
@@ -8758,7 +8758,7 @@
         <v>1.0</v>
       </c>
       <c r="CH21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI21" t="n">
         <v>0.0</v>
@@ -8767,19 +8767,19 @@
         <v>0.0</v>
       </c>
       <c r="CK21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL21" t="n">
         <v>0.0</v>
       </c>
       <c r="CM21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN21" t="n">
         <v>0.0</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP21" t="n">
         <v>0.0</v>
@@ -8797,10 +8797,10 @@
         <v>0.0</v>
       </c>
       <c r="CU21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW21" t="n">
         <v>0.0</v>
@@ -8812,10 +8812,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB21" t="n">
         <v>0.0</v>
@@ -8827,10 +8827,10 @@
         <v>0.0</v>
       </c>
       <c r="DE21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG21" t="n">
         <v>0.0</v>
@@ -8842,10 +8842,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL21" t="n">
         <v>0.0</v>
@@ -8863,7 +8863,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR21" t="n">
         <v>0.0</v>
@@ -8875,7 +8875,7 @@
         <v>0.0</v>
       </c>
       <c r="DU21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV21" t="n">
         <v>0.0</v>
@@ -8884,10 +8884,10 @@
         <v>0.0</v>
       </c>
       <c r="DX21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ21" t="n">
         <v>0.0</v>
@@ -8908,7 +8908,7 @@
         <v>0.0</v>
       </c>
       <c r="EF21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG21" t="n">
         <v>0.0</v>
@@ -8917,7 +8917,7 @@
         <v>0.0</v>
       </c>
       <c r="EI21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ21" t="n">
         <v>0.0</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -8937,7 +8937,7 @@
         <v>0.0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -8946,13 +8946,13 @@
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K22" t="n">
         <v>0.0</v>
@@ -8961,16 +8961,16 @@
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O22" t="n">
         <v>0.0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
@@ -8982,10 +8982,10 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V22" t="n">
         <v>0.0</v>
@@ -8994,7 +8994,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y22" t="n">
         <v>0.0</v>
@@ -9006,13 +9006,13 @@
         <v>0.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC22" t="n">
         <v>0.0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE22" t="n">
         <v>0.0</v>
@@ -9021,16 +9021,16 @@
         <v>0.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH22" t="n">
         <v>0.0</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK22" t="n">
         <v>0.0</v>
@@ -9042,7 +9042,7 @@
         <v>0.0</v>
       </c>
       <c r="AN22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO22" t="n">
         <v>0.0</v>
@@ -9051,10 +9051,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS22" t="n">
         <v>0.0</v>
@@ -9066,16 +9066,16 @@
         <v>0.0</v>
       </c>
       <c r="AV22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW22" t="n">
         <v>0.0</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ22" t="n">
         <v>0.0</v>
@@ -9084,7 +9084,7 @@
         <v>0.0</v>
       </c>
       <c r="BB22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC22" t="n">
         <v>0.0</v>
@@ -9114,10 +9114,10 @@
         <v>0.0</v>
       </c>
       <c r="BL22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN22" t="n">
         <v>0.0</v>
@@ -9129,10 +9129,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS22" t="n">
         <v>0.0</v>
@@ -9144,19 +9144,19 @@
         <v>0.0</v>
       </c>
       <c r="BV22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY22" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA22" t="n">
         <v>0.0</v>
@@ -9189,10 +9189,10 @@
         <v>0.0</v>
       </c>
       <c r="CK22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM22" t="n">
         <v>1.0</v>
@@ -9219,13 +9219,13 @@
         <v>0.0</v>
       </c>
       <c r="CU22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX22" t="n">
         <v>0.0</v>
@@ -9237,7 +9237,7 @@
         <v>0.0</v>
       </c>
       <c r="DA22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB22" t="n">
         <v>0.0</v>
@@ -9255,13 +9255,13 @@
         <v>0.0</v>
       </c>
       <c r="DG22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH22" t="n">
         <v>0.0</v>
       </c>
       <c r="DI22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ22" t="n">
         <v>0.0</v>
@@ -9330,7 +9330,7 @@
         <v>0.0</v>
       </c>
       <c r="EF22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG22" t="n">
         <v>0.0</v>
@@ -9342,7 +9342,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -9353,16 +9353,16 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -9374,7 +9374,7 @@
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
@@ -9383,13 +9383,13 @@
         <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P23" t="n">
         <v>0.0</v>
@@ -9401,10 +9401,10 @@
         <v>0.0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
@@ -9413,16 +9413,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y23" t="n">
         <v>0.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA23" t="n">
         <v>0.0</v>
@@ -9434,10 +9434,10 @@
         <v>0.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF23" t="n">
         <v>0.0</v>
@@ -9449,16 +9449,16 @@
         <v>0.0</v>
       </c>
       <c r="AI23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK23" t="n">
         <v>0.0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM23" t="n">
         <v>0.0</v>
@@ -9467,7 +9467,7 @@
         <v>0.0</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP23" t="n">
         <v>0.0</v>
@@ -9476,7 +9476,7 @@
         <v>0.0</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS23" t="n">
         <v>0.0</v>
@@ -9488,16 +9488,16 @@
         <v>0.0</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW23" t="n">
         <v>0.0</v>
       </c>
       <c r="AX23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ23" t="n">
         <v>0.0</v>
@@ -9509,7 +9509,7 @@
         <v>0.0</v>
       </c>
       <c r="BC23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD23" t="n">
         <v>1.0</v>
@@ -9527,7 +9527,7 @@
         <v>0.0</v>
       </c>
       <c r="BI23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ23" t="n">
         <v>0.0</v>
@@ -9536,7 +9536,7 @@
         <v>0.0</v>
       </c>
       <c r="BL23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM23" t="n">
         <v>0.0</v>
@@ -9563,10 +9563,10 @@
         <v>0.0</v>
       </c>
       <c r="BU23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW23" t="n">
         <v>0.0</v>
@@ -9596,10 +9596,10 @@
         <v>0.0</v>
       </c>
       <c r="CF23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH23" t="n">
         <v>0.0</v>
@@ -9611,10 +9611,10 @@
         <v>0.0</v>
       </c>
       <c r="CK23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM23" t="n">
         <v>0.0</v>
@@ -9623,22 +9623,22 @@
         <v>0.0</v>
       </c>
       <c r="CO23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP23" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS23" t="n">
         <v>0.0</v>
       </c>
       <c r="CT23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU23" t="n">
         <v>0.0</v>
@@ -9677,7 +9677,7 @@
         <v>0.0</v>
       </c>
       <c r="DG23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH23" t="n">
         <v>0.0</v>
@@ -9686,7 +9686,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK23" t="n">
         <v>0.0</v>
@@ -9698,16 +9698,16 @@
         <v>0.0</v>
       </c>
       <c r="DN23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO23" t="n">
         <v>0.0</v>
       </c>
       <c r="DP23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR23" t="n">
         <v>0.0</v>
@@ -9719,10 +9719,10 @@
         <v>0.0</v>
       </c>
       <c r="DU23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW23" t="n">
         <v>0.0</v>
@@ -9731,7 +9731,7 @@
         <v>0.0</v>
       </c>
       <c r="DY23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ23" t="n">
         <v>0.0</v>
@@ -9752,7 +9752,7 @@
         <v>0.0</v>
       </c>
       <c r="EF23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG23" t="n">
         <v>0.0</v>
@@ -9764,12 +9764,12 @@
         <v>0.0</v>
       </c>
       <c r="EJ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -9781,10 +9781,10 @@
         <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -9793,7 +9793,7 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J24" t="n">
         <v>0.0</v>
@@ -9805,22 +9805,22 @@
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q24" t="n">
         <v>0.0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S24" t="n">
         <v>0.0</v>
@@ -9850,22 +9850,22 @@
         <v>0.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD24" t="n">
         <v>0.0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF24" t="n">
         <v>0.0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH24" t="n">
         <v>0.0</v>
@@ -9889,13 +9889,13 @@
         <v>1.0</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP24" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR24" t="n">
         <v>0.0</v>
@@ -9910,16 +9910,16 @@
         <v>0.0</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW24" t="n">
         <v>0.0</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ24" t="n">
         <v>0.0</v>
@@ -9931,7 +9931,7 @@
         <v>0.0</v>
       </c>
       <c r="BC24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD24" t="n">
         <v>0.0</v>
@@ -9940,10 +9940,10 @@
         <v>0.0</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH24" t="n">
         <v>0.0</v>
@@ -9958,10 +9958,10 @@
         <v>0.0</v>
       </c>
       <c r="BL24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN24" t="n">
         <v>0.0</v>
@@ -9979,7 +9979,7 @@
         <v>1.0</v>
       </c>
       <c r="BS24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT24" t="n">
         <v>0.0</v>
@@ -9991,7 +9991,7 @@
         <v>0.0</v>
       </c>
       <c r="BW24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX24" t="n">
         <v>0.0</v>
@@ -10000,22 +10000,22 @@
         <v>0.0</v>
       </c>
       <c r="BZ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB24" t="n">
         <v>0.0</v>
       </c>
       <c r="CC24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD24" t="n">
         <v>0.0</v>
       </c>
       <c r="CE24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF24" t="n">
         <v>0.0</v>
@@ -10024,7 +10024,7 @@
         <v>0.0</v>
       </c>
       <c r="CH24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI24" t="n">
         <v>0.0</v>
@@ -10036,16 +10036,16 @@
         <v>0.0</v>
       </c>
       <c r="CL24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN24" t="n">
         <v>0.0</v>
       </c>
       <c r="CO24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP24" t="n">
         <v>0.0</v>
@@ -10054,13 +10054,13 @@
         <v>0.0</v>
       </c>
       <c r="CR24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS24" t="n">
         <v>0.0</v>
       </c>
       <c r="CT24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU24" t="n">
         <v>0.0</v>
@@ -10075,13 +10075,13 @@
         <v>0.0</v>
       </c>
       <c r="CY24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ24" t="n">
         <v>0.0</v>
       </c>
       <c r="DA24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB24" t="n">
         <v>0.0</v>
@@ -10090,13 +10090,13 @@
         <v>0.0</v>
       </c>
       <c r="DD24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE24" t="n">
         <v>0.0</v>
       </c>
       <c r="DF24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG24" t="n">
         <v>0.0</v>
@@ -10105,22 +10105,22 @@
         <v>0.0</v>
       </c>
       <c r="DI24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK24" t="n">
         <v>0.0</v>
       </c>
       <c r="DL24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM24" t="n">
         <v>0.0</v>
       </c>
       <c r="DN24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO24" t="n">
         <v>0.0</v>
@@ -10138,13 +10138,13 @@
         <v>0.0</v>
       </c>
       <c r="DT24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW24" t="n">
         <v>0.0</v>
@@ -10153,13 +10153,13 @@
         <v>0.0</v>
       </c>
       <c r="DY24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ24" t="n">
         <v>0.0</v>
       </c>
       <c r="EA24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB24" t="n">
         <v>0.0</v>
@@ -10171,7 +10171,7 @@
         <v>0.0</v>
       </c>
       <c r="EE24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF24" t="n">
         <v>0.0</v>
@@ -10180,18 +10180,18 @@
         <v>0.0</v>
       </c>
       <c r="EH24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI24" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -10200,19 +10200,19 @@
         <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" t="n">
         <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -10221,7 +10221,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
@@ -10233,7 +10233,7 @@
         <v>0.0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" t="n">
         <v>0.0</v>
@@ -10260,10 +10260,10 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z25" t="n">
         <v>0.0</v>
@@ -10272,13 +10272,13 @@
         <v>0.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE25" t="n">
         <v>1.0</v>
@@ -10311,7 +10311,7 @@
         <v>0.0</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP25" t="n">
         <v>0.0</v>
@@ -10320,13 +10320,13 @@
         <v>0.0</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS25" t="n">
         <v>0.0</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU25" t="n">
         <v>0.0</v>
@@ -10338,7 +10338,7 @@
         <v>0.0</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY25" t="n">
         <v>0.0</v>
@@ -10347,13 +10347,13 @@
         <v>0.0</v>
       </c>
       <c r="BA25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB25" t="n">
         <v>0.0</v>
       </c>
       <c r="BC25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD25" t="n">
         <v>1.0</v>
@@ -10377,10 +10377,10 @@
         <v>0.0</v>
       </c>
       <c r="BK25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM25" t="n">
         <v>0.0</v>
@@ -10392,10 +10392,10 @@
         <v>0.0</v>
       </c>
       <c r="BP25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR25" t="n">
         <v>0.0</v>
@@ -10446,7 +10446,7 @@
         <v>0.0</v>
       </c>
       <c r="CH25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI25" t="n">
         <v>0.0</v>
@@ -10458,7 +10458,7 @@
         <v>0.0</v>
       </c>
       <c r="CL25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM25" t="n">
         <v>0.0</v>
@@ -10467,22 +10467,22 @@
         <v>0.0</v>
       </c>
       <c r="CO25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ25" t="n">
         <v>0.0</v>
       </c>
       <c r="CR25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS25" t="n">
         <v>0.0</v>
       </c>
       <c r="CT25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU25" t="n">
         <v>0.0</v>
@@ -10497,22 +10497,22 @@
         <v>0.0</v>
       </c>
       <c r="CY25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ25" t="n">
         <v>0.0</v>
       </c>
       <c r="DA25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC25" t="n">
         <v>0.0</v>
       </c>
       <c r="DD25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE25" t="n">
         <v>0.0</v>
@@ -10530,10 +10530,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL25" t="n">
         <v>0.0</v>
@@ -10551,7 +10551,7 @@
         <v>1.0</v>
       </c>
       <c r="DQ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR25" t="n">
         <v>0.0</v>
@@ -10560,13 +10560,13 @@
         <v>0.0</v>
       </c>
       <c r="DT25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU25" t="n">
         <v>0.0</v>
       </c>
       <c r="DV25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW25" t="n">
         <v>0.0</v>
@@ -10575,19 +10575,19 @@
         <v>0.0</v>
       </c>
       <c r="DY25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ25" t="n">
         <v>0.0</v>
       </c>
       <c r="EA25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB25" t="n">
         <v>0.0</v>
       </c>
       <c r="EC25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED25" t="n">
         <v>0.0</v>
@@ -10628,7 +10628,7 @@
         <v>0.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -10640,10 +10640,10 @@
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
@@ -10652,7 +10652,7 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O26" t="n">
         <v>0.0</v>
@@ -10664,16 +10664,16 @@
         <v>0.0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T26" t="n">
         <v>0.0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V26" t="n">
         <v>0.0</v>
@@ -10682,13 +10682,13 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y26" t="n">
         <v>0.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA26" t="n">
         <v>0.0</v>
@@ -10697,13 +10697,13 @@
         <v>0.0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD26" t="n">
         <v>0.0</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF26" t="n">
         <v>0.0</v>
@@ -10712,7 +10712,7 @@
         <v>0.0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI26" t="n">
         <v>0.0</v>
@@ -10727,13 +10727,13 @@
         <v>0.0</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP26" t="n">
         <v>0.0</v>
@@ -10742,7 +10742,7 @@
         <v>0.0</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS26" t="n">
         <v>0.0</v>
@@ -10754,13 +10754,13 @@
         <v>0.0</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW26" t="n">
         <v>0.0</v>
       </c>
       <c r="AX26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY26" t="n">
         <v>0.0</v>
@@ -10814,13 +10814,13 @@
         <v>0.0</v>
       </c>
       <c r="BP26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ26" t="n">
         <v>0.0</v>
       </c>
       <c r="BR26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS26" t="n">
         <v>0.0</v>
@@ -10847,19 +10847,19 @@
         <v>0.0</v>
       </c>
       <c r="CA26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD26" t="n">
         <v>0.0</v>
       </c>
       <c r="CE26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF26" t="n">
         <v>0.0</v>
@@ -10883,7 +10883,7 @@
         <v>0.0</v>
       </c>
       <c r="CM26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN26" t="n">
         <v>0.0</v>
@@ -10892,13 +10892,13 @@
         <v>0.0</v>
       </c>
       <c r="CP26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ26" t="n">
         <v>0.0</v>
       </c>
       <c r="CR26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS26" t="n">
         <v>0.0</v>
@@ -10910,7 +10910,7 @@
         <v>0.0</v>
       </c>
       <c r="CV26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW26" t="n">
         <v>0.0</v>
@@ -10922,10 +10922,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB26" t="n">
         <v>0.0</v>
@@ -10943,7 +10943,7 @@
         <v>1.0</v>
       </c>
       <c r="DG26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH26" t="n">
         <v>0.0</v>
@@ -10952,19 +10952,19 @@
         <v>0.0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK26" t="n">
         <v>0.0</v>
       </c>
       <c r="DL26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM26" t="n">
         <v>0.0</v>
       </c>
       <c r="DN26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO26" t="n">
         <v>0.0</v>
@@ -10973,13 +10973,13 @@
         <v>0.0</v>
       </c>
       <c r="DQ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR26" t="n">
         <v>0.0</v>
       </c>
       <c r="DS26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT26" t="n">
         <v>0.0</v>
@@ -10994,22 +10994,22 @@
         <v>0.0</v>
       </c>
       <c r="DX26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ26" t="n">
         <v>0.0</v>
       </c>
       <c r="EA26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB26" t="n">
         <v>0.0</v>
       </c>
       <c r="EC26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED26" t="n">
         <v>0.0</v>
@@ -11027,21 +11027,21 @@
         <v>0.0</v>
       </c>
       <c r="EI26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
@@ -11056,10 +11056,10 @@
         <v>0.0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J27" t="n">
         <v>0.0</v>
@@ -11125,7 +11125,7 @@
         <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF27" t="n">
         <v>0.0</v>
@@ -11137,7 +11137,7 @@
         <v>0.0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0.0</v>
@@ -11146,10 +11146,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN27" t="n">
         <v>0.0</v>
@@ -11164,13 +11164,13 @@
         <v>0.0</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU27" t="n">
         <v>0.0</v>
@@ -11182,7 +11182,7 @@
         <v>0.0</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY27" t="n">
         <v>0.0</v>
@@ -11194,13 +11194,13 @@
         <v>0.0</v>
       </c>
       <c r="BB27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE27" t="n">
         <v>0.0</v>
@@ -11212,10 +11212,10 @@
         <v>0.0</v>
       </c>
       <c r="BH27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ27" t="n">
         <v>0.0</v>
@@ -11227,7 +11227,7 @@
         <v>0.0</v>
       </c>
       <c r="BM27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN27" t="n">
         <v>0.0</v>
@@ -11236,10 +11236,10 @@
         <v>0.0</v>
       </c>
       <c r="BP27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR27" t="n">
         <v>0.0</v>
@@ -11254,19 +11254,19 @@
         <v>0.0</v>
       </c>
       <c r="BV27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY27" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA27" t="n">
         <v>0.0</v>
@@ -11275,13 +11275,13 @@
         <v>0.0</v>
       </c>
       <c r="CC27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD27" t="n">
         <v>0.0</v>
       </c>
       <c r="CE27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF27" t="n">
         <v>0.0</v>
@@ -11296,13 +11296,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK27" t="n">
         <v>0.0</v>
       </c>
       <c r="CL27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM27" t="n">
         <v>0.0</v>
@@ -11314,10 +11314,10 @@
         <v>0.0</v>
       </c>
       <c r="CP27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR27" t="n">
         <v>0.0</v>
@@ -11326,10 +11326,10 @@
         <v>0.0</v>
       </c>
       <c r="CT27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV27" t="n">
         <v>0.0</v>
@@ -11341,13 +11341,13 @@
         <v>0.0</v>
       </c>
       <c r="CY27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ27" t="n">
         <v>0.0</v>
       </c>
       <c r="DA27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB27" t="n">
         <v>0.0</v>
@@ -11356,10 +11356,10 @@
         <v>0.0</v>
       </c>
       <c r="DD27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF27" t="n">
         <v>0.0</v>
@@ -11371,10 +11371,10 @@
         <v>0.0</v>
       </c>
       <c r="DI27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK27" t="n">
         <v>0.0</v>
@@ -11395,7 +11395,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR27" t="n">
         <v>0.0</v>
@@ -11407,10 +11407,10 @@
         <v>0.0</v>
       </c>
       <c r="DU27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW27" t="n">
         <v>0.0</v>
@@ -11422,7 +11422,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA27" t="n">
         <v>0.0</v>
@@ -11472,13 +11472,13 @@
         <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -11487,7 +11487,7 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -11496,7 +11496,7 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O28" t="n">
         <v>0.0</v>
@@ -11511,13 +11511,13 @@
         <v>0.0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V28" t="n">
         <v>0.0</v>
@@ -11529,7 +11529,7 @@
         <v>0.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z28" t="n">
         <v>0.0</v>
@@ -11541,10 +11541,10 @@
         <v>0.0</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE28" t="n">
         <v>1.0</v>
@@ -11568,16 +11568,16 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN28" t="n">
         <v>0.0</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP28" t="n">
         <v>0.0</v>
@@ -11589,7 +11589,7 @@
         <v>0.0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT28" t="n">
         <v>0.0</v>
@@ -11598,16 +11598,16 @@
         <v>0.0</v>
       </c>
       <c r="AV28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX28" t="n">
         <v>0.0</v>
       </c>
       <c r="AY28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ28" t="n">
         <v>0.0</v>
@@ -11619,7 +11619,7 @@
         <v>0.0</v>
       </c>
       <c r="BC28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD28" t="n">
         <v>0.0</v>
@@ -11628,13 +11628,13 @@
         <v>0.0</v>
       </c>
       <c r="BF28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG28" t="n">
         <v>0.0</v>
       </c>
       <c r="BH28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI28" t="n">
         <v>0.0</v>
@@ -11643,10 +11643,10 @@
         <v>0.0</v>
       </c>
       <c r="BK28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM28" t="n">
         <v>0.0</v>
@@ -11673,22 +11673,22 @@
         <v>0.0</v>
       </c>
       <c r="BU28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV28" t="n">
         <v>0.0</v>
       </c>
       <c r="BW28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY28" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA28" t="n">
         <v>0.0</v>
@@ -11727,7 +11727,7 @@
         <v>0.0</v>
       </c>
       <c r="CM28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN28" t="n">
         <v>0.0</v>
@@ -11736,19 +11736,19 @@
         <v>0.0</v>
       </c>
       <c r="CP28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ28" t="n">
         <v>0.0</v>
       </c>
       <c r="CR28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS28" t="n">
         <v>0.0</v>
       </c>
       <c r="CT28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU28" t="n">
         <v>0.0</v>
@@ -11787,13 +11787,13 @@
         <v>0.0</v>
       </c>
       <c r="DG28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH28" t="n">
         <v>0.0</v>
       </c>
       <c r="DI28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ28" t="n">
         <v>0.0</v>
@@ -11808,13 +11808,13 @@
         <v>0.0</v>
       </c>
       <c r="DN28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO28" t="n">
         <v>0.0</v>
       </c>
       <c r="DP28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ28" t="n">
         <v>0.0</v>
@@ -11823,10 +11823,10 @@
         <v>0.0</v>
       </c>
       <c r="DS28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU28" t="n">
         <v>0.0</v>
@@ -11841,10 +11841,10 @@
         <v>0.0</v>
       </c>
       <c r="DY28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA28" t="n">
         <v>0.0</v>
@@ -11871,15 +11871,15 @@
         <v>0.0</v>
       </c>
       <c r="EI28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -11888,7 +11888,7 @@
         <v>0.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n">
         <v>0.0</v>
@@ -11903,10 +11903,10 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
@@ -11933,13 +11933,13 @@
         <v>0.0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V29" t="n">
         <v>0.0</v>
@@ -11951,10 +11951,10 @@
         <v>0.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA29" t="n">
         <v>0.0</v>
@@ -11963,13 +11963,13 @@
         <v>0.0</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29" t="n">
         <v>0.0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF29" t="n">
         <v>0.0</v>
@@ -11978,7 +11978,7 @@
         <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI29" t="n">
         <v>0.0</v>
@@ -11990,10 +11990,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN29" t="n">
         <v>0.0</v>
@@ -12008,10 +12008,10 @@
         <v>0.0</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT29" t="n">
         <v>0.0</v>
@@ -12044,7 +12044,7 @@
         <v>0.0</v>
       </c>
       <c r="BD29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE29" t="n">
         <v>0.0</v>
@@ -12056,7 +12056,7 @@
         <v>0.0</v>
       </c>
       <c r="BH29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI29" t="n">
         <v>0.0</v>
@@ -12065,13 +12065,13 @@
         <v>0.0</v>
       </c>
       <c r="BK29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL29" t="n">
         <v>0.0</v>
       </c>
       <c r="BM29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN29" t="n">
         <v>0.0</v>
@@ -12080,13 +12080,13 @@
         <v>0.0</v>
       </c>
       <c r="BP29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ29" t="n">
         <v>0.0</v>
       </c>
       <c r="BR29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS29" t="n">
         <v>0.0</v>
@@ -12095,13 +12095,13 @@
         <v>0.0</v>
       </c>
       <c r="BU29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV29" t="n">
         <v>0.0</v>
       </c>
       <c r="BW29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX29" t="n">
         <v>0.0</v>
@@ -12119,13 +12119,13 @@
         <v>0.0</v>
       </c>
       <c r="CC29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD29" t="n">
         <v>0.0</v>
       </c>
       <c r="CE29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF29" t="n">
         <v>0.0</v>
@@ -12155,16 +12155,16 @@
         <v>0.0</v>
       </c>
       <c r="CO29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ29" t="n">
         <v>0.0</v>
       </c>
       <c r="CR29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS29" t="n">
         <v>0.0</v>
@@ -12173,7 +12173,7 @@
         <v>0.0</v>
       </c>
       <c r="CU29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV29" t="n">
         <v>0.0</v>
@@ -12188,10 +12188,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB29" t="n">
         <v>0.0</v>
@@ -12218,10 +12218,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL29" t="n">
         <v>0.0</v>
@@ -12230,22 +12230,22 @@
         <v>0.0</v>
       </c>
       <c r="DN29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP29" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR29" t="n">
         <v>0.0</v>
       </c>
       <c r="DS29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT29" t="n">
         <v>0.0</v>
@@ -12269,7 +12269,7 @@
         <v>0.0</v>
       </c>
       <c r="EA29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB29" t="n">
         <v>0.0</v>
@@ -12281,7 +12281,7 @@
         <v>0.0</v>
       </c>
       <c r="EE29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF29" t="n">
         <v>0.0</v>
@@ -12290,13 +12290,13 @@
         <v>0.0</v>
       </c>
       <c r="EH29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI29" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -12316,13 +12316,13 @@
         <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -12337,13 +12337,13 @@
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P30" t="n">
         <v>0.0</v>
@@ -12361,7 +12361,7 @@
         <v>0.0</v>
       </c>
       <c r="U30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V30" t="n">
         <v>0.0</v>
@@ -12373,7 +12373,7 @@
         <v>0.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z30" t="n">
         <v>0.0</v>
@@ -12397,10 +12397,10 @@
         <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI30" t="n">
         <v>0.0</v>
@@ -12421,13 +12421,13 @@
         <v>1.0</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP30" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR30" t="n">
         <v>0.0</v>
@@ -12442,16 +12442,16 @@
         <v>0.0</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW30" t="n">
         <v>0.0</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ30" t="n">
         <v>0.0</v>
@@ -12460,7 +12460,7 @@
         <v>0.0</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC30" t="n">
         <v>0.0</v>
@@ -12472,10 +12472,10 @@
         <v>0.0</v>
       </c>
       <c r="BF30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH30" t="n">
         <v>0.0</v>
@@ -12487,16 +12487,16 @@
         <v>0.0</v>
       </c>
       <c r="BK30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL30" t="n">
         <v>0.0</v>
       </c>
       <c r="BM30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO30" t="n">
         <v>0.0</v>
@@ -12508,7 +12508,7 @@
         <v>0.0</v>
       </c>
       <c r="BR30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS30" t="n">
         <v>1.0</v>
@@ -12556,7 +12556,7 @@
         <v>0.0</v>
       </c>
       <c r="CH30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI30" t="n">
         <v>0.0</v>
@@ -12568,10 +12568,10 @@
         <v>0.0</v>
       </c>
       <c r="CL30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN30" t="n">
         <v>0.0</v>
@@ -12583,16 +12583,16 @@
         <v>0.0</v>
       </c>
       <c r="CQ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS30" t="n">
         <v>0.0</v>
       </c>
       <c r="CT30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU30" t="n">
         <v>0.0</v>
@@ -12601,13 +12601,13 @@
         <v>0.0</v>
       </c>
       <c r="CW30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX30" t="n">
         <v>0.0</v>
       </c>
       <c r="CY30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ30" t="n">
         <v>0.0</v>
@@ -12631,7 +12631,7 @@
         <v>1.0</v>
       </c>
       <c r="DG30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH30" t="n">
         <v>0.0</v>
@@ -12643,7 +12643,7 @@
         <v>0.0</v>
       </c>
       <c r="DK30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL30" t="n">
         <v>0.0</v>
@@ -12706,7 +12706,7 @@
         <v>0.0</v>
       </c>
       <c r="EF30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG30" t="n">
         <v>0.0</v>
@@ -12715,7 +12715,7 @@
         <v>0.0</v>
       </c>
       <c r="EI30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ30" t="n">
         <v>0.0</v>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -12735,7 +12735,7 @@
         <v>0.0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -12747,10 +12747,10 @@
         <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
@@ -12759,13 +12759,13 @@
         <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P31" t="n">
         <v>0.0</v>
@@ -12774,13 +12774,13 @@
         <v>0.0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S31" t="n">
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U31" t="n">
         <v>0.0</v>
@@ -12792,10 +12792,10 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z31" t="n">
         <v>0.0</v>
@@ -12807,13 +12807,13 @@
         <v>0.0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF31" t="n">
         <v>0.0</v>
@@ -12825,7 +12825,7 @@
         <v>0.0</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ31" t="n">
         <v>0.0</v>
@@ -12834,10 +12834,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN31" t="n">
         <v>0.0</v>
@@ -12852,10 +12852,10 @@
         <v>0.0</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT31" t="n">
         <v>0.0</v>
@@ -12879,13 +12879,13 @@
         <v>0.0</v>
       </c>
       <c r="BA31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB31" t="n">
         <v>0.0</v>
       </c>
       <c r="BC31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD31" t="n">
         <v>0.0</v>
@@ -12894,16 +12894,16 @@
         <v>0.0</v>
       </c>
       <c r="BF31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH31" t="n">
         <v>0.0</v>
       </c>
       <c r="BI31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ31" t="n">
         <v>0.0</v>
@@ -12915,7 +12915,7 @@
         <v>0.0</v>
       </c>
       <c r="BM31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN31" t="n">
         <v>1.0</v>
@@ -12942,13 +12942,13 @@
         <v>0.0</v>
       </c>
       <c r="BV31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY31" t="n">
         <v>0.0</v>
@@ -12960,16 +12960,16 @@
         <v>0.0</v>
       </c>
       <c r="CB31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD31" t="n">
         <v>0.0</v>
       </c>
       <c r="CE31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF31" t="n">
         <v>0.0</v>
@@ -12984,10 +12984,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL31" t="n">
         <v>0.0</v>
@@ -13008,7 +13008,7 @@
         <v>0.0</v>
       </c>
       <c r="CR31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS31" t="n">
         <v>0.0</v>
@@ -13017,7 +13017,7 @@
         <v>0.0</v>
       </c>
       <c r="CU31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV31" t="n">
         <v>0.0</v>
@@ -13029,16 +13029,16 @@
         <v>0.0</v>
       </c>
       <c r="CY31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ31" t="n">
         <v>0.0</v>
       </c>
       <c r="DA31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC31" t="n">
         <v>0.0</v>
@@ -13047,19 +13047,19 @@
         <v>0.0</v>
       </c>
       <c r="DE31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF31" t="n">
         <v>0.0</v>
       </c>
       <c r="DG31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH31" t="n">
         <v>0.0</v>
       </c>
       <c r="DI31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ31" t="n">
         <v>0.0</v>
@@ -13068,7 +13068,7 @@
         <v>0.0</v>
       </c>
       <c r="DL31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM31" t="n">
         <v>0.0</v>
@@ -13077,7 +13077,7 @@
         <v>0.0</v>
       </c>
       <c r="DO31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP31" t="n">
         <v>0.0</v>
@@ -13089,16 +13089,16 @@
         <v>0.0</v>
       </c>
       <c r="DS31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT31" t="n">
         <v>0.0</v>
       </c>
       <c r="DU31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW31" t="n">
         <v>0.0</v>
@@ -13107,13 +13107,13 @@
         <v>0.0</v>
       </c>
       <c r="DY31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ31" t="n">
         <v>0.0</v>
       </c>
       <c r="EA31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB31" t="n">
         <v>0.0</v>
@@ -13125,7 +13125,7 @@
         <v>0.0</v>
       </c>
       <c r="EE31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF31" t="n">
         <v>0.0</v>
@@ -13134,13 +13134,13 @@
         <v>0.0</v>
       </c>
       <c r="EH31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI31" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -13151,16 +13151,16 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" t="n">
         <v>0.0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
@@ -13169,19 +13169,19 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -13199,10 +13199,10 @@
         <v>0.0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
@@ -13211,10 +13211,10 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y32" t="n">
         <v>0.0</v>
@@ -13226,22 +13226,22 @@
         <v>0.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD32" t="n">
         <v>0.0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF32" t="n">
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH32" t="n">
         <v>0.0</v>
@@ -13250,7 +13250,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK32" t="n">
         <v>0.0</v>
@@ -13262,10 +13262,10 @@
         <v>0.0</v>
       </c>
       <c r="AN32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP32" t="n">
         <v>0.0</v>
@@ -13277,7 +13277,7 @@
         <v>0.0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT32" t="n">
         <v>1.0</v>
@@ -13316,13 +13316,13 @@
         <v>0.0</v>
       </c>
       <c r="BF32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG32" t="n">
         <v>0.0</v>
       </c>
       <c r="BH32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI32" t="n">
         <v>0.0</v>
@@ -13331,10 +13331,10 @@
         <v>0.0</v>
       </c>
       <c r="BK32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM32" t="n">
         <v>0.0</v>
@@ -13346,16 +13346,16 @@
         <v>0.0</v>
       </c>
       <c r="BP32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ32" t="n">
         <v>0.0</v>
       </c>
       <c r="BR32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT32" t="n">
         <v>0.0</v>
@@ -13364,13 +13364,13 @@
         <v>0.0</v>
       </c>
       <c r="BV32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW32" t="n">
         <v>0.0</v>
       </c>
       <c r="BX32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY32" t="n">
         <v>0.0</v>
@@ -13379,13 +13379,13 @@
         <v>0.0</v>
       </c>
       <c r="CA32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB32" t="n">
         <v>0.0</v>
       </c>
       <c r="CC32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD32" t="n">
         <v>0.0</v>
@@ -13394,13 +13394,13 @@
         <v>0.0</v>
       </c>
       <c r="CF32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG32" t="n">
         <v>0.0</v>
       </c>
       <c r="CH32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI32" t="n">
         <v>0.0</v>
@@ -13412,7 +13412,7 @@
         <v>0.0</v>
       </c>
       <c r="CL32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM32" t="n">
         <v>0.0</v>
@@ -13421,13 +13421,13 @@
         <v>0.0</v>
       </c>
       <c r="CO32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP32" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR32" t="n">
         <v>0.0</v>
@@ -13445,7 +13445,7 @@
         <v>1.0</v>
       </c>
       <c r="CW32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX32" t="n">
         <v>0.0</v>
@@ -13457,7 +13457,7 @@
         <v>0.0</v>
       </c>
       <c r="DA32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB32" t="n">
         <v>1.0</v>
@@ -13505,7 +13505,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR32" t="n">
         <v>0.0</v>
@@ -13517,10 +13517,10 @@
         <v>0.0</v>
       </c>
       <c r="DU32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW32" t="n">
         <v>0.0</v>
@@ -13532,7 +13532,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA32" t="n">
         <v>0.0</v>
@@ -13559,10 +13559,10 @@
         <v>0.0</v>
       </c>
       <c r="EI32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/CaseEfinal/files/FormatDepA.xlsx
+++ b/CaseEfinal/files/FormatDepA.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FITNESS = 122818.0" r:id="rId3" sheetId="1"/>
+    <sheet name="FITNESS = 113216.0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -87,19 +87,19 @@
         <v>0.0</v>
       </c>
       <c r="I1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L1" t="n">
         <v>0.0</v>
       </c>
       <c r="M1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N1" t="n">
         <v>0.0</v>
@@ -108,7 +108,7 @@
         <v>0.0</v>
       </c>
       <c r="P1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q1" t="n">
         <v>0.0</v>
@@ -117,7 +117,7 @@
         <v>0.0</v>
       </c>
       <c r="S1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T1" t="n">
         <v>0.0</v>
@@ -144,13 +144,13 @@
         <v>0.0</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC1" t="n">
         <v>0.0</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE1" t="n">
         <v>0.0</v>
@@ -174,13 +174,13 @@
         <v>0.0</v>
       </c>
       <c r="AL1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM1" t="n">
         <v>0.0</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO1" t="n">
         <v>0.0</v>
@@ -192,10 +192,10 @@
         <v>0.0</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT1" t="n">
         <v>0.0</v>
@@ -228,13 +228,13 @@
         <v>0.0</v>
       </c>
       <c r="BD1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE1" t="n">
         <v>0.0</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG1" t="n">
         <v>0.0</v>
@@ -249,10 +249,10 @@
         <v>0.0</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM1" t="n">
         <v>0.0</v>
@@ -264,16 +264,16 @@
         <v>0.0</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ1" t="n">
         <v>0.0</v>
       </c>
       <c r="BR1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT1" t="n">
         <v>0.0</v>
@@ -282,7 +282,7 @@
         <v>0.0</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW1" t="n">
         <v>0.0</v>
@@ -297,10 +297,10 @@
         <v>0.0</v>
       </c>
       <c r="CA1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC1" t="n">
         <v>0.0</v>
@@ -312,10 +312,10 @@
         <v>0.0</v>
       </c>
       <c r="CF1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH1" t="n">
         <v>0.0</v>
@@ -348,7 +348,7 @@
         <v>0.0</v>
       </c>
       <c r="CR1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS1" t="n">
         <v>0.0</v>
@@ -360,16 +360,16 @@
         <v>0.0</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX1" t="n">
         <v>0.0</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ1" t="n">
         <v>0.0</v>
@@ -384,13 +384,13 @@
         <v>0.0</v>
       </c>
       <c r="DD1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE1" t="n">
         <v>0.0</v>
       </c>
       <c r="DF1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG1" t="n">
         <v>0.0</v>
@@ -402,10 +402,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL1" t="n">
         <v>0.0</v>
@@ -417,19 +417,19 @@
         <v>0.0</v>
       </c>
       <c r="DO1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR1" t="n">
         <v>0.0</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT1" t="n">
         <v>0.0</v>
@@ -438,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW1" t="n">
         <v>0.0</v>
@@ -450,10 +450,10 @@
         <v>0.0</v>
       </c>
       <c r="DZ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB1" t="n">
         <v>0.0</v>
@@ -465,7 +465,7 @@
         <v>0.0</v>
       </c>
       <c r="EE1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF1" t="n">
         <v>0.0</v>
@@ -477,21 +477,21 @@
         <v>0.0</v>
       </c>
       <c r="EI1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -500,7 +500,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -509,7 +509,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" t="n">
         <v>0.0</v>
@@ -536,16 +536,16 @@
         <v>0.0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V2" t="n">
         <v>0.0</v>
@@ -554,13 +554,13 @@
         <v>0.0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y2" t="n">
         <v>0.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0</v>
@@ -572,7 +572,7 @@
         <v>0.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE2" t="n">
         <v>0.0</v>
@@ -581,13 +581,13 @@
         <v>0.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH2" t="n">
         <v>0.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.0</v>
@@ -596,10 +596,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN2" t="n">
         <v>0.0</v>
@@ -614,10 +614,10 @@
         <v>0.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT2" t="n">
         <v>0.0</v>
@@ -629,10 +629,10 @@
         <v>0.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY2" t="n">
         <v>0.0</v>
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE2" t="n">
         <v>0.0</v>
@@ -662,10 +662,10 @@
         <v>0.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ2" t="n">
         <v>0.0</v>
@@ -674,7 +674,7 @@
         <v>0.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM2" t="n">
         <v>0.0</v>
@@ -689,13 +689,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT2" t="n">
         <v>0.0</v>
@@ -704,7 +704,7 @@
         <v>0.0</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW2" t="n">
         <v>0.0</v>
@@ -716,16 +716,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA2" t="n">
         <v>0.0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD2" t="n">
         <v>0.0</v>
@@ -737,16 +737,16 @@
         <v>0.0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI2" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK2" t="n">
         <v>0.0</v>
@@ -755,13 +755,13 @@
         <v>0.0</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN2" t="n">
         <v>0.0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP2" t="n">
         <v>0.0</v>
@@ -794,10 +794,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB2" t="n">
         <v>0.0</v>
@@ -806,16 +806,16 @@
         <v>0.0</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF2" t="n">
         <v>0.0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH2" t="n">
         <v>0.0</v>
@@ -827,10 +827,10 @@
         <v>0.0</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM2" t="n">
         <v>0.0</v>
@@ -842,7 +842,7 @@
         <v>0.0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ2" t="n">
         <v>0.0</v>
@@ -854,13 +854,13 @@
         <v>0.0</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW2" t="n">
         <v>0.0</v>
@@ -869,7 +869,7 @@
         <v>0.0</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ2" t="n">
         <v>0.0</v>
@@ -884,13 +884,13 @@
         <v>0.0</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG2" t="n">
         <v>0.0</v>
@@ -902,12 +902,12 @@
         <v>0.0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -919,7 +919,7 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -937,7 +937,7 @@
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
@@ -946,13 +946,13 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O3" t="n">
         <v>0.0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0</v>
@@ -961,7 +961,7 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -973,13 +973,13 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X3" t="n">
         <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z3" t="n">
         <v>0.0</v>
@@ -988,22 +988,22 @@
         <v>0.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC3" t="n">
         <v>0.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF3" t="n">
         <v>0.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH3" t="n">
         <v>0.0</v>
@@ -1012,7 +1012,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK3" t="n">
         <v>0.0</v>
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO3" t="n">
         <v>0.0</v>
@@ -1033,13 +1033,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR3" t="n">
         <v>0.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT3" t="n">
         <v>0.0</v>
@@ -1057,13 +1057,13 @@
         <v>1.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ3" t="n">
         <v>0.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB3" t="n">
         <v>0.0</v>
@@ -1078,10 +1078,10 @@
         <v>0.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH3" t="n">
         <v>0.0</v>
@@ -1102,7 +1102,7 @@
         <v>0.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO3" t="n">
         <v>0.0</v>
@@ -1114,7 +1114,7 @@
         <v>0.0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS3" t="n">
         <v>0.0</v>
@@ -1147,13 +1147,13 @@
         <v>0.0</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD3" t="n">
         <v>0.0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF3" t="n">
         <v>0.0</v>
@@ -1192,13 +1192,13 @@
         <v>0.0</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS3" t="n">
         <v>0.0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU3" t="n">
         <v>0.0</v>
@@ -1213,22 +1213,22 @@
         <v>0.0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ3" t="n">
         <v>0.0</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC3" t="n">
         <v>0.0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE3" t="n">
         <v>0.0</v>
@@ -1237,13 +1237,13 @@
         <v>0.0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH3" t="n">
         <v>0.0</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ3" t="n">
         <v>0.0</v>
@@ -1261,10 +1261,10 @@
         <v>0.0</v>
       </c>
       <c r="DO3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0.0</v>
@@ -1276,13 +1276,13 @@
         <v>0.0</v>
       </c>
       <c r="DT3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW3" t="n">
         <v>0.0</v>
@@ -1294,7 +1294,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA3" t="n">
         <v>0.0</v>
@@ -1306,13 +1306,13 @@
         <v>0.0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG3" t="n">
         <v>0.0</v>
@@ -1324,7 +1324,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1335,16 +1335,16 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1356,16 +1356,16 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -1374,13 +1374,13 @@
         <v>0.0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S4" t="n">
         <v>0.0</v>
@@ -1389,13 +1389,13 @@
         <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V4" t="n">
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X4" t="n">
         <v>0.0</v>
@@ -1410,13 +1410,13 @@
         <v>0.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE4" t="n">
         <v>0.0</v>
@@ -1425,22 +1425,22 @@
         <v>0.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI4" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK4" t="n">
         <v>0.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM4" t="n">
         <v>0.0</v>
@@ -1458,10 +1458,10 @@
         <v>0.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT4" t="n">
         <v>0.0</v>
@@ -1470,16 +1470,16 @@
         <v>0.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ4" t="n">
         <v>0.0</v>
@@ -1491,7 +1491,7 @@
         <v>0.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD4" t="n">
         <v>0.0</v>
@@ -1500,10 +1500,10 @@
         <v>0.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH4" t="n">
         <v>0.0</v>
@@ -1569,7 +1569,7 @@
         <v>1.0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD4" t="n">
         <v>0.0</v>
@@ -1581,7 +1581,7 @@
         <v>0.0</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH4" t="n">
         <v>0.0</v>
@@ -1593,13 +1593,13 @@
         <v>0.0</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN4" t="n">
         <v>0.0</v>
@@ -1608,7 +1608,7 @@
         <v>0.0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ4" t="n">
         <v>0.0</v>
@@ -1620,13 +1620,13 @@
         <v>0.0</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU4" t="n">
         <v>0.0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW4" t="n">
         <v>0.0</v>
@@ -1644,7 +1644,7 @@
         <v>0.0</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC4" t="n">
         <v>0.0</v>
@@ -1656,7 +1656,7 @@
         <v>0.0</v>
       </c>
       <c r="DF4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG4" t="n">
         <v>0.0</v>
@@ -1665,10 +1665,10 @@
         <v>0.0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK4" t="n">
         <v>0.0</v>
@@ -1680,13 +1680,13 @@
         <v>0.0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO4" t="n">
         <v>0.0</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0.0</v>
@@ -1695,13 +1695,13 @@
         <v>0.0</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT4" t="n">
         <v>0.0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV4" t="n">
         <v>0.0</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1760,7 +1760,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -1772,16 +1772,16 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
@@ -1793,10 +1793,10 @@
         <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0</v>
@@ -1808,16 +1808,16 @@
         <v>0.0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V5" t="n">
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X5" t="n">
         <v>0.0</v>
@@ -1826,7 +1826,7 @@
         <v>0.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA5" t="n">
         <v>0.0</v>
@@ -1835,7 +1835,7 @@
         <v>0.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD5" t="n">
         <v>0.0</v>
@@ -1862,22 +1862,22 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN5" t="n">
         <v>0.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP5" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR5" t="n">
         <v>0.0</v>
@@ -1886,7 +1886,7 @@
         <v>0.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU5" t="n">
         <v>0.0</v>
@@ -1898,10 +1898,10 @@
         <v>0.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ5" t="n">
         <v>0.0</v>
@@ -1910,13 +1910,13 @@
         <v>0.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC5" t="n">
         <v>0.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE5" t="n">
         <v>0.0</v>
@@ -1928,16 +1928,16 @@
         <v>0.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL5" t="n">
         <v>0.0</v>
@@ -2000,13 +2000,13 @@
         <v>0.0</v>
       </c>
       <c r="CF5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI5" t="n">
         <v>0.0</v>
@@ -2015,7 +2015,7 @@
         <v>0.0</v>
       </c>
       <c r="CK5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL5" t="n">
         <v>0.0</v>
@@ -2027,16 +2027,16 @@
         <v>0.0</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP5" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS5" t="n">
         <v>0.0</v>
@@ -2048,7 +2048,7 @@
         <v>0.0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW5" t="n">
         <v>0.0</v>
@@ -2057,10 +2057,10 @@
         <v>0.0</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA5" t="n">
         <v>0.0</v>
@@ -2075,13 +2075,13 @@
         <v>0.0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH5" t="n">
         <v>0.0</v>
@@ -2093,16 +2093,16 @@
         <v>0.0</v>
       </c>
       <c r="DK5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM5" t="n">
         <v>0.0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO5" t="n">
         <v>0.0</v>
@@ -2111,7 +2111,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR5" t="n">
         <v>0.0</v>
@@ -2123,10 +2123,10 @@
         <v>0.0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW5" t="n">
         <v>0.0</v>
@@ -2135,19 +2135,19 @@
         <v>0.0</v>
       </c>
       <c r="DY5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0.0</v>
       </c>
       <c r="EA5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB5" t="n">
         <v>0.0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED5" t="n">
         <v>0.0</v>
@@ -2156,7 +2156,7 @@
         <v>0.0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG5" t="n">
         <v>0.0</v>
@@ -2168,7 +2168,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -2188,7 +2188,7 @@
         <v>0.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -2200,10 +2200,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
@@ -2215,7 +2215,7 @@
         <v>0.0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P6" t="n">
         <v>0.0</v>
@@ -2224,13 +2224,13 @@
         <v>0.0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
@@ -2239,10 +2239,10 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y6" t="n">
         <v>0.0</v>
@@ -2269,13 +2269,13 @@
         <v>0.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH6" t="n">
         <v>0.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -2287,10 +2287,10 @@
         <v>0.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO6" t="n">
         <v>0.0</v>
@@ -2299,10 +2299,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS6" t="n">
         <v>0.0</v>
@@ -2317,10 +2317,10 @@
         <v>0.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY6" t="n">
         <v>0.0</v>
@@ -2347,13 +2347,13 @@
         <v>0.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0.0</v>
@@ -2362,19 +2362,19 @@
         <v>0.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM6" t="n">
         <v>0.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO6" t="n">
         <v>0.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ6" t="n">
         <v>0.0</v>
@@ -2392,10 +2392,10 @@
         <v>0.0</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX6" t="n">
         <v>0.0</v>
@@ -2413,7 +2413,7 @@
         <v>0.0</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD6" t="n">
         <v>0.0</v>
@@ -2425,7 +2425,7 @@
         <v>0.0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH6" t="n">
         <v>0.0</v>
@@ -2449,10 +2449,10 @@
         <v>0.0</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ6" t="n">
         <v>0.0</v>
@@ -2479,16 +2479,16 @@
         <v>0.0</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA6" t="n">
         <v>0.0</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC6" t="n">
         <v>0.0</v>
@@ -2500,7 +2500,7 @@
         <v>0.0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG6" t="n">
         <v>0.0</v>
@@ -2509,16 +2509,16 @@
         <v>0.0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ6" t="n">
         <v>0.0</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM6" t="n">
         <v>0.0</v>
@@ -2527,7 +2527,7 @@
         <v>0.0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP6" t="n">
         <v>0.0</v>
@@ -2542,10 +2542,10 @@
         <v>0.0</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV6" t="n">
         <v>0.0</v>
@@ -2557,19 +2557,19 @@
         <v>0.0</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB6" t="n">
         <v>0.0</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED6" t="n">
         <v>0.0</v>
@@ -2587,15 +2587,15 @@
         <v>0.0</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2607,10 +2607,10 @@
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -2622,16 +2622,16 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -2640,7 +2640,7 @@
         <v>0.0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0</v>
@@ -2649,7 +2649,7 @@
         <v>0.0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -2670,13 +2670,13 @@
         <v>1.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA7" t="n">
         <v>0.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" t="n">
         <v>0.0</v>
@@ -2685,7 +2685,7 @@
         <v>0.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF7" t="n">
         <v>0.0</v>
@@ -2694,7 +2694,7 @@
         <v>0.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI7" t="n">
         <v>0.0</v>
@@ -2706,13 +2706,13 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM7" t="n">
         <v>0.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO7" t="n">
         <v>0.0</v>
@@ -2721,16 +2721,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR7" t="n">
         <v>0.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU7" t="n">
         <v>0.0</v>
@@ -2742,7 +2742,7 @@
         <v>0.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY7" t="n">
         <v>0.0</v>
@@ -2751,10 +2751,10 @@
         <v>0.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC7" t="n">
         <v>0.0</v>
@@ -2790,7 +2790,7 @@
         <v>0.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO7" t="n">
         <v>0.0</v>
@@ -2799,13 +2799,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR7" t="n">
         <v>0.0</v>
       </c>
       <c r="BS7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT7" t="n">
         <v>0.0</v>
@@ -2814,19 +2814,19 @@
         <v>0.0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW7" t="n">
         <v>0.0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY7" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA7" t="n">
         <v>0.0</v>
@@ -2844,13 +2844,13 @@
         <v>0.0</v>
       </c>
       <c r="CF7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI7" t="n">
         <v>0.0</v>
@@ -2859,7 +2859,7 @@
         <v>0.0</v>
       </c>
       <c r="CK7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL7" t="n">
         <v>0.0</v>
@@ -2880,7 +2880,7 @@
         <v>0.0</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS7" t="n">
         <v>0.0</v>
@@ -2892,7 +2892,7 @@
         <v>0.0</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW7" t="n">
         <v>0.0</v>
@@ -2904,10 +2904,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB7" t="n">
         <v>0.0</v>
@@ -2919,13 +2919,13 @@
         <v>0.0</v>
       </c>
       <c r="DE7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH7" t="n">
         <v>0.0</v>
@@ -2934,7 +2934,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK7" t="n">
         <v>0.0</v>
@@ -2961,13 +2961,13 @@
         <v>0.0</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT7" t="n">
         <v>0.0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV7" t="n">
         <v>0.0</v>
@@ -2976,13 +2976,13 @@
         <v>0.0</v>
       </c>
       <c r="DX7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY7" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA7" t="n">
         <v>0.0</v>
@@ -2994,10 +2994,10 @@
         <v>0.0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF7" t="n">
         <v>0.0</v>
@@ -3032,13 +3032,13 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -3068,13 +3068,13 @@
         <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
         <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U8" t="n">
         <v>1.0</v>
@@ -3098,10 +3098,10 @@
         <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD8" t="n">
         <v>0.0</v>
@@ -3116,10 +3116,10 @@
         <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0.0</v>
@@ -3128,22 +3128,22 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM8" t="n">
         <v>0.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP8" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8" t="n">
         <v>0.0</v>
@@ -3167,7 +3167,7 @@
         <v>1.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ8" t="n">
         <v>0.0</v>
@@ -3176,19 +3176,19 @@
         <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
         <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE8" t="n">
         <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG8" t="n">
         <v>0.0</v>
@@ -3218,22 +3218,22 @@
         <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
         <v>0.0</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT8" t="n">
         <v>0.0</v>
       </c>
       <c r="BU8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV8" t="n">
         <v>0.0</v>
@@ -3242,7 +3242,7 @@
         <v>0.0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY8" t="n">
         <v>0.0</v>
@@ -3254,16 +3254,16 @@
         <v>0.0</v>
       </c>
       <c r="CB8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD8" t="n">
         <v>0.0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF8" t="n">
         <v>0.0</v>
@@ -3278,10 +3278,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL8" t="n">
         <v>0.0</v>
@@ -3308,22 +3308,22 @@
         <v>0.0</v>
       </c>
       <c r="CT8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU8" t="n">
         <v>0.0</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX8" t="n">
         <v>0.0</v>
       </c>
       <c r="CY8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ8" t="n">
         <v>0.0</v>
@@ -3332,7 +3332,7 @@
         <v>0.0</v>
       </c>
       <c r="DB8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC8" t="n">
         <v>0.0</v>
@@ -3344,7 +3344,7 @@
         <v>0.0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG8" t="n">
         <v>1.0</v>
@@ -3362,7 +3362,7 @@
         <v>0.0</v>
       </c>
       <c r="DL8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM8" t="n">
         <v>0.0</v>
@@ -3374,10 +3374,10 @@
         <v>0.0</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR8" t="n">
         <v>0.0</v>
@@ -3386,7 +3386,7 @@
         <v>0.0</v>
       </c>
       <c r="DT8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU8" t="n">
         <v>0.0</v>
@@ -3401,10 +3401,10 @@
         <v>0.0</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA8" t="n">
         <v>0.0</v>
@@ -3413,16 +3413,16 @@
         <v>0.0</v>
       </c>
       <c r="EC8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE8" t="n">
         <v>0.0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG8" t="n">
         <v>0.0</v>
@@ -3434,12 +3434,12 @@
         <v>0.0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3451,7 +3451,7 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -3460,16 +3460,16 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
@@ -3481,10 +3481,10 @@
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0</v>
@@ -3496,16 +3496,16 @@
         <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V9" t="n">
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X9" t="n">
         <v>0.0</v>
@@ -3538,10 +3538,10 @@
         <v>0.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.0</v>
@@ -3550,10 +3550,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN9" t="n">
         <v>0.0</v>
@@ -3574,7 +3574,7 @@
         <v>0.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU9" t="n">
         <v>0.0</v>
@@ -3586,10 +3586,10 @@
         <v>0.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ9" t="n">
         <v>0.0</v>
@@ -3601,7 +3601,7 @@
         <v>0.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD9" t="n">
         <v>0.0</v>
@@ -3613,13 +3613,13 @@
         <v>0.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0.0</v>
@@ -3631,10 +3631,10 @@
         <v>0.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO9" t="n">
         <v>0.0</v>
@@ -3646,10 +3646,10 @@
         <v>0.0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT9" t="n">
         <v>0.0</v>
@@ -3661,16 +3661,16 @@
         <v>0.0</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY9" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA9" t="n">
         <v>0.0</v>
@@ -3700,13 +3700,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK9" t="n">
         <v>0.0</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM9" t="n">
         <v>0.0</v>
@@ -3718,10 +3718,10 @@
         <v>0.0</v>
       </c>
       <c r="CP9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR9" t="n">
         <v>0.0</v>
@@ -3748,10 +3748,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB9" t="n">
         <v>0.0</v>
@@ -3790,16 +3790,16 @@
         <v>0.0</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP9" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR9" t="n">
         <v>0.0</v>
@@ -3808,7 +3808,7 @@
         <v>0.0</v>
       </c>
       <c r="DT9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU9" t="n">
         <v>0.0</v>
@@ -3820,22 +3820,22 @@
         <v>0.0</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY9" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB9" t="n">
         <v>0.0</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED9" t="n">
         <v>0.0</v>
@@ -3850,13 +3850,13 @@
         <v>0.0</v>
       </c>
       <c r="EH9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI9" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -3870,13 +3870,13 @@
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -3888,16 +3888,16 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -3906,13 +3906,13 @@
         <v>0.0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S10" t="n">
         <v>0.0</v>
@@ -3927,16 +3927,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y10" t="n">
         <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA10" t="n">
         <v>0.0</v>
@@ -3945,7 +3945,7 @@
         <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10" t="n">
         <v>0.0</v>
@@ -3960,13 +3960,13 @@
         <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK10" t="n">
         <v>0.0</v>
@@ -3975,7 +3975,7 @@
         <v>0.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10" t="n">
         <v>0.0</v>
@@ -3987,13 +3987,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR10" t="n">
         <v>0.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT10" t="n">
         <v>0.0</v>
@@ -4011,13 +4011,13 @@
         <v>1.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ10" t="n">
         <v>0.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB10" t="n">
         <v>0.0</v>
@@ -4035,13 +4035,13 @@
         <v>0.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0.0</v>
@@ -4050,13 +4050,13 @@
         <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM10" t="n">
         <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO10" t="n">
         <v>0.0</v>
@@ -4068,7 +4068,7 @@
         <v>0.0</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS10" t="n">
         <v>0.0</v>
@@ -4086,7 +4086,7 @@
         <v>0.0</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY10" t="n">
         <v>0.0</v>
@@ -4098,7 +4098,7 @@
         <v>0.0</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC10" t="n">
         <v>0.0</v>
@@ -4110,10 +4110,10 @@
         <v>0.0</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH10" t="n">
         <v>0.0</v>
@@ -4152,10 +4152,10 @@
         <v>0.0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV10" t="n">
         <v>0.0</v>
@@ -4176,7 +4176,7 @@
         <v>0.0</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC10" t="n">
         <v>0.0</v>
@@ -4188,7 +4188,7 @@
         <v>0.0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG10" t="n">
         <v>0.0</v>
@@ -4206,13 +4206,13 @@
         <v>1.0</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM10" t="n">
         <v>0.0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO10" t="n">
         <v>0.0</v>
@@ -4221,13 +4221,13 @@
         <v>0.0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR10" t="n">
         <v>0.0</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT10" t="n">
         <v>0.0</v>
@@ -4236,7 +4236,7 @@
         <v>0.0</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW10" t="n">
         <v>0.0</v>
@@ -4245,7 +4245,7 @@
         <v>0.0</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ10" t="n">
         <v>0.0</v>
@@ -4266,7 +4266,7 @@
         <v>0.0</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG10" t="n">
         <v>0.0</v>
@@ -4278,7 +4278,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -4298,7 +4298,7 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -4310,7 +4310,7 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
@@ -4319,13 +4319,13 @@
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P11" t="n">
         <v>0.0</v>
@@ -4349,13 +4349,13 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X11" t="n">
         <v>0.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z11" t="n">
         <v>0.0</v>
@@ -4364,16 +4364,16 @@
         <v>0.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" t="n">
         <v>0.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF11" t="n">
         <v>0.0</v>
@@ -4385,10 +4385,10 @@
         <v>0.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK11" t="n">
         <v>0.0</v>
@@ -4397,13 +4397,13 @@
         <v>0.0</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN11" t="n">
         <v>0.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP11" t="n">
         <v>0.0</v>
@@ -4415,7 +4415,7 @@
         <v>0.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT11" t="n">
         <v>0.0</v>
@@ -4442,10 +4442,10 @@
         <v>0.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD11" t="n">
         <v>0.0</v>
@@ -4454,10 +4454,10 @@
         <v>0.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH11" t="n">
         <v>0.0</v>
@@ -4469,13 +4469,13 @@
         <v>0.0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL11" t="n">
         <v>0.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN11" t="n">
         <v>1.0</v>
@@ -4502,10 +4502,10 @@
         <v>0.0</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX11" t="n">
         <v>0.0</v>
@@ -4514,16 +4514,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB11" t="n">
         <v>0.0</v>
       </c>
       <c r="CC11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD11" t="n">
         <v>0.0</v>
@@ -4535,16 +4535,16 @@
         <v>0.0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI11" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK11" t="n">
         <v>0.0</v>
@@ -4553,13 +4553,13 @@
         <v>0.0</v>
       </c>
       <c r="CM11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN11" t="n">
         <v>0.0</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP11" t="n">
         <v>0.0</v>
@@ -4598,13 +4598,13 @@
         <v>0.0</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC11" t="n">
         <v>0.0</v>
       </c>
       <c r="DD11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE11" t="n">
         <v>0.0</v>
@@ -4619,16 +4619,16 @@
         <v>0.0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK11" t="n">
         <v>0.0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM11" t="n">
         <v>0.0</v>
@@ -4640,16 +4640,16 @@
         <v>0.0</v>
       </c>
       <c r="DP11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR11" t="n">
         <v>0.0</v>
       </c>
       <c r="DS11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT11" t="n">
         <v>0.0</v>
@@ -4658,7 +4658,7 @@
         <v>0.0</v>
       </c>
       <c r="DV11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW11" t="n">
         <v>0.0</v>
@@ -4670,16 +4670,16 @@
         <v>0.0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB11" t="n">
         <v>0.0</v>
       </c>
       <c r="EC11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED11" t="n">
         <v>0.0</v>
@@ -4720,13 +4720,13 @@
         <v>1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -4771,16 +4771,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X12" t="n">
         <v>0.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA12" t="n">
         <v>0.0</v>
@@ -4792,7 +4792,7 @@
         <v>0.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE12" t="n">
         <v>0.0</v>
@@ -4810,7 +4810,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK12" t="n">
         <v>0.0</v>
@@ -4819,7 +4819,7 @@
         <v>0.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN12" t="n">
         <v>0.0</v>
@@ -4840,13 +4840,13 @@
         <v>0.0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU12" t="n">
         <v>0.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW12" t="n">
         <v>0.0</v>
@@ -4864,10 +4864,10 @@
         <v>0.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD12" t="n">
         <v>0.0</v>
@@ -4900,7 +4900,7 @@
         <v>0.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO12" t="n">
         <v>0.0</v>
@@ -4909,19 +4909,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR12" t="n">
         <v>0.0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT12" t="n">
         <v>0.0</v>
       </c>
       <c r="BU12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV12" t="n">
         <v>0.0</v>
@@ -4930,13 +4930,13 @@
         <v>0.0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY12" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA12" t="n">
         <v>0.0</v>
@@ -4966,13 +4966,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK12" t="n">
         <v>0.0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM12" t="n">
         <v>0.0</v>
@@ -4981,16 +4981,16 @@
         <v>0.0</v>
       </c>
       <c r="CO12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ12" t="n">
         <v>0.0</v>
       </c>
       <c r="CR12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS12" t="n">
         <v>0.0</v>
@@ -4999,19 +4999,19 @@
         <v>0.0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV12" t="n">
         <v>0.0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX12" t="n">
         <v>0.0</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ12" t="n">
         <v>0.0</v>
@@ -5029,13 +5029,13 @@
         <v>0.0</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH12" t="n">
         <v>0.0</v>
@@ -5047,10 +5047,10 @@
         <v>0.0</v>
       </c>
       <c r="DK12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM12" t="n">
         <v>0.0</v>
@@ -5059,7 +5059,7 @@
         <v>0.0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP12" t="n">
         <v>0.0</v>
@@ -5074,13 +5074,13 @@
         <v>0.0</v>
       </c>
       <c r="DT12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW12" t="n">
         <v>0.0</v>
@@ -5089,7 +5089,7 @@
         <v>0.0</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ12" t="n">
         <v>0.0</v>
@@ -5110,7 +5110,7 @@
         <v>1.0</v>
       </c>
       <c r="EF12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG12" t="n">
         <v>0.0</v>
@@ -5122,18 +5122,18 @@
         <v>0.0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
@@ -5148,16 +5148,16 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
@@ -5169,7 +5169,7 @@
         <v>0.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P13" t="n">
         <v>0.0</v>
@@ -5187,13 +5187,13 @@
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V13" t="n">
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
         <v>0.0</v>
@@ -5241,10 +5241,10 @@
         <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO13" t="n">
         <v>0.0</v>
@@ -5256,13 +5256,13 @@
         <v>0.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU13" t="n">
         <v>0.0</v>
@@ -5271,19 +5271,19 @@
         <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX13" t="n">
         <v>0.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ13" t="n">
         <v>0.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13" t="n">
         <v>0.0</v>
@@ -5298,13 +5298,13 @@
         <v>0.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG13" t="n">
         <v>0.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI13" t="n">
         <v>0.0</v>
@@ -5316,10 +5316,10 @@
         <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN13" t="n">
         <v>0.0</v>
@@ -5328,22 +5328,22 @@
         <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR13" t="n">
         <v>0.0</v>
       </c>
       <c r="BS13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT13" t="n">
         <v>0.0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV13" t="n">
         <v>0.0</v>
@@ -5367,7 +5367,7 @@
         <v>0.0</v>
       </c>
       <c r="CC13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD13" t="n">
         <v>0.0</v>
@@ -5379,7 +5379,7 @@
         <v>0.0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH13" t="n">
         <v>0.0</v>
@@ -5388,10 +5388,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL13" t="n">
         <v>0.0</v>
@@ -5406,10 +5406,10 @@
         <v>0.0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR13" t="n">
         <v>0.0</v>
@@ -5418,16 +5418,16 @@
         <v>0.0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU13" t="n">
         <v>0.0</v>
       </c>
       <c r="CV13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX13" t="n">
         <v>0.0</v>
@@ -5436,13 +5436,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA13" t="n">
         <v>0.0</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC13" t="n">
         <v>0.0</v>
@@ -5454,7 +5454,7 @@
         <v>0.0</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG13" t="n">
         <v>0.0</v>
@@ -5466,10 +5466,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL13" t="n">
         <v>0.0</v>
@@ -5478,22 +5478,22 @@
         <v>0.0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP13" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR13" t="n">
         <v>0.0</v>
       </c>
       <c r="DS13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT13" t="n">
         <v>0.0</v>
@@ -5502,7 +5502,7 @@
         <v>0.0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW13" t="n">
         <v>0.0</v>
@@ -5514,10 +5514,10 @@
         <v>0.0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB13" t="n">
         <v>0.0</v>
@@ -5526,7 +5526,7 @@
         <v>0.0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE13" t="n">
         <v>0.0</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5561,10 +5561,10 @@
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -5573,7 +5573,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J14" t="n">
         <v>0.0</v>
@@ -5588,19 +5588,19 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" t="n">
         <v>0.0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S14" t="n">
         <v>0.0</v>
@@ -5609,13 +5609,13 @@
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V14" t="n">
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X14" t="n">
         <v>0.0</v>
@@ -5630,16 +5630,16 @@
         <v>0.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD14" t="n">
         <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF14" t="n">
         <v>0.0</v>
@@ -5651,7 +5651,7 @@
         <v>0.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0.0</v>
@@ -5693,10 +5693,10 @@
         <v>0.0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY14" t="n">
         <v>0.0</v>
@@ -5723,10 +5723,10 @@
         <v>0.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI14" t="n">
         <v>0.0</v>
@@ -5735,13 +5735,13 @@
         <v>0.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL14" t="n">
         <v>0.0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN14" t="n">
         <v>0.0</v>
@@ -5753,13 +5753,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT14" t="n">
         <v>0.0</v>
@@ -5771,7 +5771,7 @@
         <v>0.0</v>
       </c>
       <c r="BW14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX14" t="n">
         <v>0.0</v>
@@ -5780,16 +5780,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA14" t="n">
         <v>0.0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD14" t="n">
         <v>0.0</v>
@@ -5798,7 +5798,7 @@
         <v>0.0</v>
       </c>
       <c r="CF14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG14" t="n">
         <v>0.0</v>
@@ -5810,22 +5810,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL14" t="n">
         <v>0.0</v>
       </c>
       <c r="CM14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN14" t="n">
         <v>0.0</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP14" t="n">
         <v>0.0</v>
@@ -5834,13 +5834,13 @@
         <v>0.0</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS14" t="n">
         <v>0.0</v>
       </c>
       <c r="CT14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU14" t="n">
         <v>0.0</v>
@@ -5873,13 +5873,13 @@
         <v>0.0</v>
       </c>
       <c r="DE14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH14" t="n">
         <v>0.0</v>
@@ -5891,7 +5891,7 @@
         <v>0.0</v>
       </c>
       <c r="DK14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL14" t="n">
         <v>0.0</v>
@@ -5900,16 +5900,16 @@
         <v>0.0</v>
       </c>
       <c r="DN14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO14" t="n">
         <v>0.0</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR14" t="n">
         <v>0.0</v>
@@ -5921,10 +5921,10 @@
         <v>0.0</v>
       </c>
       <c r="DU14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW14" t="n">
         <v>0.0</v>
@@ -5936,7 +5936,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA14" t="n">
         <v>0.0</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5980,13 +5980,13 @@
         <v>0.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -5995,7 +5995,7 @@
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n">
         <v>0.0</v>
@@ -6007,10 +6007,10 @@
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O15" t="n">
         <v>0.0</v>
@@ -6031,7 +6031,7 @@
         <v>1.0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V15" t="n">
         <v>0.0</v>
@@ -6043,7 +6043,7 @@
         <v>0.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15" t="n">
         <v>0.0</v>
@@ -6055,10 +6055,10 @@
         <v>0.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE15" t="n">
         <v>0.0</v>
@@ -6076,7 +6076,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK15" t="n">
         <v>0.0</v>
@@ -6088,10 +6088,10 @@
         <v>0.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP15" t="n">
         <v>0.0</v>
@@ -6103,7 +6103,7 @@
         <v>0.0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT15" t="n">
         <v>0.0</v>
@@ -6112,16 +6112,16 @@
         <v>0.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX15" t="n">
         <v>0.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0.0</v>
@@ -6133,16 +6133,16 @@
         <v>0.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE15" t="n">
         <v>0.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG15" t="n">
         <v>0.0</v>
@@ -6157,10 +6157,10 @@
         <v>0.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM15" t="n">
         <v>0.0</v>
@@ -6172,13 +6172,13 @@
         <v>0.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ15" t="n">
         <v>0.0</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS15" t="n">
         <v>0.0</v>
@@ -6187,13 +6187,13 @@
         <v>0.0</v>
       </c>
       <c r="BU15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV15" t="n">
         <v>0.0</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX15" t="n">
         <v>0.0</v>
@@ -6202,16 +6202,16 @@
         <v>0.0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB15" t="n">
         <v>0.0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD15" t="n">
         <v>0.0</v>
@@ -6223,7 +6223,7 @@
         <v>0.0</v>
       </c>
       <c r="CG15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH15" t="n">
         <v>0.0</v>
@@ -6232,22 +6232,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK15" t="n">
         <v>0.0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN15" t="n">
         <v>0.0</v>
       </c>
       <c r="CO15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP15" t="n">
         <v>0.0</v>
@@ -6262,10 +6262,10 @@
         <v>0.0</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV15" t="n">
         <v>0.0</v>
@@ -6280,10 +6280,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB15" t="n">
         <v>0.0</v>
@@ -6292,16 +6292,16 @@
         <v>0.0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE15" t="n">
         <v>0.0</v>
       </c>
       <c r="DF15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH15" t="n">
         <v>0.0</v>
@@ -6313,7 +6313,7 @@
         <v>0.0</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL15" t="n">
         <v>1.0</v>
@@ -6337,13 +6337,13 @@
         <v>0.0</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT15" t="n">
         <v>0.0</v>
       </c>
       <c r="DU15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV15" t="n">
         <v>1.0</v>
@@ -6382,18 +6382,18 @@
         <v>0.0</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI15" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6402,7 +6402,7 @@
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
@@ -6423,13 +6423,13 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -6453,7 +6453,7 @@
         <v>1.0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V16" t="n">
         <v>0.0</v>
@@ -6462,7 +6462,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y16" t="n">
         <v>0.0</v>
@@ -6474,22 +6474,22 @@
         <v>0.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16" t="n">
         <v>0.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF16" t="n">
         <v>0.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH16" t="n">
         <v>0.0</v>
@@ -6528,13 +6528,13 @@
         <v>0.0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU16" t="n">
         <v>0.0</v>
       </c>
       <c r="AV16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW16" t="n">
         <v>0.0</v>
@@ -6558,7 +6558,7 @@
         <v>1.0</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE16" t="n">
         <v>0.0</v>
@@ -6570,7 +6570,7 @@
         <v>0.0</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI16" t="n">
         <v>0.0</v>
@@ -6579,13 +6579,13 @@
         <v>0.0</v>
       </c>
       <c r="BK16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL16" t="n">
         <v>0.0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN16" t="n">
         <v>0.0</v>
@@ -6642,10 +6642,10 @@
         <v>0.0</v>
       </c>
       <c r="CF16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH16" t="n">
         <v>0.0</v>
@@ -6702,13 +6702,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC16" t="n">
         <v>0.0</v>
@@ -6717,13 +6717,13 @@
         <v>0.0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF16" t="n">
         <v>0.0</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH16" t="n">
         <v>0.0</v>
@@ -6732,19 +6732,19 @@
         <v>0.0</v>
       </c>
       <c r="DJ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK16" t="n">
         <v>0.0</v>
       </c>
       <c r="DL16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM16" t="n">
         <v>0.0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO16" t="n">
         <v>0.0</v>
@@ -6753,7 +6753,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR16" t="n">
         <v>0.0</v>
@@ -6765,7 +6765,7 @@
         <v>0.0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV16" t="n">
         <v>0.0</v>
@@ -6777,10 +6777,10 @@
         <v>0.0</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA16" t="n">
         <v>0.0</v>
@@ -6789,13 +6789,13 @@
         <v>0.0</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED16" t="n">
         <v>0.0</v>
       </c>
       <c r="EE16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF16" t="n">
         <v>0.0</v>
@@ -6804,13 +6804,13 @@
         <v>0.0</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI16" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -6821,16 +6821,16 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -6842,10 +6842,10 @@
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
@@ -6854,7 +6854,7 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O17" t="n">
         <v>0.0</v>
@@ -6869,13 +6869,13 @@
         <v>0.0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V17" t="n">
         <v>0.0</v>
@@ -6887,10 +6887,10 @@
         <v>0.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA17" t="n">
         <v>0.0</v>
@@ -6902,10 +6902,10 @@
         <v>0.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF17" t="n">
         <v>0.0</v>
@@ -6917,7 +6917,7 @@
         <v>0.0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -6926,22 +6926,22 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM17" t="n">
         <v>0.0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP17" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR17" t="n">
         <v>0.0</v>
@@ -6950,7 +6950,7 @@
         <v>0.0</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU17" t="n">
         <v>0.0</v>
@@ -6959,13 +6959,13 @@
         <v>0.0</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX17" t="n">
         <v>0.0</v>
       </c>
       <c r="AY17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ17" t="n">
         <v>0.0</v>
@@ -6974,7 +6974,7 @@
         <v>0.0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC17" t="n">
         <v>0.0</v>
@@ -7016,13 +7016,13 @@
         <v>0.0</v>
       </c>
       <c r="BP17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ17" t="n">
         <v>0.0</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS17" t="n">
         <v>0.0</v>
@@ -7076,22 +7076,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL17" t="n">
         <v>0.0</v>
       </c>
       <c r="CM17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN17" t="n">
         <v>0.0</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP17" t="n">
         <v>0.0</v>
@@ -7106,13 +7106,13 @@
         <v>0.0</v>
       </c>
       <c r="CT17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU17" t="n">
         <v>0.0</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW17" t="n">
         <v>0.0</v>
@@ -7124,10 +7124,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB17" t="n">
         <v>0.0</v>
@@ -7139,19 +7139,19 @@
         <v>0.0</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH17" t="n">
         <v>0.0</v>
       </c>
       <c r="DI17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ17" t="n">
         <v>0.0</v>
@@ -7181,13 +7181,13 @@
         <v>0.0</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT17" t="n">
         <v>0.0</v>
       </c>
       <c r="DU17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV17" t="n">
         <v>0.0</v>
@@ -7196,13 +7196,13 @@
         <v>0.0</v>
       </c>
       <c r="DX17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY17" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA17" t="n">
         <v>0.0</v>
@@ -7220,7 +7220,7 @@
         <v>0.0</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG17" t="n">
         <v>0.0</v>
@@ -7229,7 +7229,7 @@
         <v>0.0</v>
       </c>
       <c r="EI17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ17" t="n">
         <v>0.0</v>
@@ -7267,7 +7267,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
@@ -7276,7 +7276,7 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O18" t="n">
         <v>0.0</v>
@@ -7288,16 +7288,16 @@
         <v>0.0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S18" t="n">
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V18" t="n">
         <v>0.0</v>
@@ -7309,7 +7309,7 @@
         <v>0.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z18" t="n">
         <v>0.0</v>
@@ -7333,16 +7333,16 @@
         <v>0.0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH18" t="n">
         <v>0.0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK18" t="n">
         <v>0.0</v>
@@ -7354,7 +7354,7 @@
         <v>0.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO18" t="n">
         <v>0.0</v>
@@ -7363,16 +7363,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS18" t="n">
         <v>0.0</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU18" t="n">
         <v>0.0</v>
@@ -7384,7 +7384,7 @@
         <v>0.0</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY18" t="n">
         <v>0.0</v>
@@ -7393,13 +7393,13 @@
         <v>0.0</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB18" t="n">
         <v>0.0</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD18" t="n">
         <v>0.0</v>
@@ -7408,10 +7408,10 @@
         <v>0.0</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH18" t="n">
         <v>0.0</v>
@@ -7423,16 +7423,16 @@
         <v>0.0</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL18" t="n">
         <v>0.0</v>
       </c>
       <c r="BM18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO18" t="n">
         <v>0.0</v>
@@ -7441,19 +7441,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR18" t="n">
         <v>0.0</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT18" t="n">
         <v>0.0</v>
       </c>
       <c r="BU18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV18" t="n">
         <v>0.0</v>
@@ -7468,10 +7468,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB18" t="n">
         <v>0.0</v>
@@ -7498,13 +7498,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK18" t="n">
         <v>0.0</v>
       </c>
       <c r="CL18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM18" t="n">
         <v>0.0</v>
@@ -7528,16 +7528,16 @@
         <v>0.0</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV18" t="n">
         <v>0.0</v>
       </c>
       <c r="CW18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX18" t="n">
         <v>0.0</v>
@@ -7549,7 +7549,7 @@
         <v>0.0</v>
       </c>
       <c r="DA18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB18" t="n">
         <v>0.0</v>
@@ -7558,10 +7558,10 @@
         <v>0.0</v>
       </c>
       <c r="DD18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF18" t="n">
         <v>0.0</v>
@@ -7573,16 +7573,16 @@
         <v>0.0</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ18" t="n">
         <v>0.0</v>
       </c>
       <c r="DK18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM18" t="n">
         <v>0.0</v>
@@ -7591,7 +7591,7 @@
         <v>0.0</v>
       </c>
       <c r="DO18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP18" t="n">
         <v>0.0</v>
@@ -7603,13 +7603,13 @@
         <v>0.0</v>
       </c>
       <c r="DS18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT18" t="n">
         <v>0.0</v>
       </c>
       <c r="DU18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV18" t="n">
         <v>0.0</v>
@@ -7627,13 +7627,13 @@
         <v>1.0</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB18" t="n">
         <v>0.0</v>
       </c>
       <c r="EC18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED18" t="n">
         <v>0.0</v>
@@ -7648,13 +7648,13 @@
         <v>0.0</v>
       </c>
       <c r="EH18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI18" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -7665,10 +7665,10 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
@@ -7680,13 +7680,13 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K19" t="n">
         <v>0.0</v>
@@ -7710,10 +7710,10 @@
         <v>0.0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -7728,19 +7728,19 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA19" t="n">
         <v>0.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" t="n">
         <v>0.0</v>
@@ -7755,16 +7755,16 @@
         <v>0.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI19" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK19" t="n">
         <v>0.0</v>
@@ -7776,7 +7776,7 @@
         <v>0.0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO19" t="n">
         <v>0.0</v>
@@ -7803,19 +7803,19 @@
         <v>0.0</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ19" t="n">
         <v>0.0</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB19" t="n">
         <v>0.0</v>
@@ -7824,7 +7824,7 @@
         <v>0.0</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE19" t="n">
         <v>0.0</v>
@@ -7836,7 +7836,7 @@
         <v>0.0</v>
       </c>
       <c r="BH19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI19" t="n">
         <v>0.0</v>
@@ -7848,10 +7848,10 @@
         <v>0.0</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN19" t="n">
         <v>0.0</v>
@@ -7863,10 +7863,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS19" t="n">
         <v>0.0</v>
@@ -7875,16 +7875,16 @@
         <v>0.0</v>
       </c>
       <c r="BU19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV19" t="n">
         <v>0.0</v>
       </c>
       <c r="BW19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY19" t="n">
         <v>0.0</v>
@@ -7893,7 +7893,7 @@
         <v>0.0</v>
       </c>
       <c r="CA19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB19" t="n">
         <v>0.0</v>
@@ -7908,10 +7908,10 @@
         <v>0.0</v>
       </c>
       <c r="CF19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH19" t="n">
         <v>0.0</v>
@@ -7920,13 +7920,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK19" t="n">
         <v>0.0</v>
       </c>
       <c r="CL19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM19" t="n">
         <v>0.0</v>
@@ -7935,13 +7935,13 @@
         <v>0.0</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP19" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR19" t="n">
         <v>0.0</v>
@@ -7965,13 +7965,13 @@
         <v>0.0</v>
       </c>
       <c r="CY19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ19" t="n">
         <v>0.0</v>
       </c>
       <c r="DA19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB19" t="n">
         <v>0.0</v>
@@ -7980,22 +7980,22 @@
         <v>0.0</v>
       </c>
       <c r="DD19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF19" t="n">
         <v>0.0</v>
       </c>
       <c r="DG19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH19" t="n">
         <v>0.0</v>
       </c>
       <c r="DI19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ19" t="n">
         <v>0.0</v>
@@ -8004,7 +8004,7 @@
         <v>0.0</v>
       </c>
       <c r="DL19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM19" t="n">
         <v>0.0</v>
@@ -8013,7 +8013,7 @@
         <v>0.0</v>
       </c>
       <c r="DO19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP19" t="n">
         <v>0.0</v>
@@ -8034,7 +8034,7 @@
         <v>0.0</v>
       </c>
       <c r="DV19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW19" t="n">
         <v>0.0</v>
@@ -8046,7 +8046,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA19" t="n">
         <v>0.0</v>
@@ -8058,10 +8058,10 @@
         <v>0.0</v>
       </c>
       <c r="ED19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF19" t="n">
         <v>0.0</v>
@@ -8102,13 +8102,13 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K20" t="n">
         <v>0.0</v>
@@ -8117,10 +8117,10 @@
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O20" t="n">
         <v>0.0</v>
@@ -8147,13 +8147,13 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X20" t="n">
         <v>0.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" t="n">
         <v>0.0</v>
@@ -8162,13 +8162,13 @@
         <v>0.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE20" t="n">
         <v>0.0</v>
@@ -8210,10 +8210,10 @@
         <v>0.0</v>
       </c>
       <c r="AR20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT20" t="n">
         <v>0.0</v>
@@ -8237,13 +8237,13 @@
         <v>0.0</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB20" t="n">
         <v>0.0</v>
       </c>
       <c r="BC20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD20" t="n">
         <v>0.0</v>
@@ -8252,10 +8252,10 @@
         <v>0.0</v>
       </c>
       <c r="BF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH20" t="n">
         <v>0.0</v>
@@ -8267,16 +8267,16 @@
         <v>0.0</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL20" t="n">
         <v>0.0</v>
       </c>
       <c r="BM20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO20" t="n">
         <v>0.0</v>
@@ -8285,7 +8285,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR20" t="n">
         <v>0.0</v>
@@ -8306,7 +8306,7 @@
         <v>0.0</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY20" t="n">
         <v>0.0</v>
@@ -8315,7 +8315,7 @@
         <v>0.0</v>
       </c>
       <c r="CA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB20" t="n">
         <v>0.0</v>
@@ -8330,13 +8330,13 @@
         <v>0.0</v>
       </c>
       <c r="CF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI20" t="n">
         <v>0.0</v>
@@ -8348,7 +8348,7 @@
         <v>0.0</v>
       </c>
       <c r="CL20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM20" t="n">
         <v>0.0</v>
@@ -8357,13 +8357,13 @@
         <v>0.0</v>
       </c>
       <c r="CO20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP20" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR20" t="n">
         <v>1.0</v>
@@ -8387,16 +8387,16 @@
         <v>0.0</v>
       </c>
       <c r="CY20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA20" t="n">
         <v>0.0</v>
       </c>
       <c r="DB20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC20" t="n">
         <v>0.0</v>
@@ -8408,10 +8408,10 @@
         <v>0.0</v>
       </c>
       <c r="DF20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH20" t="n">
         <v>0.0</v>
@@ -8423,16 +8423,16 @@
         <v>0.0</v>
       </c>
       <c r="DK20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM20" t="n">
         <v>0.0</v>
       </c>
       <c r="DN20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO20" t="n">
         <v>0.0</v>
@@ -8447,22 +8447,22 @@
         <v>0.0</v>
       </c>
       <c r="DS20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT20" t="n">
         <v>0.0</v>
       </c>
       <c r="DU20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW20" t="n">
         <v>0.0</v>
       </c>
       <c r="DX20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY20" t="n">
         <v>0.0</v>
@@ -8486,7 +8486,7 @@
         <v>0.0</v>
       </c>
       <c r="EF20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG20" t="n">
         <v>0.0</v>
@@ -8495,7 +8495,7 @@
         <v>0.0</v>
       </c>
       <c r="EI20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ20" t="n">
         <v>0.0</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -8515,7 +8515,7 @@
         <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -8524,16 +8524,16 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J21" t="n">
         <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -8542,7 +8542,7 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O21" t="n">
         <v>0.0</v>
@@ -8584,16 +8584,16 @@
         <v>0.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC21" t="n">
         <v>0.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF21" t="n">
         <v>0.0</v>
@@ -8605,10 +8605,10 @@
         <v>0.0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK21" t="n">
         <v>0.0</v>
@@ -8620,10 +8620,10 @@
         <v>0.0</v>
       </c>
       <c r="AN21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP21" t="n">
         <v>0.0</v>
@@ -8632,7 +8632,7 @@
         <v>0.0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS21" t="n">
         <v>0.0</v>
@@ -8644,16 +8644,16 @@
         <v>0.0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX21" t="n">
         <v>0.0</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ21" t="n">
         <v>0.0</v>
@@ -8662,7 +8662,7 @@
         <v>0.0</v>
       </c>
       <c r="BB21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC21" t="n">
         <v>0.0</v>
@@ -8674,13 +8674,13 @@
         <v>0.0</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG21" t="n">
         <v>0.0</v>
       </c>
       <c r="BH21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI21" t="n">
         <v>0.0</v>
@@ -8689,13 +8689,13 @@
         <v>0.0</v>
       </c>
       <c r="BK21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL21" t="n">
         <v>0.0</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN21" t="n">
         <v>0.0</v>
@@ -8704,10 +8704,10 @@
         <v>0.0</v>
       </c>
       <c r="BP21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR21" t="n">
         <v>0.0</v>
@@ -8719,16 +8719,16 @@
         <v>0.0</v>
       </c>
       <c r="BU21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV21" t="n">
         <v>0.0</v>
       </c>
       <c r="BW21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY21" t="n">
         <v>0.0</v>
@@ -8740,10 +8740,10 @@
         <v>0.0</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD21" t="n">
         <v>0.0</v>
@@ -8755,10 +8755,10 @@
         <v>0.0</v>
       </c>
       <c r="CG21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI21" t="n">
         <v>0.0</v>
@@ -8767,19 +8767,19 @@
         <v>0.0</v>
       </c>
       <c r="CK21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL21" t="n">
         <v>0.0</v>
       </c>
       <c r="CM21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN21" t="n">
         <v>0.0</v>
       </c>
       <c r="CO21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP21" t="n">
         <v>0.0</v>
@@ -8794,13 +8794,13 @@
         <v>0.0</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU21" t="n">
         <v>0.0</v>
       </c>
       <c r="CV21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW21" t="n">
         <v>0.0</v>
@@ -8809,16 +8809,16 @@
         <v>0.0</v>
       </c>
       <c r="CY21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ21" t="n">
         <v>0.0</v>
       </c>
       <c r="DA21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC21" t="n">
         <v>0.0</v>
@@ -8827,7 +8827,7 @@
         <v>0.0</v>
       </c>
       <c r="DE21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF21" t="n">
         <v>0.0</v>
@@ -8848,13 +8848,13 @@
         <v>1.0</v>
       </c>
       <c r="DL21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM21" t="n">
         <v>0.0</v>
       </c>
       <c r="DN21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO21" t="n">
         <v>0.0</v>
@@ -8863,7 +8863,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR21" t="n">
         <v>0.0</v>
@@ -8875,7 +8875,7 @@
         <v>0.0</v>
       </c>
       <c r="DU21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV21" t="n">
         <v>0.0</v>
@@ -8884,10 +8884,10 @@
         <v>0.0</v>
       </c>
       <c r="DX21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ21" t="n">
         <v>0.0</v>
@@ -8899,16 +8899,16 @@
         <v>0.0</v>
       </c>
       <c r="EC21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED21" t="n">
         <v>0.0</v>
       </c>
       <c r="EE21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG21" t="n">
         <v>0.0</v>
@@ -8920,18 +8920,18 @@
         <v>0.0</v>
       </c>
       <c r="EJ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
@@ -8961,22 +8961,22 @@
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O22" t="n">
         <v>0.0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S22" t="n">
         <v>0.0</v>
@@ -8991,10 +8991,10 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y22" t="n">
         <v>0.0</v>
@@ -9006,10 +9006,10 @@
         <v>0.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD22" t="n">
         <v>0.0</v>
@@ -9030,13 +9030,13 @@
         <v>1.0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK22" t="n">
         <v>0.0</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM22" t="n">
         <v>0.0</v>
@@ -9045,7 +9045,7 @@
         <v>0.0</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP22" t="n">
         <v>0.0</v>
@@ -9054,7 +9054,7 @@
         <v>0.0</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS22" t="n">
         <v>0.0</v>
@@ -9069,13 +9069,13 @@
         <v>0.0</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ22" t="n">
         <v>0.0</v>
@@ -9084,13 +9084,13 @@
         <v>0.0</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC22" t="n">
         <v>0.0</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE22" t="n">
         <v>0.0</v>
@@ -9099,7 +9099,7 @@
         <v>0.0</v>
       </c>
       <c r="BG22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH22" t="n">
         <v>0.0</v>
@@ -9114,10 +9114,10 @@
         <v>0.0</v>
       </c>
       <c r="BL22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN22" t="n">
         <v>0.0</v>
@@ -9141,10 +9141,10 @@
         <v>0.0</v>
       </c>
       <c r="BU22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW22" t="n">
         <v>0.0</v>
@@ -9156,13 +9156,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA22" t="n">
         <v>0.0</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC22" t="n">
         <v>0.0</v>
@@ -9171,10 +9171,10 @@
         <v>0.0</v>
       </c>
       <c r="CE22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG22" t="n">
         <v>0.0</v>
@@ -9186,22 +9186,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK22" t="n">
         <v>0.0</v>
       </c>
       <c r="CL22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN22" t="n">
         <v>0.0</v>
       </c>
       <c r="CO22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP22" t="n">
         <v>0.0</v>
@@ -9219,13 +9219,13 @@
         <v>0.0</v>
       </c>
       <c r="CU22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX22" t="n">
         <v>0.0</v>
@@ -9237,7 +9237,7 @@
         <v>0.0</v>
       </c>
       <c r="DA22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB22" t="n">
         <v>0.0</v>
@@ -9249,10 +9249,10 @@
         <v>0.0</v>
       </c>
       <c r="DE22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG22" t="n">
         <v>1.0</v>
@@ -9270,13 +9270,13 @@
         <v>0.0</v>
       </c>
       <c r="DL22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM22" t="n">
         <v>0.0</v>
       </c>
       <c r="DN22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO22" t="n">
         <v>0.0</v>
@@ -9321,10 +9321,10 @@
         <v>0.0</v>
       </c>
       <c r="EC22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE22" t="n">
         <v>0.0</v>
@@ -9339,21 +9339,21 @@
         <v>0.0</v>
       </c>
       <c r="EI22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
@@ -9371,13 +9371,13 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -9389,10 +9389,10 @@
         <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q23" t="n">
         <v>0.0</v>
@@ -9404,16 +9404,16 @@
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V23" t="n">
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X23" t="n">
         <v>0.0</v>
@@ -9431,10 +9431,10 @@
         <v>0.0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE23" t="n">
         <v>1.0</v>
@@ -9467,7 +9467,7 @@
         <v>0.0</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP23" t="n">
         <v>0.0</v>
@@ -9479,7 +9479,7 @@
         <v>0.0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT23" t="n">
         <v>0.0</v>
@@ -9497,7 +9497,7 @@
         <v>0.0</v>
       </c>
       <c r="AY23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ23" t="n">
         <v>0.0</v>
@@ -9509,10 +9509,10 @@
         <v>0.0</v>
       </c>
       <c r="BC23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE23" t="n">
         <v>0.0</v>
@@ -9521,13 +9521,13 @@
         <v>0.0</v>
       </c>
       <c r="BG23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH23" t="n">
         <v>0.0</v>
       </c>
       <c r="BI23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ23" t="n">
         <v>0.0</v>
@@ -9536,13 +9536,13 @@
         <v>0.0</v>
       </c>
       <c r="BL23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM23" t="n">
         <v>0.0</v>
       </c>
       <c r="BN23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO23" t="n">
         <v>0.0</v>
@@ -9554,10 +9554,10 @@
         <v>0.0</v>
       </c>
       <c r="BR23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT23" t="n">
         <v>0.0</v>
@@ -9566,7 +9566,7 @@
         <v>0.0</v>
       </c>
       <c r="BV23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW23" t="n">
         <v>0.0</v>
@@ -9587,7 +9587,7 @@
         <v>1.0</v>
       </c>
       <c r="CC23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD23" t="n">
         <v>0.0</v>
@@ -9599,7 +9599,7 @@
         <v>0.0</v>
       </c>
       <c r="CG23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH23" t="n">
         <v>0.0</v>
@@ -9608,13 +9608,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK23" t="n">
         <v>0.0</v>
       </c>
       <c r="CL23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM23" t="n">
         <v>0.0</v>
@@ -9632,7 +9632,7 @@
         <v>1.0</v>
       </c>
       <c r="CR23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS23" t="n">
         <v>0.0</v>
@@ -9644,7 +9644,7 @@
         <v>0.0</v>
       </c>
       <c r="CV23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW23" t="n">
         <v>0.0</v>
@@ -9653,13 +9653,13 @@
         <v>0.0</v>
       </c>
       <c r="CY23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ23" t="n">
         <v>0.0</v>
       </c>
       <c r="DA23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB23" t="n">
         <v>0.0</v>
@@ -9707,7 +9707,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR23" t="n">
         <v>0.0</v>
@@ -9719,10 +9719,10 @@
         <v>0.0</v>
       </c>
       <c r="DU23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW23" t="n">
         <v>0.0</v>
@@ -9731,7 +9731,7 @@
         <v>0.0</v>
       </c>
       <c r="DY23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ23" t="n">
         <v>0.0</v>
@@ -9743,16 +9743,16 @@
         <v>0.0</v>
       </c>
       <c r="EC23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE23" t="n">
         <v>0.0</v>
       </c>
       <c r="EF23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG23" t="n">
         <v>0.0</v>
@@ -9761,7 +9761,7 @@
         <v>0.0</v>
       </c>
       <c r="EI23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ23" t="n">
         <v>0.0</v>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -9781,7 +9781,7 @@
         <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -9790,10 +9790,10 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" t="n">
         <v>0.0</v>
@@ -9814,7 +9814,7 @@
         <v>0.0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" t="n">
         <v>0.0</v>
@@ -9826,7 +9826,7 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
@@ -9835,10 +9835,10 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y24" t="n">
         <v>0.0</v>
@@ -9880,16 +9880,16 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM24" t="n">
         <v>0.0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP24" t="n">
         <v>0.0</v>
@@ -9901,7 +9901,7 @@
         <v>0.0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT24" t="n">
         <v>0.0</v>
@@ -9913,13 +9913,13 @@
         <v>0.0</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ24" t="n">
         <v>0.0</v>
@@ -9928,7 +9928,7 @@
         <v>0.0</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC24" t="n">
         <v>0.0</v>
@@ -9940,13 +9940,13 @@
         <v>0.0</v>
       </c>
       <c r="BF24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG24" t="n">
         <v>0.0</v>
       </c>
       <c r="BH24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI24" t="n">
         <v>0.0</v>
@@ -9958,10 +9958,10 @@
         <v>0.0</v>
       </c>
       <c r="BL24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN24" t="n">
         <v>0.0</v>
@@ -9970,22 +9970,22 @@
         <v>0.0</v>
       </c>
       <c r="BP24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ24" t="n">
         <v>0.0</v>
       </c>
       <c r="BR24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT24" t="n">
         <v>0.0</v>
       </c>
       <c r="BU24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV24" t="n">
         <v>0.0</v>
@@ -10000,10 +10000,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB24" t="n">
         <v>0.0</v>
@@ -10015,13 +10015,13 @@
         <v>0.0</v>
       </c>
       <c r="CE24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF24" t="n">
         <v>0.0</v>
       </c>
       <c r="CG24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH24" t="n">
         <v>0.0</v>
@@ -10033,10 +10033,10 @@
         <v>0.0</v>
       </c>
       <c r="CK24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM24" t="n">
         <v>1.0</v>
@@ -10054,7 +10054,7 @@
         <v>0.0</v>
       </c>
       <c r="CR24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS24" t="n">
         <v>0.0</v>
@@ -10063,7 +10063,7 @@
         <v>0.0</v>
       </c>
       <c r="CU24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV24" t="n">
         <v>0.0</v>
@@ -10105,16 +10105,16 @@
         <v>0.0</v>
       </c>
       <c r="DI24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK24" t="n">
         <v>0.0</v>
       </c>
       <c r="DL24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM24" t="n">
         <v>0.0</v>
@@ -10123,13 +10123,13 @@
         <v>0.0</v>
       </c>
       <c r="DO24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP24" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR24" t="n">
         <v>0.0</v>
@@ -10138,13 +10138,13 @@
         <v>0.0</v>
       </c>
       <c r="DT24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU24" t="n">
         <v>0.0</v>
       </c>
       <c r="DV24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW24" t="n">
         <v>0.0</v>
@@ -10153,7 +10153,7 @@
         <v>0.0</v>
       </c>
       <c r="DY24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ24" t="n">
         <v>0.0</v>
@@ -10165,16 +10165,16 @@
         <v>0.0</v>
       </c>
       <c r="EC24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED24" t="n">
         <v>0.0</v>
       </c>
       <c r="EE24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG24" t="n">
         <v>0.0</v>
@@ -10186,18 +10186,18 @@
         <v>0.0</v>
       </c>
       <c r="EJ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25" t="n">
         <v>0.0</v>
@@ -10212,16 +10212,16 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J25" t="n">
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
@@ -10233,7 +10233,7 @@
         <v>0.0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P25" t="n">
         <v>0.0</v>
@@ -10251,7 +10251,7 @@
         <v>0.0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V25" t="n">
         <v>0.0</v>
@@ -10260,13 +10260,13 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y25" t="n">
         <v>0.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA25" t="n">
         <v>0.0</v>
@@ -10278,7 +10278,7 @@
         <v>0.0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE25" t="n">
         <v>1.0</v>
@@ -10296,13 +10296,13 @@
         <v>0.0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK25" t="n">
         <v>0.0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM25" t="n">
         <v>0.0</v>
@@ -10311,7 +10311,7 @@
         <v>0.0</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP25" t="n">
         <v>0.0</v>
@@ -10320,13 +10320,13 @@
         <v>0.0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS25" t="n">
         <v>0.0</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU25" t="n">
         <v>0.0</v>
@@ -10338,16 +10338,16 @@
         <v>0.0</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ25" t="n">
         <v>0.0</v>
       </c>
       <c r="BA25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB25" t="n">
         <v>0.0</v>
@@ -10356,7 +10356,7 @@
         <v>0.0</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE25" t="n">
         <v>0.0</v>
@@ -10368,7 +10368,7 @@
         <v>0.0</v>
       </c>
       <c r="BH25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI25" t="n">
         <v>0.0</v>
@@ -10377,16 +10377,16 @@
         <v>0.0</v>
       </c>
       <c r="BK25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM25" t="n">
         <v>0.0</v>
       </c>
       <c r="BN25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO25" t="n">
         <v>0.0</v>
@@ -10395,7 +10395,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR25" t="n">
         <v>0.0</v>
@@ -10416,7 +10416,7 @@
         <v>1.0</v>
       </c>
       <c r="BX25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY25" t="n">
         <v>0.0</v>
@@ -10428,10 +10428,10 @@
         <v>0.0</v>
       </c>
       <c r="CB25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD25" t="n">
         <v>0.0</v>
@@ -10443,7 +10443,7 @@
         <v>0.0</v>
       </c>
       <c r="CG25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH25" t="n">
         <v>0.0</v>
@@ -10452,13 +10452,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK25" t="n">
         <v>0.0</v>
       </c>
       <c r="CL25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM25" t="n">
         <v>0.0</v>
@@ -10470,10 +10470,10 @@
         <v>0.0</v>
       </c>
       <c r="CP25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR25" t="n">
         <v>0.0</v>
@@ -10506,13 +10506,13 @@
         <v>1.0</v>
       </c>
       <c r="DB25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC25" t="n">
         <v>0.0</v>
       </c>
       <c r="DD25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE25" t="n">
         <v>0.0</v>
@@ -10527,13 +10527,13 @@
         <v>0.0</v>
       </c>
       <c r="DI25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ25" t="n">
         <v>0.0</v>
       </c>
       <c r="DK25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL25" t="n">
         <v>0.0</v>
@@ -10542,16 +10542,16 @@
         <v>0.0</v>
       </c>
       <c r="DN25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO25" t="n">
         <v>0.0</v>
       </c>
       <c r="DP25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR25" t="n">
         <v>0.0</v>
@@ -10560,13 +10560,13 @@
         <v>0.0</v>
       </c>
       <c r="DT25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU25" t="n">
         <v>0.0</v>
       </c>
       <c r="DV25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW25" t="n">
         <v>0.0</v>
@@ -10578,7 +10578,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA25" t="n">
         <v>1.0</v>
@@ -10596,7 +10596,7 @@
         <v>0.0</v>
       </c>
       <c r="EF25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG25" t="n">
         <v>0.0</v>
@@ -10608,7 +10608,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -10619,16 +10619,16 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -10640,7 +10640,7 @@
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K26" t="n">
         <v>1.0</v>
@@ -10664,13 +10664,13 @@
         <v>0.0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S26" t="n">
         <v>0.0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U26" t="n">
         <v>0.0</v>
@@ -10679,16 +10679,16 @@
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y26" t="n">
         <v>0.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA26" t="n">
         <v>0.0</v>
@@ -10697,7 +10697,7 @@
         <v>0.0</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26" t="n">
         <v>0.0</v>
@@ -10709,16 +10709,16 @@
         <v>0.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI26" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK26" t="n">
         <v>0.0</v>
@@ -10727,7 +10727,7 @@
         <v>0.0</v>
       </c>
       <c r="AM26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN26" t="n">
         <v>0.0</v>
@@ -10754,13 +10754,13 @@
         <v>0.0</v>
       </c>
       <c r="AV26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW26" t="n">
         <v>0.0</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY26" t="n">
         <v>0.0</v>
@@ -10784,13 +10784,13 @@
         <v>0.0</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG26" t="n">
         <v>0.0</v>
       </c>
       <c r="BH26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI26" t="n">
         <v>1.0</v>
@@ -10814,10 +10814,10 @@
         <v>0.0</v>
       </c>
       <c r="BP26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR26" t="n">
         <v>0.0</v>
@@ -10832,10 +10832,10 @@
         <v>0.0</v>
       </c>
       <c r="BV26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX26" t="n">
         <v>0.0</v>
@@ -10844,13 +10844,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA26" t="n">
         <v>0.0</v>
       </c>
       <c r="CB26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC26" t="n">
         <v>0.0</v>
@@ -10868,13 +10868,13 @@
         <v>0.0</v>
       </c>
       <c r="CH26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI26" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK26" t="n">
         <v>0.0</v>
@@ -10898,7 +10898,7 @@
         <v>0.0</v>
       </c>
       <c r="CR26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS26" t="n">
         <v>0.0</v>
@@ -10910,10 +10910,10 @@
         <v>0.0</v>
       </c>
       <c r="CV26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX26" t="n">
         <v>0.0</v>
@@ -10925,7 +10925,7 @@
         <v>0.0</v>
       </c>
       <c r="DA26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB26" t="n">
         <v>0.0</v>
@@ -10937,13 +10937,13 @@
         <v>0.0</v>
       </c>
       <c r="DE26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH26" t="n">
         <v>0.0</v>
@@ -10952,7 +10952,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK26" t="n">
         <v>0.0</v>
@@ -10964,13 +10964,13 @@
         <v>0.0</v>
       </c>
       <c r="DN26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO26" t="n">
         <v>0.0</v>
       </c>
       <c r="DP26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ26" t="n">
         <v>0.0</v>
@@ -10994,16 +10994,16 @@
         <v>0.0</v>
       </c>
       <c r="DX26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY26" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB26" t="n">
         <v>0.0</v>
@@ -11015,7 +11015,7 @@
         <v>0.0</v>
       </c>
       <c r="EE26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF26" t="n">
         <v>0.0</v>
@@ -11024,13 +11024,13 @@
         <v>0.0</v>
       </c>
       <c r="EH26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI26" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -11041,13 +11041,13 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
@@ -11056,10 +11056,10 @@
         <v>0.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" t="n">
         <v>0.0</v>
@@ -11071,16 +11071,16 @@
         <v>0.0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
@@ -11092,7 +11092,7 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
@@ -11101,13 +11101,13 @@
         <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X27" t="n">
         <v>0.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z27" t="n">
         <v>1.0</v>
@@ -11146,10 +11146,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN27" t="n">
         <v>0.0</v>
@@ -11161,16 +11161,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS27" t="n">
         <v>0.0</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU27" t="n">
         <v>0.0</v>
@@ -11182,7 +11182,7 @@
         <v>0.0</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY27" t="n">
         <v>0.0</v>
@@ -11191,16 +11191,16 @@
         <v>0.0</v>
       </c>
       <c r="BA27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC27" t="n">
         <v>0.0</v>
       </c>
       <c r="BD27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE27" t="n">
         <v>0.0</v>
@@ -11212,7 +11212,7 @@
         <v>0.0</v>
       </c>
       <c r="BH27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI27" t="n">
         <v>0.0</v>
@@ -11221,16 +11221,16 @@
         <v>0.0</v>
       </c>
       <c r="BK27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL27" t="n">
         <v>0.0</v>
       </c>
       <c r="BM27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO27" t="n">
         <v>0.0</v>
@@ -11239,7 +11239,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR27" t="n">
         <v>0.0</v>
@@ -11254,10 +11254,10 @@
         <v>0.0</v>
       </c>
       <c r="BV27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX27" t="n">
         <v>1.0</v>
@@ -11275,13 +11275,13 @@
         <v>0.0</v>
       </c>
       <c r="CC27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD27" t="n">
         <v>0.0</v>
       </c>
       <c r="CE27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF27" t="n">
         <v>0.0</v>
@@ -11290,13 +11290,13 @@
         <v>0.0</v>
       </c>
       <c r="CH27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI27" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK27" t="n">
         <v>0.0</v>
@@ -11335,7 +11335,7 @@
         <v>0.0</v>
       </c>
       <c r="CW27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX27" t="n">
         <v>0.0</v>
@@ -11347,16 +11347,16 @@
         <v>0.0</v>
       </c>
       <c r="DA27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC27" t="n">
         <v>0.0</v>
       </c>
       <c r="DD27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE27" t="n">
         <v>0.0</v>
@@ -11386,22 +11386,22 @@
         <v>0.0</v>
       </c>
       <c r="DN27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO27" t="n">
         <v>0.0</v>
       </c>
       <c r="DP27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR27" t="n">
         <v>0.0</v>
       </c>
       <c r="DS27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT27" t="n">
         <v>0.0</v>
@@ -11416,13 +11416,13 @@
         <v>0.0</v>
       </c>
       <c r="DX27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY27" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA27" t="n">
         <v>0.0</v>
@@ -11434,10 +11434,10 @@
         <v>0.0</v>
       </c>
       <c r="ED27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF27" t="n">
         <v>0.0</v>
@@ -11449,21 +11449,21 @@
         <v>0.0</v>
       </c>
       <c r="EI27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
@@ -11472,13 +11472,13 @@
         <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -11496,10 +11496,10 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P28" t="n">
         <v>0.0</v>
@@ -11541,10 +11541,10 @@
         <v>0.0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE28" t="n">
         <v>1.0</v>
@@ -11571,13 +11571,13 @@
         <v>0.0</v>
       </c>
       <c r="AM28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP28" t="n">
         <v>0.0</v>
@@ -11586,13 +11586,13 @@
         <v>0.0</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS28" t="n">
         <v>0.0</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU28" t="n">
         <v>0.0</v>
@@ -11601,13 +11601,13 @@
         <v>0.0</v>
       </c>
       <c r="AW28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX28" t="n">
         <v>0.0</v>
       </c>
       <c r="AY28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ28" t="n">
         <v>0.0</v>
@@ -11619,7 +11619,7 @@
         <v>0.0</v>
       </c>
       <c r="BC28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD28" t="n">
         <v>0.0</v>
@@ -11637,7 +11637,7 @@
         <v>0.0</v>
       </c>
       <c r="BI28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ28" t="n">
         <v>0.0</v>
@@ -11646,13 +11646,13 @@
         <v>0.0</v>
       </c>
       <c r="BL28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM28" t="n">
         <v>0.0</v>
       </c>
       <c r="BN28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO28" t="n">
         <v>0.0</v>
@@ -11664,7 +11664,7 @@
         <v>0.0</v>
       </c>
       <c r="BR28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS28" t="n">
         <v>0.0</v>
@@ -11682,7 +11682,7 @@
         <v>1.0</v>
       </c>
       <c r="BX28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY28" t="n">
         <v>0.0</v>
@@ -11691,7 +11691,7 @@
         <v>0.0</v>
       </c>
       <c r="CA28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB28" t="n">
         <v>0.0</v>
@@ -11721,19 +11721,19 @@
         <v>0.0</v>
       </c>
       <c r="CK28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN28" t="n">
         <v>0.0</v>
       </c>
       <c r="CO28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP28" t="n">
         <v>0.0</v>
@@ -11748,16 +11748,16 @@
         <v>0.0</v>
       </c>
       <c r="CT28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV28" t="n">
         <v>0.0</v>
       </c>
       <c r="CW28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX28" t="n">
         <v>0.0</v>
@@ -11769,10 +11769,10 @@
         <v>0.0</v>
       </c>
       <c r="DA28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC28" t="n">
         <v>0.0</v>
@@ -11784,7 +11784,7 @@
         <v>0.0</v>
       </c>
       <c r="DF28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG28" t="n">
         <v>1.0</v>
@@ -11808,13 +11808,13 @@
         <v>0.0</v>
       </c>
       <c r="DN28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO28" t="n">
         <v>0.0</v>
       </c>
       <c r="DP28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ28" t="n">
         <v>0.0</v>
@@ -11838,13 +11838,13 @@
         <v>0.0</v>
       </c>
       <c r="DX28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY28" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA28" t="n">
         <v>0.0</v>
@@ -11853,10 +11853,10 @@
         <v>0.0</v>
       </c>
       <c r="EC28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE28" t="n">
         <v>0.0</v>
@@ -11868,10 +11868,10 @@
         <v>0.0</v>
       </c>
       <c r="EH28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ28" t="n">
         <v>0.0</v>
@@ -11879,13 +11879,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D29" t="n">
         <v>0.0</v>
@@ -11894,7 +11894,7 @@
         <v>0.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -11903,7 +11903,7 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J29" t="n">
         <v>0.0</v>
@@ -11930,10 +11930,10 @@
         <v>0.0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T29" t="n">
         <v>0.0</v>
@@ -11945,22 +11945,22 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X29" t="n">
         <v>0.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA29" t="n">
         <v>0.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
@@ -11969,13 +11969,13 @@
         <v>0.0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF29" t="n">
         <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH29" t="n">
         <v>0.0</v>
@@ -11990,13 +11990,13 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM29" t="n">
         <v>0.0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO29" t="n">
         <v>0.0</v>
@@ -12005,13 +12005,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR29" t="n">
         <v>0.0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT29" t="n">
         <v>0.0</v>
@@ -12035,10 +12035,10 @@
         <v>0.0</v>
       </c>
       <c r="BA29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC29" t="n">
         <v>0.0</v>
@@ -12053,10 +12053,10 @@
         <v>0.0</v>
       </c>
       <c r="BG29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI29" t="n">
         <v>0.0</v>
@@ -12065,13 +12065,13 @@
         <v>0.0</v>
       </c>
       <c r="BK29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL29" t="n">
         <v>0.0</v>
       </c>
       <c r="BM29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN29" t="n">
         <v>0.0</v>
@@ -12080,10 +12080,10 @@
         <v>0.0</v>
       </c>
       <c r="BP29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR29" t="n">
         <v>0.0</v>
@@ -12098,10 +12098,10 @@
         <v>0.0</v>
       </c>
       <c r="BV29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX29" t="n">
         <v>0.0</v>
@@ -12134,7 +12134,7 @@
         <v>0.0</v>
       </c>
       <c r="CH29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI29" t="n">
         <v>0.0</v>
@@ -12146,10 +12146,10 @@
         <v>0.0</v>
       </c>
       <c r="CL29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN29" t="n">
         <v>0.0</v>
@@ -12158,19 +12158,19 @@
         <v>0.0</v>
       </c>
       <c r="CP29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ29" t="n">
         <v>0.0</v>
       </c>
       <c r="CR29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS29" t="n">
         <v>0.0</v>
       </c>
       <c r="CT29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU29" t="n">
         <v>0.0</v>
@@ -12188,10 +12188,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB29" t="n">
         <v>0.0</v>
@@ -12203,10 +12203,10 @@
         <v>0.0</v>
       </c>
       <c r="DE29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG29" t="n">
         <v>0.0</v>
@@ -12230,16 +12230,16 @@
         <v>0.0</v>
       </c>
       <c r="DN29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO29" t="n">
         <v>0.0</v>
       </c>
       <c r="DP29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR29" t="n">
         <v>0.0</v>
@@ -12248,7 +12248,7 @@
         <v>0.0</v>
       </c>
       <c r="DT29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU29" t="n">
         <v>0.0</v>
@@ -12260,10 +12260,10 @@
         <v>0.0</v>
       </c>
       <c r="DX29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ29" t="n">
         <v>0.0</v>
@@ -12284,13 +12284,13 @@
         <v>1.0</v>
       </c>
       <c r="EF29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG29" t="n">
         <v>0.0</v>
       </c>
       <c r="EH29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI29" t="n">
         <v>0.0</v>
@@ -12310,10 +12310,10 @@
         <v>0.0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -12322,10 +12322,10 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J30" t="n">
         <v>0.0</v>
@@ -12337,22 +12337,22 @@
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q30" t="n">
         <v>0.0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S30" t="n">
         <v>0.0</v>
@@ -12367,13 +12367,13 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X30" t="n">
         <v>0.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z30" t="n">
         <v>0.0</v>
@@ -12385,10 +12385,10 @@
         <v>0.0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE30" t="n">
         <v>0.0</v>
@@ -12397,10 +12397,10 @@
         <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI30" t="n">
         <v>0.0</v>
@@ -12412,22 +12412,22 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM30" t="n">
         <v>0.0</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP30" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR30" t="n">
         <v>0.0</v>
@@ -12442,13 +12442,13 @@
         <v>0.0</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW30" t="n">
         <v>0.0</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY30" t="n">
         <v>0.0</v>
@@ -12457,16 +12457,16 @@
         <v>0.0</v>
       </c>
       <c r="BA30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC30" t="n">
         <v>0.0</v>
       </c>
       <c r="BD30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE30" t="n">
         <v>0.0</v>
@@ -12475,7 +12475,7 @@
         <v>0.0</v>
       </c>
       <c r="BG30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH30" t="n">
         <v>0.0</v>
@@ -12487,16 +12487,16 @@
         <v>0.0</v>
       </c>
       <c r="BK30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM30" t="n">
         <v>0.0</v>
       </c>
       <c r="BN30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO30" t="n">
         <v>0.0</v>
@@ -12505,13 +12505,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR30" t="n">
         <v>0.0</v>
       </c>
       <c r="BS30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT30" t="n">
         <v>0.0</v>
@@ -12520,7 +12520,7 @@
         <v>0.0</v>
       </c>
       <c r="BV30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW30" t="n">
         <v>0.0</v>
@@ -12532,13 +12532,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA30" t="n">
         <v>0.0</v>
       </c>
       <c r="CB30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC30" t="n">
         <v>0.0</v>
@@ -12547,16 +12547,16 @@
         <v>0.0</v>
       </c>
       <c r="CE30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF30" t="n">
         <v>0.0</v>
       </c>
       <c r="CG30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI30" t="n">
         <v>0.0</v>
@@ -12568,16 +12568,16 @@
         <v>0.0</v>
       </c>
       <c r="CL30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN30" t="n">
         <v>0.0</v>
       </c>
       <c r="CO30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP30" t="n">
         <v>0.0</v>
@@ -12592,16 +12592,16 @@
         <v>0.0</v>
       </c>
       <c r="CT30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV30" t="n">
         <v>0.0</v>
       </c>
       <c r="CW30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX30" t="n">
         <v>0.0</v>
@@ -12613,7 +12613,7 @@
         <v>0.0</v>
       </c>
       <c r="DA30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB30" t="n">
         <v>0.0</v>
@@ -12661,7 +12661,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR30" t="n">
         <v>0.0</v>
@@ -12670,7 +12670,7 @@
         <v>0.0</v>
       </c>
       <c r="DT30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU30" t="n">
         <v>0.0</v>
@@ -12691,7 +12691,7 @@
         <v>1.0</v>
       </c>
       <c r="EA30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB30" t="n">
         <v>0.0</v>
@@ -12700,7 +12700,7 @@
         <v>0.0</v>
       </c>
       <c r="ED30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE30" t="n">
         <v>0.0</v>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -12732,7 +12732,7 @@
         <v>0.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E31" t="n">
         <v>0.0</v>
@@ -12747,10 +12747,10 @@
         <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
@@ -12762,10 +12762,10 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P31" t="n">
         <v>0.0</v>
@@ -12774,10 +12774,10 @@
         <v>0.0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -12789,13 +12789,13 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X31" t="n">
         <v>0.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z31" t="n">
         <v>0.0</v>
@@ -12807,10 +12807,10 @@
         <v>0.0</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE31" t="n">
         <v>0.0</v>
@@ -12819,13 +12819,13 @@
         <v>0.0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH31" t="n">
         <v>0.0</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ31" t="n">
         <v>0.0</v>
@@ -12858,13 +12858,13 @@
         <v>1.0</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU31" t="n">
         <v>0.0</v>
       </c>
       <c r="AV31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW31" t="n">
         <v>0.0</v>
@@ -12879,10 +12879,10 @@
         <v>0.0</v>
       </c>
       <c r="BA31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC31" t="n">
         <v>0.0</v>
@@ -12897,13 +12897,13 @@
         <v>0.0</v>
       </c>
       <c r="BG31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ31" t="n">
         <v>0.0</v>
@@ -12912,7 +12912,7 @@
         <v>0.0</v>
       </c>
       <c r="BL31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM31" t="n">
         <v>0.0</v>
@@ -12939,10 +12939,10 @@
         <v>0.0</v>
       </c>
       <c r="BU31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW31" t="n">
         <v>0.0</v>
@@ -12963,13 +12963,13 @@
         <v>1.0</v>
       </c>
       <c r="CC31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD31" t="n">
         <v>0.0</v>
       </c>
       <c r="CE31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF31" t="n">
         <v>0.0</v>
@@ -12987,10 +12987,10 @@
         <v>0.0</v>
       </c>
       <c r="CK31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM31" t="n">
         <v>0.0</v>
@@ -12999,10 +12999,10 @@
         <v>0.0</v>
       </c>
       <c r="CO31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ31" t="n">
         <v>0.0</v>
@@ -13038,7 +13038,7 @@
         <v>0.0</v>
       </c>
       <c r="DB31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC31" t="n">
         <v>0.0</v>
@@ -13050,7 +13050,7 @@
         <v>0.0</v>
       </c>
       <c r="DF31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG31" t="n">
         <v>0.0</v>
@@ -13059,22 +13059,22 @@
         <v>0.0</v>
       </c>
       <c r="DI31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ31" t="n">
         <v>0.0</v>
       </c>
       <c r="DK31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM31" t="n">
         <v>0.0</v>
       </c>
       <c r="DN31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO31" t="n">
         <v>0.0</v>
@@ -13083,13 +13083,13 @@
         <v>0.0</v>
       </c>
       <c r="DQ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR31" t="n">
         <v>0.0</v>
       </c>
       <c r="DS31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT31" t="n">
         <v>0.0</v>
@@ -13119,13 +13119,13 @@
         <v>0.0</v>
       </c>
       <c r="EC31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED31" t="n">
         <v>0.0</v>
       </c>
       <c r="EE31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF31" t="n">
         <v>0.0</v>
@@ -13181,13 +13181,13 @@
         <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P32" t="n">
         <v>0.0</v>
@@ -13214,10 +13214,10 @@
         <v>0.0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z32" t="n">
         <v>0.0</v>
@@ -13250,13 +13250,13 @@
         <v>0.0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK32" t="n">
         <v>0.0</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM32" t="n">
         <v>0.0</v>
@@ -13295,7 +13295,7 @@
         <v>0.0</v>
       </c>
       <c r="AY32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ32" t="n">
         <v>0.0</v>
@@ -13307,7 +13307,7 @@
         <v>0.0</v>
       </c>
       <c r="BC32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD32" t="n">
         <v>0.0</v>
@@ -13316,13 +13316,13 @@
         <v>0.0</v>
       </c>
       <c r="BF32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG32" t="n">
         <v>0.0</v>
       </c>
       <c r="BH32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI32" t="n">
         <v>0.0</v>
@@ -13361,10 +13361,10 @@
         <v>0.0</v>
       </c>
       <c r="BU32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW32" t="n">
         <v>0.0</v>
@@ -13400,13 +13400,13 @@
         <v>0.0</v>
       </c>
       <c r="CH32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI32" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK32" t="n">
         <v>0.0</v>
@@ -13421,13 +13421,13 @@
         <v>0.0</v>
       </c>
       <c r="CO32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP32" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR32" t="n">
         <v>0.0</v>
@@ -13439,10 +13439,10 @@
         <v>0.0</v>
       </c>
       <c r="CU32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW32" t="n">
         <v>0.0</v>
@@ -13460,13 +13460,13 @@
         <v>1.0</v>
       </c>
       <c r="DB32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC32" t="n">
         <v>0.0</v>
       </c>
       <c r="DD32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE32" t="n">
         <v>0.0</v>
@@ -13481,10 +13481,10 @@
         <v>0.0</v>
       </c>
       <c r="DI32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK32" t="n">
         <v>0.0</v>
@@ -13499,10 +13499,10 @@
         <v>0.0</v>
       </c>
       <c r="DO32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ32" t="n">
         <v>0.0</v>
@@ -13511,13 +13511,13 @@
         <v>0.0</v>
       </c>
       <c r="DS32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT32" t="n">
         <v>0.0</v>
       </c>
       <c r="DU32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV32" t="n">
         <v>0.0</v>
@@ -13529,13 +13529,13 @@
         <v>0.0</v>
       </c>
       <c r="DY32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB32" t="n">
         <v>0.0</v>
@@ -13544,7 +13544,7 @@
         <v>0.0</v>
       </c>
       <c r="ED32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE32" t="n">
         <v>0.0</v>
@@ -13559,10 +13559,10 @@
         <v>0.0</v>
       </c>
       <c r="EI32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/CaseEfinal/files/FormatDepA.xlsx
+++ b/CaseEfinal/files/FormatDepA.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FITNESS = 113216.0" r:id="rId3" sheetId="1"/>
+    <sheet name="FITNESS = 34501.0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -87,10 +87,10 @@
         <v>0.0</v>
       </c>
       <c r="I1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K1" t="n">
         <v>1.0</v>
@@ -108,7 +108,7 @@
         <v>0.0</v>
       </c>
       <c r="P1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q1" t="n">
         <v>0.0</v>
@@ -117,19 +117,19 @@
         <v>0.0</v>
       </c>
       <c r="S1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T1" t="n">
         <v>0.0</v>
       </c>
       <c r="U1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V1" t="n">
         <v>0.0</v>
       </c>
       <c r="W1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X1" t="n">
         <v>0.0</v>
@@ -138,13 +138,13 @@
         <v>0.0</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA1" t="n">
         <v>0.0</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC1" t="n">
         <v>0.0</v>
@@ -162,10 +162,10 @@
         <v>0.0</v>
       </c>
       <c r="AH1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ1" t="n">
         <v>0.0</v>
@@ -183,7 +183,7 @@
         <v>1.0</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP1" t="n">
         <v>0.0</v>
@@ -192,19 +192,19 @@
         <v>0.0</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS1" t="n">
         <v>0.0</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU1" t="n">
         <v>0.0</v>
       </c>
       <c r="AV1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW1" t="n">
         <v>0.0</v>
@@ -228,13 +228,13 @@
         <v>0.0</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE1" t="n">
         <v>0.0</v>
       </c>
       <c r="BF1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG1" t="n">
         <v>0.0</v>
@@ -243,13 +243,13 @@
         <v>0.0</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ1" t="n">
         <v>0.0</v>
       </c>
       <c r="BK1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL1" t="n">
         <v>0.0</v>
@@ -264,13 +264,13 @@
         <v>0.0</v>
       </c>
       <c r="BP1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ1" t="n">
         <v>0.0</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS1" t="n">
         <v>0.0</v>
@@ -282,13 +282,13 @@
         <v>0.0</v>
       </c>
       <c r="BV1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY1" t="n">
         <v>0.0</v>
@@ -300,10 +300,10 @@
         <v>0.0</v>
       </c>
       <c r="CB1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD1" t="n">
         <v>0.0</v>
@@ -315,16 +315,16 @@
         <v>0.0</v>
       </c>
       <c r="CG1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI1" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK1" t="n">
         <v>0.0</v>
@@ -333,7 +333,7 @@
         <v>0.0</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN1" t="n">
         <v>0.0</v>
@@ -342,13 +342,13 @@
         <v>0.0</v>
       </c>
       <c r="CP1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ1" t="n">
         <v>0.0</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS1" t="n">
         <v>0.0</v>
@@ -360,7 +360,7 @@
         <v>0.0</v>
       </c>
       <c r="CV1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW1" t="n">
         <v>0.0</v>
@@ -369,13 +369,13 @@
         <v>0.0</v>
       </c>
       <c r="CY1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ1" t="n">
         <v>0.0</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB1" t="n">
         <v>0.0</v>
@@ -384,16 +384,16 @@
         <v>0.0</v>
       </c>
       <c r="DD1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE1" t="n">
         <v>0.0</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH1" t="n">
         <v>0.0</v>
@@ -405,10 +405,10 @@
         <v>0.0</v>
       </c>
       <c r="DK1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM1" t="n">
         <v>0.0</v>
@@ -420,16 +420,16 @@
         <v>0.0</v>
       </c>
       <c r="DP1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR1" t="n">
         <v>0.0</v>
       </c>
       <c r="DS1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT1" t="n">
         <v>0.0</v>
@@ -477,10 +477,10 @@
         <v>0.0</v>
       </c>
       <c r="EI1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
@@ -500,7 +500,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -509,13 +509,13 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" t="n">
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
@@ -527,10 +527,10 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0</v>
@@ -539,13 +539,13 @@
         <v>0.0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V2" t="n">
         <v>0.0</v>
@@ -557,10 +557,10 @@
         <v>0.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0</v>
@@ -572,16 +572,16 @@
         <v>0.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF2" t="n">
         <v>0.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH2" t="n">
         <v>0.0</v>
@@ -590,7 +590,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK2" t="n">
         <v>0.0</v>
@@ -599,13 +599,13 @@
         <v>0.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN2" t="n">
         <v>0.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP2" t="n">
         <v>0.0</v>
@@ -614,13 +614,13 @@
         <v>0.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS2" t="n">
         <v>0.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU2" t="n">
         <v>0.0</v>
@@ -632,16 +632,16 @@
         <v>0.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB2" t="n">
         <v>0.0</v>
@@ -665,7 +665,7 @@
         <v>1.0</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ2" t="n">
         <v>0.0</v>
@@ -677,10 +677,10 @@
         <v>0.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO2" t="n">
         <v>0.0</v>
@@ -689,7 +689,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR2" t="n">
         <v>0.0</v>
@@ -710,7 +710,7 @@
         <v>0.0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY2" t="n">
         <v>0.0</v>
@@ -722,10 +722,10 @@
         <v>0.0</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD2" t="n">
         <v>0.0</v>
@@ -737,7 +737,7 @@
         <v>0.0</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH2" t="n">
         <v>1.0</v>
@@ -761,13 +761,13 @@
         <v>0.0</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP2" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR2" t="n">
         <v>0.0</v>
@@ -779,13 +779,13 @@
         <v>0.0</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX2" t="n">
         <v>0.0</v>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC2" t="n">
         <v>0.0</v>
@@ -809,7 +809,7 @@
         <v>0.0</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF2" t="n">
         <v>0.0</v>
@@ -845,7 +845,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR2" t="n">
         <v>0.0</v>
@@ -857,10 +857,10 @@
         <v>0.0</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW2" t="n">
         <v>0.0</v>
@@ -872,7 +872,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA2" t="n">
         <v>0.0</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -919,7 +919,7 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -928,22 +928,22 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -958,10 +958,10 @@
         <v>0.0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -973,13 +973,13 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X3" t="n">
         <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z3" t="n">
         <v>0.0</v>
@@ -988,16 +988,16 @@
         <v>0.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC3" t="n">
         <v>0.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF3" t="n">
         <v>0.0</v>
@@ -1009,10 +1009,10 @@
         <v>0.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK3" t="n">
         <v>0.0</v>
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO3" t="n">
         <v>0.0</v>
@@ -1033,13 +1033,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR3" t="n">
         <v>0.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT3" t="n">
         <v>0.0</v>
@@ -1048,22 +1048,22 @@
         <v>0.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW3" t="n">
         <v>0.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ3" t="n">
         <v>0.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB3" t="n">
         <v>0.0</v>
@@ -1078,10 +1078,10 @@
         <v>0.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH3" t="n">
         <v>0.0</v>
@@ -1093,10 +1093,10 @@
         <v>0.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM3" t="n">
         <v>0.0</v>
@@ -1126,10 +1126,10 @@
         <v>0.0</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX3" t="n">
         <v>0.0</v>
@@ -1168,22 +1168,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL3" t="n">
         <v>0.0</v>
       </c>
       <c r="CM3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN3" t="n">
         <v>0.0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP3" t="n">
         <v>0.0</v>
@@ -1213,13 +1213,13 @@
         <v>0.0</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ3" t="n">
         <v>0.0</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB3" t="n">
         <v>0.0</v>
@@ -1228,22 +1228,22 @@
         <v>0.0</v>
       </c>
       <c r="DD3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE3" t="n">
         <v>0.0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH3" t="n">
         <v>0.0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ3" t="n">
         <v>0.0</v>
@@ -1258,13 +1258,13 @@
         <v>0.0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO3" t="n">
         <v>0.0</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0.0</v>
@@ -1273,22 +1273,22 @@
         <v>0.0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT3" t="n">
         <v>0.0</v>
       </c>
       <c r="DU3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW3" t="n">
         <v>0.0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY3" t="n">
         <v>0.0</v>
@@ -1303,16 +1303,16 @@
         <v>0.0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE3" t="n">
         <v>0.0</v>
       </c>
       <c r="EF3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG3" t="n">
         <v>0.0</v>
@@ -1324,7 +1324,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1350,13 +1350,13 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K4" t="n">
         <v>0.0</v>
@@ -1395,13 +1395,13 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X4" t="n">
         <v>0.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z4" t="n">
         <v>0.0</v>
@@ -1425,22 +1425,22 @@
         <v>0.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI4" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK4" t="n">
         <v>0.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM4" t="n">
         <v>0.0</v>
@@ -1455,13 +1455,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR4" t="n">
         <v>0.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT4" t="n">
         <v>0.0</v>
@@ -1470,22 +1470,22 @@
         <v>0.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ4" t="n">
         <v>0.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB4" t="n">
         <v>0.0</v>
@@ -1500,16 +1500,16 @@
         <v>0.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG4" t="n">
         <v>0.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0.0</v>
@@ -1521,16 +1521,16 @@
         <v>0.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO4" t="n">
         <v>0.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ4" t="n">
         <v>0.0</v>
@@ -1539,13 +1539,13 @@
         <v>0.0</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT4" t="n">
         <v>0.0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV4" t="n">
         <v>0.0</v>
@@ -1560,22 +1560,22 @@
         <v>0.0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA4" t="n">
         <v>0.0</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD4" t="n">
         <v>0.0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF4" t="n">
         <v>0.0</v>
@@ -1590,10 +1590,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL4" t="n">
         <v>0.0</v>
@@ -1608,10 +1608,10 @@
         <v>0.0</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR4" t="n">
         <v>0.0</v>
@@ -1644,13 +1644,13 @@
         <v>0.0</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC4" t="n">
         <v>0.0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE4" t="n">
         <v>0.0</v>
@@ -1695,13 +1695,13 @@
         <v>0.0</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT4" t="n">
         <v>0.0</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV4" t="n">
         <v>0.0</v>
@@ -1728,10 +1728,10 @@
         <v>0.0</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF4" t="n">
         <v>0.0</v>
@@ -1740,13 +1740,13 @@
         <v>0.0</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI4" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -1775,13 +1775,13 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
@@ -1790,13 +1790,13 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O5" t="n">
         <v>0.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0</v>
@@ -1805,7 +1805,7 @@
         <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -1817,16 +1817,16 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y5" t="n">
         <v>0.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA5" t="n">
         <v>0.0</v>
@@ -1838,10 +1838,10 @@
         <v>0.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF5" t="n">
         <v>0.0</v>
@@ -1853,7 +1853,7 @@
         <v>0.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.0</v>
@@ -1862,16 +1862,16 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN5" t="n">
         <v>0.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP5" t="n">
         <v>0.0</v>
@@ -1880,7 +1880,7 @@
         <v>0.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS5" t="n">
         <v>0.0</v>
@@ -1895,13 +1895,13 @@
         <v>0.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ5" t="n">
         <v>0.0</v>
@@ -1910,13 +1910,13 @@
         <v>0.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC5" t="n">
         <v>0.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE5" t="n">
         <v>0.0</v>
@@ -1925,7 +1925,7 @@
         <v>0.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH5" t="n">
         <v>0.0</v>
@@ -1937,13 +1937,13 @@
         <v>0.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL5" t="n">
         <v>0.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN5" t="n">
         <v>0.0</v>
@@ -1967,10 +1967,10 @@
         <v>0.0</v>
       </c>
       <c r="BU5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW5" t="n">
         <v>0.0</v>
@@ -1985,10 +1985,10 @@
         <v>0.0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC5" t="n">
         <v>0.0</v>
@@ -2000,13 +2000,13 @@
         <v>0.0</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI5" t="n">
         <v>0.0</v>
@@ -2015,7 +2015,7 @@
         <v>0.0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL5" t="n">
         <v>0.0</v>
@@ -2030,10 +2030,10 @@
         <v>0.0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR5" t="n">
         <v>0.0</v>
@@ -2060,10 +2060,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB5" t="n">
         <v>0.0</v>
@@ -2081,7 +2081,7 @@
         <v>0.0</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH5" t="n">
         <v>0.0</v>
@@ -2090,7 +2090,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK5" t="n">
         <v>0.0</v>
@@ -2102,10 +2102,10 @@
         <v>0.0</v>
       </c>
       <c r="DN5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP5" t="n">
         <v>0.0</v>
@@ -2120,13 +2120,13 @@
         <v>0.0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW5" t="n">
         <v>0.0</v>
@@ -2135,7 +2135,7 @@
         <v>0.0</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0.0</v>
@@ -2147,16 +2147,16 @@
         <v>0.0</v>
       </c>
       <c r="EC5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED5" t="n">
         <v>0.0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG5" t="n">
         <v>0.0</v>
@@ -2168,7 +2168,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -2188,7 +2188,7 @@
         <v>0.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -2197,13 +2197,13 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" t="n">
         <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
@@ -2215,7 +2215,7 @@
         <v>0.0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P6" t="n">
         <v>0.0</v>
@@ -2224,13 +2224,13 @@
         <v>0.0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
@@ -2239,16 +2239,16 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y6" t="n">
         <v>0.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA6" t="n">
         <v>0.0</v>
@@ -2257,7 +2257,7 @@
         <v>0.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD6" t="n">
         <v>0.0</v>
@@ -2269,10 +2269,10 @@
         <v>0.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI6" t="n">
         <v>0.0</v>
@@ -2287,10 +2287,10 @@
         <v>0.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO6" t="n">
         <v>0.0</v>
@@ -2299,10 +2299,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS6" t="n">
         <v>0.0</v>
@@ -2329,13 +2329,13 @@
         <v>0.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB6" t="n">
         <v>0.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD6" t="n">
         <v>0.0</v>
@@ -2347,13 +2347,13 @@
         <v>0.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0.0</v>
@@ -2362,13 +2362,13 @@
         <v>0.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM6" t="n">
         <v>0.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO6" t="n">
         <v>0.0</v>
@@ -2377,7 +2377,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR6" t="n">
         <v>0.0</v>
@@ -2392,10 +2392,10 @@
         <v>0.0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX6" t="n">
         <v>0.0</v>
@@ -2437,10 +2437,10 @@
         <v>0.0</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM6" t="n">
         <v>0.0</v>
@@ -2449,10 +2449,10 @@
         <v>0.0</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ6" t="n">
         <v>0.0</v>
@@ -2467,10 +2467,10 @@
         <v>0.0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW6" t="n">
         <v>0.0</v>
@@ -2479,10 +2479,10 @@
         <v>0.0</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA6" t="n">
         <v>0.0</v>
@@ -2497,10 +2497,10 @@
         <v>0.0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG6" t="n">
         <v>0.0</v>
@@ -2509,10 +2509,10 @@
         <v>0.0</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK6" t="n">
         <v>0.0</v>
@@ -2527,10 +2527,10 @@
         <v>0.0</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0.0</v>
@@ -2542,10 +2542,10 @@
         <v>0.0</v>
       </c>
       <c r="DT6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV6" t="n">
         <v>0.0</v>
@@ -2557,10 +2557,10 @@
         <v>0.0</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA6" t="n">
         <v>0.0</v>
@@ -2569,10 +2569,10 @@
         <v>0.0</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE6" t="n">
         <v>0.0</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2607,7 +2607,7 @@
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2640,7 +2640,7 @@
         <v>0.0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0</v>
@@ -2649,13 +2649,13 @@
         <v>0.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V7" t="n">
         <v>0.0</v>
@@ -2667,7 +2667,7 @@
         <v>0.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z7" t="n">
         <v>1.0</v>
@@ -2685,7 +2685,7 @@
         <v>0.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF7" t="n">
         <v>0.0</v>
@@ -2697,7 +2697,7 @@
         <v>0.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0.0</v>
@@ -2706,16 +2706,16 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM7" t="n">
         <v>0.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP7" t="n">
         <v>0.0</v>
@@ -2727,7 +2727,7 @@
         <v>0.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT7" t="n">
         <v>1.0</v>
@@ -2745,7 +2745,7 @@
         <v>0.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0.0</v>
@@ -2754,19 +2754,19 @@
         <v>0.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC7" t="n">
         <v>0.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE7" t="n">
         <v>0.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG7" t="n">
         <v>0.0</v>
@@ -2775,13 +2775,13 @@
         <v>0.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL7" t="n">
         <v>0.0</v>
@@ -2790,7 +2790,7 @@
         <v>0.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO7" t="n">
         <v>0.0</v>
@@ -2802,7 +2802,7 @@
         <v>0.0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS7" t="n">
         <v>0.0</v>
@@ -2814,10 +2814,10 @@
         <v>0.0</v>
       </c>
       <c r="BV7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX7" t="n">
         <v>1.0</v>
@@ -2835,7 +2835,7 @@
         <v>0.0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD7" t="n">
         <v>0.0</v>
@@ -2847,7 +2847,7 @@
         <v>0.0</v>
       </c>
       <c r="CG7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH7" t="n">
         <v>1.0</v>
@@ -2865,7 +2865,7 @@
         <v>0.0</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN7" t="n">
         <v>0.0</v>
@@ -2874,7 +2874,7 @@
         <v>0.0</v>
       </c>
       <c r="CP7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ7" t="n">
         <v>0.0</v>
@@ -2925,7 +2925,7 @@
         <v>1.0</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH7" t="n">
         <v>0.0</v>
@@ -2934,19 +2934,19 @@
         <v>0.0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK7" t="n">
         <v>0.0</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM7" t="n">
         <v>0.0</v>
       </c>
       <c r="DN7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO7" t="n">
         <v>0.0</v>
@@ -2955,7 +2955,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR7" t="n">
         <v>0.0</v>
@@ -2967,10 +2967,10 @@
         <v>0.0</v>
       </c>
       <c r="DU7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW7" t="n">
         <v>0.0</v>
@@ -2982,10 +2982,10 @@
         <v>0.0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB7" t="n">
         <v>0.0</v>
@@ -2994,7 +2994,7 @@
         <v>0.0</v>
       </c>
       <c r="ED7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE7" t="n">
         <v>0.0</v>
@@ -3026,19 +3026,19 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -3047,13 +3047,13 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -3062,7 +3062,7 @@
         <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0</v>
@@ -3074,7 +3074,7 @@
         <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
         <v>1.0</v>
@@ -3092,7 +3092,7 @@
         <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA8" t="n">
         <v>0.0</v>
@@ -3101,7 +3101,7 @@
         <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
         <v>0.0</v>
@@ -3116,10 +3116,10 @@
         <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0.0</v>
@@ -3128,13 +3128,13 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM8" t="n">
         <v>0.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO8" t="n">
         <v>1.0</v>
@@ -3152,7 +3152,7 @@
         <v>0.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU8" t="n">
         <v>0.0</v>
@@ -3164,7 +3164,7 @@
         <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
         <v>1.0</v>
@@ -3197,7 +3197,7 @@
         <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0.0</v>
@@ -3209,7 +3209,7 @@
         <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN8" t="n">
         <v>0.0</v>
@@ -3227,7 +3227,7 @@
         <v>1.0</v>
       </c>
       <c r="BS8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT8" t="n">
         <v>0.0</v>
@@ -3239,7 +3239,7 @@
         <v>0.0</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX8" t="n">
         <v>1.0</v>
@@ -3257,13 +3257,13 @@
         <v>0.0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD8" t="n">
         <v>0.0</v>
       </c>
       <c r="CE8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF8" t="n">
         <v>0.0</v>
@@ -3272,7 +3272,7 @@
         <v>0.0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI8" t="n">
         <v>0.0</v>
@@ -3281,13 +3281,13 @@
         <v>0.0</v>
       </c>
       <c r="CK8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL8" t="n">
         <v>0.0</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN8" t="n">
         <v>0.0</v>
@@ -3299,10 +3299,10 @@
         <v>0.0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS8" t="n">
         <v>0.0</v>
@@ -3314,10 +3314,10 @@
         <v>0.0</v>
       </c>
       <c r="CV8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX8" t="n">
         <v>0.0</v>
@@ -3329,7 +3329,7 @@
         <v>0.0</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB8" t="n">
         <v>0.0</v>
@@ -3362,7 +3362,7 @@
         <v>0.0</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM8" t="n">
         <v>0.0</v>
@@ -3374,7 +3374,7 @@
         <v>0.0</v>
       </c>
       <c r="DP8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ8" t="n">
         <v>1.0</v>
@@ -3392,7 +3392,7 @@
         <v>0.0</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW8" t="n">
         <v>0.0</v>
@@ -3401,13 +3401,13 @@
         <v>0.0</v>
       </c>
       <c r="DY8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ8" t="n">
         <v>0.0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB8" t="n">
         <v>0.0</v>
@@ -3416,13 +3416,13 @@
         <v>0.0</v>
       </c>
       <c r="ED8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE8" t="n">
         <v>0.0</v>
       </c>
       <c r="EF8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG8" t="n">
         <v>0.0</v>
@@ -3434,12 +3434,12 @@
         <v>0.0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3451,10 +3451,10 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -3466,7 +3466,7 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" t="n">
         <v>1.0</v>
@@ -3514,13 +3514,13 @@
         <v>0.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA9" t="n">
         <v>0.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" t="n">
         <v>0.0</v>
@@ -3538,10 +3538,10 @@
         <v>0.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.0</v>
@@ -3553,19 +3553,19 @@
         <v>0.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP9" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR9" t="n">
         <v>0.0</v>
@@ -3589,7 +3589,7 @@
         <v>0.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ9" t="n">
         <v>0.0</v>
@@ -3601,10 +3601,10 @@
         <v>0.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE9" t="n">
         <v>0.0</v>
@@ -3616,7 +3616,7 @@
         <v>0.0</v>
       </c>
       <c r="BH9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI9" t="n">
         <v>1.0</v>
@@ -3649,7 +3649,7 @@
         <v>1.0</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT9" t="n">
         <v>0.0</v>
@@ -3661,16 +3661,16 @@
         <v>0.0</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY9" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA9" t="n">
         <v>0.0</v>
@@ -3679,7 +3679,7 @@
         <v>0.0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD9" t="n">
         <v>0.0</v>
@@ -3688,13 +3688,13 @@
         <v>0.0</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG9" t="n">
         <v>0.0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI9" t="n">
         <v>0.0</v>
@@ -3706,10 +3706,10 @@
         <v>0.0</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN9" t="n">
         <v>0.0</v>
@@ -3721,10 +3721,10 @@
         <v>0.0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS9" t="n">
         <v>0.0</v>
@@ -3733,7 +3733,7 @@
         <v>0.0</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV9" t="n">
         <v>0.0</v>
@@ -3760,13 +3760,13 @@
         <v>0.0</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE9" t="n">
         <v>0.0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG9" t="n">
         <v>1.0</v>
@@ -3784,7 +3784,7 @@
         <v>0.0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM9" t="n">
         <v>0.0</v>
@@ -3793,7 +3793,7 @@
         <v>0.0</v>
       </c>
       <c r="DO9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP9" t="n">
         <v>0.0</v>
@@ -3814,13 +3814,13 @@
         <v>0.0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW9" t="n">
         <v>0.0</v>
       </c>
       <c r="DX9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY9" t="n">
         <v>0.0</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3870,7 +3870,7 @@
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -3897,13 +3897,13 @@
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P10" t="n">
         <v>0.0</v>
@@ -3912,16 +3912,16 @@
         <v>0.0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" t="n">
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V10" t="n">
         <v>0.0</v>
@@ -3930,7 +3930,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y10" t="n">
         <v>0.0</v>
@@ -3951,7 +3951,7 @@
         <v>0.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF10" t="n">
         <v>0.0</v>
@@ -3963,7 +3963,7 @@
         <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ10" t="n">
         <v>1.0</v>
@@ -3981,13 +3981,13 @@
         <v>0.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP10" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR10" t="n">
         <v>0.0</v>
@@ -4017,16 +4017,16 @@
         <v>0.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB10" t="n">
         <v>0.0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE10" t="n">
         <v>0.0</v>
@@ -4035,7 +4035,7 @@
         <v>0.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH10" t="n">
         <v>0.0</v>
@@ -4071,13 +4071,13 @@
         <v>0.0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT10" t="n">
         <v>0.0</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV10" t="n">
         <v>0.0</v>
@@ -4086,7 +4086,7 @@
         <v>0.0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY10" t="n">
         <v>0.0</v>
@@ -4098,7 +4098,7 @@
         <v>0.0</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC10" t="n">
         <v>0.0</v>
@@ -4131,13 +4131,13 @@
         <v>1.0</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN10" t="n">
         <v>0.0</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP10" t="n">
         <v>0.0</v>
@@ -4146,13 +4146,13 @@
         <v>0.0</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS10" t="n">
         <v>0.0</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU10" t="n">
         <v>0.0</v>
@@ -4161,13 +4161,13 @@
         <v>0.0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX10" t="n">
         <v>0.0</v>
       </c>
       <c r="CY10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ10" t="n">
         <v>0.0</v>
@@ -4176,7 +4176,7 @@
         <v>0.0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC10" t="n">
         <v>0.0</v>
@@ -4188,10 +4188,10 @@
         <v>0.0</v>
       </c>
       <c r="DF10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH10" t="n">
         <v>0.0</v>
@@ -4203,7 +4203,7 @@
         <v>0.0</v>
       </c>
       <c r="DK10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL10" t="n">
         <v>0.0</v>
@@ -4212,13 +4212,13 @@
         <v>0.0</v>
       </c>
       <c r="DN10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO10" t="n">
         <v>0.0</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0.0</v>
@@ -4227,16 +4227,16 @@
         <v>0.0</v>
       </c>
       <c r="DS10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT10" t="n">
         <v>0.0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW10" t="n">
         <v>0.0</v>
@@ -4245,13 +4245,13 @@
         <v>0.0</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ10" t="n">
         <v>0.0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB10" t="n">
         <v>0.0</v>
@@ -4260,13 +4260,13 @@
         <v>0.0</v>
       </c>
       <c r="ED10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE10" t="n">
         <v>0.0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG10" t="n">
         <v>0.0</v>
@@ -4278,18 +4278,18 @@
         <v>0.0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -4319,13 +4319,13 @@
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P11" t="n">
         <v>0.0</v>
@@ -4343,7 +4343,7 @@
         <v>1.0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V11" t="n">
         <v>0.0</v>
@@ -4355,10 +4355,10 @@
         <v>0.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA11" t="n">
         <v>0.0</v>
@@ -4370,10 +4370,10 @@
         <v>0.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF11" t="n">
         <v>0.0</v>
@@ -4385,10 +4385,10 @@
         <v>0.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK11" t="n">
         <v>0.0</v>
@@ -4397,7 +4397,7 @@
         <v>0.0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN11" t="n">
         <v>0.0</v>
@@ -4424,13 +4424,13 @@
         <v>0.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW11" t="n">
         <v>0.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY11" t="n">
         <v>0.0</v>
@@ -4442,19 +4442,19 @@
         <v>0.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE11" t="n">
         <v>0.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG11" t="n">
         <v>0.0</v>
@@ -4463,13 +4463,13 @@
         <v>0.0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ11" t="n">
         <v>0.0</v>
       </c>
       <c r="BK11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL11" t="n">
         <v>0.0</v>
@@ -4493,7 +4493,7 @@
         <v>0.0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT11" t="n">
         <v>0.0</v>
@@ -4505,16 +4505,16 @@
         <v>0.0</v>
       </c>
       <c r="BW11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY11" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA11" t="n">
         <v>0.0</v>
@@ -4544,22 +4544,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK11" t="n">
         <v>0.0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN11" t="n">
         <v>0.0</v>
       </c>
       <c r="CO11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP11" t="n">
         <v>0.0</v>
@@ -4568,7 +4568,7 @@
         <v>0.0</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS11" t="n">
         <v>0.0</v>
@@ -4580,7 +4580,7 @@
         <v>0.0</v>
       </c>
       <c r="CV11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW11" t="n">
         <v>1.0</v>
@@ -4613,13 +4613,13 @@
         <v>0.0</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH11" t="n">
         <v>0.0</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ11" t="n">
         <v>0.0</v>
@@ -4628,7 +4628,7 @@
         <v>0.0</v>
       </c>
       <c r="DL11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM11" t="n">
         <v>0.0</v>
@@ -4640,10 +4640,10 @@
         <v>0.0</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR11" t="n">
         <v>0.0</v>
@@ -4655,10 +4655,10 @@
         <v>0.0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW11" t="n">
         <v>0.0</v>
@@ -4670,7 +4670,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA11" t="n">
         <v>1.0</v>
@@ -4688,13 +4688,13 @@
         <v>0.0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG11" t="n">
         <v>0.0</v>
       </c>
       <c r="EH11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI11" t="n">
         <v>0.0</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4717,16 +4717,16 @@
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -4756,22 +4756,22 @@
         <v>0.0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S12" t="n">
         <v>0.0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V12" t="n">
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X12" t="n">
         <v>0.0</v>
@@ -4795,13 +4795,13 @@
         <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF12" t="n">
         <v>0.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH12" t="n">
         <v>0.0</v>
@@ -4825,7 +4825,7 @@
         <v>0.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP12" t="n">
         <v>0.0</v>
@@ -4834,13 +4834,13 @@
         <v>0.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS12" t="n">
         <v>0.0</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU12" t="n">
         <v>0.0</v>
@@ -4852,7 +4852,7 @@
         <v>0.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY12" t="n">
         <v>0.0</v>
@@ -4870,13 +4870,13 @@
         <v>1.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE12" t="n">
         <v>0.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG12" t="n">
         <v>0.0</v>
@@ -4885,13 +4885,13 @@
         <v>0.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL12" t="n">
         <v>0.0</v>
@@ -4900,7 +4900,7 @@
         <v>0.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO12" t="n">
         <v>0.0</v>
@@ -4909,7 +4909,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR12" t="n">
         <v>0.0</v>
@@ -4975,7 +4975,7 @@
         <v>1.0</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN12" t="n">
         <v>0.0</v>
@@ -4984,13 +4984,13 @@
         <v>0.0</v>
       </c>
       <c r="CP12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ12" t="n">
         <v>0.0</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS12" t="n">
         <v>0.0</v>
@@ -4999,7 +4999,7 @@
         <v>0.0</v>
       </c>
       <c r="CU12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV12" t="n">
         <v>0.0</v>
@@ -5020,7 +5020,7 @@
         <v>0.0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC12" t="n">
         <v>0.0</v>
@@ -5029,7 +5029,7 @@
         <v>0.0</v>
       </c>
       <c r="DE12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF12" t="n">
         <v>0.0</v>
@@ -5059,10 +5059,10 @@
         <v>0.0</v>
       </c>
       <c r="DO12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ12" t="n">
         <v>0.0</v>
@@ -5095,7 +5095,7 @@
         <v>0.0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB12" t="n">
         <v>0.0</v>
@@ -5107,10 +5107,10 @@
         <v>0.0</v>
       </c>
       <c r="EE12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG12" t="n">
         <v>0.0</v>
@@ -5122,18 +5122,18 @@
         <v>0.0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
@@ -5142,7 +5142,7 @@
         <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -5154,7 +5154,7 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K13" t="n">
         <v>0.0</v>
@@ -5181,10 +5181,10 @@
         <v>0.0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U13" t="n">
         <v>1.0</v>
@@ -5202,7 +5202,7 @@
         <v>0.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA13" t="n">
         <v>0.0</v>
@@ -5214,16 +5214,16 @@
         <v>0.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF13" t="n">
         <v>0.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH13" t="n">
         <v>0.0</v>
@@ -5232,7 +5232,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK13" t="n">
         <v>0.0</v>
@@ -5244,10 +5244,10 @@
         <v>0.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP13" t="n">
         <v>0.0</v>
@@ -5259,7 +5259,7 @@
         <v>0.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" t="n">
         <v>0.0</v>
@@ -5271,13 +5271,13 @@
         <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13" t="n">
         <v>0.0</v>
@@ -5289,16 +5289,16 @@
         <v>0.0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE13" t="n">
         <v>0.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG13" t="n">
         <v>0.0</v>
@@ -5307,7 +5307,7 @@
         <v>0.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0.0</v>
@@ -5316,13 +5316,13 @@
         <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM13" t="n">
         <v>0.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO13" t="n">
         <v>0.0</v>
@@ -5331,19 +5331,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR13" t="n">
         <v>0.0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT13" t="n">
         <v>0.0</v>
       </c>
       <c r="BU13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV13" t="n">
         <v>0.0</v>
@@ -5352,13 +5352,13 @@
         <v>0.0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY13" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA13" t="n">
         <v>0.0</v>
@@ -5391,13 +5391,13 @@
         <v>0.0</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN13" t="n">
         <v>0.0</v>
@@ -5406,19 +5406,19 @@
         <v>0.0</v>
       </c>
       <c r="CP13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ13" t="n">
         <v>0.0</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS13" t="n">
         <v>0.0</v>
       </c>
       <c r="CT13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU13" t="n">
         <v>0.0</v>
@@ -5457,7 +5457,7 @@
         <v>0.0</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH13" t="n">
         <v>0.0</v>
@@ -5469,7 +5469,7 @@
         <v>0.0</v>
       </c>
       <c r="DK13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL13" t="n">
         <v>0.0</v>
@@ -5478,16 +5478,16 @@
         <v>0.0</v>
       </c>
       <c r="DN13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO13" t="n">
         <v>0.0</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR13" t="n">
         <v>0.0</v>
@@ -5499,7 +5499,7 @@
         <v>0.0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV13" t="n">
         <v>1.0</v>
@@ -5517,7 +5517,7 @@
         <v>0.0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB13" t="n">
         <v>0.0</v>
@@ -5526,13 +5526,13 @@
         <v>0.0</v>
       </c>
       <c r="ED13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE13" t="n">
         <v>0.0</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG13" t="n">
         <v>0.0</v>
@@ -5544,12 +5544,12 @@
         <v>0.0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5561,10 +5561,10 @@
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -5573,13 +5573,13 @@
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
         <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
@@ -5588,19 +5588,19 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O14" t="n">
         <v>0.0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q14" t="n">
         <v>0.0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" t="n">
         <v>0.0</v>
@@ -5615,13 +5615,13 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z14" t="n">
         <v>0.0</v>
@@ -5633,13 +5633,13 @@
         <v>0.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF14" t="n">
         <v>0.0</v>
@@ -5651,10 +5651,10 @@
         <v>0.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK14" t="n">
         <v>0.0</v>
@@ -5663,7 +5663,7 @@
         <v>0.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN14" t="n">
         <v>0.0</v>
@@ -5684,7 +5684,7 @@
         <v>0.0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU14" t="n">
         <v>0.0</v>
@@ -5693,13 +5693,13 @@
         <v>0.0</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX14" t="n">
         <v>0.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ14" t="n">
         <v>0.0</v>
@@ -5708,7 +5708,7 @@
         <v>0.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC14" t="n">
         <v>0.0</v>
@@ -5723,10 +5723,10 @@
         <v>0.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI14" t="n">
         <v>0.0</v>
@@ -5744,7 +5744,7 @@
         <v>1.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO14" t="n">
         <v>0.0</v>
@@ -5753,7 +5753,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR14" t="n">
         <v>0.0</v>
@@ -5774,7 +5774,7 @@
         <v>0.0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY14" t="n">
         <v>0.0</v>
@@ -5786,7 +5786,7 @@
         <v>0.0</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC14" t="n">
         <v>1.0</v>
@@ -5804,7 +5804,7 @@
         <v>0.0</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI14" t="n">
         <v>0.0</v>
@@ -5813,7 +5813,7 @@
         <v>0.0</v>
       </c>
       <c r="CK14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL14" t="n">
         <v>0.0</v>
@@ -5825,16 +5825,16 @@
         <v>0.0</v>
       </c>
       <c r="CO14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP14" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS14" t="n">
         <v>0.0</v>
@@ -5846,7 +5846,7 @@
         <v>0.0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW14" t="n">
         <v>1.0</v>
@@ -5864,7 +5864,7 @@
         <v>0.0</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC14" t="n">
         <v>0.0</v>
@@ -5876,7 +5876,7 @@
         <v>0.0</v>
       </c>
       <c r="DF14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG14" t="n">
         <v>1.0</v>
@@ -5894,7 +5894,7 @@
         <v>0.0</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM14" t="n">
         <v>0.0</v>
@@ -5906,7 +5906,7 @@
         <v>0.0</v>
       </c>
       <c r="DP14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ14" t="n">
         <v>1.0</v>
@@ -5986,7 +5986,7 @@
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -5995,13 +5995,13 @@
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" t="n">
         <v>0.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
@@ -6010,13 +6010,13 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O15" t="n">
         <v>0.0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
@@ -6028,10 +6028,10 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V15" t="n">
         <v>0.0</v>
@@ -6043,7 +6043,7 @@
         <v>0.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z15" t="n">
         <v>0.0</v>
@@ -6061,13 +6061,13 @@
         <v>1.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF15" t="n">
         <v>0.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH15" t="n">
         <v>0.0</v>
@@ -6091,7 +6091,7 @@
         <v>0.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP15" t="n">
         <v>0.0</v>
@@ -6103,10 +6103,10 @@
         <v>0.0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU15" t="n">
         <v>0.0</v>
@@ -6115,13 +6115,13 @@
         <v>0.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX15" t="n">
         <v>0.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0.0</v>
@@ -6133,10 +6133,10 @@
         <v>0.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE15" t="n">
         <v>0.0</v>
@@ -6148,7 +6148,7 @@
         <v>0.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI15" t="n">
         <v>0.0</v>
@@ -6157,16 +6157,16 @@
         <v>0.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL15" t="n">
         <v>0.0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO15" t="n">
         <v>0.0</v>
@@ -6178,10 +6178,10 @@
         <v>0.0</v>
       </c>
       <c r="BR15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT15" t="n">
         <v>0.0</v>
@@ -6193,16 +6193,16 @@
         <v>0.0</v>
       </c>
       <c r="BW15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY15" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA15" t="n">
         <v>0.0</v>
@@ -6226,7 +6226,7 @@
         <v>0.0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI15" t="n">
         <v>0.0</v>
@@ -6238,10 +6238,10 @@
         <v>0.0</v>
       </c>
       <c r="CL15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN15" t="n">
         <v>0.0</v>
@@ -6253,7 +6253,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR15" t="n">
         <v>0.0</v>
@@ -6262,16 +6262,16 @@
         <v>0.0</v>
       </c>
       <c r="CT15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU15" t="n">
         <v>0.0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX15" t="n">
         <v>0.0</v>
@@ -6280,19 +6280,19 @@
         <v>0.0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA15" t="n">
         <v>0.0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC15" t="n">
         <v>0.0</v>
       </c>
       <c r="DD15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE15" t="n">
         <v>0.0</v>
@@ -6301,7 +6301,7 @@
         <v>0.0</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH15" t="n">
         <v>0.0</v>
@@ -6313,7 +6313,7 @@
         <v>0.0</v>
       </c>
       <c r="DK15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL15" t="n">
         <v>1.0</v>
@@ -6331,13 +6331,13 @@
         <v>0.0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR15" t="n">
         <v>0.0</v>
       </c>
       <c r="DS15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT15" t="n">
         <v>0.0</v>
@@ -6346,7 +6346,7 @@
         <v>0.0</v>
       </c>
       <c r="DV15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW15" t="n">
         <v>0.0</v>
@@ -6358,7 +6358,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA15" t="n">
         <v>0.0</v>
@@ -6370,19 +6370,19 @@
         <v>0.0</v>
       </c>
       <c r="ED15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG15" t="n">
         <v>0.0</v>
       </c>
       <c r="EH15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI15" t="n">
         <v>0.0</v>
@@ -6423,13 +6423,13 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -6438,7 +6438,7 @@
         <v>0.0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
@@ -6450,10 +6450,10 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V16" t="n">
         <v>0.0</v>
@@ -6465,7 +6465,7 @@
         <v>0.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z16" t="n">
         <v>0.0</v>
@@ -6474,13 +6474,13 @@
         <v>0.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" t="n">
         <v>0.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE16" t="n">
         <v>1.0</v>
@@ -6498,7 +6498,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK16" t="n">
         <v>0.0</v>
@@ -6510,10 +6510,10 @@
         <v>0.0</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP16" t="n">
         <v>0.0</v>
@@ -6522,7 +6522,7 @@
         <v>0.0</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS16" t="n">
         <v>0.0</v>
@@ -6543,7 +6543,7 @@
         <v>0.0</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ16" t="n">
         <v>0.0</v>
@@ -6555,7 +6555,7 @@
         <v>0.0</v>
       </c>
       <c r="BC16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD16" t="n">
         <v>0.0</v>
@@ -6588,13 +6588,13 @@
         <v>1.0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO16" t="n">
         <v>0.0</v>
       </c>
       <c r="BP16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ16" t="n">
         <v>0.0</v>
@@ -6603,7 +6603,7 @@
         <v>0.0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT16" t="n">
         <v>0.0</v>
@@ -6612,13 +6612,13 @@
         <v>0.0</v>
       </c>
       <c r="BV16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW16" t="n">
         <v>0.0</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY16" t="n">
         <v>0.0</v>
@@ -6627,13 +6627,13 @@
         <v>0.0</v>
       </c>
       <c r="CA16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB16" t="n">
         <v>0.0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD16" t="n">
         <v>0.0</v>
@@ -6645,16 +6645,16 @@
         <v>0.0</v>
       </c>
       <c r="CG16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI16" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK16" t="n">
         <v>0.0</v>
@@ -6678,7 +6678,7 @@
         <v>1.0</v>
       </c>
       <c r="CR16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS16" t="n">
         <v>0.0</v>
@@ -6690,10 +6690,10 @@
         <v>0.0</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX16" t="n">
         <v>0.0</v>
@@ -6702,13 +6702,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA16" t="n">
         <v>0.0</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC16" t="n">
         <v>0.0</v>
@@ -6717,7 +6717,7 @@
         <v>0.0</v>
       </c>
       <c r="DE16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF16" t="n">
         <v>0.0</v>
@@ -6738,13 +6738,13 @@
         <v>0.0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM16" t="n">
         <v>0.0</v>
       </c>
       <c r="DN16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO16" t="n">
         <v>0.0</v>
@@ -6753,7 +6753,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR16" t="n">
         <v>0.0</v>
@@ -6765,7 +6765,7 @@
         <v>0.0</v>
       </c>
       <c r="DU16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV16" t="n">
         <v>0.0</v>
@@ -6777,10 +6777,10 @@
         <v>0.0</v>
       </c>
       <c r="DY16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA16" t="n">
         <v>0.0</v>
@@ -6789,22 +6789,22 @@
         <v>0.0</v>
       </c>
       <c r="EC16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED16" t="n">
         <v>0.0</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG16" t="n">
         <v>0.0</v>
       </c>
       <c r="EH16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI16" t="n">
         <v>0.0</v>
@@ -6836,13 +6836,13 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K17" t="n">
         <v>0.0</v>
@@ -6851,10 +6851,10 @@
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O17" t="n">
         <v>0.0</v>
@@ -6866,22 +6866,22 @@
         <v>0.0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T17" t="n">
         <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V17" t="n">
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X17" t="n">
         <v>0.0</v>
@@ -6935,13 +6935,13 @@
         <v>0.0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP17" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR17" t="n">
         <v>0.0</v>
@@ -6956,10 +6956,10 @@
         <v>0.0</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX17" t="n">
         <v>0.0</v>
@@ -6971,22 +6971,22 @@
         <v>0.0</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC17" t="n">
         <v>0.0</v>
       </c>
       <c r="BD17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE17" t="n">
         <v>0.0</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG17" t="n">
         <v>0.0</v>
@@ -6995,7 +6995,7 @@
         <v>0.0</v>
       </c>
       <c r="BI17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ17" t="n">
         <v>0.0</v>
@@ -7007,7 +7007,7 @@
         <v>0.0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN17" t="n">
         <v>0.0</v>
@@ -7031,13 +7031,13 @@
         <v>0.0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV17" t="n">
         <v>0.0</v>
       </c>
       <c r="BW17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX17" t="n">
         <v>0.0</v>
@@ -7046,13 +7046,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA17" t="n">
         <v>0.0</v>
       </c>
       <c r="CB17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC17" t="n">
         <v>0.0</v>
@@ -7124,10 +7124,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB17" t="n">
         <v>0.0</v>
@@ -7136,22 +7136,22 @@
         <v>0.0</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF17" t="n">
         <v>0.0</v>
       </c>
       <c r="DG17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH17" t="n">
         <v>0.0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ17" t="n">
         <v>0.0</v>
@@ -7160,13 +7160,13 @@
         <v>0.0</v>
       </c>
       <c r="DL17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM17" t="n">
         <v>0.0</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO17" t="n">
         <v>0.0</v>
@@ -7196,13 +7196,13 @@
         <v>0.0</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY17" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA17" t="n">
         <v>0.0</v>
@@ -7214,13 +7214,13 @@
         <v>0.0</v>
       </c>
       <c r="ED17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG17" t="n">
         <v>0.0</v>
@@ -7232,7 +7232,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -7252,13 +7252,13 @@
         <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -7267,13 +7267,13 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -7288,22 +7288,22 @@
         <v>0.0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S18" t="n">
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V18" t="n">
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X18" t="n">
         <v>0.0</v>
@@ -7333,13 +7333,13 @@
         <v>0.0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH18" t="n">
         <v>0.0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ18" t="n">
         <v>0.0</v>
@@ -7348,13 +7348,13 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM18" t="n">
         <v>0.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO18" t="n">
         <v>0.0</v>
@@ -7378,13 +7378,13 @@
         <v>0.0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW18" t="n">
         <v>0.0</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY18" t="n">
         <v>0.0</v>
@@ -7393,13 +7393,13 @@
         <v>0.0</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB18" t="n">
         <v>0.0</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD18" t="n">
         <v>0.0</v>
@@ -7423,16 +7423,16 @@
         <v>0.0</v>
       </c>
       <c r="BK18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL18" t="n">
         <v>0.0</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO18" t="n">
         <v>0.0</v>
@@ -7444,16 +7444,16 @@
         <v>0.0</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT18" t="n">
         <v>0.0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV18" t="n">
         <v>0.0</v>
@@ -7528,13 +7528,13 @@
         <v>0.0</v>
       </c>
       <c r="CT18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU18" t="n">
         <v>0.0</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW18" t="n">
         <v>0.0</v>
@@ -7558,10 +7558,10 @@
         <v>0.0</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF18" t="n">
         <v>0.0</v>
@@ -7582,13 +7582,13 @@
         <v>0.0</v>
       </c>
       <c r="DL18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM18" t="n">
         <v>0.0</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO18" t="n">
         <v>0.0</v>
@@ -7618,16 +7618,16 @@
         <v>0.0</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY18" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB18" t="n">
         <v>0.0</v>
@@ -7639,7 +7639,7 @@
         <v>0.0</v>
       </c>
       <c r="EE18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF18" t="n">
         <v>0.0</v>
@@ -7665,10 +7665,10 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
@@ -7680,13 +7680,13 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K19" t="n">
         <v>0.0</v>
@@ -7725,16 +7725,16 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X19" t="n">
         <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA19" t="n">
         <v>0.0</v>
@@ -7746,7 +7746,7 @@
         <v>0.0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE19" t="n">
         <v>0.0</v>
@@ -7758,10 +7758,10 @@
         <v>0.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ19" t="n">
         <v>0.0</v>
@@ -7770,13 +7770,13 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM19" t="n">
         <v>0.0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO19" t="n">
         <v>0.0</v>
@@ -7785,13 +7785,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR19" t="n">
         <v>0.0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT19" t="n">
         <v>0.0</v>
@@ -7800,22 +7800,22 @@
         <v>0.0</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW19" t="n">
         <v>0.0</v>
       </c>
       <c r="AX19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ19" t="n">
         <v>0.0</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB19" t="n">
         <v>0.0</v>
@@ -7824,13 +7824,13 @@
         <v>0.0</v>
       </c>
       <c r="BD19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE19" t="n">
         <v>0.0</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG19" t="n">
         <v>0.0</v>
@@ -7848,10 +7848,10 @@
         <v>0.0</v>
       </c>
       <c r="BL19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN19" t="n">
         <v>0.0</v>
@@ -7875,22 +7875,22 @@
         <v>0.0</v>
       </c>
       <c r="BU19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV19" t="n">
         <v>0.0</v>
       </c>
       <c r="BW19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY19" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA19" t="n">
         <v>0.0</v>
@@ -7905,10 +7905,10 @@
         <v>0.0</v>
       </c>
       <c r="CE19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG19" t="n">
         <v>0.0</v>
@@ -7950,13 +7950,13 @@
         <v>0.0</v>
       </c>
       <c r="CT19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU19" t="n">
         <v>0.0</v>
       </c>
       <c r="CV19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW19" t="n">
         <v>0.0</v>
@@ -7965,13 +7965,13 @@
         <v>0.0</v>
       </c>
       <c r="CY19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ19" t="n">
         <v>0.0</v>
       </c>
       <c r="DA19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB19" t="n">
         <v>0.0</v>
@@ -7980,22 +7980,22 @@
         <v>0.0</v>
       </c>
       <c r="DD19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF19" t="n">
         <v>0.0</v>
       </c>
       <c r="DG19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH19" t="n">
         <v>0.0</v>
       </c>
       <c r="DI19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ19" t="n">
         <v>0.0</v>
@@ -8004,13 +8004,13 @@
         <v>0.0</v>
       </c>
       <c r="DL19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM19" t="n">
         <v>0.0</v>
       </c>
       <c r="DN19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO19" t="n">
         <v>0.0</v>
@@ -8034,13 +8034,13 @@
         <v>0.0</v>
       </c>
       <c r="DV19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW19" t="n">
         <v>0.0</v>
       </c>
       <c r="DX19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY19" t="n">
         <v>0.0</v>
@@ -8070,13 +8070,13 @@
         <v>0.0</v>
       </c>
       <c r="EH19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI19" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -8087,13 +8087,13 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -8126,13 +8126,13 @@
         <v>0.0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" t="n">
         <v>0.0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S20" t="n">
         <v>0.0</v>
@@ -8222,13 +8222,13 @@
         <v>0.0</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW20" t="n">
         <v>0.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY20" t="n">
         <v>0.0</v>
@@ -8252,10 +8252,10 @@
         <v>0.0</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH20" t="n">
         <v>0.0</v>
@@ -8282,10 +8282,10 @@
         <v>0.0</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR20" t="n">
         <v>0.0</v>
@@ -8297,16 +8297,16 @@
         <v>0.0</v>
       </c>
       <c r="BU20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV20" t="n">
         <v>0.0</v>
       </c>
       <c r="BW20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY20" t="n">
         <v>0.0</v>
@@ -8318,7 +8318,7 @@
         <v>0.0</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC20" t="n">
         <v>0.0</v>
@@ -8327,13 +8327,13 @@
         <v>0.0</v>
       </c>
       <c r="CE20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF20" t="n">
         <v>0.0</v>
       </c>
       <c r="CG20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH20" t="n">
         <v>0.0</v>
@@ -8342,13 +8342,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK20" t="n">
         <v>0.0</v>
       </c>
       <c r="CL20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM20" t="n">
         <v>0.0</v>
@@ -8357,22 +8357,22 @@
         <v>0.0</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP20" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS20" t="n">
         <v>0.0</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU20" t="n">
         <v>0.0</v>
@@ -8387,10 +8387,10 @@
         <v>0.0</v>
       </c>
       <c r="CY20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA20" t="n">
         <v>0.0</v>
@@ -8411,7 +8411,7 @@
         <v>1.0</v>
       </c>
       <c r="DG20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH20" t="n">
         <v>0.0</v>
@@ -8423,16 +8423,16 @@
         <v>0.0</v>
       </c>
       <c r="DK20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM20" t="n">
         <v>0.0</v>
       </c>
       <c r="DN20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO20" t="n">
         <v>0.0</v>
@@ -8471,13 +8471,13 @@
         <v>0.0</v>
       </c>
       <c r="EA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB20" t="n">
         <v>0.0</v>
       </c>
       <c r="EC20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED20" t="n">
         <v>0.0</v>
@@ -8486,13 +8486,13 @@
         <v>0.0</v>
       </c>
       <c r="EF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG20" t="n">
         <v>0.0</v>
       </c>
       <c r="EH20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI20" t="n">
         <v>0.0</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -8515,7 +8515,7 @@
         <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -8524,13 +8524,13 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K21" t="n">
         <v>0.0</v>
@@ -8539,10 +8539,10 @@
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O21" t="n">
         <v>0.0</v>
@@ -8554,10 +8554,10 @@
         <v>0.0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -8599,16 +8599,16 @@
         <v>0.0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH21" t="n">
         <v>0.0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK21" t="n">
         <v>0.0</v>
@@ -8620,7 +8620,7 @@
         <v>0.0</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO21" t="n">
         <v>0.0</v>
@@ -8632,10 +8632,10 @@
         <v>0.0</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT21" t="n">
         <v>0.0</v>
@@ -8653,13 +8653,13 @@
         <v>0.0</v>
       </c>
       <c r="AY21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ21" t="n">
         <v>0.0</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB21" t="n">
         <v>0.0</v>
@@ -8674,13 +8674,13 @@
         <v>0.0</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG21" t="n">
         <v>0.0</v>
       </c>
       <c r="BH21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI21" t="n">
         <v>0.0</v>
@@ -8689,13 +8689,13 @@
         <v>0.0</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL21" t="n">
         <v>0.0</v>
       </c>
       <c r="BM21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN21" t="n">
         <v>0.0</v>
@@ -8704,10 +8704,10 @@
         <v>0.0</v>
       </c>
       <c r="BP21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR21" t="n">
         <v>0.0</v>
@@ -8743,13 +8743,13 @@
         <v>1.0</v>
       </c>
       <c r="CC21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD21" t="n">
         <v>0.0</v>
       </c>
       <c r="CE21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF21" t="n">
         <v>0.0</v>
@@ -8758,13 +8758,13 @@
         <v>0.0</v>
       </c>
       <c r="CH21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI21" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK21" t="n">
         <v>0.0</v>
@@ -8773,13 +8773,13 @@
         <v>0.0</v>
       </c>
       <c r="CM21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN21" t="n">
         <v>0.0</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP21" t="n">
         <v>0.0</v>
@@ -8818,7 +8818,7 @@
         <v>0.0</v>
       </c>
       <c r="DB21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC21" t="n">
         <v>0.0</v>
@@ -8830,7 +8830,7 @@
         <v>0.0</v>
       </c>
       <c r="DF21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG21" t="n">
         <v>0.0</v>
@@ -8848,13 +8848,13 @@
         <v>1.0</v>
       </c>
       <c r="DL21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM21" t="n">
         <v>0.0</v>
       </c>
       <c r="DN21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO21" t="n">
         <v>0.0</v>
@@ -8863,13 +8863,13 @@
         <v>0.0</v>
       </c>
       <c r="DQ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR21" t="n">
         <v>0.0</v>
       </c>
       <c r="DS21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT21" t="n">
         <v>0.0</v>
@@ -8899,13 +8899,13 @@
         <v>0.0</v>
       </c>
       <c r="EC21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED21" t="n">
         <v>0.0</v>
       </c>
       <c r="EE21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF21" t="n">
         <v>0.0</v>
@@ -8914,13 +8914,13 @@
         <v>0.0</v>
       </c>
       <c r="EH21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI21" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -8931,13 +8931,13 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -9006,10 +9006,10 @@
         <v>0.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22" t="n">
         <v>0.0</v>
@@ -9021,13 +9021,13 @@
         <v>0.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH22" t="n">
         <v>0.0</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ22" t="n">
         <v>0.0</v>
@@ -9036,16 +9036,16 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM22" t="n">
         <v>0.0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP22" t="n">
         <v>0.0</v>
@@ -9057,7 +9057,7 @@
         <v>0.0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT22" t="n">
         <v>0.0</v>
@@ -9066,10 +9066,10 @@
         <v>0.0</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX22" t="n">
         <v>0.0</v>
@@ -9081,22 +9081,22 @@
         <v>0.0</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC22" t="n">
         <v>0.0</v>
       </c>
       <c r="BD22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE22" t="n">
         <v>0.0</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG22" t="n">
         <v>0.0</v>
@@ -9111,13 +9111,13 @@
         <v>0.0</v>
       </c>
       <c r="BK22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL22" t="n">
         <v>0.0</v>
       </c>
       <c r="BM22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN22" t="n">
         <v>0.0</v>
@@ -9126,13 +9126,13 @@
         <v>0.0</v>
       </c>
       <c r="BP22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ22" t="n">
         <v>0.0</v>
       </c>
       <c r="BR22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS22" t="n">
         <v>0.0</v>
@@ -9141,13 +9141,13 @@
         <v>0.0</v>
       </c>
       <c r="BU22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV22" t="n">
         <v>0.0</v>
       </c>
       <c r="BW22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX22" t="n">
         <v>0.0</v>
@@ -9171,10 +9171,10 @@
         <v>0.0</v>
       </c>
       <c r="CE22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG22" t="n">
         <v>0.0</v>
@@ -9216,10 +9216,10 @@
         <v>0.0</v>
       </c>
       <c r="CT22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV22" t="n">
         <v>0.0</v>
@@ -9231,13 +9231,13 @@
         <v>0.0</v>
       </c>
       <c r="CY22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ22" t="n">
         <v>0.0</v>
       </c>
       <c r="DA22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB22" t="n">
         <v>0.0</v>
@@ -9255,7 +9255,7 @@
         <v>1.0</v>
       </c>
       <c r="DG22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH22" t="n">
         <v>0.0</v>
@@ -9267,7 +9267,7 @@
         <v>0.0</v>
       </c>
       <c r="DK22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL22" t="n">
         <v>0.0</v>
@@ -9291,13 +9291,13 @@
         <v>0.0</v>
       </c>
       <c r="DS22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT22" t="n">
         <v>0.0</v>
       </c>
       <c r="DU22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV22" t="n">
         <v>0.0</v>
@@ -9336,10 +9336,10 @@
         <v>0.0</v>
       </c>
       <c r="EH22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ22" t="n">
         <v>0.0</v>
@@ -9347,13 +9347,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
@@ -9371,13 +9371,13 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -9389,16 +9389,16 @@
         <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" t="n">
         <v>0.0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S23" t="n">
         <v>0.0</v>
@@ -9407,13 +9407,13 @@
         <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V23" t="n">
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X23" t="n">
         <v>0.0</v>
@@ -9428,22 +9428,22 @@
         <v>0.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23" t="n">
         <v>0.0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF23" t="n">
         <v>0.0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH23" t="n">
         <v>0.0</v>
@@ -9452,13 +9452,13 @@
         <v>0.0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK23" t="n">
         <v>0.0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM23" t="n">
         <v>0.0</v>
@@ -9488,13 +9488,13 @@
         <v>0.0</v>
       </c>
       <c r="AV23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW23" t="n">
         <v>0.0</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY23" t="n">
         <v>0.0</v>
@@ -9503,13 +9503,13 @@
         <v>0.0</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB23" t="n">
         <v>0.0</v>
       </c>
       <c r="BC23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD23" t="n">
         <v>0.0</v>
@@ -9518,22 +9518,22 @@
         <v>0.0</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH23" t="n">
         <v>0.0</v>
       </c>
       <c r="BI23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ23" t="n">
         <v>0.0</v>
       </c>
       <c r="BK23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL23" t="n">
         <v>0.0</v>
@@ -9548,22 +9548,22 @@
         <v>0.0</v>
       </c>
       <c r="BP23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ23" t="n">
         <v>0.0</v>
       </c>
       <c r="BR23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT23" t="n">
         <v>0.0</v>
       </c>
       <c r="BU23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV23" t="n">
         <v>0.0</v>
@@ -9587,7 +9587,7 @@
         <v>1.0</v>
       </c>
       <c r="CC23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD23" t="n">
         <v>0.0</v>
@@ -9599,7 +9599,7 @@
         <v>0.0</v>
       </c>
       <c r="CG23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH23" t="n">
         <v>0.0</v>
@@ -9623,13 +9623,13 @@
         <v>0.0</v>
       </c>
       <c r="CO23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP23" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR23" t="n">
         <v>0.0</v>
@@ -9638,13 +9638,13 @@
         <v>0.0</v>
       </c>
       <c r="CT23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU23" t="n">
         <v>0.0</v>
       </c>
       <c r="CV23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW23" t="n">
         <v>0.0</v>
@@ -9653,13 +9653,13 @@
         <v>0.0</v>
       </c>
       <c r="CY23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ23" t="n">
         <v>0.0</v>
       </c>
       <c r="DA23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB23" t="n">
         <v>0.0</v>
@@ -9668,10 +9668,10 @@
         <v>0.0</v>
       </c>
       <c r="DD23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF23" t="n">
         <v>0.0</v>
@@ -9686,10 +9686,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL23" t="n">
         <v>0.0</v>
@@ -9698,13 +9698,13 @@
         <v>0.0</v>
       </c>
       <c r="DN23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO23" t="n">
         <v>0.0</v>
       </c>
       <c r="DP23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ23" t="n">
         <v>0.0</v>
@@ -9713,22 +9713,22 @@
         <v>0.0</v>
       </c>
       <c r="DS23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT23" t="n">
         <v>0.0</v>
       </c>
       <c r="DU23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW23" t="n">
         <v>0.0</v>
       </c>
       <c r="DX23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY23" t="n">
         <v>0.0</v>
@@ -9743,10 +9743,10 @@
         <v>0.0</v>
       </c>
       <c r="EC23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE23" t="n">
         <v>0.0</v>
@@ -9758,10 +9758,10 @@
         <v>0.0</v>
       </c>
       <c r="EH23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ23" t="n">
         <v>0.0</v>
@@ -9775,13 +9775,13 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -9805,13 +9805,13 @@
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P24" t="n">
         <v>0.0</v>
@@ -9835,10 +9835,10 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y24" t="n">
         <v>0.0</v>
@@ -9850,10 +9850,10 @@
         <v>0.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24" t="n">
         <v>0.0</v>
@@ -9895,13 +9895,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR24" t="n">
         <v>0.0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT24" t="n">
         <v>0.0</v>
@@ -9913,10 +9913,10 @@
         <v>0.0</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY24" t="n">
         <v>0.0</v>
@@ -9928,10 +9928,10 @@
         <v>0.0</v>
       </c>
       <c r="BB24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD24" t="n">
         <v>0.0</v>
@@ -9940,13 +9940,13 @@
         <v>0.0</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG24" t="n">
         <v>0.0</v>
       </c>
       <c r="BH24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI24" t="n">
         <v>0.0</v>
@@ -9955,13 +9955,13 @@
         <v>0.0</v>
       </c>
       <c r="BK24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL24" t="n">
         <v>0.0</v>
       </c>
       <c r="BM24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN24" t="n">
         <v>0.0</v>
@@ -10000,10 +10000,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB24" t="n">
         <v>0.0</v>
@@ -10033,19 +10033,19 @@
         <v>0.0</v>
       </c>
       <c r="CK24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN24" t="n">
         <v>0.0</v>
       </c>
       <c r="CO24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP24" t="n">
         <v>0.0</v>
@@ -10060,10 +10060,10 @@
         <v>0.0</v>
       </c>
       <c r="CT24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV24" t="n">
         <v>0.0</v>
@@ -10075,13 +10075,13 @@
         <v>0.0</v>
       </c>
       <c r="CY24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ24" t="n">
         <v>0.0</v>
       </c>
       <c r="DA24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB24" t="n">
         <v>0.0</v>
@@ -10090,13 +10090,13 @@
         <v>0.0</v>
       </c>
       <c r="DD24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE24" t="n">
         <v>0.0</v>
       </c>
       <c r="DF24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG24" t="n">
         <v>0.0</v>
@@ -10105,10 +10105,10 @@
         <v>0.0</v>
       </c>
       <c r="DI24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK24" t="n">
         <v>0.0</v>
@@ -10123,13 +10123,13 @@
         <v>0.0</v>
       </c>
       <c r="DO24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR24" t="n">
         <v>0.0</v>
@@ -10141,16 +10141,16 @@
         <v>0.0</v>
       </c>
       <c r="DU24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW24" t="n">
         <v>0.0</v>
       </c>
       <c r="DX24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY24" t="n">
         <v>0.0</v>
@@ -10174,13 +10174,13 @@
         <v>0.0</v>
       </c>
       <c r="EF24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG24" t="n">
         <v>0.0</v>
       </c>
       <c r="EH24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI24" t="n">
         <v>0.0</v>
@@ -10212,10 +10212,10 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" t="n">
         <v>0.0</v>
@@ -10227,13 +10227,13 @@
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" t="n">
         <v>0.0</v>
@@ -10245,13 +10245,13 @@
         <v>0.0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V25" t="n">
         <v>0.0</v>
@@ -10263,16 +10263,16 @@
         <v>0.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA25" t="n">
         <v>0.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
@@ -10281,13 +10281,13 @@
         <v>0.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF25" t="n">
         <v>0.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH25" t="n">
         <v>0.0</v>
@@ -10296,13 +10296,13 @@
         <v>0.0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK25" t="n">
         <v>0.0</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM25" t="n">
         <v>0.0</v>
@@ -10317,10 +10317,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS25" t="n">
         <v>0.0</v>
@@ -10332,16 +10332,16 @@
         <v>0.0</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW25" t="n">
         <v>0.0</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ25" t="n">
         <v>0.0</v>
@@ -10353,7 +10353,7 @@
         <v>0.0</v>
       </c>
       <c r="BC25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD25" t="n">
         <v>0.0</v>
@@ -10377,22 +10377,22 @@
         <v>0.0</v>
       </c>
       <c r="BK25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM25" t="n">
         <v>0.0</v>
       </c>
       <c r="BN25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO25" t="n">
         <v>0.0</v>
       </c>
       <c r="BP25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ25" t="n">
         <v>0.0</v>
@@ -10407,22 +10407,22 @@
         <v>0.0</v>
       </c>
       <c r="BU25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV25" t="n">
         <v>0.0</v>
       </c>
       <c r="BW25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY25" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA25" t="n">
         <v>0.0</v>
@@ -10437,13 +10437,13 @@
         <v>0.0</v>
       </c>
       <c r="CE25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF25" t="n">
         <v>0.0</v>
       </c>
       <c r="CG25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH25" t="n">
         <v>0.0</v>
@@ -10452,13 +10452,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK25" t="n">
         <v>0.0</v>
       </c>
       <c r="CL25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM25" t="n">
         <v>0.0</v>
@@ -10497,13 +10497,13 @@
         <v>0.0</v>
       </c>
       <c r="CY25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ25" t="n">
         <v>0.0</v>
       </c>
       <c r="DA25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB25" t="n">
         <v>0.0</v>
@@ -10560,10 +10560,10 @@
         <v>0.0</v>
       </c>
       <c r="DT25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV25" t="n">
         <v>0.0</v>
@@ -10581,13 +10581,13 @@
         <v>1.0</v>
       </c>
       <c r="EA25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB25" t="n">
         <v>0.0</v>
       </c>
       <c r="EC25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED25" t="n">
         <v>0.0</v>
@@ -10596,13 +10596,13 @@
         <v>0.0</v>
       </c>
       <c r="EF25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG25" t="n">
         <v>0.0</v>
       </c>
       <c r="EH25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI25" t="n">
         <v>0.0</v>
@@ -10619,22 +10619,22 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -10643,13 +10643,13 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -10679,22 +10679,22 @@
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X26" t="n">
         <v>0.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA26" t="n">
         <v>0.0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC26" t="n">
         <v>0.0</v>
@@ -10718,13 +10718,13 @@
         <v>0.0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK26" t="n">
         <v>0.0</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM26" t="n">
         <v>0.0</v>
@@ -10739,10 +10739,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS26" t="n">
         <v>0.0</v>
@@ -10754,13 +10754,13 @@
         <v>0.0</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW26" t="n">
         <v>0.0</v>
       </c>
       <c r="AX26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY26" t="n">
         <v>0.0</v>
@@ -10784,22 +10784,22 @@
         <v>0.0</v>
       </c>
       <c r="BF26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG26" t="n">
         <v>0.0</v>
       </c>
       <c r="BH26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ26" t="n">
         <v>0.0</v>
       </c>
       <c r="BK26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL26" t="n">
         <v>0.0</v>
@@ -10814,10 +10814,10 @@
         <v>0.0</v>
       </c>
       <c r="BP26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR26" t="n">
         <v>0.0</v>
@@ -10829,10 +10829,10 @@
         <v>0.0</v>
       </c>
       <c r="BU26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW26" t="n">
         <v>0.0</v>
@@ -10874,16 +10874,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK26" t="n">
         <v>0.0</v>
       </c>
       <c r="CL26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN26" t="n">
         <v>0.0</v>
@@ -10895,7 +10895,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR26" t="n">
         <v>0.0</v>
@@ -10904,22 +10904,22 @@
         <v>0.0</v>
       </c>
       <c r="CT26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU26" t="n">
         <v>0.0</v>
       </c>
       <c r="CV26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX26" t="n">
         <v>0.0</v>
       </c>
       <c r="CY26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ26" t="n">
         <v>0.0</v>
@@ -10934,22 +10934,22 @@
         <v>0.0</v>
       </c>
       <c r="DD26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF26" t="n">
         <v>0.0</v>
       </c>
       <c r="DG26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH26" t="n">
         <v>0.0</v>
       </c>
       <c r="DI26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ26" t="n">
         <v>0.0</v>
@@ -10964,13 +10964,13 @@
         <v>0.0</v>
       </c>
       <c r="DN26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO26" t="n">
         <v>0.0</v>
       </c>
       <c r="DP26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ26" t="n">
         <v>0.0</v>
@@ -10979,13 +10979,13 @@
         <v>0.0</v>
       </c>
       <c r="DS26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT26" t="n">
         <v>0.0</v>
       </c>
       <c r="DU26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV26" t="n">
         <v>0.0</v>
@@ -11009,13 +11009,13 @@
         <v>0.0</v>
       </c>
       <c r="EC26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED26" t="n">
         <v>0.0</v>
       </c>
       <c r="EE26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF26" t="n">
         <v>0.0</v>
@@ -11041,13 +11041,13 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
@@ -11080,7 +11080,7 @@
         <v>0.0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
@@ -11092,7 +11092,7 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
@@ -11101,22 +11101,22 @@
         <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X27" t="n">
         <v>0.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA27" t="n">
         <v>0.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
@@ -11131,13 +11131,13 @@
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH27" t="n">
         <v>0.0</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0.0</v>
@@ -11146,10 +11146,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN27" t="n">
         <v>0.0</v>
@@ -11176,13 +11176,13 @@
         <v>0.0</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW27" t="n">
         <v>0.0</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY27" t="n">
         <v>0.0</v>
@@ -11191,16 +11191,16 @@
         <v>0.0</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB27" t="n">
         <v>0.0</v>
       </c>
       <c r="BC27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE27" t="n">
         <v>0.0</v>
@@ -11212,7 +11212,7 @@
         <v>0.0</v>
       </c>
       <c r="BH27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI27" t="n">
         <v>0.0</v>
@@ -11230,13 +11230,13 @@
         <v>0.0</v>
       </c>
       <c r="BN27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO27" t="n">
         <v>0.0</v>
       </c>
       <c r="BP27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ27" t="n">
         <v>0.0</v>
@@ -11251,22 +11251,22 @@
         <v>0.0</v>
       </c>
       <c r="BU27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV27" t="n">
         <v>0.0</v>
       </c>
       <c r="BW27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY27" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA27" t="n">
         <v>0.0</v>
@@ -11275,13 +11275,13 @@
         <v>0.0</v>
       </c>
       <c r="CC27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD27" t="n">
         <v>0.0</v>
       </c>
       <c r="CE27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF27" t="n">
         <v>0.0</v>
@@ -11290,7 +11290,7 @@
         <v>0.0</v>
       </c>
       <c r="CH27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI27" t="n">
         <v>0.0</v>
@@ -11302,7 +11302,7 @@
         <v>0.0</v>
       </c>
       <c r="CL27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM27" t="n">
         <v>0.0</v>
@@ -11326,22 +11326,22 @@
         <v>0.0</v>
       </c>
       <c r="CT27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV27" t="n">
         <v>0.0</v>
       </c>
       <c r="CW27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX27" t="n">
         <v>0.0</v>
       </c>
       <c r="CY27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ27" t="n">
         <v>0.0</v>
@@ -11350,13 +11350,13 @@
         <v>0.0</v>
       </c>
       <c r="DB27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC27" t="n">
         <v>0.0</v>
       </c>
       <c r="DD27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE27" t="n">
         <v>0.0</v>
@@ -11386,13 +11386,13 @@
         <v>0.0</v>
       </c>
       <c r="DN27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO27" t="n">
         <v>0.0</v>
       </c>
       <c r="DP27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ27" t="n">
         <v>0.0</v>
@@ -11401,13 +11401,13 @@
         <v>0.0</v>
       </c>
       <c r="DS27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT27" t="n">
         <v>0.0</v>
       </c>
       <c r="DU27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV27" t="n">
         <v>0.0</v>
@@ -11416,13 +11416,13 @@
         <v>0.0</v>
       </c>
       <c r="DX27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY27" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA27" t="n">
         <v>0.0</v>
@@ -11431,13 +11431,13 @@
         <v>0.0</v>
       </c>
       <c r="EC27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED27" t="n">
         <v>0.0</v>
       </c>
       <c r="EE27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF27" t="n">
         <v>0.0</v>
@@ -11446,18 +11446,18 @@
         <v>0.0</v>
       </c>
       <c r="EH27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI27" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -11469,10 +11469,10 @@
         <v>0.0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -11481,7 +11481,7 @@
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" t="n">
         <v>0.0</v>
@@ -11496,10 +11496,10 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P28" t="n">
         <v>0.0</v>
@@ -11511,13 +11511,13 @@
         <v>0.0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V28" t="n">
         <v>0.0</v>
@@ -11526,7 +11526,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y28" t="n">
         <v>0.0</v>
@@ -11547,7 +11547,7 @@
         <v>0.0</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF28" t="n">
         <v>0.0</v>
@@ -11559,7 +11559,7 @@
         <v>0.0</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ28" t="n">
         <v>0.0</v>
@@ -11592,7 +11592,7 @@
         <v>0.0</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU28" t="n">
         <v>0.0</v>
@@ -11601,7 +11601,7 @@
         <v>0.0</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX28" t="n">
         <v>0.0</v>
@@ -11616,10 +11616,10 @@
         <v>0.0</v>
       </c>
       <c r="BB28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD28" t="n">
         <v>0.0</v>
@@ -11628,16 +11628,16 @@
         <v>0.0</v>
       </c>
       <c r="BF28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH28" t="n">
         <v>0.0</v>
       </c>
       <c r="BI28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ28" t="n">
         <v>0.0</v>
@@ -11646,13 +11646,13 @@
         <v>0.0</v>
       </c>
       <c r="BL28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM28" t="n">
         <v>0.0</v>
       </c>
       <c r="BN28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO28" t="n">
         <v>0.0</v>
@@ -11664,7 +11664,7 @@
         <v>0.0</v>
       </c>
       <c r="BR28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS28" t="n">
         <v>0.0</v>
@@ -11706,10 +11706,10 @@
         <v>0.0</v>
       </c>
       <c r="CF28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH28" t="n">
         <v>0.0</v>
@@ -11721,10 +11721,10 @@
         <v>0.0</v>
       </c>
       <c r="CK28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM28" t="n">
         <v>0.0</v>
@@ -11733,10 +11733,10 @@
         <v>0.0</v>
       </c>
       <c r="CO28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ28" t="n">
         <v>0.0</v>
@@ -11757,7 +11757,7 @@
         <v>0.0</v>
       </c>
       <c r="CW28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX28" t="n">
         <v>0.0</v>
@@ -11769,7 +11769,7 @@
         <v>0.0</v>
       </c>
       <c r="DA28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB28" t="n">
         <v>0.0</v>
@@ -11787,7 +11787,7 @@
         <v>1.0</v>
       </c>
       <c r="DG28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH28" t="n">
         <v>0.0</v>
@@ -11796,7 +11796,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK28" t="n">
         <v>0.0</v>
@@ -11808,10 +11808,10 @@
         <v>0.0</v>
       </c>
       <c r="DN28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP28" t="n">
         <v>0.0</v>
@@ -11823,10 +11823,10 @@
         <v>0.0</v>
       </c>
       <c r="DS28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU28" t="n">
         <v>0.0</v>
@@ -11838,10 +11838,10 @@
         <v>0.0</v>
       </c>
       <c r="DX28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ28" t="n">
         <v>0.0</v>
@@ -11868,13 +11868,13 @@
         <v>0.0</v>
       </c>
       <c r="EH28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI28" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -11885,16 +11885,16 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" t="n">
         <v>0.0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -11906,7 +11906,7 @@
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
@@ -11918,10 +11918,10 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P29" t="n">
         <v>0.0</v>
@@ -11930,10 +11930,10 @@
         <v>0.0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T29" t="n">
         <v>0.0</v>
@@ -11945,10 +11945,10 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y29" t="n">
         <v>0.0</v>
@@ -11960,10 +11960,10 @@
         <v>0.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD29" t="n">
         <v>0.0</v>
@@ -11975,10 +11975,10 @@
         <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI29" t="n">
         <v>0.0</v>
@@ -12005,13 +12005,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR29" t="n">
         <v>0.0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT29" t="n">
         <v>0.0</v>
@@ -12035,10 +12035,10 @@
         <v>0.0</v>
       </c>
       <c r="BA29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC29" t="n">
         <v>0.0</v>
@@ -12068,10 +12068,10 @@
         <v>0.0</v>
       </c>
       <c r="BL29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN29" t="n">
         <v>0.0</v>
@@ -12098,10 +12098,10 @@
         <v>0.0</v>
       </c>
       <c r="BV29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX29" t="n">
         <v>0.0</v>
@@ -12110,13 +12110,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA29" t="n">
         <v>0.0</v>
       </c>
       <c r="CB29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC29" t="n">
         <v>0.0</v>
@@ -12125,10 +12125,10 @@
         <v>0.0</v>
       </c>
       <c r="CE29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG29" t="n">
         <v>0.0</v>
@@ -12143,13 +12143,13 @@
         <v>0.0</v>
       </c>
       <c r="CK29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN29" t="n">
         <v>0.0</v>
@@ -12158,7 +12158,7 @@
         <v>0.0</v>
       </c>
       <c r="CP29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ29" t="n">
         <v>0.0</v>
@@ -12170,10 +12170,10 @@
         <v>0.0</v>
       </c>
       <c r="CT29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV29" t="n">
         <v>0.0</v>
@@ -12188,10 +12188,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB29" t="n">
         <v>0.0</v>
@@ -12203,10 +12203,10 @@
         <v>0.0</v>
       </c>
       <c r="DE29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG29" t="n">
         <v>0.0</v>
@@ -12233,10 +12233,10 @@
         <v>0.0</v>
       </c>
       <c r="DO29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ29" t="n">
         <v>0.0</v>
@@ -12278,13 +12278,13 @@
         <v>0.0</v>
       </c>
       <c r="ED29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG29" t="n">
         <v>0.0</v>
@@ -12293,7 +12293,7 @@
         <v>0.0</v>
       </c>
       <c r="EI29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ29" t="n">
         <v>0.0</v>
@@ -12310,10 +12310,10 @@
         <v>0.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -12325,10 +12325,10 @@
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
@@ -12337,16 +12337,16 @@
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" t="n">
         <v>0.0</v>
@@ -12355,7 +12355,7 @@
         <v>0.0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T30" t="n">
         <v>0.0</v>
@@ -12367,10 +12367,10 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y30" t="n">
         <v>0.0</v>
@@ -12397,10 +12397,10 @@
         <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI30" t="n">
         <v>0.0</v>
@@ -12412,10 +12412,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN30" t="n">
         <v>0.0</v>
@@ -12427,13 +12427,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR30" t="n">
         <v>0.0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT30" t="n">
         <v>0.0</v>
@@ -12442,13 +12442,13 @@
         <v>0.0</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW30" t="n">
         <v>0.0</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY30" t="n">
         <v>0.0</v>
@@ -12457,16 +12457,16 @@
         <v>0.0</v>
       </c>
       <c r="BA30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC30" t="n">
         <v>0.0</v>
       </c>
       <c r="BD30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE30" t="n">
         <v>0.0</v>
@@ -12475,7 +12475,7 @@
         <v>0.0</v>
       </c>
       <c r="BG30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH30" t="n">
         <v>0.0</v>
@@ -12565,10 +12565,10 @@
         <v>0.0</v>
       </c>
       <c r="CK30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM30" t="n">
         <v>0.0</v>
@@ -12577,10 +12577,10 @@
         <v>0.0</v>
       </c>
       <c r="CO30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ30" t="n">
         <v>0.0</v>
@@ -12610,10 +12610,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB30" t="n">
         <v>0.0</v>
@@ -12625,10 +12625,10 @@
         <v>0.0</v>
       </c>
       <c r="DE30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG30" t="n">
         <v>0.0</v>
@@ -12655,10 +12655,10 @@
         <v>0.0</v>
       </c>
       <c r="DO30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ30" t="n">
         <v>0.0</v>
@@ -12685,13 +12685,13 @@
         <v>0.0</v>
       </c>
       <c r="DY30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB30" t="n">
         <v>0.0</v>
@@ -12700,13 +12700,13 @@
         <v>0.0</v>
       </c>
       <c r="ED30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE30" t="n">
         <v>0.0</v>
       </c>
       <c r="EF30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG30" t="n">
         <v>0.0</v>
@@ -12715,7 +12715,7 @@
         <v>0.0</v>
       </c>
       <c r="EI30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ30" t="n">
         <v>0.0</v>
@@ -12777,10 +12777,10 @@
         <v>0.0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U31" t="n">
         <v>0.0</v>
@@ -12789,13 +12789,13 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X31" t="n">
         <v>0.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z31" t="n">
         <v>0.0</v>
@@ -12807,10 +12807,10 @@
         <v>0.0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE31" t="n">
         <v>0.0</v>
@@ -12819,10 +12819,10 @@
         <v>0.0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI31" t="n">
         <v>0.0</v>
@@ -12834,10 +12834,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN31" t="n">
         <v>0.0</v>
@@ -12852,13 +12852,13 @@
         <v>0.0</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU31" t="n">
         <v>0.0</v>
@@ -12867,7 +12867,7 @@
         <v>0.0</v>
       </c>
       <c r="AW31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX31" t="n">
         <v>0.0</v>
@@ -12882,10 +12882,10 @@
         <v>0.0</v>
       </c>
       <c r="BB31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD31" t="n">
         <v>0.0</v>
@@ -12918,7 +12918,7 @@
         <v>0.0</v>
       </c>
       <c r="BN31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO31" t="n">
         <v>0.0</v>
@@ -12927,7 +12927,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR31" t="n">
         <v>0.0</v>
@@ -12939,10 +12939,10 @@
         <v>0.0</v>
       </c>
       <c r="BU31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW31" t="n">
         <v>0.0</v>
@@ -12957,10 +12957,10 @@
         <v>0.0</v>
       </c>
       <c r="CA31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC31" t="n">
         <v>0.0</v>
@@ -12969,10 +12969,10 @@
         <v>0.0</v>
       </c>
       <c r="CE31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG31" t="n">
         <v>0.0</v>
@@ -12999,16 +12999,16 @@
         <v>0.0</v>
       </c>
       <c r="CO31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP31" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS31" t="n">
         <v>0.0</v>
@@ -13017,7 +13017,7 @@
         <v>0.0</v>
       </c>
       <c r="CU31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV31" t="n">
         <v>0.0</v>
@@ -13029,10 +13029,10 @@
         <v>0.0</v>
       </c>
       <c r="CY31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA31" t="n">
         <v>0.0</v>
@@ -13047,10 +13047,10 @@
         <v>0.0</v>
       </c>
       <c r="DE31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG31" t="n">
         <v>0.0</v>
@@ -13062,10 +13062,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL31" t="n">
         <v>0.0</v>
@@ -13074,16 +13074,16 @@
         <v>0.0</v>
       </c>
       <c r="DN31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP31" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR31" t="n">
         <v>0.0</v>
@@ -13095,7 +13095,7 @@
         <v>0.0</v>
       </c>
       <c r="DU31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV31" t="n">
         <v>0.0</v>
@@ -13107,10 +13107,10 @@
         <v>0.0</v>
       </c>
       <c r="DY31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA31" t="n">
         <v>0.0</v>
@@ -13119,10 +13119,10 @@
         <v>0.0</v>
       </c>
       <c r="EC31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE31" t="n">
         <v>0.0</v>
@@ -13137,10 +13137,10 @@
         <v>0.0</v>
       </c>
       <c r="EI31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -13151,16 +13151,16 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E32" t="n">
         <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
@@ -13169,7 +13169,7 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
@@ -13184,10 +13184,10 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P32" t="n">
         <v>0.0</v>
@@ -13229,13 +13229,13 @@
         <v>0.0</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF32" t="n">
         <v>0.0</v>
@@ -13244,7 +13244,7 @@
         <v>0.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI32" t="n">
         <v>0.0</v>
@@ -13256,10 +13256,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN32" t="n">
         <v>0.0</v>
@@ -13274,13 +13274,13 @@
         <v>0.0</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU32" t="n">
         <v>0.0</v>
@@ -13289,13 +13289,13 @@
         <v>0.0</v>
       </c>
       <c r="AW32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX32" t="n">
         <v>0.0</v>
       </c>
       <c r="AY32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ32" t="n">
         <v>0.0</v>
@@ -13304,7 +13304,7 @@
         <v>0.0</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC32" t="n">
         <v>0.0</v>
@@ -13331,13 +13331,13 @@
         <v>0.0</v>
       </c>
       <c r="BK32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL32" t="n">
         <v>0.0</v>
       </c>
       <c r="BM32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN32" t="n">
         <v>0.0</v>
@@ -13349,10 +13349,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS32" t="n">
         <v>0.0</v>
@@ -13361,16 +13361,16 @@
         <v>0.0</v>
       </c>
       <c r="BU32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW32" t="n">
         <v>0.0</v>
       </c>
       <c r="BX32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY32" t="n">
         <v>0.0</v>
@@ -13379,13 +13379,13 @@
         <v>0.0</v>
       </c>
       <c r="CA32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB32" t="n">
         <v>0.0</v>
       </c>
       <c r="CC32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD32" t="n">
         <v>0.0</v>
@@ -13394,7 +13394,7 @@
         <v>0.0</v>
       </c>
       <c r="CF32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG32" t="n">
         <v>0.0</v>
@@ -13406,10 +13406,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL32" t="n">
         <v>0.0</v>
@@ -13439,10 +13439,10 @@
         <v>0.0</v>
       </c>
       <c r="CU32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW32" t="n">
         <v>0.0</v>
@@ -13454,10 +13454,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB32" t="n">
         <v>0.0</v>
@@ -13466,10 +13466,10 @@
         <v>0.0</v>
       </c>
       <c r="DD32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF32" t="n">
         <v>0.0</v>
@@ -13481,10 +13481,10 @@
         <v>0.0</v>
       </c>
       <c r="DI32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK32" t="n">
         <v>0.0</v>
@@ -13499,10 +13499,10 @@
         <v>0.0</v>
       </c>
       <c r="DO32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ32" t="n">
         <v>0.0</v>
@@ -13511,10 +13511,10 @@
         <v>0.0</v>
       </c>
       <c r="DS32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU32" t="n">
         <v>0.0</v>
@@ -13529,13 +13529,13 @@
         <v>0.0</v>
       </c>
       <c r="DY32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB32" t="n">
         <v>0.0</v>
@@ -13547,7 +13547,7 @@
         <v>0.0</v>
       </c>
       <c r="EE32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF32" t="n">
         <v>0.0</v>

--- a/CaseEfinal/files/FormatDepA.xlsx
+++ b/CaseEfinal/files/FormatDepA.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FITNESS = 122818.0" r:id="rId3" sheetId="1"/>
+    <sheet name="FITNESS = 34501.0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -93,13 +93,13 @@
         <v>0.0</v>
       </c>
       <c r="K1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L1" t="n">
         <v>0.0</v>
       </c>
       <c r="M1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N1" t="n">
         <v>0.0</v>
@@ -123,13 +123,13 @@
         <v>0.0</v>
       </c>
       <c r="U1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V1" t="n">
         <v>0.0</v>
       </c>
       <c r="W1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X1" t="n">
         <v>0.0</v>
@@ -138,7 +138,7 @@
         <v>0.0</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA1" t="n">
         <v>0.0</v>
@@ -150,7 +150,7 @@
         <v>0.0</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE1" t="n">
         <v>0.0</v>
@@ -162,10 +162,10 @@
         <v>0.0</v>
       </c>
       <c r="AH1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ1" t="n">
         <v>0.0</v>
@@ -174,16 +174,16 @@
         <v>0.0</v>
       </c>
       <c r="AL1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM1" t="n">
         <v>0.0</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP1" t="n">
         <v>0.0</v>
@@ -195,16 +195,16 @@
         <v>0.0</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU1" t="n">
         <v>0.0</v>
       </c>
       <c r="AV1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW1" t="n">
         <v>0.0</v>
@@ -243,7 +243,7 @@
         <v>0.0</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ1" t="n">
         <v>0.0</v>
@@ -252,7 +252,7 @@
         <v>0.0</v>
       </c>
       <c r="BL1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM1" t="n">
         <v>0.0</v>
@@ -273,7 +273,7 @@
         <v>1.0</v>
       </c>
       <c r="BS1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT1" t="n">
         <v>0.0</v>
@@ -285,10 +285,10 @@
         <v>0.0</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY1" t="n">
         <v>0.0</v>
@@ -297,13 +297,13 @@
         <v>0.0</v>
       </c>
       <c r="CA1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB1" t="n">
         <v>0.0</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD1" t="n">
         <v>0.0</v>
@@ -312,19 +312,19 @@
         <v>0.0</v>
       </c>
       <c r="CF1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG1" t="n">
         <v>0.0</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI1" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK1" t="n">
         <v>0.0</v>
@@ -333,7 +333,7 @@
         <v>0.0</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN1" t="n">
         <v>0.0</v>
@@ -342,7 +342,7 @@
         <v>0.0</v>
       </c>
       <c r="CP1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ1" t="n">
         <v>0.0</v>
@@ -363,7 +363,7 @@
         <v>0.0</v>
       </c>
       <c r="CW1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX1" t="n">
         <v>0.0</v>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB1" t="n">
         <v>0.0</v>
@@ -393,7 +393,7 @@
         <v>1.0</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH1" t="n">
         <v>0.0</v>
@@ -402,13 +402,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK1" t="n">
         <v>0.0</v>
       </c>
       <c r="DL1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM1" t="n">
         <v>0.0</v>
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="DO1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP1" t="n">
         <v>0.0</v>
@@ -438,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW1" t="n">
         <v>0.0</v>
@@ -450,10 +450,10 @@
         <v>0.0</v>
       </c>
       <c r="DZ1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB1" t="n">
         <v>0.0</v>
@@ -465,7 +465,7 @@
         <v>0.0</v>
       </c>
       <c r="EE1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF1" t="n">
         <v>0.0</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -515,7 +515,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
@@ -527,16 +527,16 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
@@ -554,10 +554,10 @@
         <v>0.0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z2" t="n">
         <v>0.0</v>
@@ -575,7 +575,7 @@
         <v>1.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF2" t="n">
         <v>0.0</v>
@@ -587,16 +587,16 @@
         <v>0.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK2" t="n">
         <v>0.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM2" t="n">
         <v>0.0</v>
@@ -605,7 +605,7 @@
         <v>0.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP2" t="n">
         <v>0.0</v>
@@ -617,10 +617,10 @@
         <v>0.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU2" t="n">
         <v>0.0</v>
@@ -629,19 +629,19 @@
         <v>0.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX2" t="n">
         <v>0.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB2" t="n">
         <v>0.0</v>
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE2" t="n">
         <v>0.0</v>
@@ -662,7 +662,7 @@
         <v>0.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI2" t="n">
         <v>0.0</v>
@@ -674,13 +674,13 @@
         <v>0.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO2" t="n">
         <v>0.0</v>
@@ -692,10 +692,10 @@
         <v>0.0</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT2" t="n">
         <v>0.0</v>
@@ -704,19 +704,19 @@
         <v>0.0</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW2" t="n">
         <v>0.0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY2" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA2" t="n">
         <v>0.0</v>
@@ -740,13 +740,13 @@
         <v>0.0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI2" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK2" t="n">
         <v>0.0</v>
@@ -755,7 +755,7 @@
         <v>0.0</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN2" t="n">
         <v>0.0</v>
@@ -767,7 +767,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR2" t="n">
         <v>0.0</v>
@@ -779,13 +779,13 @@
         <v>0.0</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX2" t="n">
         <v>0.0</v>
@@ -794,19 +794,19 @@
         <v>0.0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA2" t="n">
         <v>0.0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC2" t="n">
         <v>0.0</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE2" t="n">
         <v>0.0</v>
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH2" t="n">
         <v>0.0</v>
@@ -827,10 +827,10 @@
         <v>0.0</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM2" t="n">
         <v>0.0</v>
@@ -842,10 +842,10 @@
         <v>0.0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR2" t="n">
         <v>0.0</v>
@@ -854,7 +854,7 @@
         <v>0.0</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU2" t="n">
         <v>0.0</v>
@@ -869,10 +869,10 @@
         <v>0.0</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA2" t="n">
         <v>0.0</v>
@@ -884,13 +884,13 @@
         <v>0.0</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG2" t="n">
         <v>0.0</v>
@@ -902,7 +902,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -928,13 +928,13 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="n">
         <v>0.0</v>
@@ -943,22 +943,22 @@
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O3" t="n">
         <v>0.0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S3" t="n">
         <v>0.0</v>
@@ -1003,13 +1003,13 @@
         <v>0.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH3" t="n">
         <v>0.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ3" t="n">
         <v>0.0</v>
@@ -1048,13 +1048,13 @@
         <v>0.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW3" t="n">
         <v>0.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY3" t="n">
         <v>0.0</v>
@@ -1093,16 +1093,16 @@
         <v>0.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM3" t="n">
         <v>0.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO3" t="n">
         <v>0.0</v>
@@ -1114,7 +1114,7 @@
         <v>0.0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS3" t="n">
         <v>0.0</v>
@@ -1126,10 +1126,10 @@
         <v>0.0</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX3" t="n">
         <v>0.0</v>
@@ -1147,13 +1147,13 @@
         <v>0.0</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD3" t="n">
         <v>0.0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF3" t="n">
         <v>0.0</v>
@@ -1168,22 +1168,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL3" t="n">
         <v>0.0</v>
       </c>
       <c r="CM3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN3" t="n">
         <v>0.0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP3" t="n">
         <v>0.0</v>
@@ -1192,13 +1192,13 @@
         <v>0.0</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS3" t="n">
         <v>0.0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU3" t="n">
         <v>0.0</v>
@@ -1222,7 +1222,7 @@
         <v>1.0</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC3" t="n">
         <v>0.0</v>
@@ -1234,7 +1234,7 @@
         <v>0.0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG3" t="n">
         <v>0.0</v>
@@ -1258,10 +1258,10 @@
         <v>0.0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP3" t="n">
         <v>0.0</v>
@@ -1273,10 +1273,10 @@
         <v>0.0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU3" t="n">
         <v>0.0</v>
@@ -1288,13 +1288,13 @@
         <v>0.0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY3" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA3" t="n">
         <v>0.0</v>
@@ -1303,13 +1303,13 @@
         <v>0.0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED3" t="n">
         <v>0.0</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF3" t="n">
         <v>0.0</v>
@@ -1335,22 +1335,22 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1359,13 +1359,13 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -1374,13 +1374,13 @@
         <v>0.0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S4" t="n">
         <v>0.0</v>
@@ -1389,7 +1389,7 @@
         <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V4" t="n">
         <v>0.0</v>
@@ -1401,7 +1401,7 @@
         <v>0.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z4" t="n">
         <v>0.0</v>
@@ -1410,13 +1410,13 @@
         <v>0.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE4" t="n">
         <v>0.0</v>
@@ -1455,10 +1455,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS4" t="n">
         <v>0.0</v>
@@ -1485,13 +1485,13 @@
         <v>0.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB4" t="n">
         <v>0.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD4" t="n">
         <v>0.0</v>
@@ -1503,13 +1503,13 @@
         <v>0.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0.0</v>
@@ -1521,16 +1521,16 @@
         <v>0.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO4" t="n">
         <v>0.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ4" t="n">
         <v>0.0</v>
@@ -1539,13 +1539,13 @@
         <v>0.0</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT4" t="n">
         <v>0.0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV4" t="n">
         <v>0.0</v>
@@ -1560,13 +1560,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA4" t="n">
         <v>0.0</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC4" t="n">
         <v>0.0</v>
@@ -1575,13 +1575,13 @@
         <v>0.0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF4" t="n">
         <v>0.0</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH4" t="n">
         <v>0.0</v>
@@ -1590,16 +1590,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK4" t="n">
         <v>0.0</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN4" t="n">
         <v>0.0</v>
@@ -1611,7 +1611,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR4" t="n">
         <v>0.0</v>
@@ -1620,13 +1620,13 @@
         <v>0.0</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU4" t="n">
         <v>0.0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW4" t="n">
         <v>0.0</v>
@@ -1650,13 +1650,13 @@
         <v>0.0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE4" t="n">
         <v>0.0</v>
       </c>
       <c r="DF4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG4" t="n">
         <v>0.0</v>
@@ -1665,10 +1665,10 @@
         <v>0.0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK4" t="n">
         <v>0.0</v>
@@ -1680,13 +1680,13 @@
         <v>0.0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO4" t="n">
         <v>0.0</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0.0</v>
@@ -1728,10 +1728,10 @@
         <v>0.0</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF4" t="n">
         <v>0.0</v>
@@ -1740,18 +1740,18 @@
         <v>0.0</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI4" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1760,7 +1760,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -1772,10 +1772,10 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
@@ -1790,10 +1790,10 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P5" t="n">
         <v>0.0</v>
@@ -1805,13 +1805,13 @@
         <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V5" t="n">
         <v>0.0</v>
@@ -1820,7 +1820,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y5" t="n">
         <v>0.0</v>
@@ -1835,13 +1835,13 @@
         <v>0.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF5" t="n">
         <v>0.0</v>
@@ -1853,7 +1853,7 @@
         <v>0.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.0</v>
@@ -1877,16 +1877,16 @@
         <v>0.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS5" t="n">
         <v>0.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU5" t="n">
         <v>0.0</v>
@@ -1895,7 +1895,7 @@
         <v>0.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX5" t="n">
         <v>0.0</v>
@@ -1925,13 +1925,13 @@
         <v>0.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0.0</v>
@@ -1943,7 +1943,7 @@
         <v>0.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN5" t="n">
         <v>0.0</v>
@@ -1967,10 +1967,10 @@
         <v>0.0</v>
       </c>
       <c r="BU5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW5" t="n">
         <v>0.0</v>
@@ -1985,10 +1985,10 @@
         <v>0.0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC5" t="n">
         <v>0.0</v>
@@ -2027,16 +2027,16 @@
         <v>0.0</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ5" t="n">
         <v>0.0</v>
       </c>
       <c r="CR5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS5" t="n">
         <v>0.0</v>
@@ -2048,7 +2048,7 @@
         <v>0.0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW5" t="n">
         <v>0.0</v>
@@ -2057,13 +2057,13 @@
         <v>0.0</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ5" t="n">
         <v>0.0</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB5" t="n">
         <v>0.0</v>
@@ -2075,10 +2075,10 @@
         <v>0.0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG5" t="n">
         <v>0.0</v>
@@ -2090,13 +2090,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM5" t="n">
         <v>0.0</v>
@@ -2105,13 +2105,13 @@
         <v>0.0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP5" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR5" t="n">
         <v>0.0</v>
@@ -2120,7 +2120,7 @@
         <v>0.0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU5" t="n">
         <v>0.0</v>
@@ -2141,7 +2141,7 @@
         <v>0.0</v>
       </c>
       <c r="EA5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB5" t="n">
         <v>0.0</v>
@@ -2153,7 +2153,7 @@
         <v>0.0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF5" t="n">
         <v>0.0</v>
@@ -2197,10 +2197,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="n">
         <v>0.0</v>
@@ -2248,7 +2248,7 @@
         <v>0.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA6" t="n">
         <v>0.0</v>
@@ -2257,7 +2257,7 @@
         <v>0.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD6" t="n">
         <v>0.0</v>
@@ -2272,10 +2272,10 @@
         <v>0.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -2317,10 +2317,10 @@
         <v>0.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY6" t="n">
         <v>0.0</v>
@@ -2329,13 +2329,13 @@
         <v>0.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB6" t="n">
         <v>0.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD6" t="n">
         <v>0.0</v>
@@ -2374,10 +2374,10 @@
         <v>0.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR6" t="n">
         <v>0.0</v>
@@ -2413,7 +2413,7 @@
         <v>0.0</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD6" t="n">
         <v>0.0</v>
@@ -2425,7 +2425,7 @@
         <v>0.0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH6" t="n">
         <v>0.0</v>
@@ -2437,10 +2437,10 @@
         <v>0.0</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM6" t="n">
         <v>0.0</v>
@@ -2467,10 +2467,10 @@
         <v>0.0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW6" t="n">
         <v>0.0</v>
@@ -2488,7 +2488,7 @@
         <v>0.0</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC6" t="n">
         <v>0.0</v>
@@ -2497,7 +2497,7 @@
         <v>0.0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF6" t="n">
         <v>0.0</v>
@@ -2512,13 +2512,13 @@
         <v>0.0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM6" t="n">
         <v>0.0</v>
@@ -2530,7 +2530,7 @@
         <v>0.0</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0.0</v>
@@ -2563,7 +2563,7 @@
         <v>0.0</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB6" t="n">
         <v>0.0</v>
@@ -2572,7 +2572,7 @@
         <v>0.0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE6" t="n">
         <v>0.0</v>
@@ -2587,10 +2587,10 @@
         <v>0.0</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -2610,7 +2610,7 @@
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -2622,16 +2622,16 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -2655,7 +2655,7 @@
         <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V7" t="n">
         <v>0.0</v>
@@ -2667,16 +2667,16 @@
         <v>0.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA7" t="n">
         <v>0.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" t="n">
         <v>0.0</v>
@@ -2694,10 +2694,10 @@
         <v>0.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0.0</v>
@@ -2715,13 +2715,13 @@
         <v>1.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP7" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR7" t="n">
         <v>0.0</v>
@@ -2730,7 +2730,7 @@
         <v>0.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU7" t="n">
         <v>0.0</v>
@@ -2742,16 +2742,16 @@
         <v>0.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB7" t="n">
         <v>0.0</v>
@@ -2760,13 +2760,13 @@
         <v>0.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE7" t="n">
         <v>0.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG7" t="n">
         <v>0.0</v>
@@ -2775,13 +2775,13 @@
         <v>0.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL7" t="n">
         <v>0.0</v>
@@ -2799,13 +2799,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT7" t="n">
         <v>0.0</v>
@@ -2817,16 +2817,16 @@
         <v>0.0</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY7" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA7" t="n">
         <v>0.0</v>
@@ -2835,7 +2835,7 @@
         <v>0.0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD7" t="n">
         <v>0.0</v>
@@ -2844,13 +2844,13 @@
         <v>0.0</v>
       </c>
       <c r="CF7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG7" t="n">
         <v>0.0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI7" t="n">
         <v>0.0</v>
@@ -2859,13 +2859,13 @@
         <v>0.0</v>
       </c>
       <c r="CK7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL7" t="n">
         <v>0.0</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN7" t="n">
         <v>0.0</v>
@@ -2874,13 +2874,13 @@
         <v>0.0</v>
       </c>
       <c r="CP7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ7" t="n">
         <v>0.0</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS7" t="n">
         <v>0.0</v>
@@ -2892,7 +2892,7 @@
         <v>0.0</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW7" t="n">
         <v>0.0</v>
@@ -2904,10 +2904,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB7" t="n">
         <v>0.0</v>
@@ -2919,10 +2919,10 @@
         <v>0.0</v>
       </c>
       <c r="DE7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG7" t="n">
         <v>1.0</v>
@@ -2940,13 +2940,13 @@
         <v>0.0</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM7" t="n">
         <v>0.0</v>
       </c>
       <c r="DN7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO7" t="n">
         <v>0.0</v>
@@ -2955,13 +2955,13 @@
         <v>0.0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR7" t="n">
         <v>0.0</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT7" t="n">
         <v>0.0</v>
@@ -2970,13 +2970,13 @@
         <v>0.0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW7" t="n">
         <v>0.0</v>
       </c>
       <c r="DX7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY7" t="n">
         <v>0.0</v>
@@ -2985,7 +2985,7 @@
         <v>0.0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB7" t="n">
         <v>0.0</v>
@@ -2997,7 +2997,7 @@
         <v>0.0</v>
       </c>
       <c r="EE7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF7" t="n">
         <v>0.0</v>
@@ -3026,10 +3026,10 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -3047,13 +3047,13 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -3062,13 +3062,13 @@
         <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
         <v>0.0</v>
@@ -3092,13 +3092,13 @@
         <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA8" t="n">
         <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
         <v>0.0</v>
@@ -3137,13 +3137,13 @@
         <v>1.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP8" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8" t="n">
         <v>0.0</v>
@@ -3152,7 +3152,7 @@
         <v>0.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU8" t="n">
         <v>0.0</v>
@@ -3164,10 +3164,10 @@
         <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ8" t="n">
         <v>0.0</v>
@@ -3176,19 +3176,19 @@
         <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
         <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE8" t="n">
         <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG8" t="n">
         <v>0.0</v>
@@ -3197,7 +3197,7 @@
         <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0.0</v>
@@ -3209,7 +3209,7 @@
         <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN8" t="n">
         <v>0.0</v>
@@ -3218,13 +3218,13 @@
         <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
         <v>0.0</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS8" t="n">
         <v>0.0</v>
@@ -3233,16 +3233,16 @@
         <v>0.0</v>
       </c>
       <c r="BU8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV8" t="n">
         <v>0.0</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY8" t="n">
         <v>0.0</v>
@@ -3254,7 +3254,7 @@
         <v>0.0</v>
       </c>
       <c r="CB8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC8" t="n">
         <v>1.0</v>
@@ -3272,13 +3272,13 @@
         <v>0.0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI8" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK8" t="n">
         <v>0.0</v>
@@ -3287,7 +3287,7 @@
         <v>0.0</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN8" t="n">
         <v>0.0</v>
@@ -3299,16 +3299,16 @@
         <v>0.0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS8" t="n">
         <v>0.0</v>
       </c>
       <c r="CT8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU8" t="n">
         <v>0.0</v>
@@ -3323,16 +3323,16 @@
         <v>0.0</v>
       </c>
       <c r="CY8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ8" t="n">
         <v>0.0</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC8" t="n">
         <v>0.0</v>
@@ -3344,7 +3344,7 @@
         <v>0.0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG8" t="n">
         <v>1.0</v>
@@ -3377,7 +3377,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR8" t="n">
         <v>0.0</v>
@@ -3386,13 +3386,13 @@
         <v>0.0</v>
       </c>
       <c r="DT8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU8" t="n">
         <v>0.0</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW8" t="n">
         <v>0.0</v>
@@ -3404,16 +3404,16 @@
         <v>0.0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB8" t="n">
         <v>0.0</v>
       </c>
       <c r="EC8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED8" t="n">
         <v>0.0</v>
@@ -3454,13 +3454,13 @@
         <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -3469,7 +3469,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
@@ -3481,10 +3481,10 @@
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0</v>
@@ -3496,16 +3496,16 @@
         <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V9" t="n">
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X9" t="n">
         <v>0.0</v>
@@ -3514,13 +3514,13 @@
         <v>0.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA9" t="n">
         <v>0.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" t="n">
         <v>0.0</v>
@@ -3550,22 +3550,22 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM9" t="n">
         <v>0.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP9" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR9" t="n">
         <v>0.0</v>
@@ -3574,7 +3574,7 @@
         <v>0.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU9" t="n">
         <v>0.0</v>
@@ -3586,7 +3586,7 @@
         <v>0.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY9" t="n">
         <v>1.0</v>
@@ -3604,7 +3604,7 @@
         <v>0.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE9" t="n">
         <v>0.0</v>
@@ -3613,13 +3613,13 @@
         <v>0.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH9" t="n">
         <v>0.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0.0</v>
@@ -3631,10 +3631,10 @@
         <v>0.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO9" t="n">
         <v>0.0</v>
@@ -3646,7 +3646,7 @@
         <v>0.0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS9" t="n">
         <v>0.0</v>
@@ -3679,7 +3679,7 @@
         <v>0.0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD9" t="n">
         <v>0.0</v>
@@ -3688,19 +3688,19 @@
         <v>0.0</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG9" t="n">
         <v>0.0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI9" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK9" t="n">
         <v>0.0</v>
@@ -3709,7 +3709,7 @@
         <v>0.0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN9" t="n">
         <v>0.0</v>
@@ -3718,13 +3718,13 @@
         <v>0.0</v>
       </c>
       <c r="CP9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ9" t="n">
         <v>0.0</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS9" t="n">
         <v>0.0</v>
@@ -3733,7 +3733,7 @@
         <v>0.0</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV9" t="n">
         <v>0.0</v>
@@ -3748,10 +3748,10 @@
         <v>0.0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB9" t="n">
         <v>0.0</v>
@@ -3760,13 +3760,13 @@
         <v>0.0</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE9" t="n">
         <v>0.0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG9" t="n">
         <v>1.0</v>
@@ -3784,13 +3784,13 @@
         <v>0.0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM9" t="n">
         <v>0.0</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO9" t="n">
         <v>0.0</v>
@@ -3799,7 +3799,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR9" t="n">
         <v>0.0</v>
@@ -3808,13 +3808,13 @@
         <v>0.0</v>
       </c>
       <c r="DT9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU9" t="n">
         <v>0.0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW9" t="n">
         <v>0.0</v>
@@ -3826,16 +3826,16 @@
         <v>0.0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB9" t="n">
         <v>0.0</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED9" t="n">
         <v>0.0</v>
@@ -3850,18 +3850,18 @@
         <v>0.0</v>
       </c>
       <c r="EH9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI9" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3873,10 +3873,10 @@
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -3888,10 +3888,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
@@ -3903,10 +3903,10 @@
         <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0</v>
@@ -3918,16 +3918,16 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V10" t="n">
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
         <v>0.0</v>
@@ -3936,7 +3936,7 @@
         <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA10" t="n">
         <v>0.0</v>
@@ -3945,13 +3945,13 @@
         <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10" t="n">
         <v>0.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF10" t="n">
         <v>0.0</v>
@@ -3960,13 +3960,13 @@
         <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK10" t="n">
         <v>0.0</v>
@@ -3975,13 +3975,13 @@
         <v>0.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10" t="n">
         <v>0.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP10" t="n">
         <v>0.0</v>
@@ -3993,7 +3993,7 @@
         <v>0.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT10" t="n">
         <v>0.0</v>
@@ -4011,7 +4011,7 @@
         <v>1.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ10" t="n">
         <v>0.0</v>
@@ -4023,10 +4023,10 @@
         <v>0.0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE10" t="n">
         <v>0.0</v>
@@ -4038,10 +4038,10 @@
         <v>0.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0.0</v>
@@ -4050,13 +4050,13 @@
         <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM10" t="n">
         <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO10" t="n">
         <v>0.0</v>
@@ -4068,16 +4068,16 @@
         <v>0.0</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT10" t="n">
         <v>0.0</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV10" t="n">
         <v>0.0</v>
@@ -4110,10 +4110,10 @@
         <v>0.0</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH10" t="n">
         <v>0.0</v>
@@ -4131,13 +4131,13 @@
         <v>1.0</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN10" t="n">
         <v>0.0</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP10" t="n">
         <v>0.0</v>
@@ -4146,7 +4146,7 @@
         <v>0.0</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS10" t="n">
         <v>0.0</v>
@@ -4155,19 +4155,19 @@
         <v>0.0</v>
       </c>
       <c r="CU10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV10" t="n">
         <v>0.0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX10" t="n">
         <v>0.0</v>
       </c>
       <c r="CY10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ10" t="n">
         <v>0.0</v>
@@ -4191,7 +4191,7 @@
         <v>0.0</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH10" t="n">
         <v>0.0</v>
@@ -4203,10 +4203,10 @@
         <v>0.0</v>
       </c>
       <c r="DK10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM10" t="n">
         <v>0.0</v>
@@ -4218,10 +4218,10 @@
         <v>0.0</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR10" t="n">
         <v>0.0</v>
@@ -4233,7 +4233,7 @@
         <v>0.0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV10" t="n">
         <v>1.0</v>
@@ -4251,7 +4251,7 @@
         <v>0.0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB10" t="n">
         <v>0.0</v>
@@ -4260,7 +4260,7 @@
         <v>0.0</v>
       </c>
       <c r="ED10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE10" t="n">
         <v>0.0</v>
@@ -4283,13 +4283,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -4298,7 +4298,7 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -4310,7 +4310,7 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
@@ -4343,13 +4343,13 @@
         <v>1.0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V11" t="n">
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X11" t="n">
         <v>0.0</v>
@@ -4358,13 +4358,13 @@
         <v>0.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA11" t="n">
         <v>0.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" t="n">
         <v>0.0</v>
@@ -4403,7 +4403,7 @@
         <v>0.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP11" t="n">
         <v>0.0</v>
@@ -4415,7 +4415,7 @@
         <v>0.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT11" t="n">
         <v>0.0</v>
@@ -4424,13 +4424,13 @@
         <v>0.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW11" t="n">
         <v>0.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY11" t="n">
         <v>0.0</v>
@@ -4448,7 +4448,7 @@
         <v>1.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE11" t="n">
         <v>0.0</v>
@@ -4457,13 +4457,13 @@
         <v>0.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH11" t="n">
         <v>0.0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ11" t="n">
         <v>0.0</v>
@@ -4475,7 +4475,7 @@
         <v>0.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN11" t="n">
         <v>1.0</v>
@@ -4493,7 +4493,7 @@
         <v>0.0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT11" t="n">
         <v>0.0</v>
@@ -4502,13 +4502,13 @@
         <v>0.0</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW11" t="n">
         <v>0.0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY11" t="n">
         <v>0.0</v>
@@ -4517,13 +4517,13 @@
         <v>0.0</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB11" t="n">
         <v>0.0</v>
       </c>
       <c r="CC11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD11" t="n">
         <v>0.0</v>
@@ -4535,10 +4535,10 @@
         <v>0.0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI11" t="n">
         <v>0.0</v>
@@ -4550,7 +4550,7 @@
         <v>0.0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM11" t="n">
         <v>1.0</v>
@@ -4568,7 +4568,7 @@
         <v>0.0</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS11" t="n">
         <v>0.0</v>
@@ -4580,7 +4580,7 @@
         <v>0.0</v>
       </c>
       <c r="CV11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW11" t="n">
         <v>1.0</v>
@@ -4598,13 +4598,13 @@
         <v>0.0</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC11" t="n">
         <v>0.0</v>
       </c>
       <c r="DD11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DE11" t="n">
         <v>0.0</v>
@@ -4613,7 +4613,7 @@
         <v>0.0</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH11" t="n">
         <v>0.0</v>
@@ -4622,7 +4622,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK11" t="n">
         <v>0.0</v>
@@ -4649,13 +4649,13 @@
         <v>0.0</v>
       </c>
       <c r="DS11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT11" t="n">
         <v>0.0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV11" t="n">
         <v>1.0</v>
@@ -4673,13 +4673,13 @@
         <v>0.0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB11" t="n">
         <v>0.0</v>
       </c>
       <c r="EC11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED11" t="n">
         <v>0.0</v>
@@ -4688,13 +4688,13 @@
         <v>0.0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG11" t="n">
         <v>0.0</v>
       </c>
       <c r="EH11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI11" t="n">
         <v>0.0</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4717,7 +4717,7 @@
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
         <v>1.0</v>
@@ -4756,16 +4756,16 @@
         <v>0.0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S12" t="n">
         <v>0.0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V12" t="n">
         <v>0.0</v>
@@ -4777,10 +4777,10 @@
         <v>0.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA12" t="n">
         <v>0.0</v>
@@ -4792,16 +4792,16 @@
         <v>0.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF12" t="n">
         <v>0.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH12" t="n">
         <v>0.0</v>
@@ -4810,7 +4810,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK12" t="n">
         <v>0.0</v>
@@ -4819,13 +4819,13 @@
         <v>0.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN12" t="n">
         <v>0.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP12" t="n">
         <v>0.0</v>
@@ -4834,7 +4834,7 @@
         <v>0.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS12" t="n">
         <v>0.0</v>
@@ -4846,13 +4846,13 @@
         <v>0.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW12" t="n">
         <v>0.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY12" t="n">
         <v>0.0</v>
@@ -4864,19 +4864,19 @@
         <v>0.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE12" t="n">
         <v>0.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG12" t="n">
         <v>0.0</v>
@@ -4885,13 +4885,13 @@
         <v>0.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL12" t="n">
         <v>0.0</v>
@@ -4915,13 +4915,13 @@
         <v>0.0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT12" t="n">
         <v>0.0</v>
       </c>
       <c r="BU12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV12" t="n">
         <v>0.0</v>
@@ -4930,13 +4930,13 @@
         <v>0.0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY12" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA12" t="n">
         <v>0.0</v>
@@ -4966,22 +4966,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK12" t="n">
         <v>0.0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN12" t="n">
         <v>0.0</v>
       </c>
       <c r="CO12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP12" t="n">
         <v>0.0</v>
@@ -5005,13 +5005,13 @@
         <v>0.0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX12" t="n">
         <v>0.0</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ12" t="n">
         <v>0.0</v>
@@ -5020,7 +5020,7 @@
         <v>0.0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC12" t="n">
         <v>0.0</v>
@@ -5032,10 +5032,10 @@
         <v>0.0</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH12" t="n">
         <v>0.0</v>
@@ -5047,10 +5047,10 @@
         <v>0.0</v>
       </c>
       <c r="DK12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM12" t="n">
         <v>0.0</v>
@@ -5062,7 +5062,7 @@
         <v>0.0</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ12" t="n">
         <v>0.0</v>
@@ -5074,13 +5074,13 @@
         <v>0.0</v>
       </c>
       <c r="DT12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW12" t="n">
         <v>0.0</v>
@@ -5089,13 +5089,13 @@
         <v>0.0</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ12" t="n">
         <v>0.0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EB12" t="n">
         <v>0.0</v>
@@ -5107,7 +5107,7 @@
         <v>0.0</v>
       </c>
       <c r="EE12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF12" t="n">
         <v>1.0</v>
@@ -5142,13 +5142,13 @@
         <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -5157,7 +5157,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
@@ -5169,7 +5169,7 @@
         <v>0.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P13" t="n">
         <v>0.0</v>
@@ -5181,19 +5181,19 @@
         <v>0.0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V13" t="n">
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
         <v>0.0</v>
@@ -5202,7 +5202,7 @@
         <v>0.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA13" t="n">
         <v>0.0</v>
@@ -5214,16 +5214,16 @@
         <v>0.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF13" t="n">
         <v>0.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH13" t="n">
         <v>0.0</v>
@@ -5232,7 +5232,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK13" t="n">
         <v>0.0</v>
@@ -5241,13 +5241,13 @@
         <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN13" t="n">
         <v>0.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP13" t="n">
         <v>0.0</v>
@@ -5256,13 +5256,13 @@
         <v>0.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS13" t="n">
         <v>0.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU13" t="n">
         <v>0.0</v>
@@ -5274,7 +5274,7 @@
         <v>0.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY13" t="n">
         <v>0.0</v>
@@ -5283,16 +5283,16 @@
         <v>0.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13" t="n">
         <v>0.0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE13" t="n">
         <v>0.0</v>
@@ -5304,10 +5304,10 @@
         <v>0.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0.0</v>
@@ -5319,16 +5319,16 @@
         <v>0.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO13" t="n">
         <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
         <v>0.0</v>
@@ -5352,13 +5352,13 @@
         <v>0.0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY13" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA13" t="n">
         <v>0.0</v>
@@ -5367,7 +5367,7 @@
         <v>0.0</v>
       </c>
       <c r="CC13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD13" t="n">
         <v>0.0</v>
@@ -5379,7 +5379,7 @@
         <v>0.0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH13" t="n">
         <v>0.0</v>
@@ -5388,16 +5388,16 @@
         <v>0.0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK13" t="n">
         <v>0.0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CN13" t="n">
         <v>0.0</v>
@@ -5409,10 +5409,10 @@
         <v>0.0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CS13" t="n">
         <v>0.0</v>
@@ -5424,10 +5424,10 @@
         <v>0.0</v>
       </c>
       <c r="CV13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX13" t="n">
         <v>0.0</v>
@@ -5436,13 +5436,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DA13" t="n">
         <v>0.0</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC13" t="n">
         <v>0.0</v>
@@ -5454,10 +5454,10 @@
         <v>0.0</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH13" t="n">
         <v>0.0</v>
@@ -5466,7 +5466,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK13" t="n">
         <v>0.0</v>
@@ -5481,10 +5481,10 @@
         <v>0.0</v>
       </c>
       <c r="DO13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ13" t="n">
         <v>0.0</v>
@@ -5493,16 +5493,16 @@
         <v>0.0</v>
       </c>
       <c r="DS13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT13" t="n">
         <v>0.0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DW13" t="n">
         <v>0.0</v>
@@ -5514,7 +5514,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA13" t="n">
         <v>1.0</v>
@@ -5532,7 +5532,7 @@
         <v>0.0</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG13" t="n">
         <v>0.0</v>
@@ -5544,7 +5544,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -5579,7 +5579,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
@@ -5591,7 +5591,7 @@
         <v>0.0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14" t="n">
         <v>1.0</v>
@@ -5609,7 +5609,7 @@
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V14" t="n">
         <v>0.0</v>
@@ -5621,7 +5621,7 @@
         <v>0.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z14" t="n">
         <v>0.0</v>
@@ -5630,13 +5630,13 @@
         <v>0.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" t="n">
         <v>0.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE14" t="n">
         <v>1.0</v>
@@ -5654,7 +5654,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK14" t="n">
         <v>0.0</v>
@@ -5663,7 +5663,7 @@
         <v>0.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN14" t="n">
         <v>0.0</v>
@@ -5684,7 +5684,7 @@
         <v>0.0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU14" t="n">
         <v>0.0</v>
@@ -5696,10 +5696,10 @@
         <v>0.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ14" t="n">
         <v>0.0</v>
@@ -5708,7 +5708,7 @@
         <v>0.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC14" t="n">
         <v>0.0</v>
@@ -5735,16 +5735,16 @@
         <v>0.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL14" t="n">
         <v>0.0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO14" t="n">
         <v>0.0</v>
@@ -5756,10 +5756,10 @@
         <v>0.0</v>
       </c>
       <c r="BR14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT14" t="n">
         <v>0.0</v>
@@ -5771,16 +5771,16 @@
         <v>0.0</v>
       </c>
       <c r="BW14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY14" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA14" t="n">
         <v>0.0</v>
@@ -5789,7 +5789,7 @@
         <v>0.0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD14" t="n">
         <v>0.0</v>
@@ -5798,19 +5798,19 @@
         <v>0.0</v>
       </c>
       <c r="CF14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG14" t="n">
         <v>0.0</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI14" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK14" t="n">
         <v>0.0</v>
@@ -5819,7 +5819,7 @@
         <v>0.0</v>
       </c>
       <c r="CM14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN14" t="n">
         <v>0.0</v>
@@ -5831,7 +5831,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR14" t="n">
         <v>0.0</v>
@@ -5840,13 +5840,13 @@
         <v>0.0</v>
       </c>
       <c r="CT14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU14" t="n">
         <v>0.0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW14" t="n">
         <v>1.0</v>
@@ -5864,7 +5864,7 @@
         <v>0.0</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC14" t="n">
         <v>0.0</v>
@@ -5873,13 +5873,13 @@
         <v>0.0</v>
       </c>
       <c r="DE14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF14" t="n">
         <v>0.0</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH14" t="n">
         <v>0.0</v>
@@ -5891,16 +5891,16 @@
         <v>0.0</v>
       </c>
       <c r="DK14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DM14" t="n">
         <v>0.0</v>
       </c>
       <c r="DN14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO14" t="n">
         <v>0.0</v>
@@ -5909,7 +5909,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR14" t="n">
         <v>0.0</v>
@@ -5921,10 +5921,10 @@
         <v>0.0</v>
       </c>
       <c r="DU14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW14" t="n">
         <v>0.0</v>
@@ -5936,7 +5936,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA14" t="n">
         <v>0.0</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5980,7 +5980,7 @@
         <v>0.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
@@ -6001,13 +6001,13 @@
         <v>0.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -6016,7 +6016,7 @@
         <v>0.0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
@@ -6028,7 +6028,7 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
@@ -6055,19 +6055,19 @@
         <v>0.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF15" t="n">
         <v>0.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH15" t="n">
         <v>0.0</v>
@@ -6076,7 +6076,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK15" t="n">
         <v>0.0</v>
@@ -6088,7 +6088,7 @@
         <v>0.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO15" t="n">
         <v>1.0</v>
@@ -6106,13 +6106,13 @@
         <v>0.0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU15" t="n">
         <v>0.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW15" t="n">
         <v>0.0</v>
@@ -6142,13 +6142,13 @@
         <v>0.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG15" t="n">
         <v>0.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI15" t="n">
         <v>0.0</v>
@@ -6160,19 +6160,19 @@
         <v>0.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO15" t="n">
         <v>0.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ15" t="n">
         <v>0.0</v>
@@ -6181,13 +6181,13 @@
         <v>0.0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT15" t="n">
         <v>0.0</v>
       </c>
       <c r="BU15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV15" t="n">
         <v>0.0</v>
@@ -6196,7 +6196,7 @@
         <v>0.0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY15" t="n">
         <v>0.0</v>
@@ -6205,13 +6205,13 @@
         <v>0.0</v>
       </c>
       <c r="CA15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB15" t="n">
         <v>0.0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD15" t="n">
         <v>0.0</v>
@@ -6223,16 +6223,16 @@
         <v>0.0</v>
       </c>
       <c r="CG15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI15" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK15" t="n">
         <v>0.0</v>
@@ -6247,13 +6247,13 @@
         <v>0.0</v>
       </c>
       <c r="CO15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP15" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR15" t="n">
         <v>0.0</v>
@@ -6265,13 +6265,13 @@
         <v>0.0</v>
       </c>
       <c r="CU15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX15" t="n">
         <v>0.0</v>
@@ -6283,10 +6283,10 @@
         <v>0.0</v>
       </c>
       <c r="DA15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DC15" t="n">
         <v>0.0</v>
@@ -6298,7 +6298,7 @@
         <v>0.0</v>
       </c>
       <c r="DF15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG15" t="n">
         <v>1.0</v>
@@ -6331,7 +6331,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DR15" t="n">
         <v>0.0</v>
@@ -6343,10 +6343,10 @@
         <v>0.0</v>
       </c>
       <c r="DU15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW15" t="n">
         <v>0.0</v>
@@ -6358,7 +6358,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA15" t="n">
         <v>0.0</v>
@@ -6370,13 +6370,13 @@
         <v>0.0</v>
       </c>
       <c r="ED15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG15" t="n">
         <v>0.0</v>
@@ -6388,12 +6388,12 @@
         <v>0.0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6402,7 +6402,7 @@
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
@@ -6438,7 +6438,7 @@
         <v>0.0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
@@ -6450,7 +6450,7 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
@@ -6462,10 +6462,10 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z16" t="n">
         <v>0.0</v>
@@ -6477,19 +6477,19 @@
         <v>0.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF16" t="n">
         <v>0.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH16" t="n">
         <v>0.0</v>
@@ -6498,7 +6498,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK16" t="n">
         <v>0.0</v>
@@ -6510,10 +6510,10 @@
         <v>0.0</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP16" t="n">
         <v>0.0</v>
@@ -6522,19 +6522,19 @@
         <v>0.0</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS16" t="n">
         <v>0.0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU16" t="n">
         <v>0.0</v>
       </c>
       <c r="AV16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW16" t="n">
         <v>0.0</v>
@@ -6543,7 +6543,7 @@
         <v>0.0</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ16" t="n">
         <v>0.0</v>
@@ -6555,10 +6555,10 @@
         <v>0.0</v>
       </c>
       <c r="BC16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE16" t="n">
         <v>0.0</v>
@@ -6570,7 +6570,7 @@
         <v>0.0</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI16" t="n">
         <v>0.0</v>
@@ -6579,22 +6579,22 @@
         <v>0.0</v>
       </c>
       <c r="BK16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL16" t="n">
         <v>0.0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO16" t="n">
         <v>0.0</v>
       </c>
       <c r="BP16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ16" t="n">
         <v>0.0</v>
@@ -6603,7 +6603,7 @@
         <v>0.0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT16" t="n">
         <v>0.0</v>
@@ -6612,13 +6612,13 @@
         <v>0.0</v>
       </c>
       <c r="BV16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW16" t="n">
         <v>0.0</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY16" t="n">
         <v>0.0</v>
@@ -6627,13 +6627,13 @@
         <v>0.0</v>
       </c>
       <c r="CA16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB16" t="n">
         <v>0.0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CD16" t="n">
         <v>0.0</v>
@@ -6642,19 +6642,19 @@
         <v>0.0</v>
       </c>
       <c r="CF16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG16" t="n">
         <v>0.0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CI16" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK16" t="n">
         <v>0.0</v>
@@ -6678,7 +6678,7 @@
         <v>1.0</v>
       </c>
       <c r="CR16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS16" t="n">
         <v>0.0</v>
@@ -6690,10 +6690,10 @@
         <v>0.0</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CX16" t="n">
         <v>0.0</v>
@@ -6705,7 +6705,7 @@
         <v>0.0</v>
       </c>
       <c r="DA16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB16" t="n">
         <v>1.0</v>
@@ -6723,7 +6723,7 @@
         <v>0.0</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DH16" t="n">
         <v>0.0</v>
@@ -6732,7 +6732,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK16" t="n">
         <v>0.0</v>
@@ -6798,7 +6798,7 @@
         <v>1.0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EG16" t="n">
         <v>0.0</v>
@@ -6810,7 +6810,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -6821,22 +6821,22 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -6845,13 +6845,13 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -6866,13 +6866,13 @@
         <v>0.0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S17" t="n">
         <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
@@ -6881,16 +6881,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X17" t="n">
         <v>0.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA17" t="n">
         <v>0.0</v>
@@ -6902,10 +6902,10 @@
         <v>0.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF17" t="n">
         <v>0.0</v>
@@ -6917,7 +6917,7 @@
         <v>0.0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -6926,13 +6926,13 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM17" t="n">
         <v>0.0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO17" t="n">
         <v>0.0</v>
@@ -6950,13 +6950,13 @@
         <v>0.0</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU17" t="n">
         <v>0.0</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW17" t="n">
         <v>0.0</v>
@@ -6965,13 +6965,13 @@
         <v>0.0</v>
       </c>
       <c r="AY17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ17" t="n">
         <v>0.0</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB17" t="n">
         <v>0.0</v>
@@ -6980,13 +6980,13 @@
         <v>0.0</v>
       </c>
       <c r="BD17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE17" t="n">
         <v>0.0</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG17" t="n">
         <v>0.0</v>
@@ -6995,7 +6995,7 @@
         <v>0.0</v>
       </c>
       <c r="BI17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ17" t="n">
         <v>0.0</v>
@@ -7007,7 +7007,7 @@
         <v>0.0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN17" t="n">
         <v>0.0</v>
@@ -7016,13 +7016,13 @@
         <v>0.0</v>
       </c>
       <c r="BP17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ17" t="n">
         <v>0.0</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS17" t="n">
         <v>0.0</v>
@@ -7031,13 +7031,13 @@
         <v>0.0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV17" t="n">
         <v>0.0</v>
       </c>
       <c r="BW17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX17" t="n">
         <v>0.0</v>
@@ -7046,13 +7046,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA17" t="n">
         <v>0.0</v>
       </c>
       <c r="CB17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC17" t="n">
         <v>0.0</v>
@@ -7076,22 +7076,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL17" t="n">
         <v>0.0</v>
       </c>
       <c r="CM17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN17" t="n">
         <v>0.0</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP17" t="n">
         <v>0.0</v>
@@ -7106,13 +7106,13 @@
         <v>0.0</v>
       </c>
       <c r="CT17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU17" t="n">
         <v>0.0</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW17" t="n">
         <v>0.0</v>
@@ -7136,13 +7136,13 @@
         <v>0.0</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE17" t="n">
         <v>0.0</v>
       </c>
       <c r="DF17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG17" t="n">
         <v>0.0</v>
@@ -7160,13 +7160,13 @@
         <v>0.0</v>
       </c>
       <c r="DL17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM17" t="n">
         <v>0.0</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO17" t="n">
         <v>0.0</v>
@@ -7181,13 +7181,13 @@
         <v>0.0</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT17" t="n">
         <v>0.0</v>
       </c>
       <c r="DU17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV17" t="n">
         <v>0.0</v>
@@ -7214,10 +7214,10 @@
         <v>0.0</v>
       </c>
       <c r="ED17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF17" t="n">
         <v>0.0</v>
@@ -7229,10 +7229,10 @@
         <v>0.0</v>
       </c>
       <c r="EI17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -7252,13 +7252,13 @@
         <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -7273,10 +7273,10 @@
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O18" t="n">
         <v>0.0</v>
@@ -7303,13 +7303,13 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X18" t="n">
         <v>0.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z18" t="n">
         <v>0.0</v>
@@ -7342,13 +7342,13 @@
         <v>1.0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK18" t="n">
         <v>0.0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM18" t="n">
         <v>0.0</v>
@@ -7363,22 +7363,22 @@
         <v>0.0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS18" t="n">
         <v>0.0</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU18" t="n">
         <v>0.0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW18" t="n">
         <v>0.0</v>
@@ -7408,10 +7408,10 @@
         <v>0.0</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH18" t="n">
         <v>0.0</v>
@@ -7441,10 +7441,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS18" t="n">
         <v>0.0</v>
@@ -7468,10 +7468,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB18" t="n">
         <v>0.0</v>
@@ -7498,13 +7498,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK18" t="n">
         <v>0.0</v>
       </c>
       <c r="CL18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM18" t="n">
         <v>0.0</v>
@@ -7531,13 +7531,13 @@
         <v>0.0</v>
       </c>
       <c r="CU18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX18" t="n">
         <v>0.0</v>
@@ -7549,7 +7549,7 @@
         <v>0.0</v>
       </c>
       <c r="DA18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB18" t="n">
         <v>0.0</v>
@@ -7573,13 +7573,13 @@
         <v>0.0</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ18" t="n">
         <v>0.0</v>
       </c>
       <c r="DK18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL18" t="n">
         <v>0.0</v>
@@ -7588,10 +7588,10 @@
         <v>0.0</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP18" t="n">
         <v>0.0</v>
@@ -7603,13 +7603,13 @@
         <v>0.0</v>
       </c>
       <c r="DS18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT18" t="n">
         <v>0.0</v>
       </c>
       <c r="DU18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV18" t="n">
         <v>0.0</v>
@@ -7618,13 +7618,13 @@
         <v>0.0</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY18" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA18" t="n">
         <v>0.0</v>
@@ -7633,13 +7633,13 @@
         <v>0.0</v>
       </c>
       <c r="EC18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED18" t="n">
         <v>0.0</v>
       </c>
       <c r="EE18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF18" t="n">
         <v>0.0</v>
@@ -7648,13 +7648,13 @@
         <v>0.0</v>
       </c>
       <c r="EH18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI18" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -7710,10 +7710,10 @@
         <v>0.0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -7725,10 +7725,10 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y19" t="n">
         <v>0.0</v>
@@ -7740,13 +7740,13 @@
         <v>0.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" t="n">
         <v>0.0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE19" t="n">
         <v>0.0</v>
@@ -7755,22 +7755,22 @@
         <v>0.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH19" t="n">
         <v>0.0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK19" t="n">
         <v>0.0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM19" t="n">
         <v>0.0</v>
@@ -7785,13 +7785,13 @@
         <v>0.0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR19" t="n">
         <v>0.0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT19" t="n">
         <v>0.0</v>
@@ -7800,10 +7800,10 @@
         <v>0.0</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX19" t="n">
         <v>0.0</v>
@@ -7830,13 +7830,13 @@
         <v>0.0</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG19" t="n">
         <v>0.0</v>
       </c>
       <c r="BH19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI19" t="n">
         <v>0.0</v>
@@ -7863,10 +7863,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BS19" t="n">
         <v>0.0</v>
@@ -7890,10 +7890,10 @@
         <v>0.0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB19" t="n">
         <v>0.0</v>
@@ -7905,13 +7905,13 @@
         <v>0.0</v>
       </c>
       <c r="CE19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF19" t="n">
         <v>0.0</v>
       </c>
       <c r="CG19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH19" t="n">
         <v>0.0</v>
@@ -7920,13 +7920,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK19" t="n">
         <v>0.0</v>
       </c>
       <c r="CL19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM19" t="n">
         <v>0.0</v>
@@ -7935,13 +7935,13 @@
         <v>0.0</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP19" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR19" t="n">
         <v>0.0</v>
@@ -7950,13 +7950,13 @@
         <v>0.0</v>
       </c>
       <c r="CT19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU19" t="n">
         <v>0.0</v>
       </c>
       <c r="CV19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CW19" t="n">
         <v>0.0</v>
@@ -8010,10 +8010,10 @@
         <v>0.0</v>
       </c>
       <c r="DN19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP19" t="n">
         <v>0.0</v>
@@ -8040,13 +8040,13 @@
         <v>0.0</v>
       </c>
       <c r="DX19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY19" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA19" t="n">
         <v>0.0</v>
@@ -8058,10 +8058,10 @@
         <v>0.0</v>
       </c>
       <c r="ED19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF19" t="n">
         <v>0.0</v>
@@ -8070,13 +8070,13 @@
         <v>0.0</v>
       </c>
       <c r="EH19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI19" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -8087,13 +8087,13 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -8102,13 +8102,13 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K20" t="n">
         <v>0.0</v>
@@ -8117,22 +8117,22 @@
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O20" t="n">
         <v>0.0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" t="n">
         <v>0.0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S20" t="n">
         <v>0.0</v>
@@ -8147,13 +8147,13 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X20" t="n">
         <v>0.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" t="n">
         <v>0.0</v>
@@ -8162,13 +8162,13 @@
         <v>0.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE20" t="n">
         <v>0.0</v>
@@ -8210,10 +8210,10 @@
         <v>0.0</v>
       </c>
       <c r="AR20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT20" t="n">
         <v>0.0</v>
@@ -8222,13 +8222,13 @@
         <v>0.0</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW20" t="n">
         <v>0.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY20" t="n">
         <v>0.0</v>
@@ -8237,13 +8237,13 @@
         <v>0.0</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB20" t="n">
         <v>0.0</v>
       </c>
       <c r="BC20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD20" t="n">
         <v>0.0</v>
@@ -8267,22 +8267,22 @@
         <v>0.0</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL20" t="n">
         <v>0.0</v>
       </c>
       <c r="BM20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO20" t="n">
         <v>0.0</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ20" t="n">
         <v>0.0</v>
@@ -8297,13 +8297,13 @@
         <v>0.0</v>
       </c>
       <c r="BU20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV20" t="n">
         <v>0.0</v>
       </c>
       <c r="BW20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX20" t="n">
         <v>0.0</v>
@@ -8315,10 +8315,10 @@
         <v>0.0</v>
       </c>
       <c r="CA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC20" t="n">
         <v>0.0</v>
@@ -8327,22 +8327,22 @@
         <v>0.0</v>
       </c>
       <c r="CE20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CG20" t="n">
         <v>0.0</v>
       </c>
       <c r="CH20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI20" t="n">
         <v>0.0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK20" t="n">
         <v>0.0</v>
@@ -8366,13 +8366,13 @@
         <v>0.0</v>
       </c>
       <c r="CR20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS20" t="n">
         <v>0.0</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU20" t="n">
         <v>0.0</v>
@@ -8396,7 +8396,7 @@
         <v>0.0</v>
       </c>
       <c r="DB20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC20" t="n">
         <v>0.0</v>
@@ -8408,7 +8408,7 @@
         <v>0.0</v>
       </c>
       <c r="DF20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG20" t="n">
         <v>0.0</v>
@@ -8447,22 +8447,22 @@
         <v>0.0</v>
       </c>
       <c r="DS20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT20" t="n">
         <v>0.0</v>
       </c>
       <c r="DU20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW20" t="n">
         <v>0.0</v>
       </c>
       <c r="DX20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY20" t="n">
         <v>0.0</v>
@@ -8471,13 +8471,13 @@
         <v>0.0</v>
       </c>
       <c r="EA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB20" t="n">
         <v>0.0</v>
       </c>
       <c r="EC20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED20" t="n">
         <v>0.0</v>
@@ -8492,10 +8492,10 @@
         <v>0.0</v>
       </c>
       <c r="EH20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ20" t="n">
         <v>0.0</v>
@@ -8527,19 +8527,19 @@
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -8554,10 +8554,10 @@
         <v>0.0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -8584,22 +8584,22 @@
         <v>0.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC21" t="n">
         <v>0.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF21" t="n">
         <v>0.0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH21" t="n">
         <v>0.0</v>
@@ -8623,7 +8623,7 @@
         <v>1.0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP21" t="n">
         <v>0.0</v>
@@ -8635,7 +8635,7 @@
         <v>0.0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT21" t="n">
         <v>0.0</v>
@@ -8644,10 +8644,10 @@
         <v>0.0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX21" t="n">
         <v>0.0</v>
@@ -8659,10 +8659,10 @@
         <v>0.0</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC21" t="n">
         <v>0.0</v>
@@ -8719,16 +8719,16 @@
         <v>0.0</v>
       </c>
       <c r="BU21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV21" t="n">
         <v>0.0</v>
       </c>
       <c r="BW21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY21" t="n">
         <v>0.0</v>
@@ -8740,7 +8740,7 @@
         <v>0.0</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC21" t="n">
         <v>0.0</v>
@@ -8749,13 +8749,13 @@
         <v>0.0</v>
       </c>
       <c r="CE21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF21" t="n">
         <v>0.0</v>
       </c>
       <c r="CG21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH21" t="n">
         <v>0.0</v>
@@ -8764,10 +8764,10 @@
         <v>0.0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL21" t="n">
         <v>0.0</v>
@@ -8794,13 +8794,13 @@
         <v>0.0</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU21" t="n">
         <v>0.0</v>
       </c>
       <c r="CV21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW21" t="n">
         <v>0.0</v>
@@ -8809,13 +8809,13 @@
         <v>0.0</v>
       </c>
       <c r="CY21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ21" t="n">
         <v>0.0</v>
       </c>
       <c r="DA21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB21" t="n">
         <v>0.0</v>
@@ -8827,10 +8827,10 @@
         <v>0.0</v>
       </c>
       <c r="DE21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG21" t="n">
         <v>0.0</v>
@@ -8869,13 +8869,13 @@
         <v>0.0</v>
       </c>
       <c r="DS21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT21" t="n">
         <v>0.0</v>
       </c>
       <c r="DU21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV21" t="n">
         <v>0.0</v>
@@ -8884,10 +8884,10 @@
         <v>0.0</v>
       </c>
       <c r="DX21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ21" t="n">
         <v>0.0</v>
@@ -8908,13 +8908,13 @@
         <v>0.0</v>
       </c>
       <c r="EF21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG21" t="n">
         <v>0.0</v>
       </c>
       <c r="EH21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI21" t="n">
         <v>0.0</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -8937,7 +8937,7 @@
         <v>0.0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -8961,22 +8961,22 @@
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O22" t="n">
         <v>0.0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S22" t="n">
         <v>0.0</v>
@@ -8991,10 +8991,10 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y22" t="n">
         <v>0.0</v>
@@ -9021,16 +9021,16 @@
         <v>0.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH22" t="n">
         <v>0.0</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK22" t="n">
         <v>0.0</v>
@@ -9042,7 +9042,7 @@
         <v>0.0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO22" t="n">
         <v>0.0</v>
@@ -9054,10 +9054,10 @@
         <v>0.0</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT22" t="n">
         <v>0.0</v>
@@ -9066,22 +9066,22 @@
         <v>0.0</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW22" t="n">
         <v>0.0</v>
       </c>
       <c r="AX22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ22" t="n">
         <v>0.0</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB22" t="n">
         <v>0.0</v>
@@ -9096,10 +9096,10 @@
         <v>0.0</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH22" t="n">
         <v>0.0</v>
@@ -9111,10 +9111,10 @@
         <v>0.0</v>
       </c>
       <c r="BK22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM22" t="n">
         <v>0.0</v>
@@ -9126,13 +9126,13 @@
         <v>0.0</v>
       </c>
       <c r="BP22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ22" t="n">
         <v>0.0</v>
       </c>
       <c r="BR22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS22" t="n">
         <v>0.0</v>
@@ -9144,10 +9144,10 @@
         <v>0.0</v>
       </c>
       <c r="BV22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BX22" t="n">
         <v>0.0</v>
@@ -9156,13 +9156,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA22" t="n">
         <v>0.0</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC22" t="n">
         <v>0.0</v>
@@ -9186,22 +9186,22 @@
         <v>0.0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK22" t="n">
         <v>0.0</v>
       </c>
       <c r="CL22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN22" t="n">
         <v>0.0</v>
       </c>
       <c r="CO22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP22" t="n">
         <v>0.0</v>
@@ -9216,22 +9216,22 @@
         <v>0.0</v>
       </c>
       <c r="CT22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU22" t="n">
         <v>0.0</v>
       </c>
       <c r="CV22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CW22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX22" t="n">
         <v>0.0</v>
       </c>
       <c r="CY22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ22" t="n">
         <v>0.0</v>
@@ -9249,13 +9249,13 @@
         <v>0.0</v>
       </c>
       <c r="DE22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH22" t="n">
         <v>0.0</v>
@@ -9267,16 +9267,16 @@
         <v>0.0</v>
       </c>
       <c r="DK22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM22" t="n">
         <v>0.0</v>
       </c>
       <c r="DN22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO22" t="n">
         <v>0.0</v>
@@ -9291,13 +9291,13 @@
         <v>0.0</v>
       </c>
       <c r="DS22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT22" t="n">
         <v>0.0</v>
       </c>
       <c r="DU22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV22" t="n">
         <v>0.0</v>
@@ -9321,10 +9321,10 @@
         <v>0.0</v>
       </c>
       <c r="EC22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE22" t="n">
         <v>0.0</v>
@@ -9336,13 +9336,13 @@
         <v>0.0</v>
       </c>
       <c r="EH22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI22" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -9398,13 +9398,13 @@
         <v>0.0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S23" t="n">
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
@@ -9428,22 +9428,22 @@
         <v>0.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF23" t="n">
         <v>0.0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH23" t="n">
         <v>0.0</v>
@@ -9452,13 +9452,13 @@
         <v>0.0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK23" t="n">
         <v>0.0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM23" t="n">
         <v>0.0</v>
@@ -9467,7 +9467,7 @@
         <v>0.0</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP23" t="n">
         <v>0.0</v>
@@ -9479,7 +9479,7 @@
         <v>0.0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT23" t="n">
         <v>0.0</v>
@@ -9488,22 +9488,22 @@
         <v>0.0</v>
       </c>
       <c r="AV23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW23" t="n">
         <v>0.0</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AY23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ23" t="n">
         <v>0.0</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB23" t="n">
         <v>0.0</v>
@@ -9512,13 +9512,13 @@
         <v>0.0</v>
       </c>
       <c r="BD23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE23" t="n">
         <v>0.0</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG23" t="n">
         <v>0.0</v>
@@ -9533,22 +9533,22 @@
         <v>0.0</v>
       </c>
       <c r="BK23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM23" t="n">
         <v>0.0</v>
       </c>
       <c r="BN23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO23" t="n">
         <v>0.0</v>
       </c>
       <c r="BP23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ23" t="n">
         <v>0.0</v>
@@ -9563,10 +9563,10 @@
         <v>0.0</v>
       </c>
       <c r="BU23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW23" t="n">
         <v>0.0</v>
@@ -9608,13 +9608,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CK23" t="n">
         <v>0.0</v>
       </c>
       <c r="CL23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CM23" t="n">
         <v>0.0</v>
@@ -9623,22 +9623,22 @@
         <v>0.0</v>
       </c>
       <c r="CO23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP23" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CR23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS23" t="n">
         <v>0.0</v>
       </c>
       <c r="CT23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU23" t="n">
         <v>0.0</v>
@@ -9668,10 +9668,10 @@
         <v>0.0</v>
       </c>
       <c r="DD23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DF23" t="n">
         <v>0.0</v>
@@ -9686,10 +9686,10 @@
         <v>0.0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DL23" t="n">
         <v>0.0</v>
@@ -9698,22 +9698,22 @@
         <v>0.0</v>
       </c>
       <c r="DN23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO23" t="n">
         <v>0.0</v>
       </c>
       <c r="DP23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR23" t="n">
         <v>0.0</v>
       </c>
       <c r="DS23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DT23" t="n">
         <v>0.0</v>
@@ -9728,10 +9728,10 @@
         <v>0.0</v>
       </c>
       <c r="DX23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ23" t="n">
         <v>0.0</v>
@@ -9752,13 +9752,13 @@
         <v>0.0</v>
       </c>
       <c r="EF23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG23" t="n">
         <v>0.0</v>
       </c>
       <c r="EH23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI23" t="n">
         <v>0.0</v>
@@ -9769,13 +9769,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
@@ -9790,10 +9790,10 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" t="n">
         <v>0.0</v>
@@ -9805,16 +9805,16 @@
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" t="n">
         <v>0.0</v>
@@ -9826,7 +9826,7 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
@@ -9850,10 +9850,10 @@
         <v>0.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24" t="n">
         <v>0.0</v>
@@ -9880,22 +9880,22 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM24" t="n">
         <v>0.0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP24" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR24" t="n">
         <v>0.0</v>
@@ -9919,7 +9919,7 @@
         <v>1.0</v>
       </c>
       <c r="AY24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ24" t="n">
         <v>0.0</v>
@@ -9931,7 +9931,7 @@
         <v>0.0</v>
       </c>
       <c r="BC24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD24" t="n">
         <v>0.0</v>
@@ -9955,10 +9955,10 @@
         <v>0.0</v>
       </c>
       <c r="BK24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM24" t="n">
         <v>0.0</v>
@@ -9970,22 +9970,22 @@
         <v>0.0</v>
       </c>
       <c r="BP24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ24" t="n">
         <v>0.0</v>
       </c>
       <c r="BR24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT24" t="n">
         <v>0.0</v>
       </c>
       <c r="BU24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV24" t="n">
         <v>0.0</v>
@@ -10015,13 +10015,13 @@
         <v>0.0</v>
       </c>
       <c r="CE24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF24" t="n">
         <v>0.0</v>
       </c>
       <c r="CG24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH24" t="n">
         <v>0.0</v>
@@ -10039,13 +10039,13 @@
         <v>1.0</v>
       </c>
       <c r="CM24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN24" t="n">
         <v>0.0</v>
       </c>
       <c r="CO24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CP24" t="n">
         <v>0.0</v>
@@ -10054,13 +10054,13 @@
         <v>0.0</v>
       </c>
       <c r="CR24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS24" t="n">
         <v>0.0</v>
       </c>
       <c r="CT24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU24" t="n">
         <v>0.0</v>
@@ -10075,13 +10075,13 @@
         <v>0.0</v>
       </c>
       <c r="CY24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ24" t="n">
         <v>0.0</v>
       </c>
       <c r="DA24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB24" t="n">
         <v>0.0</v>
@@ -10090,13 +10090,13 @@
         <v>0.0</v>
       </c>
       <c r="DD24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE24" t="n">
         <v>0.0</v>
       </c>
       <c r="DF24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG24" t="n">
         <v>0.0</v>
@@ -10114,7 +10114,7 @@
         <v>0.0</v>
       </c>
       <c r="DL24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM24" t="n">
         <v>0.0</v>
@@ -10126,7 +10126,7 @@
         <v>0.0</v>
       </c>
       <c r="DP24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ24" t="n">
         <v>0.0</v>
@@ -10138,10 +10138,10 @@
         <v>0.0</v>
       </c>
       <c r="DT24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DU24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV24" t="n">
         <v>0.0</v>
@@ -10150,10 +10150,10 @@
         <v>0.0</v>
       </c>
       <c r="DX24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DY24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ24" t="n">
         <v>0.0</v>
@@ -10165,13 +10165,13 @@
         <v>0.0</v>
       </c>
       <c r="EC24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED24" t="n">
         <v>0.0</v>
       </c>
       <c r="EE24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF24" t="n">
         <v>0.0</v>
@@ -10180,24 +10180,24 @@
         <v>0.0</v>
       </c>
       <c r="EH24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI24" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25" t="n">
         <v>0.0</v>
@@ -10221,13 +10221,13 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -10245,10 +10245,10 @@
         <v>0.0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
@@ -10260,10 +10260,10 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z25" t="n">
         <v>0.0</v>
@@ -10272,22 +10272,22 @@
         <v>0.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF25" t="n">
         <v>0.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH25" t="n">
         <v>0.0</v>
@@ -10311,13 +10311,13 @@
         <v>0.0</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP25" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR25" t="n">
         <v>0.0</v>
@@ -10326,13 +10326,13 @@
         <v>0.0</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU25" t="n">
         <v>0.0</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW25" t="n">
         <v>0.0</v>
@@ -10347,16 +10347,16 @@
         <v>0.0</v>
       </c>
       <c r="BA25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB25" t="n">
         <v>0.0</v>
       </c>
       <c r="BC25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE25" t="n">
         <v>0.0</v>
@@ -10368,7 +10368,7 @@
         <v>0.0</v>
       </c>
       <c r="BH25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI25" t="n">
         <v>0.0</v>
@@ -10392,10 +10392,10 @@
         <v>0.0</v>
       </c>
       <c r="BP25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR25" t="n">
         <v>0.0</v>
@@ -10407,13 +10407,13 @@
         <v>0.0</v>
       </c>
       <c r="BU25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV25" t="n">
         <v>0.0</v>
       </c>
       <c r="BW25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX25" t="n">
         <v>0.0</v>
@@ -10422,22 +10422,22 @@
         <v>0.0</v>
       </c>
       <c r="BZ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA25" t="n">
         <v>0.0</v>
       </c>
       <c r="CB25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD25" t="n">
         <v>0.0</v>
       </c>
       <c r="CE25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF25" t="n">
         <v>0.0</v>
@@ -10470,10 +10470,10 @@
         <v>0.0</v>
       </c>
       <c r="CP25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR25" t="n">
         <v>0.0</v>
@@ -10497,22 +10497,22 @@
         <v>0.0</v>
       </c>
       <c r="CY25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ25" t="n">
         <v>0.0</v>
       </c>
       <c r="DA25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC25" t="n">
         <v>0.0</v>
       </c>
       <c r="DD25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE25" t="n">
         <v>0.0</v>
@@ -10527,13 +10527,13 @@
         <v>0.0</v>
       </c>
       <c r="DI25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ25" t="n">
         <v>0.0</v>
       </c>
       <c r="DK25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DL25" t="n">
         <v>0.0</v>
@@ -10542,16 +10542,16 @@
         <v>0.0</v>
       </c>
       <c r="DN25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DO25" t="n">
         <v>0.0</v>
       </c>
       <c r="DP25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR25" t="n">
         <v>0.0</v>
@@ -10563,10 +10563,10 @@
         <v>0.0</v>
       </c>
       <c r="DU25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DW25" t="n">
         <v>0.0</v>
@@ -10578,16 +10578,16 @@
         <v>0.0</v>
       </c>
       <c r="DZ25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB25" t="n">
         <v>0.0</v>
       </c>
       <c r="EC25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED25" t="n">
         <v>0.0</v>
@@ -10602,13 +10602,13 @@
         <v>0.0</v>
       </c>
       <c r="EH25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI25" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -10634,22 +10634,22 @@
         <v>0.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -10664,13 +10664,13 @@
         <v>0.0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S26" t="n">
         <v>0.0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U26" t="n">
         <v>0.0</v>
@@ -10682,10 +10682,10 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z26" t="n">
         <v>0.0</v>
@@ -10694,10 +10694,10 @@
         <v>0.0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26" t="n">
         <v>0.0</v>
@@ -10709,10 +10709,10 @@
         <v>0.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI26" t="n">
         <v>0.0</v>
@@ -10724,10 +10724,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN26" t="n">
         <v>0.0</v>
@@ -10739,10 +10739,10 @@
         <v>0.0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS26" t="n">
         <v>0.0</v>
@@ -10793,13 +10793,13 @@
         <v>1.0</v>
       </c>
       <c r="BI26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ26" t="n">
         <v>0.0</v>
       </c>
       <c r="BK26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL26" t="n">
         <v>0.0</v>
@@ -10829,13 +10829,13 @@
         <v>0.0</v>
       </c>
       <c r="BU26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV26" t="n">
         <v>0.0</v>
       </c>
       <c r="BW26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX26" t="n">
         <v>0.0</v>
@@ -10844,13 +10844,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA26" t="n">
         <v>0.0</v>
       </c>
       <c r="CB26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC26" t="n">
         <v>0.0</v>
@@ -10868,7 +10868,7 @@
         <v>0.0</v>
       </c>
       <c r="CH26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI26" t="n">
         <v>0.0</v>
@@ -10880,10 +10880,10 @@
         <v>0.0</v>
       </c>
       <c r="CL26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN26" t="n">
         <v>0.0</v>
@@ -10895,16 +10895,16 @@
         <v>0.0</v>
       </c>
       <c r="CQ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS26" t="n">
         <v>0.0</v>
       </c>
       <c r="CT26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU26" t="n">
         <v>0.0</v>
@@ -10919,13 +10919,13 @@
         <v>0.0</v>
       </c>
       <c r="CY26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ26" t="n">
         <v>0.0</v>
       </c>
       <c r="DA26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB26" t="n">
         <v>0.0</v>
@@ -10934,13 +10934,13 @@
         <v>0.0</v>
       </c>
       <c r="DD26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DE26" t="n">
         <v>0.0</v>
       </c>
       <c r="DF26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG26" t="n">
         <v>0.0</v>
@@ -10949,10 +10949,10 @@
         <v>0.0</v>
       </c>
       <c r="DI26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DK26" t="n">
         <v>0.0</v>
@@ -10979,13 +10979,13 @@
         <v>0.0</v>
       </c>
       <c r="DS26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT26" t="n">
         <v>0.0</v>
       </c>
       <c r="DU26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV26" t="n">
         <v>0.0</v>
@@ -10994,22 +10994,22 @@
         <v>0.0</v>
       </c>
       <c r="DX26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY26" t="n">
         <v>0.0</v>
       </c>
       <c r="DZ26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EB26" t="n">
         <v>0.0</v>
       </c>
       <c r="EC26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED26" t="n">
         <v>0.0</v>
@@ -11024,13 +11024,13 @@
         <v>0.0</v>
       </c>
       <c r="EH26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI26" t="n">
         <v>0.0</v>
       </c>
       <c r="EJ26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -11056,10 +11056,10 @@
         <v>0.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" t="n">
         <v>0.0</v>
@@ -11071,10 +11071,10 @@
         <v>0.0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
@@ -11110,13 +11110,13 @@
         <v>1.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA27" t="n">
         <v>0.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
@@ -11131,13 +11131,13 @@
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH27" t="n">
         <v>0.0</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0.0</v>
@@ -11161,22 +11161,22 @@
         <v>0.0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS27" t="n">
         <v>0.0</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU27" t="n">
         <v>0.0</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AW27" t="n">
         <v>0.0</v>
@@ -11194,10 +11194,10 @@
         <v>0.0</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD27" t="n">
         <v>0.0</v>
@@ -11221,13 +11221,13 @@
         <v>0.0</v>
       </c>
       <c r="BK27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL27" t="n">
         <v>0.0</v>
       </c>
       <c r="BM27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN27" t="n">
         <v>0.0</v>
@@ -11236,10 +11236,10 @@
         <v>0.0</v>
       </c>
       <c r="BP27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BR27" t="n">
         <v>0.0</v>
@@ -11251,22 +11251,22 @@
         <v>0.0</v>
       </c>
       <c r="BU27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BW27" t="n">
         <v>0.0</v>
       </c>
       <c r="BX27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY27" t="n">
         <v>0.0</v>
       </c>
       <c r="BZ27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA27" t="n">
         <v>0.0</v>
@@ -11296,13 +11296,13 @@
         <v>0.0</v>
       </c>
       <c r="CJ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CK27" t="n">
         <v>0.0</v>
       </c>
       <c r="CL27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM27" t="n">
         <v>0.0</v>
@@ -11326,10 +11326,10 @@
         <v>0.0</v>
       </c>
       <c r="CT27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV27" t="n">
         <v>0.0</v>
@@ -11341,13 +11341,13 @@
         <v>0.0</v>
       </c>
       <c r="CY27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ27" t="n">
         <v>0.0</v>
       </c>
       <c r="DA27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB27" t="n">
         <v>0.0</v>
@@ -11395,7 +11395,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR27" t="n">
         <v>0.0</v>
@@ -11407,7 +11407,7 @@
         <v>0.0</v>
       </c>
       <c r="DU27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV27" t="n">
         <v>0.0</v>
@@ -11431,10 +11431,10 @@
         <v>0.0</v>
       </c>
       <c r="EC27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="ED27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE27" t="n">
         <v>0.0</v>
@@ -11446,10 +11446,10 @@
         <v>0.0</v>
       </c>
       <c r="EH27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EI27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ27" t="n">
         <v>0.0</v>
@@ -11463,13 +11463,13 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F28" t="n">
         <v>0.0</v>
@@ -11478,10 +11478,10 @@
         <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" t="n">
         <v>0.0</v>
@@ -11511,13 +11511,13 @@
         <v>0.0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V28" t="n">
         <v>0.0</v>
@@ -11526,7 +11526,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y28" t="n">
         <v>0.0</v>
@@ -11541,13 +11541,13 @@
         <v>0.0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF28" t="n">
         <v>0.0</v>
@@ -11559,7 +11559,7 @@
         <v>0.0</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ28" t="n">
         <v>0.0</v>
@@ -11571,13 +11571,13 @@
         <v>0.0</v>
       </c>
       <c r="AM28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP28" t="n">
         <v>0.0</v>
@@ -11586,7 +11586,7 @@
         <v>0.0</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS28" t="n">
         <v>0.0</v>
@@ -11607,7 +11607,7 @@
         <v>0.0</v>
       </c>
       <c r="AY28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ28" t="n">
         <v>0.0</v>
@@ -11616,7 +11616,7 @@
         <v>0.0</v>
       </c>
       <c r="BB28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC28" t="n">
         <v>0.0</v>
@@ -11628,10 +11628,10 @@
         <v>0.0</v>
       </c>
       <c r="BF28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH28" t="n">
         <v>0.0</v>
@@ -11682,7 +11682,7 @@
         <v>1.0</v>
       </c>
       <c r="BX28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY28" t="n">
         <v>0.0</v>
@@ -11691,7 +11691,7 @@
         <v>0.0</v>
       </c>
       <c r="CA28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB28" t="n">
         <v>0.0</v>
@@ -11706,10 +11706,10 @@
         <v>0.0</v>
       </c>
       <c r="CF28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CH28" t="n">
         <v>0.0</v>
@@ -11727,7 +11727,7 @@
         <v>0.0</v>
       </c>
       <c r="CM28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN28" t="n">
         <v>0.0</v>
@@ -11736,7 +11736,7 @@
         <v>0.0</v>
       </c>
       <c r="CP28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ28" t="n">
         <v>0.0</v>
@@ -11748,10 +11748,10 @@
         <v>0.0</v>
       </c>
       <c r="CT28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV28" t="n">
         <v>0.0</v>
@@ -11772,7 +11772,7 @@
         <v>1.0</v>
       </c>
       <c r="DB28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC28" t="n">
         <v>0.0</v>
@@ -11784,10 +11784,10 @@
         <v>0.0</v>
       </c>
       <c r="DF28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DH28" t="n">
         <v>0.0</v>
@@ -11796,7 +11796,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK28" t="n">
         <v>0.0</v>
@@ -11811,10 +11811,10 @@
         <v>0.0</v>
       </c>
       <c r="DO28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DQ28" t="n">
         <v>0.0</v>
@@ -11823,10 +11823,10 @@
         <v>0.0</v>
       </c>
       <c r="DS28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU28" t="n">
         <v>0.0</v>
@@ -11841,10 +11841,10 @@
         <v>0.0</v>
       </c>
       <c r="DY28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA28" t="n">
         <v>0.0</v>
@@ -11853,10 +11853,10 @@
         <v>0.0</v>
       </c>
       <c r="EC28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="ED28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE28" t="n">
         <v>0.0</v>
@@ -11871,15 +11871,15 @@
         <v>0.0</v>
       </c>
       <c r="EI28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EJ28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -11891,7 +11891,7 @@
         <v>0.0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -11903,10 +11903,10 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
@@ -11918,10 +11918,10 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P29" t="n">
         <v>0.0</v>
@@ -11948,13 +11948,13 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA29" t="n">
         <v>0.0</v>
@@ -11963,13 +11963,13 @@
         <v>0.0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD29" t="n">
         <v>0.0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF29" t="n">
         <v>0.0</v>
@@ -11978,7 +11978,7 @@
         <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI29" t="n">
         <v>0.0</v>
@@ -11990,13 +11990,13 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM29" t="n">
         <v>0.0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO29" t="n">
         <v>0.0</v>
@@ -12053,10 +12053,10 @@
         <v>0.0</v>
       </c>
       <c r="BG29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI29" t="n">
         <v>0.0</v>
@@ -12065,10 +12065,10 @@
         <v>0.0</v>
       </c>
       <c r="BK29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM29" t="n">
         <v>0.0</v>
@@ -12080,10 +12080,10 @@
         <v>0.0</v>
       </c>
       <c r="BP29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR29" t="n">
         <v>0.0</v>
@@ -12110,13 +12110,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA29" t="n">
         <v>0.0</v>
       </c>
       <c r="CB29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC29" t="n">
         <v>0.0</v>
@@ -12125,16 +12125,16 @@
         <v>0.0</v>
       </c>
       <c r="CE29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG29" t="n">
         <v>0.0</v>
       </c>
       <c r="CH29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI29" t="n">
         <v>0.0</v>
@@ -12143,7 +12143,7 @@
         <v>0.0</v>
       </c>
       <c r="CK29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL29" t="n">
         <v>0.0</v>
@@ -12164,7 +12164,7 @@
         <v>0.0</v>
       </c>
       <c r="CR29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS29" t="n">
         <v>0.0</v>
@@ -12173,7 +12173,7 @@
         <v>0.0</v>
       </c>
       <c r="CU29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV29" t="n">
         <v>0.0</v>
@@ -12230,16 +12230,16 @@
         <v>0.0</v>
       </c>
       <c r="DN29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DO29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP29" t="n">
         <v>0.0</v>
       </c>
       <c r="DQ29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR29" t="n">
         <v>0.0</v>
@@ -12248,7 +12248,7 @@
         <v>0.0</v>
       </c>
       <c r="DT29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU29" t="n">
         <v>0.0</v>
@@ -12260,10 +12260,10 @@
         <v>0.0</v>
       </c>
       <c r="DX29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DY29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ29" t="n">
         <v>0.0</v>
@@ -12278,10 +12278,10 @@
         <v>0.0</v>
       </c>
       <c r="ED29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF29" t="n">
         <v>0.0</v>
@@ -12290,10 +12290,10 @@
         <v>0.0</v>
       </c>
       <c r="EH29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EI29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ29" t="n">
         <v>0.0</v>
@@ -12322,13 +12322,13 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
@@ -12352,10 +12352,10 @@
         <v>0.0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T30" t="n">
         <v>0.0</v>
@@ -12370,10 +12370,10 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z30" t="n">
         <v>0.0</v>
@@ -12385,10 +12385,10 @@
         <v>0.0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE30" t="n">
         <v>0.0</v>
@@ -12415,13 +12415,13 @@
         <v>0.0</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP30" t="n">
         <v>0.0</v>
@@ -12433,7 +12433,7 @@
         <v>0.0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT30" t="n">
         <v>0.0</v>
@@ -12487,16 +12487,16 @@
         <v>0.0</v>
       </c>
       <c r="BK30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM30" t="n">
         <v>0.0</v>
       </c>
       <c r="BN30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO30" t="n">
         <v>0.0</v>
@@ -12505,13 +12505,13 @@
         <v>0.0</v>
       </c>
       <c r="BQ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR30" t="n">
         <v>0.0</v>
       </c>
       <c r="BS30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BT30" t="n">
         <v>0.0</v>
@@ -12520,7 +12520,7 @@
         <v>0.0</v>
       </c>
       <c r="BV30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BW30" t="n">
         <v>0.0</v>
@@ -12532,13 +12532,13 @@
         <v>0.0</v>
       </c>
       <c r="BZ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CA30" t="n">
         <v>0.0</v>
       </c>
       <c r="CB30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC30" t="n">
         <v>0.0</v>
@@ -12547,16 +12547,16 @@
         <v>0.0</v>
       </c>
       <c r="CE30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF30" t="n">
         <v>0.0</v>
       </c>
       <c r="CG30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CH30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI30" t="n">
         <v>0.0</v>
@@ -12565,13 +12565,13 @@
         <v>0.0</v>
       </c>
       <c r="CK30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL30" t="n">
         <v>0.0</v>
       </c>
       <c r="CM30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CN30" t="n">
         <v>0.0</v>
@@ -12580,7 +12580,7 @@
         <v>0.0</v>
       </c>
       <c r="CP30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CQ30" t="n">
         <v>0.0</v>
@@ -12592,16 +12592,16 @@
         <v>0.0</v>
       </c>
       <c r="CT30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV30" t="n">
         <v>0.0</v>
       </c>
       <c r="CW30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CX30" t="n">
         <v>0.0</v>
@@ -12610,7 +12610,7 @@
         <v>0.0</v>
       </c>
       <c r="CZ30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA30" t="n">
         <v>0.0</v>
@@ -12625,10 +12625,10 @@
         <v>0.0</v>
       </c>
       <c r="DE30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DG30" t="n">
         <v>0.0</v>
@@ -12655,13 +12655,13 @@
         <v>0.0</v>
       </c>
       <c r="DO30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DP30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DQ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR30" t="n">
         <v>0.0</v>
@@ -12670,7 +12670,7 @@
         <v>0.0</v>
       </c>
       <c r="DT30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU30" t="n">
         <v>0.0</v>
@@ -12685,10 +12685,10 @@
         <v>0.0</v>
       </c>
       <c r="DY30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DZ30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EA30" t="n">
         <v>0.0</v>
@@ -12706,7 +12706,7 @@
         <v>0.0</v>
       </c>
       <c r="EF30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EG30" t="n">
         <v>0.0</v>
@@ -12715,7 +12715,7 @@
         <v>0.0</v>
       </c>
       <c r="EI30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ30" t="n">
         <v>0.0</v>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -12732,7 +12732,7 @@
         <v>0.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E31" t="n">
         <v>0.0</v>
@@ -12747,10 +12747,10 @@
         <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
@@ -12762,10 +12762,10 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P31" t="n">
         <v>0.0</v>
@@ -12774,13 +12774,13 @@
         <v>0.0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S31" t="n">
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U31" t="n">
         <v>0.0</v>
@@ -12822,10 +12822,10 @@
         <v>0.0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ31" t="n">
         <v>0.0</v>
@@ -12834,10 +12834,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN31" t="n">
         <v>0.0</v>
@@ -12852,10 +12852,10 @@
         <v>0.0</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT31" t="n">
         <v>0.0</v>
@@ -12864,10 +12864,10 @@
         <v>0.0</v>
       </c>
       <c r="AV31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX31" t="n">
         <v>0.0</v>
@@ -12879,13 +12879,13 @@
         <v>0.0</v>
       </c>
       <c r="BA31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB31" t="n">
         <v>0.0</v>
       </c>
       <c r="BC31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD31" t="n">
         <v>0.0</v>
@@ -12897,13 +12897,13 @@
         <v>0.0</v>
       </c>
       <c r="BG31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ31" t="n">
         <v>0.0</v>
@@ -12912,13 +12912,13 @@
         <v>0.0</v>
       </c>
       <c r="BL31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM31" t="n">
         <v>0.0</v>
       </c>
       <c r="BN31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO31" t="n">
         <v>0.0</v>
@@ -12927,7 +12927,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR31" t="n">
         <v>0.0</v>
@@ -12957,13 +12957,13 @@
         <v>0.0</v>
       </c>
       <c r="CA31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD31" t="n">
         <v>0.0</v>
@@ -12972,7 +12972,7 @@
         <v>0.0</v>
       </c>
       <c r="CF31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG31" t="n">
         <v>0.0</v>
@@ -12987,10 +12987,10 @@
         <v>0.0</v>
       </c>
       <c r="CK31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CL31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CM31" t="n">
         <v>0.0</v>
@@ -13002,13 +13002,13 @@
         <v>0.0</v>
       </c>
       <c r="CP31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CQ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS31" t="n">
         <v>0.0</v>
@@ -13017,7 +13017,7 @@
         <v>0.0</v>
       </c>
       <c r="CU31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CV31" t="n">
         <v>0.0</v>
@@ -13029,16 +13029,16 @@
         <v>0.0</v>
       </c>
       <c r="CY31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CZ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA31" t="n">
         <v>0.0</v>
       </c>
       <c r="DB31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC31" t="n">
         <v>0.0</v>
@@ -13047,7 +13047,7 @@
         <v>0.0</v>
       </c>
       <c r="DE31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF31" t="n">
         <v>0.0</v>
@@ -13059,16 +13059,16 @@
         <v>0.0</v>
       </c>
       <c r="DI31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DK31" t="n">
         <v>0.0</v>
       </c>
       <c r="DL31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM31" t="n">
         <v>0.0</v>
@@ -13077,7 +13077,7 @@
         <v>0.0</v>
       </c>
       <c r="DO31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DP31" t="n">
         <v>0.0</v>
@@ -13089,13 +13089,13 @@
         <v>0.0</v>
       </c>
       <c r="DS31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DT31" t="n">
         <v>0.0</v>
       </c>
       <c r="DU31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DV31" t="n">
         <v>0.0</v>
@@ -13107,10 +13107,10 @@
         <v>0.0</v>
       </c>
       <c r="DY31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DZ31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EA31" t="n">
         <v>0.0</v>
@@ -13122,10 +13122,10 @@
         <v>0.0</v>
       </c>
       <c r="ED31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EE31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EF31" t="n">
         <v>0.0</v>
@@ -13137,10 +13137,10 @@
         <v>0.0</v>
       </c>
       <c r="EI31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -13151,16 +13151,16 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E32" t="n">
         <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
@@ -13169,7 +13169,7 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
@@ -13181,10 +13181,10 @@
         <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O32" t="n">
         <v>0.0</v>
@@ -13214,10 +13214,10 @@
         <v>0.0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z32" t="n">
         <v>0.0</v>
@@ -13229,13 +13229,13 @@
         <v>0.0</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF32" t="n">
         <v>0.0</v>
@@ -13244,13 +13244,13 @@
         <v>0.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI32" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK32" t="n">
         <v>0.0</v>
@@ -13259,7 +13259,7 @@
         <v>0.0</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN32" t="n">
         <v>0.0</v>
@@ -13274,13 +13274,13 @@
         <v>0.0</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU32" t="n">
         <v>0.0</v>
@@ -13289,7 +13289,7 @@
         <v>0.0</v>
       </c>
       <c r="AW32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX32" t="n">
         <v>0.0</v>
@@ -13304,10 +13304,10 @@
         <v>0.0</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD32" t="n">
         <v>0.0</v>
@@ -13316,13 +13316,13 @@
         <v>0.0</v>
       </c>
       <c r="BF32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG32" t="n">
         <v>0.0</v>
       </c>
       <c r="BH32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI32" t="n">
         <v>0.0</v>
@@ -13331,13 +13331,13 @@
         <v>0.0</v>
       </c>
       <c r="BK32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL32" t="n">
         <v>0.0</v>
       </c>
       <c r="BM32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN32" t="n">
         <v>0.0</v>
@@ -13349,10 +13349,10 @@
         <v>0.0</v>
       </c>
       <c r="BQ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BR32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BS32" t="n">
         <v>0.0</v>
@@ -13370,7 +13370,7 @@
         <v>0.0</v>
       </c>
       <c r="BX32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BY32" t="n">
         <v>0.0</v>
@@ -13379,13 +13379,13 @@
         <v>0.0</v>
       </c>
       <c r="CA32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CB32" t="n">
         <v>0.0</v>
       </c>
       <c r="CC32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD32" t="n">
         <v>0.0</v>
@@ -13394,13 +13394,13 @@
         <v>0.0</v>
       </c>
       <c r="CF32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG32" t="n">
         <v>0.0</v>
       </c>
       <c r="CH32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CI32" t="n">
         <v>0.0</v>
@@ -13409,7 +13409,7 @@
         <v>0.0</v>
       </c>
       <c r="CK32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CL32" t="n">
         <v>0.0</v>
@@ -13421,13 +13421,13 @@
         <v>0.0</v>
       </c>
       <c r="CO32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CP32" t="n">
         <v>0.0</v>
       </c>
       <c r="CQ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CR32" t="n">
         <v>0.0</v>
@@ -13454,13 +13454,13 @@
         <v>0.0</v>
       </c>
       <c r="CZ32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DA32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DB32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC32" t="n">
         <v>0.0</v>
@@ -13469,7 +13469,7 @@
         <v>0.0</v>
       </c>
       <c r="DE32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DF32" t="n">
         <v>0.0</v>
@@ -13514,10 +13514,10 @@
         <v>0.0</v>
       </c>
       <c r="DT32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DU32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DV32" t="n">
         <v>0.0</v>
@@ -13544,10 +13544,10 @@
         <v>0.0</v>
       </c>
       <c r="ED32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="EE32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EF32" t="n">
         <v>0.0</v>
@@ -13559,10 +13559,10 @@
         <v>0.0</v>
       </c>
       <c r="EI32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="EJ32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
